--- a/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
+++ b/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECF2D0F-179C-47E6-954E-90F1480144FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4003515C-ADCF-44FC-9702-15645E554CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="434" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
   </bookViews>
@@ -2973,6 +2973,36 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3004,36 +3034,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3409,8 +3409,8 @@
   </sheetPr>
   <dimension ref="A1:AL356"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AI42" sqref="AI42:AJ45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AA124" sqref="AA124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3481,22 +3481,22 @@
       <c r="AK1" s="102"/>
     </row>
     <row r="2" spans="1:37" s="63" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="253" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="254" t="s">
+      <c r="B2" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="242" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="253" t="s">
+      <c r="E2" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="255" t="s">
+      <c r="F2" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="256" t="s">
+      <c r="G2" s="245" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="7"/>
@@ -3510,93 +3510,93 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="248" t="s">
+      <c r="Q2" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="248"/>
-      <c r="S2" s="248"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="236" t="s">
+      <c r="V2" s="246" t="s">
         <v>569</v>
       </c>
-      <c r="W2" s="236"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="244" t="s">
+      <c r="W2" s="246"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="254" t="s">
         <v>561</v>
       </c>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="242" t="s">
+      <c r="Z2" s="254"/>
+      <c r="AA2" s="254"/>
+      <c r="AB2" s="252" t="s">
         <v>555</v>
       </c>
-      <c r="AC2" s="243"/>
-      <c r="AD2" s="243"/>
-      <c r="AE2" s="245" t="s">
+      <c r="AC2" s="253"/>
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="255" t="s">
         <v>570</v>
       </c>
-      <c r="AF2" s="238" t="s">
+      <c r="AF2" s="248" t="s">
         <v>563</v>
       </c>
-      <c r="AG2" s="238"/>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="240" t="s">
+      <c r="AG2" s="248"/>
+      <c r="AH2" s="249"/>
+      <c r="AI2" s="250" t="s">
         <v>566</v>
       </c>
-      <c r="AJ2" s="240"/>
-      <c r="AK2" s="241"/>
+      <c r="AJ2" s="250"/>
+      <c r="AK2" s="251"/>
     </row>
     <row r="3" spans="1:37" s="63" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="249" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="250"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="252" t="s">
+      <c r="I3" s="239"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252" t="s">
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="252"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="248"/>
-      <c r="S3" s="248"/>
+      <c r="O3" s="241"/>
+      <c r="P3" s="241"/>
+      <c r="Q3" s="237"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
       <c r="T3" s="2"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="236"/>
-      <c r="W3" s="236"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="242"/>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="243"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="238"/>
-      <c r="AG3" s="238"/>
-      <c r="AH3" s="239"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="241"/>
+      <c r="V3" s="246"/>
+      <c r="W3" s="246"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="254"/>
+      <c r="Z3" s="254"/>
+      <c r="AA3" s="254"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="253"/>
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="256"/>
+      <c r="AF3" s="248"/>
+      <c r="AG3" s="248"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="250"/>
+      <c r="AJ3" s="250"/>
+      <c r="AK3" s="251"/>
     </row>
     <row r="4" spans="1:37" s="63" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="256"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3818,7 +3818,7 @@
       <c r="AJ7" s="216"/>
       <c r="AK7" s="216"/>
     </row>
-    <row r="8" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
         <v>555</v>
       </c>
@@ -3914,7 +3914,7 @@
       <c r="AJ8" s="216"/>
       <c r="AK8" s="216"/>
     </row>
-    <row r="9" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80" t="s">
         <v>555</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="AJ9" s="216"/>
       <c r="AK9" s="216"/>
     </row>
-    <row r="10" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
         <v>555</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="AJ10" s="216"/>
       <c r="AK10" s="216"/>
     </row>
-    <row r="11" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
         <v>555</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="AJ11" s="216"/>
       <c r="AK11" s="216"/>
     </row>
-    <row r="12" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>562</v>
       </c>
@@ -4275,9 +4275,16 @@
       <c r="V12" s="114"/>
       <c r="W12" s="114"/>
       <c r="X12" s="114"/>
-      <c r="Y12" s="201"/>
-      <c r="Z12" s="206"/>
-      <c r="AA12" s="206"/>
+      <c r="Y12" s="201">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="206">
+        <v>3950.21</v>
+      </c>
+      <c r="AA12" s="206">
+        <f>Y12*Z12</f>
+        <v>3950.21</v>
+      </c>
       <c r="AB12" s="210">
         <v>1</v>
       </c>
@@ -4394,7 +4401,7 @@
       <c r="AJ14" s="216"/>
       <c r="AK14" s="216"/>
     </row>
-    <row r="15" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="80" t="s">
         <v>567</v>
       </c>
@@ -4490,7 +4497,7 @@
       <c r="AJ15" s="216"/>
       <c r="AK15" s="216"/>
     </row>
-    <row r="16" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="80" t="s">
         <v>567</v>
       </c>
@@ -4634,7 +4641,7 @@
       <c r="AJ17" s="216"/>
       <c r="AK17" s="216"/>
     </row>
-    <row r="18" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="80" t="s">
         <v>573</v>
       </c>
@@ -4721,7 +4728,7 @@
       <c r="AJ18" s="216"/>
       <c r="AK18" s="216"/>
     </row>
-    <row r="19" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="80" t="s">
         <v>573</v>
       </c>
@@ -4808,7 +4815,7 @@
       <c r="AJ19" s="216"/>
       <c r="AK19" s="216"/>
     </row>
-    <row r="20" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="80" t="s">
         <v>573</v>
       </c>
@@ -5870,7 +5877,7 @@
       <c r="AJ33" s="216"/>
       <c r="AK33" s="216"/>
     </row>
-    <row r="34" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="80" t="s">
         <v>573</v>
       </c>
@@ -5957,7 +5964,7 @@
       <c r="AJ34" s="216"/>
       <c r="AK34" s="216"/>
     </row>
-    <row r="35" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="80" t="s">
         <v>573</v>
       </c>
@@ -6044,7 +6051,7 @@
       <c r="AJ35" s="216"/>
       <c r="AK35" s="216"/>
     </row>
-    <row r="36" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="80" t="s">
         <v>573</v>
       </c>
@@ -6131,7 +6138,7 @@
       <c r="AJ36" s="216"/>
       <c r="AK36" s="216"/>
     </row>
-    <row r="37" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="80" t="s">
         <v>573</v>
       </c>
@@ -6266,7 +6273,7 @@
       <c r="AJ38" s="216"/>
       <c r="AK38" s="216"/>
     </row>
-    <row r="39" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="80" t="s">
         <v>555</v>
       </c>
@@ -6353,7 +6360,7 @@
       <c r="AJ39" s="216"/>
       <c r="AK39" s="216"/>
     </row>
-    <row r="40" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="80" t="s">
         <v>573</v>
       </c>
@@ -6443,7 +6450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="80" t="s">
         <v>574</v>
       </c>
@@ -6721,7 +6728,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="80" t="s">
         <v>573</v>
       </c>
@@ -6905,7 +6912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="80" t="s">
         <v>562</v>
       </c>
@@ -6999,7 +7006,7 @@
       <c r="AJ46" s="216"/>
       <c r="AK46" s="216"/>
     </row>
-    <row r="47" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="80" t="s">
         <v>562</v>
       </c>
@@ -7350,7 +7357,7 @@
       <c r="AJ52" s="216"/>
       <c r="AK52" s="216"/>
     </row>
-    <row r="53" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="80" t="s">
         <v>562</v>
       </c>
@@ -7540,7 +7547,7 @@
       <c r="AJ55" s="216"/>
       <c r="AK55" s="216"/>
     </row>
-    <row r="56" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="80" t="s">
         <v>567</v>
       </c>
@@ -7684,7 +7691,7 @@
       <c r="AJ57" s="216"/>
       <c r="AK57" s="216"/>
     </row>
-    <row r="58" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="80" t="s">
         <v>573</v>
       </c>
@@ -7771,7 +7778,7 @@
       <c r="AJ58" s="216"/>
       <c r="AK58" s="216"/>
     </row>
-    <row r="59" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="80" t="s">
         <v>573</v>
       </c>
@@ -7858,7 +7865,7 @@
       <c r="AJ59" s="216"/>
       <c r="AK59" s="216"/>
     </row>
-    <row r="60" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="80" t="s">
         <v>573</v>
       </c>
@@ -8872,7 +8879,7 @@
       <c r="AJ72" s="216"/>
       <c r="AK72" s="216"/>
     </row>
-    <row r="73" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="80" t="s">
         <v>573</v>
       </c>
@@ -9007,7 +9014,7 @@
       <c r="AJ74" s="216"/>
       <c r="AK74" s="216"/>
     </row>
-    <row r="75" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="80" t="s">
         <v>573</v>
       </c>
@@ -9094,7 +9101,7 @@
       <c r="AJ75" s="216"/>
       <c r="AK75" s="216"/>
     </row>
-    <row r="76" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="80" t="s">
         <v>573</v>
       </c>
@@ -9181,7 +9188,7 @@
       <c r="AJ76" s="216"/>
       <c r="AK76" s="216"/>
     </row>
-    <row r="77" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="80" t="s">
         <v>573</v>
       </c>
@@ -9268,7 +9275,7 @@
       <c r="AJ77" s="216"/>
       <c r="AK77" s="216"/>
     </row>
-    <row r="78" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="80" t="s">
         <v>573</v>
       </c>
@@ -9355,7 +9362,7 @@
       <c r="AJ78" s="216"/>
       <c r="AK78" s="216"/>
     </row>
-    <row r="79" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="80" t="s">
         <v>573</v>
       </c>
@@ -9500,16 +9507,16 @@
       <c r="C81" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="24">
+      <c r="E81" s="83">
         <v>2</v>
       </c>
-      <c r="F81" s="25">
+      <c r="F81" s="84">
         <v>34.22</v>
       </c>
-      <c r="G81" s="53">
+      <c r="G81" s="85">
         <f t="shared" si="11"/>
         <v>68.44</v>
       </c>
@@ -9625,7 +9632,7 @@
       <c r="AJ82" s="216"/>
       <c r="AK82" s="216"/>
     </row>
-    <row r="83" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="80" t="s">
         <v>573</v>
       </c>
@@ -9808,7 +9815,7 @@
       <c r="AJ85" s="216"/>
       <c r="AK85" s="216"/>
     </row>
-    <row r="86" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="80" t="s">
         <v>567</v>
       </c>
@@ -9903,7 +9910,7 @@
       <c r="AJ86" s="216"/>
       <c r="AK86" s="216"/>
     </row>
-    <row r="87" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="80" t="s">
         <v>567</v>
       </c>
@@ -10046,7 +10053,7 @@
       <c r="AJ88" s="216"/>
       <c r="AK88" s="216"/>
     </row>
-    <row r="89" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="80" t="s">
         <v>573</v>
       </c>
@@ -10133,7 +10140,7 @@
       <c r="AJ89" s="216"/>
       <c r="AK89" s="216"/>
     </row>
-    <row r="90" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="80" t="s">
         <v>573</v>
       </c>
@@ -10220,7 +10227,7 @@
       <c r="AJ90" s="216"/>
       <c r="AK90" s="216"/>
     </row>
-    <row r="91" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="80" t="s">
         <v>573</v>
       </c>
@@ -10307,7 +10314,7 @@
       <c r="AJ91" s="216"/>
       <c r="AK91" s="216"/>
     </row>
-    <row r="92" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="80" t="s">
         <v>573</v>
       </c>
@@ -10394,7 +10401,7 @@
       <c r="AJ92" s="216"/>
       <c r="AK92" s="216"/>
     </row>
-    <row r="93" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="80" t="s">
         <v>573</v>
       </c>
@@ -11636,7 +11643,7 @@
       <c r="AJ108" s="216"/>
       <c r="AK108" s="216"/>
     </row>
-    <row r="109" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="80" t="s">
         <v>573</v>
       </c>
@@ -11771,7 +11778,7 @@
       <c r="AJ110" s="216"/>
       <c r="AK110" s="216"/>
     </row>
-    <row r="111" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="80" t="s">
         <v>573</v>
       </c>
@@ -11906,7 +11913,7 @@
       <c r="AJ112" s="216"/>
       <c r="AK112" s="216"/>
     </row>
-    <row r="113" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="80" t="s">
         <v>573</v>
       </c>
@@ -11993,7 +12000,7 @@
       <c r="AJ113" s="216"/>
       <c r="AK113" s="216"/>
     </row>
-    <row r="114" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="80" t="s">
         <v>573</v>
       </c>
@@ -12080,7 +12087,7 @@
       <c r="AJ114" s="216"/>
       <c r="AK114" s="216"/>
     </row>
-    <row r="115" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="80" t="s">
         <v>573</v>
       </c>
@@ -12167,7 +12174,7 @@
       <c r="AJ115" s="216"/>
       <c r="AK115" s="216"/>
     </row>
-    <row r="116" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="80" t="s">
         <v>573</v>
       </c>
@@ -12254,7 +12261,7 @@
       <c r="AJ116" s="216"/>
       <c r="AK116" s="216"/>
     </row>
-    <row r="117" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="80" t="s">
         <v>573</v>
       </c>
@@ -12341,7 +12348,7 @@
       <c r="AJ117" s="216"/>
       <c r="AK117" s="216"/>
     </row>
-    <row r="118" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="80" t="s">
         <v>573</v>
       </c>
@@ -12428,7 +12435,7 @@
       <c r="AJ118" s="216"/>
       <c r="AK118" s="216"/>
     </row>
-    <row r="119" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="80" t="s">
         <v>573</v>
       </c>
@@ -12515,7 +12522,7 @@
       <c r="AJ119" s="216"/>
       <c r="AK119" s="216"/>
     </row>
-    <row r="120" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="80" t="s">
         <v>573</v>
       </c>
@@ -12650,9 +12657,9 @@
       <c r="AJ121" s="216"/>
       <c r="AK121" s="216"/>
     </row>
-    <row r="122" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="80" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B122" s="81" t="s">
         <v>215</v>
@@ -12723,9 +12730,16 @@
       <c r="V122" s="114"/>
       <c r="W122" s="114"/>
       <c r="X122" s="114"/>
-      <c r="Y122" s="201"/>
-      <c r="Z122" s="206"/>
-      <c r="AA122" s="206"/>
+      <c r="Y122" s="201">
+        <v>209</v>
+      </c>
+      <c r="Z122" s="206">
+        <v>84.75</v>
+      </c>
+      <c r="AA122" s="206">
+        <f>Y122*Z122</f>
+        <v>17712.75</v>
+      </c>
       <c r="AB122" s="210"/>
       <c r="AC122" s="211"/>
       <c r="AD122" s="211"/>
@@ -12785,7 +12799,7 @@
       <c r="AJ123" s="216"/>
       <c r="AK123" s="216"/>
     </row>
-    <row r="124" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="80" t="s">
         <v>567</v>
       </c>
@@ -12881,7 +12895,7 @@
       <c r="AJ124" s="216"/>
       <c r="AK124" s="216"/>
     </row>
-    <row r="125" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="80" t="s">
         <v>567</v>
       </c>
@@ -13025,7 +13039,7 @@
       <c r="AJ126" s="216"/>
       <c r="AK126" s="216"/>
     </row>
-    <row r="127" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="80" t="s">
         <v>573</v>
       </c>
@@ -13112,7 +13126,7 @@
       <c r="AJ127" s="216"/>
       <c r="AK127" s="216"/>
     </row>
-    <row r="128" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="80" t="s">
         <v>567</v>
       </c>
@@ -13207,7 +13221,7 @@
       <c r="AJ128" s="216"/>
       <c r="AK128" s="216"/>
     </row>
-    <row r="129" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="80" t="s">
         <v>567</v>
       </c>
@@ -13302,7 +13316,7 @@
       <c r="AJ129" s="216"/>
       <c r="AK129" s="216"/>
     </row>
-    <row r="130" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="80" t="s">
         <v>567</v>
       </c>
@@ -13397,7 +13411,7 @@
       <c r="AJ130" s="216"/>
       <c r="AK130" s="216"/>
     </row>
-    <row r="131" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="80" t="s">
         <v>573</v>
       </c>
@@ -13484,7 +13498,7 @@
       <c r="AJ131" s="216"/>
       <c r="AK131" s="216"/>
     </row>
-    <row r="132" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="80" t="s">
         <v>555</v>
       </c>
@@ -13571,7 +13585,7 @@
       <c r="AJ132" s="216"/>
       <c r="AK132" s="216"/>
     </row>
-    <row r="133" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="80" t="s">
         <v>562</v>
       </c>
@@ -13857,7 +13871,7 @@
       <c r="AJ137" s="216"/>
       <c r="AK137" s="216"/>
     </row>
-    <row r="138" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="80" t="s">
         <v>573</v>
       </c>
@@ -13947,7 +13961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="80" t="s">
         <v>573</v>
       </c>
@@ -14085,7 +14099,7 @@
       <c r="AJ140" s="216"/>
       <c r="AK140" s="216"/>
     </row>
-    <row r="141" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="80" t="s">
         <v>573</v>
       </c>
@@ -14223,7 +14237,7 @@
       <c r="AJ142" s="216"/>
       <c r="AK142" s="216"/>
     </row>
-    <row r="143" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="80" t="s">
         <v>567</v>
       </c>
@@ -14319,7 +14333,7 @@
       <c r="AJ143" s="216"/>
       <c r="AK143" s="216"/>
     </row>
-    <row r="144" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="80" t="s">
         <v>567</v>
       </c>
@@ -14415,7 +14429,7 @@
       <c r="AJ144" s="216"/>
       <c r="AK144" s="216"/>
     </row>
-    <row r="145" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="80" t="s">
         <v>567</v>
       </c>
@@ -14511,7 +14525,7 @@
       <c r="AJ145" s="216"/>
       <c r="AK145" s="216"/>
     </row>
-    <row r="146" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="80" t="s">
         <v>573</v>
       </c>
@@ -14598,7 +14612,7 @@
       <c r="AJ146" s="216"/>
       <c r="AK146" s="216"/>
     </row>
-    <row r="147" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="80" t="s">
         <v>573</v>
       </c>
@@ -14685,7 +14699,7 @@
       <c r="AJ147" s="216"/>
       <c r="AK147" s="216"/>
     </row>
-    <row r="148" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="80" t="s">
         <v>573</v>
       </c>
@@ -14868,7 +14882,7 @@
       <c r="AJ150" s="216"/>
       <c r="AK150" s="216"/>
     </row>
-    <row r="151" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="80" t="s">
         <v>573</v>
       </c>
@@ -14955,7 +14969,7 @@
       <c r="AJ151" s="216"/>
       <c r="AK151" s="216"/>
     </row>
-    <row r="152" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="80" t="s">
         <v>567</v>
       </c>
@@ -15099,7 +15113,7 @@
       <c r="AJ153" s="216"/>
       <c r="AK153" s="216"/>
     </row>
-    <row r="154" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="80" t="s">
         <v>573</v>
       </c>
@@ -15273,7 +15287,7 @@
       <c r="AJ155" s="216"/>
       <c r="AK155" s="216"/>
     </row>
-    <row r="156" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="80" t="s">
         <v>573</v>
       </c>
@@ -15360,7 +15374,7 @@
       <c r="AJ156" s="216"/>
       <c r="AK156" s="216"/>
     </row>
-    <row r="157" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="80" t="s">
         <v>573</v>
       </c>
@@ -15447,7 +15461,7 @@
       <c r="AJ157" s="216"/>
       <c r="AK157" s="216"/>
     </row>
-    <row r="158" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="80" t="s">
         <v>573</v>
       </c>
@@ -15621,7 +15635,7 @@
       <c r="AJ159" s="216"/>
       <c r="AK159" s="216"/>
     </row>
-    <row r="160" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="80" t="s">
         <v>573</v>
       </c>
@@ -15795,7 +15809,7 @@
       <c r="AJ161" s="216"/>
       <c r="AK161" s="216"/>
     </row>
-    <row r="162" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="80" t="s">
         <v>573</v>
       </c>
@@ -15969,7 +15983,7 @@
       <c r="AJ163" s="216"/>
       <c r="AK163" s="216"/>
     </row>
-    <row r="164" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="80" t="s">
         <v>573</v>
       </c>
@@ -16713,7 +16727,7 @@
       <c r="AJ172" s="216"/>
       <c r="AK172" s="216"/>
     </row>
-    <row r="173" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="80" t="s">
         <v>573</v>
       </c>
@@ -16848,7 +16862,7 @@
       <c r="AJ174" s="216"/>
       <c r="AK174" s="216"/>
     </row>
-    <row r="175" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="80" t="s">
         <v>573</v>
       </c>
@@ -16935,7 +16949,7 @@
       <c r="AJ175" s="216"/>
       <c r="AK175" s="216"/>
     </row>
-    <row r="176" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="80" t="s">
         <v>573</v>
       </c>
@@ -17022,7 +17036,7 @@
       <c r="AJ176" s="216"/>
       <c r="AK176" s="216"/>
     </row>
-    <row r="177" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="80" t="s">
         <v>573</v>
       </c>
@@ -17640,7 +17654,7 @@
       <c r="AJ184" s="216"/>
       <c r="AK184" s="216"/>
     </row>
-    <row r="185" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="80" t="s">
         <v>573</v>
       </c>
@@ -17730,7 +17744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="80" t="s">
         <v>573</v>
       </c>
@@ -17868,7 +17882,7 @@
       <c r="AJ187" s="216"/>
       <c r="AK187" s="216"/>
     </row>
-    <row r="188" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="80" t="s">
         <v>567</v>
       </c>
@@ -17964,7 +17978,7 @@
       <c r="AJ188" s="216"/>
       <c r="AK188" s="216"/>
     </row>
-    <row r="189" spans="1:38" s="80" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="80" t="s">
         <v>567</v>
       </c>
@@ -18108,7 +18122,7 @@
       <c r="AJ190" s="216"/>
       <c r="AK190" s="216"/>
     </row>
-    <row r="191" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="80" t="s">
         <v>573</v>
       </c>
@@ -18195,7 +18209,7 @@
       <c r="AJ191" s="216"/>
       <c r="AK191" s="216"/>
     </row>
-    <row r="192" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="80" t="s">
         <v>573</v>
       </c>
@@ -18282,7 +18296,7 @@
       <c r="AJ192" s="216"/>
       <c r="AK192" s="216"/>
     </row>
-    <row r="193" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="80" t="s">
         <v>573</v>
       </c>
@@ -18804,7 +18818,7 @@
       <c r="AJ198" s="216"/>
       <c r="AK198" s="216"/>
     </row>
-    <row r="199" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="80" t="s">
         <v>573</v>
       </c>
@@ -18978,7 +18992,7 @@
       <c r="AJ200" s="216"/>
       <c r="AK200" s="216"/>
     </row>
-    <row r="201" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="80" t="s">
         <v>573</v>
       </c>
@@ -19065,7 +19079,7 @@
       <c r="AJ201" s="216"/>
       <c r="AK201" s="216"/>
     </row>
-    <row r="202" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="80" t="s">
         <v>573</v>
       </c>
@@ -19200,7 +19214,7 @@
       <c r="AJ203" s="216"/>
       <c r="AK203" s="216"/>
     </row>
-    <row r="204" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="80" t="s">
         <v>573</v>
       </c>
@@ -19287,7 +19301,7 @@
       <c r="AJ204" s="216"/>
       <c r="AK204" s="216"/>
     </row>
-    <row r="205" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="80" t="s">
         <v>573</v>
       </c>
@@ -19377,7 +19391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="80" t="s">
         <v>573</v>
       </c>
@@ -19464,7 +19478,7 @@
       <c r="AJ206" s="216"/>
       <c r="AK206" s="216"/>
     </row>
-    <row r="207" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="80" t="s">
         <v>573</v>
       </c>
@@ -19551,7 +19565,7 @@
       <c r="AJ207" s="216"/>
       <c r="AK207" s="216"/>
     </row>
-    <row r="208" spans="1:38" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:38" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="80" t="s">
         <v>573</v>
       </c>
@@ -19734,7 +19748,7 @@
       <c r="AJ210" s="216"/>
       <c r="AK210" s="216"/>
     </row>
-    <row r="211" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="80" t="s">
         <v>571</v>
       </c>
@@ -19821,7 +19835,7 @@
       <c r="AJ211" s="216"/>
       <c r="AK211" s="216"/>
     </row>
-    <row r="212" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="80" t="s">
         <v>571</v>
       </c>
@@ -19908,7 +19922,7 @@
       <c r="AJ212" s="216"/>
       <c r="AK212" s="216"/>
     </row>
-    <row r="213" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="80" t="s">
         <v>571</v>
       </c>
@@ -19995,7 +20009,7 @@
       <c r="AJ213" s="216"/>
       <c r="AK213" s="216"/>
     </row>
-    <row r="214" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="80" t="s">
         <v>571</v>
       </c>
@@ -20082,7 +20096,7 @@
       <c r="AJ214" s="216"/>
       <c r="AK214" s="216"/>
     </row>
-    <row r="215" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="80" t="s">
         <v>571</v>
       </c>
@@ -20169,7 +20183,7 @@
       <c r="AJ215" s="216"/>
       <c r="AK215" s="216"/>
     </row>
-    <row r="216" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="80" t="s">
         <v>571</v>
       </c>
@@ -20256,7 +20270,7 @@
       <c r="AJ216" s="216"/>
       <c r="AK216" s="216"/>
     </row>
-    <row r="217" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="80" t="s">
         <v>571</v>
       </c>
@@ -20343,7 +20357,7 @@
       <c r="AJ217" s="216"/>
       <c r="AK217" s="216"/>
     </row>
-    <row r="218" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="80" t="s">
         <v>571</v>
       </c>
@@ -20430,7 +20444,7 @@
       <c r="AJ218" s="216"/>
       <c r="AK218" s="216"/>
     </row>
-    <row r="219" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="80" t="s">
         <v>571</v>
       </c>
@@ -20517,7 +20531,7 @@
       <c r="AJ219" s="216"/>
       <c r="AK219" s="216"/>
     </row>
-    <row r="220" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="80" t="s">
         <v>571</v>
       </c>
@@ -20652,7 +20666,7 @@
       <c r="AJ221" s="216"/>
       <c r="AK221" s="216"/>
     </row>
-    <row r="222" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="80" t="s">
         <v>571</v>
       </c>
@@ -20739,7 +20753,7 @@
       <c r="AJ222" s="216"/>
       <c r="AK222" s="216"/>
     </row>
-    <row r="223" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="80" t="s">
         <v>571</v>
       </c>
@@ -20826,7 +20840,7 @@
       <c r="AJ223" s="216"/>
       <c r="AK223" s="216"/>
     </row>
-    <row r="224" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="80" t="s">
         <v>571</v>
       </c>
@@ -20913,7 +20927,7 @@
       <c r="AJ224" s="216"/>
       <c r="AK224" s="216"/>
     </row>
-    <row r="225" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="80" t="s">
         <v>571</v>
       </c>
@@ -21000,7 +21014,7 @@
       <c r="AJ225" s="216"/>
       <c r="AK225" s="216"/>
     </row>
-    <row r="226" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="80" t="s">
         <v>571</v>
       </c>
@@ -21087,7 +21101,7 @@
       <c r="AJ226" s="216"/>
       <c r="AK226" s="216"/>
     </row>
-    <row r="227" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="80" t="s">
         <v>571</v>
       </c>
@@ -21174,7 +21188,7 @@
       <c r="AJ227" s="216"/>
       <c r="AK227" s="216"/>
     </row>
-    <row r="228" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="80" t="s">
         <v>571</v>
       </c>
@@ -21261,7 +21275,7 @@
       <c r="AJ228" s="216"/>
       <c r="AK228" s="216"/>
     </row>
-    <row r="229" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="80" t="s">
         <v>571</v>
       </c>
@@ -21348,7 +21362,7 @@
       <c r="AJ229" s="216"/>
       <c r="AK229" s="216"/>
     </row>
-    <row r="230" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="80" t="s">
         <v>571</v>
       </c>
@@ -21435,7 +21449,7 @@
       <c r="AJ230" s="216"/>
       <c r="AK230" s="216"/>
     </row>
-    <row r="231" spans="1:37" s="80" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:37" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="80" t="s">
         <v>571</v>
       </c>
@@ -22045,7 +22059,7 @@
       <c r="AJ238" s="217"/>
       <c r="AK238" s="217"/>
     </row>
-    <row r="239" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="65" t="s">
         <v>573</v>
       </c>
@@ -22130,7 +22144,7 @@
       <c r="AJ239" s="217"/>
       <c r="AK239" s="217"/>
     </row>
-    <row r="240" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="65" t="s">
         <v>573</v>
       </c>
@@ -22358,7 +22372,7 @@
       <c r="AJ242" s="217"/>
       <c r="AK242" s="217"/>
     </row>
-    <row r="243" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="65" t="s">
         <v>573</v>
       </c>
@@ -22443,7 +22457,7 @@
       <c r="AJ243" s="217"/>
       <c r="AK243" s="217"/>
     </row>
-    <row r="244" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="65" t="s">
         <v>573</v>
       </c>
@@ -23014,7 +23028,7 @@
       <c r="AJ252" s="217"/>
       <c r="AK252" s="217"/>
     </row>
-    <row r="253" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="65" t="s">
         <v>573</v>
       </c>
@@ -23101,7 +23115,7 @@
       <c r="AJ253" s="217"/>
       <c r="AK253" s="217"/>
     </row>
-    <row r="254" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="65" t="s">
         <v>573</v>
       </c>
@@ -23188,7 +23202,7 @@
       <c r="AJ254" s="217"/>
       <c r="AK254" s="217"/>
     </row>
-    <row r="255" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="65" t="s">
         <v>573</v>
       </c>
@@ -23761,7 +23775,7 @@
       <c r="AJ263" s="217"/>
       <c r="AK263" s="217"/>
     </row>
-    <row r="264" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="80" t="s">
         <v>571</v>
       </c>
@@ -23841,15 +23855,15 @@
         <v>2</v>
       </c>
       <c r="AC264" s="211">
-        <v>146858.42000000001</v>
+        <v>125000</v>
       </c>
       <c r="AD264" s="211">
         <f>AB264*AC264</f>
-        <v>293716.84000000003</v>
+        <v>250000</v>
       </c>
       <c r="AE264" s="211">
         <f>AD264-G264</f>
-        <v>-163743.15999999997</v>
+        <v>-207460</v>
       </c>
       <c r="AF264" s="159"/>
       <c r="AG264" s="159"/>
@@ -23858,7 +23872,7 @@
       <c r="AJ264" s="217"/>
       <c r="AK264" s="217"/>
     </row>
-    <row r="265" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="173" t="s">
         <v>562</v>
       </c>
@@ -23997,7 +24011,7 @@
       <c r="AJ266" s="217"/>
       <c r="AK266" s="217"/>
     </row>
-    <row r="267" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="65" t="s">
         <v>573</v>
       </c>
@@ -24084,7 +24098,7 @@
       <c r="AJ267" s="217"/>
       <c r="AK267" s="217"/>
     </row>
-    <row r="268" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="173" t="s">
         <v>574</v>
       </c>
@@ -24171,7 +24185,7 @@
       <c r="AJ268" s="217"/>
       <c r="AK268" s="217"/>
     </row>
-    <row r="269" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="65" t="s">
         <v>573</v>
       </c>
@@ -24258,7 +24272,7 @@
       <c r="AJ269" s="217"/>
       <c r="AK269" s="217"/>
     </row>
-    <row r="270" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="65" t="s">
         <v>573</v>
       </c>
@@ -24534,7 +24548,7 @@
       <c r="AJ273" s="217"/>
       <c r="AK273" s="217"/>
     </row>
-    <row r="274" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="173" t="s">
         <v>563</v>
       </c>
@@ -24648,7 +24662,7 @@
       <c r="AJ275" s="217"/>
       <c r="AK275" s="217"/>
     </row>
-    <row r="276" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="65" t="s">
         <v>573</v>
       </c>
@@ -24780,7 +24794,7 @@
       <c r="AJ277" s="217"/>
       <c r="AK277" s="217"/>
     </row>
-    <row r="278" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="173" t="s">
         <v>562</v>
       </c>
@@ -24874,7 +24888,7 @@
       <c r="AJ278" s="217"/>
       <c r="AK278" s="217"/>
     </row>
-    <row r="279" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="173" t="s">
         <v>562</v>
       </c>
@@ -24968,7 +24982,7 @@
       <c r="AJ279" s="217"/>
       <c r="AK279" s="217"/>
     </row>
-    <row r="280" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="173" t="s">
         <v>562</v>
       </c>
@@ -25292,7 +25306,7 @@
       <c r="AJ284" s="217"/>
       <c r="AK284" s="217"/>
     </row>
-    <row r="285" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="80" t="s">
         <v>555</v>
       </c>
@@ -25389,7 +25403,7 @@
       <c r="AJ285" s="217"/>
       <c r="AK285" s="217"/>
     </row>
-    <row r="286" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="80" t="s">
         <v>555</v>
       </c>
@@ -25924,7 +25938,7 @@
       <c r="AJ292" s="217"/>
       <c r="AK292" s="217"/>
     </row>
-    <row r="293" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="65" t="s">
         <v>573</v>
       </c>
@@ -26011,7 +26025,7 @@
       <c r="AJ293" s="217"/>
       <c r="AK293" s="217"/>
     </row>
-    <row r="294" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="65" t="s">
         <v>573</v>
       </c>
@@ -26098,7 +26112,7 @@
       <c r="AJ294" s="217"/>
       <c r="AK294" s="217"/>
     </row>
-    <row r="295" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="65" t="s">
         <v>573</v>
       </c>
@@ -26185,7 +26199,7 @@
       <c r="AJ295" s="217"/>
       <c r="AK295" s="217"/>
     </row>
-    <row r="296" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="65" t="s">
         <v>573</v>
       </c>
@@ -26272,7 +26286,7 @@
       <c r="AJ296" s="217"/>
       <c r="AK296" s="217"/>
     </row>
-    <row r="297" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="65" t="s">
         <v>573</v>
       </c>
@@ -26359,7 +26373,7 @@
       <c r="AJ297" s="217"/>
       <c r="AK297" s="217"/>
     </row>
-    <row r="298" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="65" t="s">
         <v>573</v>
       </c>
@@ -26446,7 +26460,7 @@
       <c r="AJ298" s="217"/>
       <c r="AK298" s="217"/>
     </row>
-    <row r="299" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="65" t="s">
         <v>573</v>
       </c>
@@ -26533,7 +26547,7 @@
       <c r="AJ299" s="217"/>
       <c r="AK299" s="217"/>
     </row>
-    <row r="300" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="65" t="s">
         <v>573</v>
       </c>
@@ -26620,7 +26634,7 @@
       <c r="AJ300" s="217"/>
       <c r="AK300" s="217"/>
     </row>
-    <row r="301" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="65" t="s">
         <v>573</v>
       </c>
@@ -26707,7 +26721,7 @@
       <c r="AJ301" s="217"/>
       <c r="AK301" s="217"/>
     </row>
-    <row r="302" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="65" t="s">
         <v>573</v>
       </c>
@@ -26794,7 +26808,7 @@
       <c r="AJ302" s="217"/>
       <c r="AK302" s="217"/>
     </row>
-    <row r="303" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="65" t="s">
         <v>573</v>
       </c>
@@ -26926,7 +26940,7 @@
       <c r="AJ304" s="217"/>
       <c r="AK304" s="217"/>
     </row>
-    <row r="305" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="65" t="s">
         <v>573</v>
       </c>
@@ -27013,7 +27027,7 @@
       <c r="AJ305" s="217"/>
       <c r="AK305" s="217"/>
     </row>
-    <row r="306" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="65" t="s">
         <v>573</v>
       </c>
@@ -27100,7 +27114,7 @@
       <c r="AJ306" s="217"/>
       <c r="AK306" s="217"/>
     </row>
-    <row r="307" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="65" t="s">
         <v>573</v>
       </c>
@@ -27187,7 +27201,7 @@
       <c r="AJ307" s="217"/>
       <c r="AK307" s="217"/>
     </row>
-    <row r="308" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="65" t="s">
         <v>573</v>
       </c>
@@ -27274,7 +27288,7 @@
       <c r="AJ308" s="217"/>
       <c r="AK308" s="217"/>
     </row>
-    <row r="309" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="65" t="s">
         <v>573</v>
       </c>
@@ -27361,7 +27375,7 @@
       <c r="AJ309" s="217"/>
       <c r="AK309" s="217"/>
     </row>
-    <row r="310" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="65" t="s">
         <v>573</v>
       </c>
@@ -27448,7 +27462,7 @@
       <c r="AJ310" s="217"/>
       <c r="AK310" s="217"/>
     </row>
-    <row r="311" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="65" t="s">
         <v>573</v>
       </c>
@@ -27535,7 +27549,7 @@
       <c r="AJ311" s="217"/>
       <c r="AK311" s="217"/>
     </row>
-    <row r="312" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="65" t="s">
         <v>573</v>
       </c>
@@ -27622,7 +27636,7 @@
       <c r="AJ312" s="217"/>
       <c r="AK312" s="217"/>
     </row>
-    <row r="313" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="65" t="s">
         <v>573</v>
       </c>
@@ -27709,7 +27723,7 @@
       <c r="AJ313" s="217"/>
       <c r="AK313" s="217"/>
     </row>
-    <row r="314" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="65" t="s">
         <v>573</v>
       </c>
@@ -27796,7 +27810,7 @@
       <c r="AJ314" s="217"/>
       <c r="AK314" s="217"/>
     </row>
-    <row r="315" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="65" t="s">
         <v>573</v>
       </c>
@@ -27883,7 +27897,7 @@
       <c r="AJ315" s="217"/>
       <c r="AK315" s="217"/>
     </row>
-    <row r="316" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="65" t="s">
         <v>573</v>
       </c>
@@ -27970,7 +27984,7 @@
       <c r="AJ316" s="217"/>
       <c r="AK316" s="217"/>
     </row>
-    <row r="317" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="65" t="s">
         <v>573</v>
       </c>
@@ -28057,7 +28071,7 @@
       <c r="AJ317" s="217"/>
       <c r="AK317" s="217"/>
     </row>
-    <row r="318" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="65" t="s">
         <v>573</v>
       </c>
@@ -28144,7 +28158,7 @@
       <c r="AJ318" s="217"/>
       <c r="AK318" s="217"/>
     </row>
-    <row r="319" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="65" t="s">
         <v>573</v>
       </c>
@@ -28295,7 +28309,7 @@
       <c r="AJ320" s="217"/>
       <c r="AK320" s="217"/>
     </row>
-    <row r="321" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="65" t="s">
         <v>573</v>
       </c>
@@ -28446,7 +28460,7 @@
       <c r="AJ322" s="217"/>
       <c r="AK322" s="217"/>
     </row>
-    <row r="323" spans="1:37" s="65" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:37" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="65" t="s">
         <v>573</v>
       </c>
@@ -28537,16 +28551,16 @@
       <c r="A324" s="178" t="s">
         <v>567</v>
       </c>
-      <c r="B324" s="247" t="s">
+      <c r="B324" s="236" t="s">
         <v>560</v>
       </c>
-      <c r="C324" s="247"/>
+      <c r="C324" s="236"/>
       <c r="D324" s="153"/>
       <c r="E324" s="153"/>
       <c r="F324" s="198"/>
       <c r="G324" s="199">
         <f>SUBTOTAL(9,G7:G323)</f>
-        <v>3710</v>
+        <v>4055561.1203199998</v>
       </c>
       <c r="Q324" s="200"/>
       <c r="R324" s="153"/>
@@ -28703,7 +28717,7 @@
       <c r="AJ327" s="219"/>
       <c r="AK327" s="219"/>
     </row>
-    <row r="328" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="178" t="s">
         <v>567</v>
       </c>
@@ -28789,7 +28803,7 @@
       <c r="AJ328" s="219"/>
       <c r="AK328" s="219"/>
     </row>
-    <row r="329" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A329" s="178" t="s">
         <v>567</v>
       </c>
@@ -28964,7 +28978,7 @@
       <c r="AJ331" s="219"/>
       <c r="AK331" s="219"/>
     </row>
-    <row r="332" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="178" t="s">
         <v>567</v>
       </c>
@@ -29140,7 +29154,7 @@
       <c r="AJ334" s="219"/>
       <c r="AK334" s="219"/>
     </row>
-    <row r="335" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="178" t="s">
         <v>567</v>
       </c>
@@ -29226,7 +29240,7 @@
       <c r="AJ335" s="219"/>
       <c r="AK335" s="219"/>
     </row>
-    <row r="336" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="178" t="s">
         <v>567</v>
       </c>
@@ -29357,7 +29371,7 @@
       <c r="AJ337" s="219"/>
       <c r="AK337" s="219"/>
     </row>
-    <row r="338" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="178" t="s">
         <v>567</v>
       </c>
@@ -29443,7 +29457,7 @@
       <c r="AJ338" s="219"/>
       <c r="AK338" s="219"/>
     </row>
-    <row r="339" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="178" t="s">
         <v>567</v>
       </c>
@@ -29574,7 +29588,7 @@
       <c r="AJ340" s="219"/>
       <c r="AK340" s="219"/>
     </row>
-    <row r="341" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="178" t="s">
         <v>567</v>
       </c>
@@ -29660,7 +29674,7 @@
       <c r="AJ341" s="219"/>
       <c r="AK341" s="219"/>
     </row>
-    <row r="342" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="178" t="s">
         <v>567</v>
       </c>
@@ -29746,7 +29760,7 @@
       <c r="AJ342" s="219"/>
       <c r="AK342" s="219"/>
     </row>
-    <row r="343" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="178" t="s">
         <v>567</v>
       </c>
@@ -29877,7 +29891,7 @@
       <c r="AJ344" s="219"/>
       <c r="AK344" s="219"/>
     </row>
-    <row r="345" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="178" t="s">
         <v>567</v>
       </c>
@@ -29963,7 +29977,7 @@
       <c r="AJ345" s="219"/>
       <c r="AK345" s="219"/>
     </row>
-    <row r="346" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A346" s="178" t="s">
         <v>567</v>
       </c>
@@ -30048,7 +30062,7 @@
       <c r="AJ346" s="218"/>
       <c r="AK346" s="218"/>
     </row>
-    <row r="347" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="178" t="s">
         <v>567</v>
       </c>
@@ -30224,7 +30238,7 @@
       <c r="AJ349" s="219"/>
       <c r="AK349" s="219"/>
     </row>
-    <row r="350" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="178" t="s">
         <v>567</v>
       </c>
@@ -30355,7 +30369,7 @@
       <c r="AJ351" s="219"/>
       <c r="AK351" s="219"/>
     </row>
-    <row r="352" spans="1:37" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:37" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="178" t="s">
         <v>567</v>
       </c>
@@ -30441,7 +30455,7 @@
       <c r="AJ352" s="219"/>
       <c r="AK352" s="219"/>
     </row>
-    <row r="353" spans="1:38" s="178" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:38" s="178" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="178" t="s">
         <v>567</v>
       </c>
@@ -30534,33 +30548,33 @@
       <c r="E354" s="140"/>
       <c r="G354" s="142">
         <f>SUBTOTAL(9,G325:P353)</f>
-        <v>0</v>
+        <v>538745.4</v>
       </c>
       <c r="X354" s="177">
         <f>SUBTOTAL(9,X5:X353)</f>
-        <v>0</v>
+        <v>1206612.54</v>
       </c>
       <c r="Y354" s="177"/>
       <c r="Z354" s="177"/>
       <c r="AA354" s="177">
         <f>SUBTOTAL(9,AA5:AA353)</f>
-        <v>0</v>
+        <v>103769.64</v>
       </c>
       <c r="AB354" s="177"/>
       <c r="AC354" s="177"/>
       <c r="AD354" s="177">
         <f>SUBTOTAL(9,AD5:AD353)</f>
-        <v>0</v>
+        <v>530339.16999999993</v>
       </c>
       <c r="AE354" s="177">
         <f>SUM(AE6:AE353)</f>
-        <v>-161156.51999999996</v>
+        <v>-204873.36</v>
       </c>
       <c r="AF354" s="177"/>
       <c r="AG354" s="177"/>
       <c r="AH354" s="177">
         <f t="shared" ref="AH354:AK354" si="178">SUBTOTAL(9,AH5:AH353)</f>
-        <v>0</v>
+        <v>127542.73000000001</v>
       </c>
       <c r="AI354" s="177"/>
       <c r="AJ354" s="177"/>
@@ -30570,7 +30584,7 @@
       </c>
       <c r="AL354" s="222">
         <f>(AK354+AH354)</f>
-        <v>13880</v>
+        <v>141422.73000000001</v>
       </c>
     </row>
     <row r="355" spans="1:38" ht="21" hidden="1" x14ac:dyDescent="0.4">
@@ -30580,11 +30594,11 @@
       <c r="E355" s="140"/>
       <c r="G355" s="177">
         <f>G324-G354</f>
-        <v>3710</v>
+        <v>3516815.7203199998</v>
       </c>
       <c r="AL355" s="222">
         <f>AE354-AA354</f>
-        <v>-161156.51999999996</v>
+        <v>-308643</v>
       </c>
     </row>
     <row r="356" spans="1:38" ht="21" hidden="1" x14ac:dyDescent="0.4">
@@ -30594,22 +30608,28 @@
       <c r="E356" s="140"/>
       <c r="G356" s="142">
         <f>SUM(G6:G353)</f>
-        <v>5119348.2803200018</v>
+        <v>9171199.4006399997</v>
       </c>
       <c r="AL356" s="224">
         <f>SUM(AL354:AL355)</f>
-        <v>-147276.51999999996</v>
+        <v>-167220.26999999999</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}">
-    <filterColumn colId="0">
+    <filterColumn colId="18">
       <filters>
-        <filter val="MAYOR M"/>
+        <filter val="100.00%"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="B324:C324"/>
     <mergeCell ref="Q2:S3"/>
     <mergeCell ref="H3:J3"/>
@@ -30621,12 +30641,6 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D325:F326">

--- a/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
+++ b/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
@@ -5,31 +5,40 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BFC3EF-E457-47CD-900E-2CC03D8D9C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B57908-D0F6-48AC-B20E-C06FC4CDF82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="339" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="339" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$5:$AL$356</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$AK$355</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$AK$354</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="590">
   <si>
     <t>ITEM</t>
   </si>
@@ -1817,6 +1826,12 @@
   </si>
   <si>
     <t>PATCH CORD CAT 6A LSZH,  3M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TT</t>
   </si>
 </sst>
 </file>
@@ -2882,71 +2897,8 @@
     <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3032,6 +2984,69 @@
     </xf>
     <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3406,52 +3421,52 @@
   </sheetPr>
   <dimension ref="A1:AL356"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AI42" sqref="AI42:AI283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.42578125" style="120" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="205" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.44140625" style="120" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="120" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="205" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="121" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="121" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="120" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="120" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="34" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" style="34" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="120" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="120" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="120" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="120" customWidth="1"/>
-    <col min="26" max="27" width="14.28515625" style="122" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="120" customWidth="1"/>
-    <col min="29" max="30" width="14.28515625" style="122" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" style="120" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="120" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="120" customWidth="1"/>
+    <col min="26" max="27" width="14.33203125" style="122" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" style="120" customWidth="1"/>
+    <col min="29" max="30" width="14.33203125" style="122" customWidth="1"/>
     <col min="31" max="31" width="15" style="122" customWidth="1"/>
     <col min="32" max="32" width="11" style="120" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" style="120" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" style="120" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" style="120" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10" style="122" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" style="122" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="11.42578125" style="120"/>
+    <col min="37" max="37" width="15.6640625" style="122" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="11.44140625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="52" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="52" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="54"/>
@@ -3477,23 +3492,23 @@
       <c r="AJ1" s="84"/>
       <c r="AK1" s="84"/>
     </row>
-    <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="224" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="225" t="s">
+    <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="228" t="s">
+      <c r="E2" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="226" t="s">
+      <c r="F2" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="226" t="s">
+      <c r="G2" s="243" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="7"/>
@@ -3507,93 +3522,93 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="219" t="s">
+      <c r="Q2" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="219"/>
-      <c r="S2" s="219"/>
+      <c r="R2" s="235"/>
+      <c r="S2" s="235"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="207" t="s">
+      <c r="V2" s="244" t="s">
         <v>569</v>
       </c>
-      <c r="W2" s="207"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="215" t="s">
+      <c r="W2" s="244"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="252" t="s">
         <v>561</v>
       </c>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="213" t="s">
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="252"/>
+      <c r="AB2" s="250" t="s">
         <v>555</v>
       </c>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="216" t="s">
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="253" t="s">
         <v>570</v>
       </c>
-      <c r="AF2" s="209" t="s">
+      <c r="AF2" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="AG2" s="209"/>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211" t="s">
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="248" t="s">
         <v>566</v>
       </c>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="212"/>
-    </row>
-    <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="220" t="s">
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="249"/>
+    </row>
+    <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="221"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="223" t="s">
+      <c r="I3" s="237"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="223" t="s">
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="223"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="219"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
       <c r="T3" s="2"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="208"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="213"/>
-      <c r="AC3" s="214"/>
-      <c r="AD3" s="214"/>
-      <c r="AE3" s="217"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
-      <c r="AJ3" s="211"/>
-      <c r="AK3" s="212"/>
-    </row>
-    <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="245"/>
+      <c r="Y3" s="252"/>
+      <c r="Z3" s="252"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="250"/>
+      <c r="AC3" s="251"/>
+      <c r="AD3" s="251"/>
+      <c r="AE3" s="254"/>
+      <c r="AF3" s="246"/>
+      <c r="AG3" s="246"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="248"/>
+      <c r="AJ3" s="248"/>
+      <c r="AK3" s="249"/>
+    </row>
+    <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
       <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3681,7 +3696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="198"/>
@@ -3719,7 +3734,10 @@
       <c r="AJ5" s="104"/>
       <c r="AK5" s="104"/>
     </row>
-    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>588</v>
+      </c>
       <c r="B6" s="59">
         <v>6</v>
       </c>
@@ -3727,9 +3745,9 @@
         <v>19</v>
       </c>
       <c r="D6" s="199"/>
-      <c r="E6" s="229"/>
+      <c r="E6" s="208"/>
       <c r="F6" s="61"/>
-      <c r="G6" s="240"/>
+      <c r="G6" s="219"/>
       <c r="H6" s="16"/>
       <c r="I6" s="32"/>
       <c r="J6" s="17"/>
@@ -3767,7 +3785,10 @@
       <c r="AJ6" s="187"/>
       <c r="AK6" s="187"/>
     </row>
-    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>588</v>
+      </c>
       <c r="B7" s="59">
         <v>6.1</v>
       </c>
@@ -3775,9 +3796,9 @@
         <v>20</v>
       </c>
       <c r="D7" s="59"/>
-      <c r="E7" s="229"/>
+      <c r="E7" s="208"/>
       <c r="F7" s="63"/>
-      <c r="G7" s="241"/>
+      <c r="G7" s="220"/>
       <c r="H7" s="16"/>
       <c r="I7" s="32"/>
       <c r="J7" s="17"/>
@@ -3815,7 +3836,7 @@
       <c r="AJ7" s="187"/>
       <c r="AK7" s="187"/>
     </row>
-    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>555</v>
       </c>
@@ -3834,7 +3855,7 @@
       <c r="F8" s="67">
         <v>3200.61</v>
       </c>
-      <c r="G8" s="242">
+      <c r="G8" s="221">
         <f t="shared" ref="G8:G22" si="2">+E8*F8</f>
         <v>3200.61</v>
       </c>
@@ -3895,15 +3916,15 @@
         <v>1</v>
       </c>
       <c r="AC8" s="182">
-        <v>7200.58</v>
+        <v>7353.58</v>
       </c>
       <c r="AD8" s="182">
         <f>AB8*AC8</f>
-        <v>7200.58</v>
+        <v>7353.58</v>
       </c>
       <c r="AE8" s="182">
         <f>AD8-G8</f>
-        <v>3999.97</v>
+        <v>4152.9699999999993</v>
       </c>
       <c r="AF8" s="97"/>
       <c r="AG8" s="97"/>
@@ -3912,7 +3933,7 @@
       <c r="AJ8" s="187"/>
       <c r="AK8" s="187"/>
     </row>
-    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>555</v>
       </c>
@@ -3931,7 +3952,7 @@
       <c r="F9" s="67">
         <v>540</v>
       </c>
-      <c r="G9" s="242">
+      <c r="G9" s="221">
         <f t="shared" si="2"/>
         <v>2160</v>
       </c>
@@ -4009,7 +4030,7 @@
       <c r="AJ9" s="187"/>
       <c r="AK9" s="187"/>
     </row>
-    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>555</v>
       </c>
@@ -4028,7 +4049,7 @@
       <c r="F10" s="67">
         <v>753.49</v>
       </c>
-      <c r="G10" s="242">
+      <c r="G10" s="221">
         <f t="shared" si="2"/>
         <v>17330.27</v>
       </c>
@@ -4106,7 +4127,7 @@
       <c r="AJ10" s="187"/>
       <c r="AK10" s="187"/>
     </row>
-    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>555</v>
       </c>
@@ -4125,7 +4146,7 @@
       <c r="F11" s="67">
         <v>295.41000000000003</v>
       </c>
-      <c r="G11" s="242">
+      <c r="G11" s="221">
         <f t="shared" si="2"/>
         <v>2658.69</v>
       </c>
@@ -4203,7 +4224,7 @@
       <c r="AJ11" s="187"/>
       <c r="AK11" s="187"/>
     </row>
-    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
         <v>562</v>
       </c>
@@ -4222,7 +4243,7 @@
       <c r="F12" s="67">
         <v>3950.21</v>
       </c>
-      <c r="G12" s="242">
+      <c r="G12" s="221">
         <f t="shared" si="2"/>
         <v>3950.21</v>
       </c>
@@ -4290,15 +4311,15 @@
         <v>1</v>
       </c>
       <c r="AC12" s="182">
-        <v>3950.21</v>
+        <v>3950.96</v>
       </c>
       <c r="AD12" s="182">
         <f t="shared" si="10"/>
-        <v>3950.21</v>
+        <v>3950.96</v>
       </c>
       <c r="AE12" s="182">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF12" s="97"/>
       <c r="AG12" s="97"/>
@@ -4307,7 +4328,10 @@
       <c r="AJ12" s="187"/>
       <c r="AK12" s="187"/>
     </row>
-    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B13" s="65">
         <v>6.2</v>
       </c>
@@ -4317,7 +4341,7 @@
       <c r="D13" s="65"/>
       <c r="E13" s="203"/>
       <c r="F13" s="70"/>
-      <c r="G13" s="242"/>
+      <c r="G13" s="221"/>
       <c r="H13" s="16"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -4355,7 +4379,10 @@
       <c r="AJ13" s="187"/>
       <c r="AK13" s="187"/>
     </row>
-    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B14" s="65" t="s">
         <v>32</v>
       </c>
@@ -4365,7 +4392,7 @@
       <c r="D14" s="72"/>
       <c r="E14" s="203"/>
       <c r="F14" s="73"/>
-      <c r="G14" s="242"/>
+      <c r="G14" s="221"/>
       <c r="H14" s="16"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
@@ -4403,7 +4430,7 @@
       <c r="AJ14" s="187"/>
       <c r="AK14" s="187"/>
     </row>
-    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>567</v>
       </c>
@@ -4422,7 +4449,7 @@
       <c r="F15" s="67">
         <v>8.33</v>
       </c>
-      <c r="G15" s="242">
+      <c r="G15" s="221">
         <f t="shared" si="2"/>
         <v>749.7</v>
       </c>
@@ -4499,7 +4526,7 @@
       <c r="AJ15" s="187"/>
       <c r="AK15" s="187"/>
     </row>
-    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
         <v>567</v>
       </c>
@@ -4518,7 +4545,7 @@
       <c r="F16" s="67">
         <v>7.94</v>
       </c>
-      <c r="G16" s="242">
+      <c r="G16" s="221">
         <f t="shared" si="2"/>
         <v>8360.82</v>
       </c>
@@ -4595,7 +4622,10 @@
       <c r="AJ16" s="187"/>
       <c r="AK16" s="187"/>
     </row>
-    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B17" s="65" t="s">
         <v>38</v>
       </c>
@@ -4605,7 +4635,7 @@
       <c r="D17" s="72"/>
       <c r="E17" s="203"/>
       <c r="F17" s="73"/>
-      <c r="G17" s="242"/>
+      <c r="G17" s="221"/>
       <c r="H17" s="16"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
@@ -4643,7 +4673,7 @@
       <c r="AJ17" s="187"/>
       <c r="AK17" s="187"/>
     </row>
-    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="s">
         <v>573</v>
       </c>
@@ -4662,7 +4692,7 @@
       <c r="F18" s="67">
         <v>9.43</v>
       </c>
-      <c r="G18" s="242">
+      <c r="G18" s="221">
         <f t="shared" si="2"/>
         <v>37.72</v>
       </c>
@@ -4730,7 +4760,7 @@
       <c r="AJ18" s="187"/>
       <c r="AK18" s="187"/>
     </row>
-    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>573</v>
       </c>
@@ -4749,7 +4779,7 @@
       <c r="F19" s="67">
         <v>8.2899999999999991</v>
       </c>
-      <c r="G19" s="242">
+      <c r="G19" s="221">
         <f t="shared" si="2"/>
         <v>8.2899999999999991</v>
       </c>
@@ -4817,7 +4847,7 @@
       <c r="AJ19" s="187"/>
       <c r="AK19" s="187"/>
     </row>
-    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
         <v>573</v>
       </c>
@@ -4836,7 +4866,7 @@
       <c r="F20" s="67">
         <v>8.9600000000000009</v>
       </c>
-      <c r="G20" s="242">
+      <c r="G20" s="221">
         <f t="shared" si="2"/>
         <v>35.840000000000003</v>
       </c>
@@ -4904,7 +4934,7 @@
       <c r="AJ20" s="187"/>
       <c r="AK20" s="187"/>
     </row>
-    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>573</v>
       </c>
@@ -4917,13 +4947,13 @@
       <c r="D21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="230">
+      <c r="E21" s="209">
         <v>154</v>
       </c>
       <c r="F21" s="42">
         <v>40.46</v>
       </c>
-      <c r="G21" s="243">
+      <c r="G21" s="222">
         <f t="shared" si="2"/>
         <v>6230.84</v>
       </c>
@@ -4991,7 +5021,7 @@
       <c r="AJ21" s="187"/>
       <c r="AK21" s="187"/>
     </row>
-    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>573</v>
       </c>
@@ -5004,13 +5034,13 @@
       <c r="D22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="230">
+      <c r="E22" s="209">
         <v>68</v>
       </c>
       <c r="F22" s="42">
         <v>20.45</v>
       </c>
-      <c r="G22" s="243">
+      <c r="G22" s="222">
         <f t="shared" si="2"/>
         <v>1390.6</v>
       </c>
@@ -5078,7 +5108,7 @@
       <c r="AJ22" s="187"/>
       <c r="AK22" s="187"/>
     </row>
-    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>573</v>
       </c>
@@ -5091,13 +5121,13 @@
       <c r="D23" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="230">
+      <c r="E23" s="209">
         <v>205</v>
       </c>
       <c r="F23" s="42">
         <v>20.45</v>
       </c>
-      <c r="G23" s="243">
+      <c r="G23" s="222">
         <f t="shared" ref="G23:G90" si="12">+E23*F23</f>
         <v>4192.25</v>
       </c>
@@ -5165,7 +5195,10 @@
       <c r="AJ23" s="187"/>
       <c r="AK23" s="187"/>
     </row>
-    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B24" s="65" t="s">
         <v>52</v>
       </c>
@@ -5175,7 +5208,7 @@
       <c r="D24" s="72"/>
       <c r="E24" s="203"/>
       <c r="F24" s="73"/>
-      <c r="G24" s="242"/>
+      <c r="G24" s="221"/>
       <c r="H24" s="16"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
@@ -5213,7 +5246,7 @@
       <c r="AJ24" s="187"/>
       <c r="AK24" s="187"/>
     </row>
-    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>573</v>
       </c>
@@ -5226,13 +5259,13 @@
       <c r="D25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="209">
         <v>1</v>
       </c>
       <c r="F25" s="24">
         <v>29.32</v>
       </c>
-      <c r="G25" s="243">
+      <c r="G25" s="222">
         <f t="shared" si="12"/>
         <v>29.32</v>
       </c>
@@ -5300,7 +5333,7 @@
       <c r="AJ25" s="187"/>
       <c r="AK25" s="187"/>
     </row>
-    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>573</v>
       </c>
@@ -5313,13 +5346,13 @@
       <c r="D26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="230">
+      <c r="E26" s="209">
         <v>65</v>
       </c>
       <c r="F26" s="24">
         <v>53.74</v>
       </c>
-      <c r="G26" s="243">
+      <c r="G26" s="222">
         <f t="shared" si="12"/>
         <v>3493.1</v>
       </c>
@@ -5387,7 +5420,10 @@
       <c r="AJ26" s="187"/>
       <c r="AK26" s="187"/>
     </row>
-    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B27" s="65" t="s">
         <v>58</v>
       </c>
@@ -5397,7 +5433,7 @@
       <c r="D27" s="72"/>
       <c r="E27" s="203"/>
       <c r="F27" s="73"/>
-      <c r="G27" s="242"/>
+      <c r="G27" s="221"/>
       <c r="H27" s="16"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
@@ -5435,7 +5471,7 @@
       <c r="AJ27" s="187"/>
       <c r="AK27" s="187"/>
     </row>
-    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>573</v>
       </c>
@@ -5448,13 +5484,13 @@
       <c r="D28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="230">
+      <c r="E28" s="209">
         <v>1</v>
       </c>
       <c r="F28" s="24">
         <v>23.82</v>
       </c>
-      <c r="G28" s="243">
+      <c r="G28" s="222">
         <f t="shared" si="12"/>
         <v>23.82</v>
       </c>
@@ -5522,7 +5558,7 @@
       <c r="AJ28" s="187"/>
       <c r="AK28" s="187"/>
     </row>
-    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>573</v>
       </c>
@@ -5535,13 +5571,13 @@
       <c r="D29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="230">
+      <c r="E29" s="209">
         <v>1</v>
       </c>
       <c r="F29" s="24">
         <v>23.82</v>
       </c>
-      <c r="G29" s="243">
+      <c r="G29" s="222">
         <f t="shared" si="12"/>
         <v>23.82</v>
       </c>
@@ -5609,7 +5645,7 @@
       <c r="AJ29" s="187"/>
       <c r="AK29" s="187"/>
     </row>
-    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>573</v>
       </c>
@@ -5622,13 +5658,13 @@
       <c r="D30" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="230">
+      <c r="E30" s="209">
         <v>68</v>
       </c>
       <c r="F30" s="24">
         <v>39.369999999999997</v>
       </c>
-      <c r="G30" s="243">
+      <c r="G30" s="222">
         <f t="shared" si="12"/>
         <v>2677.16</v>
       </c>
@@ -5696,7 +5732,10 @@
       <c r="AJ30" s="187"/>
       <c r="AK30" s="187"/>
     </row>
-    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B31" s="65" t="s">
         <v>66</v>
       </c>
@@ -5706,7 +5745,7 @@
       <c r="D31" s="72"/>
       <c r="E31" s="203"/>
       <c r="F31" s="73"/>
-      <c r="G31" s="242"/>
+      <c r="G31" s="221"/>
       <c r="H31" s="16"/>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
@@ -5744,7 +5783,7 @@
       <c r="AJ31" s="187"/>
       <c r="AK31" s="187"/>
     </row>
-    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>573</v>
       </c>
@@ -5757,13 +5796,13 @@
       <c r="D32" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="230">
+      <c r="E32" s="209">
         <v>1</v>
       </c>
       <c r="F32" s="24">
         <v>61.56</v>
       </c>
-      <c r="G32" s="243">
+      <c r="G32" s="222">
         <f t="shared" si="12"/>
         <v>61.56</v>
       </c>
@@ -5831,7 +5870,10 @@
       <c r="AJ32" s="187"/>
       <c r="AK32" s="187"/>
     </row>
-    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B33" s="65" t="s">
         <v>70</v>
       </c>
@@ -5841,7 +5883,7 @@
       <c r="D33" s="72"/>
       <c r="E33" s="203"/>
       <c r="F33" s="73"/>
-      <c r="G33" s="242"/>
+      <c r="G33" s="221"/>
       <c r="H33" s="16"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
@@ -5879,7 +5921,7 @@
       <c r="AJ33" s="187"/>
       <c r="AK33" s="187"/>
     </row>
-    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="s">
         <v>573</v>
       </c>
@@ -5898,7 +5940,7 @@
       <c r="F34" s="67">
         <v>7876.5</v>
       </c>
-      <c r="G34" s="242">
+      <c r="G34" s="221">
         <f t="shared" si="12"/>
         <v>7876.5</v>
       </c>
@@ -5966,7 +6008,7 @@
       <c r="AJ34" s="187"/>
       <c r="AK34" s="187"/>
     </row>
-    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
         <v>573</v>
       </c>
@@ -5985,7 +6027,7 @@
       <c r="F35" s="67">
         <v>1416</v>
       </c>
-      <c r="G35" s="242">
+      <c r="G35" s="221">
         <f t="shared" si="12"/>
         <v>1416</v>
       </c>
@@ -6053,7 +6095,7 @@
       <c r="AJ35" s="187"/>
       <c r="AK35" s="187"/>
     </row>
-    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="64" t="s">
         <v>573</v>
       </c>
@@ -6072,7 +6114,7 @@
       <c r="F36" s="67">
         <v>4289.3</v>
       </c>
-      <c r="G36" s="242">
+      <c r="G36" s="221">
         <f t="shared" si="12"/>
         <v>30025.100000000002</v>
       </c>
@@ -6140,7 +6182,7 @@
       <c r="AJ36" s="187"/>
       <c r="AK36" s="187"/>
     </row>
-    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
         <v>573</v>
       </c>
@@ -6159,7 +6201,7 @@
       <c r="F37" s="67">
         <v>885</v>
       </c>
-      <c r="G37" s="242">
+      <c r="G37" s="221">
         <f t="shared" si="12"/>
         <v>69030</v>
       </c>
@@ -6227,7 +6269,10 @@
       <c r="AJ37" s="187"/>
       <c r="AK37" s="187"/>
     </row>
-    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B38" s="65" t="s">
         <v>80</v>
       </c>
@@ -6237,7 +6282,7 @@
       <c r="D38" s="72"/>
       <c r="E38" s="203"/>
       <c r="F38" s="73"/>
-      <c r="G38" s="242"/>
+      <c r="G38" s="221"/>
       <c r="H38" s="16"/>
       <c r="I38" s="20"/>
       <c r="J38" s="21"/>
@@ -6275,7 +6320,7 @@
       <c r="AJ38" s="187"/>
       <c r="AK38" s="187"/>
     </row>
-    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
         <v>555</v>
       </c>
@@ -6294,7 +6339,7 @@
       <c r="F39" s="67">
         <v>3250</v>
       </c>
-      <c r="G39" s="242">
+      <c r="G39" s="221">
         <f t="shared" si="12"/>
         <v>3250</v>
       </c>
@@ -6362,7 +6407,7 @@
       <c r="AJ39" s="187"/>
       <c r="AK39" s="187"/>
     </row>
-    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="64" t="s">
         <v>573</v>
       </c>
@@ -6381,7 +6426,7 @@
       <c r="F40" s="67">
         <v>1950.5</v>
       </c>
-      <c r="G40" s="242">
+      <c r="G40" s="221">
         <f t="shared" si="12"/>
         <v>1950.5</v>
       </c>
@@ -6452,7 +6497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="64" t="s">
         <v>574</v>
       </c>
@@ -6471,7 +6516,7 @@
       <c r="F41" s="67">
         <v>7250</v>
       </c>
-      <c r="G41" s="242">
+      <c r="G41" s="221">
         <f t="shared" si="12"/>
         <v>14500</v>
       </c>
@@ -6542,7 +6587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="64" t="s">
         <v>564</v>
       </c>
@@ -6561,7 +6606,7 @@
       <c r="F42" s="67">
         <v>2150</v>
       </c>
-      <c r="G42" s="242">
+      <c r="G42" s="221">
         <f t="shared" si="12"/>
         <v>2150</v>
       </c>
@@ -6636,7 +6681,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="64" t="s">
         <v>564</v>
       </c>
@@ -6655,7 +6700,7 @@
       <c r="F43" s="67">
         <v>280</v>
       </c>
-      <c r="G43" s="242">
+      <c r="G43" s="221">
         <f t="shared" si="12"/>
         <v>1120</v>
       </c>
@@ -6730,7 +6775,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
         <v>573</v>
       </c>
@@ -6749,7 +6794,7 @@
       <c r="F44" s="67">
         <v>658</v>
       </c>
-      <c r="G44" s="242">
+      <c r="G44" s="221">
         <f t="shared" si="12"/>
         <v>658</v>
       </c>
@@ -6817,7 +6862,7 @@
       <c r="AJ44" s="104"/>
       <c r="AK44" s="104"/>
     </row>
-    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
         <v>564</v>
       </c>
@@ -6836,7 +6881,7 @@
       <c r="F45" s="67">
         <v>220</v>
       </c>
-      <c r="G45" s="242">
+      <c r="G45" s="221">
         <f t="shared" si="12"/>
         <v>440</v>
       </c>
@@ -6914,7 +6959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
         <v>562</v>
       </c>
@@ -6933,7 +6978,7 @@
       <c r="F46" s="67">
         <v>2461.11</v>
       </c>
-      <c r="G46" s="242">
+      <c r="G46" s="221">
         <f t="shared" si="12"/>
         <v>2461.11</v>
       </c>
@@ -7008,7 +7053,7 @@
       <c r="AJ46" s="187"/>
       <c r="AK46" s="187"/>
     </row>
-    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>562</v>
       </c>
@@ -7027,7 +7072,7 @@
       <c r="F47" s="67">
         <v>102.3</v>
       </c>
-      <c r="G47" s="242">
+      <c r="G47" s="221">
         <f t="shared" si="12"/>
         <v>1023</v>
       </c>
@@ -7102,7 +7147,7 @@
       <c r="AJ47" s="187"/>
       <c r="AK47" s="187"/>
     </row>
-    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="64" t="s">
         <v>563</v>
       </c>
@@ -7119,7 +7164,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="67"/>
-      <c r="G48" s="242"/>
+      <c r="G48" s="221"/>
       <c r="H48" s="16"/>
       <c r="I48" s="20"/>
       <c r="J48" s="21"/>
@@ -7158,7 +7203,7 @@
       <c r="AJ48" s="187"/>
       <c r="AK48" s="187"/>
     </row>
-    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="64" t="s">
         <v>563</v>
       </c>
@@ -7175,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="67"/>
-      <c r="G49" s="242"/>
+      <c r="G49" s="221"/>
       <c r="H49" s="16"/>
       <c r="I49" s="20"/>
       <c r="J49" s="21"/>
@@ -7216,7 +7261,7 @@
       <c r="AJ49" s="187"/>
       <c r="AK49" s="187"/>
     </row>
-    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="64" t="s">
         <v>563</v>
       </c>
@@ -7233,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="67"/>
-      <c r="G50" s="242"/>
+      <c r="G50" s="221"/>
       <c r="H50" s="16"/>
       <c r="I50" s="20"/>
       <c r="J50" s="21"/>
@@ -7273,13 +7318,16 @@
       <c r="AJ50" s="187"/>
       <c r="AK50" s="187"/>
     </row>
-    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B51" s="65"/>
       <c r="C51" s="65"/>
       <c r="D51" s="66"/>
       <c r="E51" s="203"/>
       <c r="F51" s="67"/>
-      <c r="G51" s="242"/>
+      <c r="G51" s="221"/>
       <c r="H51" s="16"/>
       <c r="I51" s="20"/>
       <c r="J51" s="21"/>
@@ -7311,7 +7359,10 @@
       <c r="AJ51" s="187"/>
       <c r="AK51" s="187"/>
     </row>
-    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B52" s="65" t="s">
         <v>100</v>
       </c>
@@ -7321,7 +7372,7 @@
       <c r="D52" s="72"/>
       <c r="E52" s="203"/>
       <c r="F52" s="73"/>
-      <c r="G52" s="242"/>
+      <c r="G52" s="221"/>
       <c r="H52" s="16"/>
       <c r="I52" s="20"/>
       <c r="J52" s="21"/>
@@ -7359,7 +7410,7 @@
       <c r="AJ52" s="187"/>
       <c r="AK52" s="187"/>
     </row>
-    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="64" t="s">
         <v>562</v>
       </c>
@@ -7378,7 +7429,7 @@
       <c r="F53" s="67">
         <v>127.12</v>
       </c>
-      <c r="G53" s="242">
+      <c r="G53" s="221">
         <f t="shared" si="12"/>
         <v>13983.2</v>
       </c>
@@ -7453,7 +7504,10 @@
       <c r="AJ53" s="187"/>
       <c r="AK53" s="187"/>
     </row>
-    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B54" s="65">
         <v>6.3</v>
       </c>
@@ -7463,7 +7517,7 @@
       <c r="D54" s="65"/>
       <c r="E54" s="203"/>
       <c r="F54" s="70"/>
-      <c r="G54" s="242"/>
+      <c r="G54" s="221"/>
       <c r="H54" s="16"/>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
@@ -7501,7 +7555,10 @@
       <c r="AJ54" s="187"/>
       <c r="AK54" s="187"/>
     </row>
-    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B55" s="65" t="s">
         <v>105</v>
       </c>
@@ -7511,7 +7568,7 @@
       <c r="D55" s="72"/>
       <c r="E55" s="203"/>
       <c r="F55" s="73"/>
-      <c r="G55" s="242"/>
+      <c r="G55" s="221"/>
       <c r="H55" s="16"/>
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
@@ -7549,7 +7606,7 @@
       <c r="AJ55" s="187"/>
       <c r="AK55" s="187"/>
     </row>
-    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
         <v>567</v>
       </c>
@@ -7568,7 +7625,7 @@
       <c r="F56" s="67">
         <v>8.33</v>
       </c>
-      <c r="G56" s="242">
+      <c r="G56" s="221">
         <f t="shared" si="12"/>
         <v>291.55</v>
       </c>
@@ -7645,7 +7702,10 @@
       <c r="AJ56" s="187"/>
       <c r="AK56" s="187"/>
     </row>
-    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B57" s="65" t="s">
         <v>107</v>
       </c>
@@ -7655,7 +7715,7 @@
       <c r="D57" s="72"/>
       <c r="E57" s="203"/>
       <c r="F57" s="73"/>
-      <c r="G57" s="242"/>
+      <c r="G57" s="221"/>
       <c r="H57" s="16"/>
       <c r="I57" s="20"/>
       <c r="J57" s="21"/>
@@ -7693,7 +7753,7 @@
       <c r="AJ57" s="187"/>
       <c r="AK57" s="187"/>
     </row>
-    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>573</v>
       </c>
@@ -7712,7 +7772,7 @@
       <c r="F58" s="67">
         <v>9.43</v>
       </c>
-      <c r="G58" s="242">
+      <c r="G58" s="221">
         <f t="shared" si="12"/>
         <v>94.3</v>
       </c>
@@ -7780,7 +7840,7 @@
       <c r="AJ58" s="187"/>
       <c r="AK58" s="187"/>
     </row>
-    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="64" t="s">
         <v>573</v>
       </c>
@@ -7799,7 +7859,7 @@
       <c r="F59" s="67">
         <v>8.2899999999999991</v>
       </c>
-      <c r="G59" s="242">
+      <c r="G59" s="221">
         <f t="shared" si="12"/>
         <v>16.579999999999998</v>
       </c>
@@ -7867,7 +7927,7 @@
       <c r="AJ59" s="187"/>
       <c r="AK59" s="187"/>
     </row>
-    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="64" t="s">
         <v>573</v>
       </c>
@@ -7886,7 +7946,7 @@
       <c r="F60" s="67">
         <v>8.9600000000000009</v>
       </c>
-      <c r="G60" s="242">
+      <c r="G60" s="221">
         <f t="shared" si="12"/>
         <v>71.680000000000007</v>
       </c>
@@ -7954,7 +8014,7 @@
       <c r="AJ60" s="187"/>
       <c r="AK60" s="187"/>
     </row>
-    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>573</v>
       </c>
@@ -7967,13 +8027,13 @@
       <c r="D61" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="230">
+      <c r="E61" s="209">
         <v>2</v>
       </c>
       <c r="F61" s="24">
         <v>40.46</v>
       </c>
-      <c r="G61" s="243">
+      <c r="G61" s="222">
         <f t="shared" si="12"/>
         <v>80.92</v>
       </c>
@@ -8041,7 +8101,7 @@
       <c r="AJ61" s="187"/>
       <c r="AK61" s="187"/>
     </row>
-    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>573</v>
       </c>
@@ -8054,13 +8114,13 @@
       <c r="D62" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="230">
+      <c r="E62" s="209">
         <v>1</v>
       </c>
       <c r="F62" s="24">
         <v>20.45</v>
       </c>
-      <c r="G62" s="243">
+      <c r="G62" s="222">
         <f t="shared" si="12"/>
         <v>20.45</v>
       </c>
@@ -8128,7 +8188,7 @@
       <c r="AJ62" s="187"/>
       <c r="AK62" s="187"/>
     </row>
-    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>573</v>
       </c>
@@ -8141,13 +8201,13 @@
       <c r="D63" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="230">
+      <c r="E63" s="209">
         <v>4</v>
       </c>
       <c r="F63" s="24">
         <v>20.45</v>
       </c>
-      <c r="G63" s="243">
+      <c r="G63" s="222">
         <f t="shared" si="12"/>
         <v>81.8</v>
       </c>
@@ -8215,7 +8275,10 @@
       <c r="AJ63" s="187"/>
       <c r="AK63" s="187"/>
     </row>
-    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B64" s="65" t="s">
         <v>114</v>
       </c>
@@ -8225,7 +8288,7 @@
       <c r="D64" s="72"/>
       <c r="E64" s="203"/>
       <c r="F64" s="73"/>
-      <c r="G64" s="242"/>
+      <c r="G64" s="221"/>
       <c r="H64" s="16"/>
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
@@ -8263,7 +8326,7 @@
       <c r="AJ64" s="187"/>
       <c r="AK64" s="187"/>
     </row>
-    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>573</v>
       </c>
@@ -8276,13 +8339,13 @@
       <c r="D65" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="230">
+      <c r="E65" s="209">
         <v>2</v>
       </c>
       <c r="F65" s="24">
         <v>29.32</v>
       </c>
-      <c r="G65" s="243">
+      <c r="G65" s="222">
         <f t="shared" si="12"/>
         <v>58.64</v>
       </c>
@@ -8350,7 +8413,7 @@
       <c r="AJ65" s="187"/>
       <c r="AK65" s="187"/>
     </row>
-    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>573</v>
       </c>
@@ -8363,13 +8426,13 @@
       <c r="D66" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="230">
+      <c r="E66" s="209">
         <v>2</v>
       </c>
       <c r="F66" s="24">
         <v>53.74</v>
       </c>
-      <c r="G66" s="243">
+      <c r="G66" s="222">
         <f t="shared" si="12"/>
         <v>107.48</v>
       </c>
@@ -8437,7 +8500,10 @@
       <c r="AJ66" s="187"/>
       <c r="AK66" s="187"/>
     </row>
-    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B67" s="65" t="s">
         <v>117</v>
       </c>
@@ -8447,7 +8513,7 @@
       <c r="D67" s="72"/>
       <c r="E67" s="203"/>
       <c r="F67" s="73"/>
-      <c r="G67" s="242"/>
+      <c r="G67" s="221"/>
       <c r="H67" s="16"/>
       <c r="I67" s="20"/>
       <c r="J67" s="21"/>
@@ -8485,7 +8551,7 @@
       <c r="AJ67" s="187"/>
       <c r="AK67" s="187"/>
     </row>
-    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>573</v>
       </c>
@@ -8498,13 +8564,13 @@
       <c r="D68" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="230">
+      <c r="E68" s="209">
         <v>1</v>
       </c>
       <c r="F68" s="24">
         <v>55.27</v>
       </c>
-      <c r="G68" s="243">
+      <c r="G68" s="222">
         <f t="shared" si="12"/>
         <v>55.27</v>
       </c>
@@ -8572,7 +8638,7 @@
       <c r="AJ68" s="187"/>
       <c r="AK68" s="187"/>
     </row>
-    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>573</v>
       </c>
@@ -8585,13 +8651,13 @@
       <c r="D69" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="230">
+      <c r="E69" s="209">
         <v>1</v>
       </c>
       <c r="F69" s="24">
         <v>30.55</v>
       </c>
-      <c r="G69" s="243">
+      <c r="G69" s="222">
         <f t="shared" si="12"/>
         <v>30.55</v>
       </c>
@@ -8659,7 +8725,7 @@
       <c r="AJ69" s="187"/>
       <c r="AK69" s="187"/>
     </row>
-    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>573</v>
       </c>
@@ -8672,13 +8738,13 @@
       <c r="D70" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="230">
+      <c r="E70" s="209">
         <v>1</v>
       </c>
       <c r="F70" s="24">
         <v>30.55</v>
       </c>
-      <c r="G70" s="243">
+      <c r="G70" s="222">
         <f t="shared" si="12"/>
         <v>30.55</v>
       </c>
@@ -8746,7 +8812,7 @@
       <c r="AJ70" s="187"/>
       <c r="AK70" s="187"/>
     </row>
-    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>573</v>
       </c>
@@ -8759,13 +8825,13 @@
       <c r="D71" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="230">
+      <c r="E71" s="209">
         <v>1</v>
       </c>
       <c r="F71" s="24">
         <v>77.14</v>
       </c>
-      <c r="G71" s="243">
+      <c r="G71" s="222">
         <f t="shared" si="12"/>
         <v>77.14</v>
       </c>
@@ -8833,7 +8899,10 @@
       <c r="AJ71" s="187"/>
       <c r="AK71" s="187"/>
     </row>
-    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B72" s="65" t="s">
         <v>127</v>
       </c>
@@ -8843,7 +8912,7 @@
       <c r="D72" s="72"/>
       <c r="E72" s="203"/>
       <c r="F72" s="73"/>
-      <c r="G72" s="242"/>
+      <c r="G72" s="221"/>
       <c r="H72" s="16"/>
       <c r="I72" s="20"/>
       <c r="J72" s="21"/>
@@ -8881,7 +8950,7 @@
       <c r="AJ72" s="187"/>
       <c r="AK72" s="187"/>
     </row>
-    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="64" t="s">
         <v>573</v>
       </c>
@@ -8900,7 +8969,7 @@
       <c r="F73" s="67">
         <v>41.3</v>
       </c>
-      <c r="G73" s="242">
+      <c r="G73" s="221">
         <f t="shared" si="12"/>
         <v>82.6</v>
       </c>
@@ -8968,7 +9037,10 @@
       <c r="AJ73" s="187"/>
       <c r="AK73" s="187"/>
     </row>
-    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B74" s="65" t="s">
         <v>131</v>
       </c>
@@ -8978,7 +9050,7 @@
       <c r="D74" s="72"/>
       <c r="E74" s="203"/>
       <c r="F74" s="73"/>
-      <c r="G74" s="242"/>
+      <c r="G74" s="221"/>
       <c r="H74" s="16"/>
       <c r="I74" s="20"/>
       <c r="J74" s="21"/>
@@ -9016,7 +9088,7 @@
       <c r="AJ74" s="187"/>
       <c r="AK74" s="187"/>
     </row>
-    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="64" t="s">
         <v>573</v>
       </c>
@@ -9035,7 +9107,7 @@
       <c r="F75" s="67">
         <v>850</v>
       </c>
-      <c r="G75" s="242">
+      <c r="G75" s="221">
         <f t="shared" si="12"/>
         <v>1700</v>
       </c>
@@ -9103,7 +9175,7 @@
       <c r="AJ75" s="187"/>
       <c r="AK75" s="187"/>
     </row>
-    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="64" t="s">
         <v>573</v>
       </c>
@@ -9122,7 +9194,7 @@
       <c r="F76" s="67">
         <v>472</v>
       </c>
-      <c r="G76" s="242">
+      <c r="G76" s="221">
         <f t="shared" si="12"/>
         <v>472</v>
       </c>
@@ -9190,7 +9262,7 @@
       <c r="AJ76" s="187"/>
       <c r="AK76" s="187"/>
     </row>
-    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="64" t="s">
         <v>573</v>
       </c>
@@ -9209,7 +9281,7 @@
       <c r="F77" s="67">
         <v>129.80000000000001</v>
       </c>
-      <c r="G77" s="242">
+      <c r="G77" s="221">
         <f t="shared" si="12"/>
         <v>129.80000000000001</v>
       </c>
@@ -9277,7 +9349,7 @@
       <c r="AJ77" s="187"/>
       <c r="AK77" s="187"/>
     </row>
-    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="64" t="s">
         <v>573</v>
       </c>
@@ -9296,7 +9368,7 @@
       <c r="F78" s="67">
         <v>57.82</v>
       </c>
-      <c r="G78" s="242">
+      <c r="G78" s="221">
         <f t="shared" si="12"/>
         <v>57.82</v>
       </c>
@@ -9364,7 +9436,7 @@
       <c r="AJ78" s="187"/>
       <c r="AK78" s="187"/>
     </row>
-    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="64" t="s">
         <v>573</v>
       </c>
@@ -9383,7 +9455,7 @@
       <c r="F79" s="67">
         <v>2950</v>
       </c>
-      <c r="G79" s="242">
+      <c r="G79" s="221">
         <f t="shared" si="12"/>
         <v>2950</v>
       </c>
@@ -9451,7 +9523,10 @@
       <c r="AJ79" s="187"/>
       <c r="AK79" s="187"/>
     </row>
-    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B80" s="65" t="s">
         <v>143</v>
       </c>
@@ -9461,7 +9536,7 @@
       <c r="D80" s="72"/>
       <c r="E80" s="203"/>
       <c r="F80" s="73"/>
-      <c r="G80" s="242"/>
+      <c r="G80" s="221"/>
       <c r="H80" s="16"/>
       <c r="I80" s="20"/>
       <c r="J80" s="21"/>
@@ -9499,7 +9574,7 @@
       <c r="AJ80" s="187"/>
       <c r="AK80" s="187"/>
     </row>
-    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>573</v>
       </c>
@@ -9518,7 +9593,7 @@
       <c r="F81" s="67">
         <v>34.22</v>
       </c>
-      <c r="G81" s="242">
+      <c r="G81" s="221">
         <f t="shared" si="12"/>
         <v>68.44</v>
       </c>
@@ -9586,7 +9661,10 @@
       <c r="AJ81" s="187"/>
       <c r="AK81" s="187"/>
     </row>
-    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B82" s="65" t="s">
         <v>147</v>
       </c>
@@ -9596,7 +9674,7 @@
       <c r="D82" s="72"/>
       <c r="E82" s="203"/>
       <c r="F82" s="73"/>
-      <c r="G82" s="242"/>
+      <c r="G82" s="221"/>
       <c r="H82" s="16"/>
       <c r="I82" s="20"/>
       <c r="J82" s="21"/>
@@ -9634,7 +9712,7 @@
       <c r="AJ82" s="187"/>
       <c r="AK82" s="187"/>
     </row>
-    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="64" t="s">
         <v>573</v>
       </c>
@@ -9653,7 +9731,7 @@
       <c r="F83" s="67">
         <v>1000</v>
       </c>
-      <c r="G83" s="242">
+      <c r="G83" s="221">
         <f t="shared" si="12"/>
         <v>1000</v>
       </c>
@@ -9721,7 +9799,10 @@
       <c r="AJ83" s="187"/>
       <c r="AK83" s="187"/>
     </row>
-    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B84" s="65">
         <v>6.4</v>
       </c>
@@ -9731,7 +9812,7 @@
       <c r="D84" s="65"/>
       <c r="E84" s="203"/>
       <c r="F84" s="70"/>
-      <c r="G84" s="242"/>
+      <c r="G84" s="221"/>
       <c r="H84" s="16"/>
       <c r="I84" s="20"/>
       <c r="J84" s="21"/>
@@ -9769,7 +9850,10 @@
       <c r="AJ84" s="187"/>
       <c r="AK84" s="187"/>
     </row>
-    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B85" s="65" t="s">
         <v>152</v>
       </c>
@@ -9779,7 +9863,7 @@
       <c r="D85" s="72"/>
       <c r="E85" s="203"/>
       <c r="F85" s="73"/>
-      <c r="G85" s="242"/>
+      <c r="G85" s="221"/>
       <c r="H85" s="16"/>
       <c r="I85" s="20"/>
       <c r="J85" s="21"/>
@@ -9817,7 +9901,7 @@
       <c r="AJ85" s="187"/>
       <c r="AK85" s="187"/>
     </row>
-    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="64" t="s">
         <v>567</v>
       </c>
@@ -9836,7 +9920,7 @@
       <c r="F86" s="67">
         <v>3.15</v>
       </c>
-      <c r="G86" s="242">
+      <c r="G86" s="221">
         <f t="shared" si="12"/>
         <v>7997.8499999999995</v>
       </c>
@@ -9912,7 +9996,7 @@
       <c r="AJ86" s="187"/>
       <c r="AK86" s="187"/>
     </row>
-    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="64" t="s">
         <v>567</v>
       </c>
@@ -9931,7 +10015,7 @@
       <c r="F87" s="67">
         <v>3.36</v>
       </c>
-      <c r="G87" s="242">
+      <c r="G87" s="221">
         <f t="shared" si="12"/>
         <v>3027.3599999999997</v>
       </c>
@@ -10007,7 +10091,10 @@
       <c r="AJ87" s="187"/>
       <c r="AK87" s="187"/>
     </row>
-    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B88" s="65" t="s">
         <v>157</v>
       </c>
@@ -10017,7 +10104,7 @@
       <c r="D88" s="72"/>
       <c r="E88" s="203"/>
       <c r="F88" s="73"/>
-      <c r="G88" s="242"/>
+      <c r="G88" s="221"/>
       <c r="H88" s="16"/>
       <c r="I88" s="20"/>
       <c r="J88" s="21"/>
@@ -10055,7 +10142,7 @@
       <c r="AJ88" s="187"/>
       <c r="AK88" s="187"/>
     </row>
-    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="64" t="s">
         <v>573</v>
       </c>
@@ -10074,7 +10161,7 @@
       <c r="F89" s="67">
         <v>9.43</v>
       </c>
-      <c r="G89" s="242">
+      <c r="G89" s="221">
         <f t="shared" si="12"/>
         <v>1725.69</v>
       </c>
@@ -10142,7 +10229,7 @@
       <c r="AJ89" s="187"/>
       <c r="AK89" s="187"/>
     </row>
-    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="64" t="s">
         <v>573</v>
       </c>
@@ -10161,7 +10248,7 @@
       <c r="F90" s="67">
         <v>8.2899999999999991</v>
       </c>
-      <c r="G90" s="242">
+      <c r="G90" s="221">
         <f t="shared" si="12"/>
         <v>572.01</v>
       </c>
@@ -10229,7 +10316,7 @@
       <c r="AJ90" s="187"/>
       <c r="AK90" s="187"/>
     </row>
-    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="64" t="s">
         <v>573</v>
       </c>
@@ -10248,7 +10335,7 @@
       <c r="F91" s="67">
         <v>8.9600000000000009</v>
       </c>
-      <c r="G91" s="242">
+      <c r="G91" s="221">
         <f t="shared" ref="G91:G154" si="25">+E91*F91</f>
         <v>1585.92</v>
       </c>
@@ -10316,7 +10403,7 @@
       <c r="AJ91" s="187"/>
       <c r="AK91" s="187"/>
     </row>
-    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>573</v>
       </c>
@@ -10335,7 +10422,7 @@
       <c r="F92" s="67">
         <v>39.090000000000003</v>
       </c>
-      <c r="G92" s="242">
+      <c r="G92" s="221">
         <f t="shared" si="25"/>
         <v>156.36000000000001</v>
       </c>
@@ -10403,7 +10490,7 @@
       <c r="AJ92" s="187"/>
       <c r="AK92" s="187"/>
     </row>
-    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>573</v>
       </c>
@@ -10422,7 +10509,7 @@
       <c r="F93" s="67">
         <v>9.1300000000000008</v>
       </c>
-      <c r="G93" s="242">
+      <c r="G93" s="221">
         <f t="shared" si="25"/>
         <v>36.520000000000003</v>
       </c>
@@ -10490,7 +10577,7 @@
       <c r="AJ93" s="187"/>
       <c r="AK93" s="187"/>
     </row>
-    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>573</v>
       </c>
@@ -10503,13 +10590,13 @@
       <c r="D94" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="230">
+      <c r="E94" s="209">
         <v>736</v>
       </c>
       <c r="F94" s="42">
         <v>40.46</v>
       </c>
-      <c r="G94" s="243">
+      <c r="G94" s="222">
         <f t="shared" si="25"/>
         <v>29778.560000000001</v>
       </c>
@@ -10577,7 +10664,7 @@
       <c r="AJ94" s="187"/>
       <c r="AK94" s="187"/>
     </row>
-    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>573</v>
       </c>
@@ -10590,13 +10677,13 @@
       <c r="D95" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="230">
+      <c r="E95" s="209">
         <v>158</v>
       </c>
       <c r="F95" s="42">
         <v>20.45</v>
       </c>
-      <c r="G95" s="243">
+      <c r="G95" s="222">
         <f t="shared" si="25"/>
         <v>3231.1</v>
       </c>
@@ -10664,7 +10751,7 @@
       <c r="AJ95" s="187"/>
       <c r="AK95" s="187"/>
     </row>
-    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>573</v>
       </c>
@@ -10677,13 +10764,13 @@
       <c r="D96" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E96" s="230">
+      <c r="E96" s="209">
         <v>449</v>
       </c>
       <c r="F96" s="42">
         <v>20.45</v>
       </c>
-      <c r="G96" s="243">
+      <c r="G96" s="222">
         <f t="shared" si="25"/>
         <v>9182.0499999999993</v>
       </c>
@@ -10751,7 +10838,10 @@
       <c r="AJ96" s="187"/>
       <c r="AK96" s="187"/>
     </row>
-    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B97" s="65" t="s">
         <v>168</v>
       </c>
@@ -10761,7 +10851,7 @@
       <c r="D97" s="72"/>
       <c r="E97" s="203"/>
       <c r="F97" s="73"/>
-      <c r="G97" s="242"/>
+      <c r="G97" s="221"/>
       <c r="H97" s="16"/>
       <c r="I97" s="20"/>
       <c r="J97" s="21"/>
@@ -10799,7 +10889,7 @@
       <c r="AJ97" s="187"/>
       <c r="AK97" s="187"/>
     </row>
-    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>573</v>
       </c>
@@ -10812,13 +10902,13 @@
       <c r="D98" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="230">
+      <c r="E98" s="209">
         <v>34</v>
       </c>
       <c r="F98" s="24">
         <v>29.32</v>
       </c>
-      <c r="G98" s="243">
+      <c r="G98" s="222">
         <f t="shared" si="25"/>
         <v>996.88</v>
       </c>
@@ -10886,7 +10976,7 @@
       <c r="AJ98" s="187"/>
       <c r="AK98" s="187"/>
     </row>
-    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>573</v>
       </c>
@@ -10899,13 +10989,13 @@
       <c r="D99" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="230">
+      <c r="E99" s="209">
         <v>3</v>
       </c>
       <c r="F99" s="24">
         <v>33.57</v>
       </c>
-      <c r="G99" s="243">
+      <c r="G99" s="222">
         <f t="shared" si="25"/>
         <v>100.71000000000001</v>
       </c>
@@ -10973,7 +11063,7 @@
       <c r="AJ99" s="187"/>
       <c r="AK99" s="187"/>
     </row>
-    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>573</v>
       </c>
@@ -10986,13 +11076,13 @@
       <c r="D100" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="230">
+      <c r="E100" s="209">
         <v>147</v>
       </c>
       <c r="F100" s="24">
         <v>53.74</v>
       </c>
-      <c r="G100" s="243">
+      <c r="G100" s="222">
         <f t="shared" si="25"/>
         <v>7899.7800000000007</v>
       </c>
@@ -11060,7 +11150,10 @@
       <c r="AJ100" s="187"/>
       <c r="AK100" s="187"/>
     </row>
-    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B101" s="65" t="s">
         <v>173</v>
       </c>
@@ -11070,7 +11163,7 @@
       <c r="D101" s="72"/>
       <c r="E101" s="203"/>
       <c r="F101" s="73"/>
-      <c r="G101" s="242"/>
+      <c r="G101" s="221"/>
       <c r="H101" s="16"/>
       <c r="I101" s="20"/>
       <c r="J101" s="21"/>
@@ -11108,7 +11201,7 @@
       <c r="AJ101" s="187"/>
       <c r="AK101" s="187"/>
     </row>
-    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>573</v>
       </c>
@@ -11121,13 +11214,13 @@
       <c r="D102" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E102" s="230">
+      <c r="E102" s="209">
         <v>48</v>
       </c>
       <c r="F102" s="42">
         <v>20.86</v>
       </c>
-      <c r="G102" s="243">
+      <c r="G102" s="222">
         <f t="shared" si="25"/>
         <v>1001.28</v>
       </c>
@@ -11198,7 +11291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>573</v>
       </c>
@@ -11211,13 +11304,13 @@
       <c r="D103" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="230">
+      <c r="E103" s="209">
         <v>24</v>
       </c>
       <c r="F103" s="24">
         <v>22.4</v>
       </c>
-      <c r="G103" s="243">
+      <c r="G103" s="222">
         <f t="shared" si="25"/>
         <v>537.59999999999991</v>
       </c>
@@ -11285,7 +11378,7 @@
       <c r="AJ103" s="187"/>
       <c r="AK103" s="187"/>
     </row>
-    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>573</v>
       </c>
@@ -11298,13 +11391,13 @@
       <c r="D104" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E104" s="230">
+      <c r="E104" s="209">
         <v>126</v>
       </c>
       <c r="F104" s="42">
         <v>62.22</v>
       </c>
-      <c r="G104" s="243">
+      <c r="G104" s="222">
         <f t="shared" si="25"/>
         <v>7839.72</v>
       </c>
@@ -11375,7 +11468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>573</v>
       </c>
@@ -11388,13 +11481,13 @@
       <c r="D105" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="230">
+      <c r="E105" s="209">
         <v>1</v>
       </c>
       <c r="F105" s="24">
         <v>29.69</v>
       </c>
-      <c r="G105" s="243">
+      <c r="G105" s="222">
         <f t="shared" si="25"/>
         <v>29.69</v>
       </c>
@@ -11462,7 +11555,7 @@
       <c r="AJ105" s="187"/>
       <c r="AK105" s="187"/>
     </row>
-    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>573</v>
       </c>
@@ -11475,13 +11568,13 @@
       <c r="D106" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="230">
+      <c r="E106" s="209">
         <v>9</v>
       </c>
       <c r="F106" s="24">
         <v>31.07</v>
       </c>
-      <c r="G106" s="243">
+      <c r="G106" s="222">
         <f t="shared" si="25"/>
         <v>279.63</v>
       </c>
@@ -11549,7 +11642,10 @@
       <c r="AJ106" s="187"/>
       <c r="AK106" s="187"/>
     </row>
-    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B107" s="65" t="s">
         <v>185</v>
       </c>
@@ -11559,7 +11655,7 @@
       <c r="D107" s="72"/>
       <c r="E107" s="203"/>
       <c r="F107" s="73"/>
-      <c r="G107" s="242"/>
+      <c r="G107" s="221"/>
       <c r="H107" s="16"/>
       <c r="I107" s="20"/>
       <c r="J107" s="21"/>
@@ -11597,7 +11693,10 @@
       <c r="AJ107" s="187"/>
       <c r="AK107" s="187"/>
     </row>
-    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B108" s="65" t="s">
         <v>187</v>
       </c>
@@ -11607,7 +11706,7 @@
       <c r="D108" s="72"/>
       <c r="E108" s="203"/>
       <c r="F108" s="73"/>
-      <c r="G108" s="242"/>
+      <c r="G108" s="221"/>
       <c r="H108" s="16"/>
       <c r="I108" s="20"/>
       <c r="J108" s="21"/>
@@ -11645,7 +11744,7 @@
       <c r="AJ108" s="187"/>
       <c r="AK108" s="187"/>
     </row>
-    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="64" t="s">
         <v>573</v>
       </c>
@@ -11664,7 +11763,7 @@
       <c r="F109" s="67">
         <v>5963.96</v>
       </c>
-      <c r="G109" s="242">
+      <c r="G109" s="221">
         <f t="shared" si="25"/>
         <v>5963.96</v>
       </c>
@@ -11732,7 +11831,10 @@
       <c r="AJ109" s="187"/>
       <c r="AK109" s="187"/>
     </row>
-    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B110" s="65" t="s">
         <v>191</v>
       </c>
@@ -11742,7 +11844,7 @@
       <c r="D110" s="72"/>
       <c r="E110" s="203"/>
       <c r="F110" s="73"/>
-      <c r="G110" s="242"/>
+      <c r="G110" s="221"/>
       <c r="H110" s="16"/>
       <c r="I110" s="20"/>
       <c r="J110" s="21"/>
@@ -11780,7 +11882,7 @@
       <c r="AJ110" s="187"/>
       <c r="AK110" s="187"/>
     </row>
-    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="64" t="s">
         <v>573</v>
       </c>
@@ -11799,7 +11901,7 @@
       <c r="F111" s="67">
         <v>1350.59</v>
       </c>
-      <c r="G111" s="242">
+      <c r="G111" s="221">
         <f t="shared" si="25"/>
         <v>1350.59</v>
       </c>
@@ -11867,7 +11969,10 @@
       <c r="AJ111" s="187"/>
       <c r="AK111" s="187"/>
     </row>
-    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B112" s="65" t="s">
         <v>195</v>
       </c>
@@ -11877,7 +11982,7 @@
       <c r="D112" s="72"/>
       <c r="E112" s="203"/>
       <c r="F112" s="73"/>
-      <c r="G112" s="242"/>
+      <c r="G112" s="221"/>
       <c r="H112" s="16"/>
       <c r="I112" s="20"/>
       <c r="J112" s="21"/>
@@ -11915,7 +12020,7 @@
       <c r="AJ112" s="187"/>
       <c r="AK112" s="187"/>
     </row>
-    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="64" t="s">
         <v>573</v>
       </c>
@@ -11934,7 +12039,7 @@
       <c r="F113" s="67">
         <v>194.11</v>
       </c>
-      <c r="G113" s="242">
+      <c r="G113" s="221">
         <f t="shared" si="25"/>
         <v>22322.65</v>
       </c>
@@ -12002,7 +12107,7 @@
       <c r="AJ113" s="187"/>
       <c r="AK113" s="187"/>
     </row>
-    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>573</v>
       </c>
@@ -12021,7 +12126,7 @@
       <c r="F114" s="67">
         <v>272.86</v>
       </c>
-      <c r="G114" s="242">
+      <c r="G114" s="221">
         <f t="shared" si="25"/>
         <v>3274.32</v>
       </c>
@@ -12089,7 +12194,7 @@
       <c r="AJ114" s="187"/>
       <c r="AK114" s="187"/>
     </row>
-    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>573</v>
       </c>
@@ -12108,7 +12213,7 @@
       <c r="F115" s="67">
         <v>377.6</v>
       </c>
-      <c r="G115" s="242">
+      <c r="G115" s="221">
         <f t="shared" si="25"/>
         <v>3398.4</v>
       </c>
@@ -12176,7 +12281,7 @@
       <c r="AJ115" s="187"/>
       <c r="AK115" s="187"/>
     </row>
-    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="64" t="s">
         <v>573</v>
       </c>
@@ -12195,7 +12300,7 @@
       <c r="F116" s="67">
         <v>329.14</v>
       </c>
-      <c r="G116" s="242">
+      <c r="G116" s="221">
         <f t="shared" si="25"/>
         <v>7899.36</v>
       </c>
@@ -12263,7 +12368,7 @@
       <c r="AJ116" s="187"/>
       <c r="AK116" s="187"/>
     </row>
-    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="64" t="s">
         <v>573</v>
       </c>
@@ -12282,7 +12387,7 @@
       <c r="F117" s="67">
         <v>182.86</v>
       </c>
-      <c r="G117" s="242">
+      <c r="G117" s="221">
         <f t="shared" si="25"/>
         <v>4388.6400000000003</v>
       </c>
@@ -12350,7 +12455,7 @@
       <c r="AJ117" s="187"/>
       <c r="AK117" s="187"/>
     </row>
-    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="64" t="s">
         <v>573</v>
       </c>
@@ -12369,7 +12474,7 @@
       <c r="F118" s="67">
         <v>195.87</v>
       </c>
-      <c r="G118" s="242">
+      <c r="G118" s="221">
         <f t="shared" si="25"/>
         <v>1371.0900000000001</v>
       </c>
@@ -12437,7 +12542,7 @@
       <c r="AJ118" s="187"/>
       <c r="AK118" s="187"/>
     </row>
-    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="64" t="s">
         <v>573</v>
       </c>
@@ -12456,7 +12561,7 @@
       <c r="F119" s="67">
         <v>288.79000000000002</v>
       </c>
-      <c r="G119" s="242">
+      <c r="G119" s="221">
         <f t="shared" si="25"/>
         <v>4620.6400000000003</v>
       </c>
@@ -12524,7 +12629,7 @@
       <c r="AJ119" s="187"/>
       <c r="AK119" s="187"/>
     </row>
-    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="64" t="s">
         <v>573</v>
       </c>
@@ -12543,7 +12648,7 @@
       <c r="F120" s="67">
         <v>275.52</v>
       </c>
-      <c r="G120" s="242">
+      <c r="G120" s="221">
         <f t="shared" si="25"/>
         <v>275.52</v>
       </c>
@@ -12611,7 +12716,10 @@
       <c r="AJ120" s="187"/>
       <c r="AK120" s="187"/>
     </row>
-    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B121" s="65" t="s">
         <v>213</v>
       </c>
@@ -12621,7 +12729,7 @@
       <c r="D121" s="72"/>
       <c r="E121" s="203"/>
       <c r="F121" s="73"/>
-      <c r="G121" s="242"/>
+      <c r="G121" s="221"/>
       <c r="H121" s="16"/>
       <c r="I121" s="20"/>
       <c r="J121" s="21"/>
@@ -12659,7 +12767,7 @@
       <c r="AJ121" s="187"/>
       <c r="AK121" s="187"/>
     </row>
-    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="64" t="s">
         <v>562</v>
       </c>
@@ -12678,7 +12786,7 @@
       <c r="F122" s="67">
         <v>84.75</v>
       </c>
-      <c r="G122" s="242">
+      <c r="G122" s="221">
         <f t="shared" si="25"/>
         <v>17712.75</v>
       </c>
@@ -12753,7 +12861,10 @@
       <c r="AJ122" s="187"/>
       <c r="AK122" s="187"/>
     </row>
-    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B123" s="65">
         <v>6.5</v>
       </c>
@@ -12763,7 +12874,7 @@
       <c r="D123" s="65"/>
       <c r="E123" s="203"/>
       <c r="F123" s="70"/>
-      <c r="G123" s="242"/>
+      <c r="G123" s="221"/>
       <c r="H123" s="16"/>
       <c r="I123" s="20"/>
       <c r="J123" s="21"/>
@@ -12801,7 +12912,7 @@
       <c r="AJ123" s="187"/>
       <c r="AK123" s="187"/>
     </row>
-    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="64" t="s">
         <v>567</v>
       </c>
@@ -12820,7 +12931,7 @@
       <c r="F124" s="67">
         <v>22850</v>
       </c>
-      <c r="G124" s="242">
+      <c r="G124" s="221">
         <f t="shared" si="25"/>
         <v>45700</v>
       </c>
@@ -12897,7 +13008,7 @@
       <c r="AJ124" s="187"/>
       <c r="AK124" s="187"/>
     </row>
-    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="64" t="s">
         <v>567</v>
       </c>
@@ -12916,7 +13027,7 @@
       <c r="F125" s="67">
         <v>1500</v>
       </c>
-      <c r="G125" s="242">
+      <c r="G125" s="221">
         <f t="shared" si="25"/>
         <v>1500</v>
       </c>
@@ -12993,7 +13104,10 @@
       <c r="AJ125" s="187"/>
       <c r="AK125" s="187"/>
     </row>
-    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B126" s="65">
         <v>6.6</v>
       </c>
@@ -13003,7 +13117,7 @@
       <c r="D126" s="65"/>
       <c r="E126" s="203"/>
       <c r="F126" s="70"/>
-      <c r="G126" s="242"/>
+      <c r="G126" s="221"/>
       <c r="H126" s="16"/>
       <c r="I126" s="20"/>
       <c r="J126" s="21"/>
@@ -13041,7 +13155,7 @@
       <c r="AJ126" s="187"/>
       <c r="AK126" s="187"/>
     </row>
-    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="64" t="s">
         <v>573</v>
       </c>
@@ -13060,7 +13174,7 @@
       <c r="F127" s="67">
         <v>21611.89</v>
       </c>
-      <c r="G127" s="242">
+      <c r="G127" s="221">
         <f t="shared" si="25"/>
         <v>21611.89</v>
       </c>
@@ -13128,7 +13242,7 @@
       <c r="AJ127" s="187"/>
       <c r="AK127" s="187"/>
     </row>
-    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="64" t="s">
         <v>567</v>
       </c>
@@ -13147,7 +13261,7 @@
       <c r="F128" s="67">
         <v>8980</v>
       </c>
-      <c r="G128" s="242">
+      <c r="G128" s="221">
         <f t="shared" si="25"/>
         <v>17960</v>
       </c>
@@ -13223,7 +13337,7 @@
       <c r="AJ128" s="187"/>
       <c r="AK128" s="187"/>
     </row>
-    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="64" t="s">
         <v>567</v>
       </c>
@@ -13242,7 +13356,7 @@
       <c r="F129" s="67">
         <v>11980</v>
       </c>
-      <c r="G129" s="242">
+      <c r="G129" s="221">
         <f t="shared" si="25"/>
         <v>143760</v>
       </c>
@@ -13318,7 +13432,7 @@
       <c r="AJ129" s="187"/>
       <c r="AK129" s="187"/>
     </row>
-    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="64" t="s">
         <v>567</v>
       </c>
@@ -13337,7 +13451,7 @@
       <c r="F130" s="67">
         <v>947.55</v>
       </c>
-      <c r="G130" s="242">
+      <c r="G130" s="221">
         <f t="shared" si="25"/>
         <v>3790.2</v>
       </c>
@@ -13413,7 +13527,7 @@
       <c r="AJ130" s="187"/>
       <c r="AK130" s="187"/>
     </row>
-    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="64" t="s">
         <v>573</v>
       </c>
@@ -13432,7 +13546,7 @@
       <c r="F131" s="67">
         <v>1650</v>
       </c>
-      <c r="G131" s="242">
+      <c r="G131" s="221">
         <f t="shared" si="25"/>
         <v>79200</v>
       </c>
@@ -13500,7 +13614,7 @@
       <c r="AJ131" s="187"/>
       <c r="AK131" s="187"/>
     </row>
-    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="64" t="s">
         <v>555</v>
       </c>
@@ -13519,7 +13633,7 @@
       <c r="F132" s="67">
         <v>1450</v>
       </c>
-      <c r="G132" s="242">
+      <c r="G132" s="221">
         <f t="shared" si="25"/>
         <v>23200</v>
       </c>
@@ -13587,7 +13701,7 @@
       <c r="AJ132" s="187"/>
       <c r="AK132" s="187"/>
     </row>
-    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="64" t="s">
         <v>562</v>
       </c>
@@ -13606,7 +13720,7 @@
       <c r="F133" s="67">
         <v>865.23</v>
       </c>
-      <c r="G133" s="242">
+      <c r="G133" s="221">
         <f t="shared" si="25"/>
         <v>16439.37</v>
       </c>
@@ -13681,7 +13795,10 @@
       <c r="AJ133" s="187"/>
       <c r="AK133" s="187"/>
     </row>
-    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B134" s="65">
         <v>6.7</v>
       </c>
@@ -13691,7 +13808,7 @@
       <c r="D134" s="65"/>
       <c r="E134" s="203"/>
       <c r="F134" s="70"/>
-      <c r="G134" s="242"/>
+      <c r="G134" s="221"/>
       <c r="H134" s="16"/>
       <c r="I134" s="20"/>
       <c r="J134" s="21"/>
@@ -13729,7 +13846,10 @@
       <c r="AJ134" s="187"/>
       <c r="AK134" s="187"/>
     </row>
-    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B135" s="65" t="s">
         <v>237</v>
       </c>
@@ -13739,7 +13859,7 @@
       <c r="D135" s="72"/>
       <c r="E135" s="203"/>
       <c r="F135" s="73"/>
-      <c r="G135" s="242"/>
+      <c r="G135" s="221"/>
       <c r="H135" s="16"/>
       <c r="I135" s="20"/>
       <c r="J135" s="21"/>
@@ -13777,7 +13897,10 @@
       <c r="AJ135" s="187"/>
       <c r="AK135" s="187"/>
     </row>
-    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B136" s="65" t="s">
         <v>239</v>
       </c>
@@ -13787,7 +13910,7 @@
       <c r="D136" s="72"/>
       <c r="E136" s="203"/>
       <c r="F136" s="73"/>
-      <c r="G136" s="242"/>
+      <c r="G136" s="221"/>
       <c r="H136" s="16"/>
       <c r="I136" s="20"/>
       <c r="J136" s="21"/>
@@ -13825,7 +13948,10 @@
       <c r="AJ136" s="187"/>
       <c r="AK136" s="187"/>
     </row>
-    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B137" s="65" t="s">
         <v>241</v>
       </c>
@@ -13835,7 +13961,7 @@
       <c r="D137" s="72"/>
       <c r="E137" s="203"/>
       <c r="F137" s="73"/>
-      <c r="G137" s="242"/>
+      <c r="G137" s="221"/>
       <c r="H137" s="16"/>
       <c r="I137" s="20"/>
       <c r="J137" s="21"/>
@@ -13873,7 +13999,7 @@
       <c r="AJ137" s="187"/>
       <c r="AK137" s="187"/>
     </row>
-    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="64" t="s">
         <v>573</v>
       </c>
@@ -13892,7 +14018,7 @@
       <c r="F138" s="67">
         <v>59.28</v>
       </c>
-      <c r="G138" s="242">
+      <c r="G138" s="221">
         <f t="shared" si="25"/>
         <v>1422.72</v>
       </c>
@@ -13963,7 +14089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="64" t="s">
         <v>573</v>
       </c>
@@ -13982,7 +14108,7 @@
       <c r="F139" s="67">
         <v>25.67</v>
       </c>
-      <c r="G139" s="242">
+      <c r="G139" s="221">
         <f t="shared" si="25"/>
         <v>102.68</v>
       </c>
@@ -14053,7 +14179,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B140" s="65" t="s">
         <v>246</v>
       </c>
@@ -14063,7 +14192,7 @@
       <c r="D140" s="72"/>
       <c r="E140" s="203"/>
       <c r="F140" s="73"/>
-      <c r="G140" s="242"/>
+      <c r="G140" s="221"/>
       <c r="H140" s="16"/>
       <c r="I140" s="20"/>
       <c r="J140" s="21"/>
@@ -14101,7 +14230,7 @@
       <c r="AJ140" s="187"/>
       <c r="AK140" s="187"/>
     </row>
-    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="64" t="s">
         <v>573</v>
       </c>
@@ -14120,7 +14249,7 @@
       <c r="F141" s="67">
         <v>52.22</v>
       </c>
-      <c r="G141" s="242">
+      <c r="G141" s="221">
         <f t="shared" si="25"/>
         <v>104.44</v>
       </c>
@@ -14191,7 +14320,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B142" s="65">
         <v>6.8</v>
       </c>
@@ -14201,7 +14333,7 @@
       <c r="D142" s="65"/>
       <c r="E142" s="203"/>
       <c r="F142" s="70"/>
-      <c r="G142" s="242"/>
+      <c r="G142" s="221"/>
       <c r="H142" s="16"/>
       <c r="I142" s="20"/>
       <c r="J142" s="21"/>
@@ -14239,7 +14371,7 @@
       <c r="AJ142" s="187"/>
       <c r="AK142" s="187"/>
     </row>
-    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="64" t="s">
         <v>567</v>
       </c>
@@ -14258,7 +14390,7 @@
       <c r="F143" s="67">
         <v>5440</v>
       </c>
-      <c r="G143" s="242">
+      <c r="G143" s="221">
         <f t="shared" si="25"/>
         <v>5440</v>
       </c>
@@ -14335,7 +14467,7 @@
       <c r="AJ143" s="187"/>
       <c r="AK143" s="187"/>
     </row>
-    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="64" t="s">
         <v>567</v>
       </c>
@@ -14354,7 +14486,7 @@
       <c r="F144" s="67">
         <v>4158</v>
       </c>
-      <c r="G144" s="242">
+      <c r="G144" s="221">
         <f t="shared" si="25"/>
         <v>8316</v>
       </c>
@@ -14431,7 +14563,7 @@
       <c r="AJ144" s="187"/>
       <c r="AK144" s="187"/>
     </row>
-    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="64" t="s">
         <v>567</v>
       </c>
@@ -14450,7 +14582,7 @@
       <c r="F145" s="67">
         <v>6850</v>
       </c>
-      <c r="G145" s="242">
+      <c r="G145" s="221">
         <f t="shared" si="25"/>
         <v>6850</v>
       </c>
@@ -14527,7 +14659,7 @@
       <c r="AJ145" s="187"/>
       <c r="AK145" s="187"/>
     </row>
-    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="64" t="s">
         <v>573</v>
       </c>
@@ -14546,7 +14678,7 @@
       <c r="F146" s="67">
         <v>4322.03</v>
       </c>
-      <c r="G146" s="242">
+      <c r="G146" s="221">
         <f t="shared" si="25"/>
         <v>25932.18</v>
       </c>
@@ -14614,7 +14746,7 @@
       <c r="AJ146" s="187"/>
       <c r="AK146" s="187"/>
     </row>
-    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="64" t="s">
         <v>573</v>
       </c>
@@ -14633,7 +14765,7 @@
       <c r="F147" s="67">
         <v>2356</v>
       </c>
-      <c r="G147" s="242">
+      <c r="G147" s="221">
         <f t="shared" si="25"/>
         <v>2356</v>
       </c>
@@ -14701,7 +14833,7 @@
       <c r="AJ147" s="187"/>
       <c r="AK147" s="187"/>
     </row>
-    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="64" t="s">
         <v>573</v>
       </c>
@@ -14720,7 +14852,7 @@
       <c r="F148" s="67">
         <v>1156.99</v>
       </c>
-      <c r="G148" s="242">
+      <c r="G148" s="221">
         <f t="shared" si="25"/>
         <v>1156.99</v>
       </c>
@@ -14788,7 +14920,10 @@
       <c r="AJ148" s="187"/>
       <c r="AK148" s="187"/>
     </row>
-    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B149" s="65">
         <v>6.9</v>
       </c>
@@ -14798,7 +14933,7 @@
       <c r="D149" s="65"/>
       <c r="E149" s="203"/>
       <c r="F149" s="70"/>
-      <c r="G149" s="242"/>
+      <c r="G149" s="221"/>
       <c r="H149" s="16"/>
       <c r="I149" s="20"/>
       <c r="J149" s="21"/>
@@ -14836,7 +14971,10 @@
       <c r="AJ149" s="187"/>
       <c r="AK149" s="187"/>
     </row>
-    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B150" s="65" t="s">
         <v>263</v>
       </c>
@@ -14846,7 +14984,7 @@
       <c r="D150" s="72"/>
       <c r="E150" s="203"/>
       <c r="F150" s="73"/>
-      <c r="G150" s="242"/>
+      <c r="G150" s="221"/>
       <c r="H150" s="16"/>
       <c r="I150" s="20"/>
       <c r="J150" s="21"/>
@@ -14884,7 +15022,7 @@
       <c r="AJ150" s="187"/>
       <c r="AK150" s="187"/>
     </row>
-    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="64" t="s">
         <v>573</v>
       </c>
@@ -14903,7 +15041,7 @@
       <c r="F151" s="67">
         <v>23.92</v>
       </c>
-      <c r="G151" s="242">
+      <c r="G151" s="221">
         <f t="shared" si="25"/>
         <v>7176.0000000000009</v>
       </c>
@@ -14971,7 +15109,7 @@
       <c r="AJ151" s="187"/>
       <c r="AK151" s="187"/>
     </row>
-    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="64" t="s">
         <v>567</v>
       </c>
@@ -14990,7 +15128,7 @@
       <c r="F152" s="67">
         <v>8.33</v>
       </c>
-      <c r="G152" s="242">
+      <c r="G152" s="221">
         <f t="shared" si="25"/>
         <v>119502.18000000001</v>
       </c>
@@ -15067,7 +15205,10 @@
       <c r="AJ152" s="187"/>
       <c r="AK152" s="187"/>
     </row>
-    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B153" s="65" t="s">
         <v>267</v>
       </c>
@@ -15077,7 +15218,7 @@
       <c r="D153" s="72"/>
       <c r="E153" s="203"/>
       <c r="F153" s="73"/>
-      <c r="G153" s="242"/>
+      <c r="G153" s="221"/>
       <c r="H153" s="16"/>
       <c r="I153" s="20"/>
       <c r="J153" s="21"/>
@@ -15115,7 +15256,7 @@
       <c r="AJ153" s="187"/>
       <c r="AK153" s="187"/>
     </row>
-    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="64" t="s">
         <v>573</v>
       </c>
@@ -15134,7 +15275,7 @@
       <c r="F154" s="67">
         <v>9.43</v>
       </c>
-      <c r="G154" s="242">
+      <c r="G154" s="221">
         <f t="shared" si="25"/>
         <v>8458.7099999999991</v>
       </c>
@@ -15202,7 +15343,7 @@
       <c r="AJ154" s="187"/>
       <c r="AK154" s="187"/>
     </row>
-    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>573</v>
       </c>
@@ -15215,13 +15356,13 @@
       <c r="D155" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E155" s="231">
+      <c r="E155" s="210">
         <v>135</v>
       </c>
       <c r="F155" s="45">
         <v>39.090000000000003</v>
       </c>
-      <c r="G155" s="244">
+      <c r="G155" s="223">
         <f t="shared" ref="G155:G218" si="37">+E155*F155</f>
         <v>5277.1500000000005</v>
       </c>
@@ -15289,7 +15430,7 @@
       <c r="AJ155" s="187"/>
       <c r="AK155" s="187"/>
     </row>
-    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="64" t="s">
         <v>573</v>
       </c>
@@ -15308,7 +15449,7 @@
       <c r="F156" s="67">
         <v>8.2899999999999991</v>
       </c>
-      <c r="G156" s="242">
+      <c r="G156" s="221">
         <f t="shared" si="37"/>
         <v>1840.3799999999999</v>
       </c>
@@ -15376,7 +15517,7 @@
       <c r="AJ156" s="187"/>
       <c r="AK156" s="187"/>
     </row>
-    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="64" t="s">
         <v>573</v>
       </c>
@@ -15395,7 +15536,7 @@
       <c r="F157" s="67">
         <v>8.9600000000000009</v>
       </c>
-      <c r="G157" s="242">
+      <c r="G157" s="221">
         <f t="shared" si="37"/>
         <v>3100.1600000000003</v>
       </c>
@@ -15463,7 +15604,7 @@
       <c r="AJ157" s="187"/>
       <c r="AK157" s="187"/>
     </row>
-    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="64" t="s">
         <v>573</v>
       </c>
@@ -15482,7 +15623,7 @@
       <c r="F158" s="67">
         <v>9.1300000000000008</v>
       </c>
-      <c r="G158" s="242">
+      <c r="G158" s="221">
         <f t="shared" si="37"/>
         <v>821.7</v>
       </c>
@@ -15550,7 +15691,7 @@
       <c r="AJ158" s="187"/>
       <c r="AK158" s="187"/>
     </row>
-    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>573</v>
       </c>
@@ -15563,13 +15704,13 @@
       <c r="D159" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E159" s="230">
+      <c r="E159" s="209">
         <v>156</v>
       </c>
       <c r="F159" s="24">
         <v>40.46</v>
       </c>
-      <c r="G159" s="243">
+      <c r="G159" s="222">
         <f t="shared" si="37"/>
         <v>6311.76</v>
       </c>
@@ -15637,7 +15778,7 @@
       <c r="AJ159" s="187"/>
       <c r="AK159" s="187"/>
     </row>
-    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="64" t="s">
         <v>573</v>
       </c>
@@ -15656,7 +15797,7 @@
       <c r="F160" s="67">
         <v>59.28</v>
       </c>
-      <c r="G160" s="242">
+      <c r="G160" s="221">
         <f t="shared" si="37"/>
         <v>9721.92</v>
       </c>
@@ -15724,7 +15865,7 @@
       <c r="AJ160" s="187"/>
       <c r="AK160" s="187"/>
     </row>
-    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>573</v>
       </c>
@@ -15737,13 +15878,13 @@
       <c r="D161" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E161" s="230">
+      <c r="E161" s="209">
         <v>45</v>
       </c>
       <c r="F161" s="24">
         <v>20.45</v>
       </c>
-      <c r="G161" s="243">
+      <c r="G161" s="222">
         <f t="shared" si="37"/>
         <v>920.25</v>
       </c>
@@ -15811,7 +15952,7 @@
       <c r="AJ161" s="187"/>
       <c r="AK161" s="187"/>
     </row>
-    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="64" t="s">
         <v>573</v>
       </c>
@@ -15830,7 +15971,7 @@
       <c r="F162" s="67">
         <v>66.69</v>
       </c>
-      <c r="G162" s="242">
+      <c r="G162" s="221">
         <f t="shared" si="37"/>
         <v>3001.0499999999997</v>
       </c>
@@ -15898,7 +16039,7 @@
       <c r="AJ162" s="187"/>
       <c r="AK162" s="187"/>
     </row>
-    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>573</v>
       </c>
@@ -15911,13 +16052,13 @@
       <c r="D163" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E163" s="230">
+      <c r="E163" s="209">
         <v>133</v>
       </c>
       <c r="F163" s="24">
         <v>20.45</v>
       </c>
-      <c r="G163" s="243">
+      <c r="G163" s="222">
         <f t="shared" si="37"/>
         <v>2719.85</v>
       </c>
@@ -15985,7 +16126,7 @@
       <c r="AJ163" s="187"/>
       <c r="AK163" s="187"/>
     </row>
-    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="64" t="s">
         <v>573</v>
       </c>
@@ -16004,7 +16145,7 @@
       <c r="F164" s="67">
         <v>25.67</v>
       </c>
-      <c r="G164" s="242">
+      <c r="G164" s="221">
         <f t="shared" si="37"/>
         <v>2310.3000000000002</v>
       </c>
@@ -16072,7 +16213,10 @@
       <c r="AJ164" s="187"/>
       <c r="AK164" s="187"/>
     </row>
-    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B165" s="65" t="s">
         <v>280</v>
       </c>
@@ -16082,7 +16226,7 @@
       <c r="D165" s="72"/>
       <c r="E165" s="203"/>
       <c r="F165" s="73"/>
-      <c r="G165" s="242"/>
+      <c r="G165" s="221"/>
       <c r="H165" s="16"/>
       <c r="I165" s="20"/>
       <c r="J165" s="21"/>
@@ -16120,7 +16264,7 @@
       <c r="AJ165" s="187"/>
       <c r="AK165" s="187"/>
     </row>
-    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>573</v>
       </c>
@@ -16133,13 +16277,13 @@
       <c r="D166" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E166" s="230">
+      <c r="E166" s="209">
         <v>30</v>
       </c>
       <c r="F166" s="24">
         <v>153.99</v>
       </c>
-      <c r="G166" s="243">
+      <c r="G166" s="222">
         <f t="shared" si="37"/>
         <v>4619.7000000000007</v>
       </c>
@@ -16207,7 +16351,7 @@
       <c r="AJ166" s="187"/>
       <c r="AK166" s="187"/>
     </row>
-    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>573</v>
       </c>
@@ -16220,13 +16364,13 @@
       <c r="D167" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E167" s="230">
+      <c r="E167" s="209">
         <v>30</v>
       </c>
       <c r="F167" s="24">
         <v>43.61</v>
       </c>
-      <c r="G167" s="243">
+      <c r="G167" s="222">
         <f t="shared" si="37"/>
         <v>1308.3</v>
       </c>
@@ -16294,7 +16438,7 @@
       <c r="AJ167" s="187"/>
       <c r="AK167" s="187"/>
     </row>
-    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>573</v>
       </c>
@@ -16307,13 +16451,13 @@
       <c r="D168" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E168" s="230">
+      <c r="E168" s="209">
         <v>7</v>
       </c>
       <c r="F168" s="24">
         <v>96.67</v>
       </c>
-      <c r="G168" s="243">
+      <c r="G168" s="222">
         <f t="shared" si="37"/>
         <v>676.69</v>
       </c>
@@ -16381,7 +16525,7 @@
       <c r="AJ168" s="187"/>
       <c r="AK168" s="187"/>
     </row>
-    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>573</v>
       </c>
@@ -16394,13 +16538,13 @@
       <c r="D169" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E169" s="230">
+      <c r="E169" s="209">
         <v>314</v>
       </c>
       <c r="F169" s="24">
         <v>151.46</v>
       </c>
-      <c r="G169" s="243">
+      <c r="G169" s="222">
         <f t="shared" si="37"/>
         <v>47558.44</v>
       </c>
@@ -16468,7 +16612,7 @@
       <c r="AJ169" s="187"/>
       <c r="AK169" s="187"/>
     </row>
-    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>573</v>
       </c>
@@ -16481,13 +16625,13 @@
       <c r="D170" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E170" s="230">
+      <c r="E170" s="209">
         <v>278</v>
       </c>
       <c r="F170" s="24">
         <v>43.61</v>
       </c>
-      <c r="G170" s="243">
+      <c r="G170" s="222">
         <f t="shared" si="37"/>
         <v>12123.58</v>
       </c>
@@ -16555,7 +16699,7 @@
       <c r="AJ170" s="187"/>
       <c r="AK170" s="187"/>
     </row>
-    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>573</v>
       </c>
@@ -16568,13 +16712,13 @@
       <c r="D171" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E171" s="230">
+      <c r="E171" s="209">
         <v>40</v>
       </c>
       <c r="F171" s="24">
         <v>81.069999999999993</v>
       </c>
-      <c r="G171" s="243">
+      <c r="G171" s="222">
         <f t="shared" si="37"/>
         <v>3242.7999999999997</v>
       </c>
@@ -16642,7 +16786,7 @@
       <c r="AJ171" s="187"/>
       <c r="AK171" s="187"/>
     </row>
-    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>573</v>
       </c>
@@ -16655,13 +16799,13 @@
       <c r="D172" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E172" s="230">
+      <c r="E172" s="209">
         <v>4</v>
       </c>
       <c r="F172" s="24">
         <v>59.28</v>
       </c>
-      <c r="G172" s="243">
+      <c r="G172" s="222">
         <f t="shared" si="37"/>
         <v>237.12</v>
       </c>
@@ -16729,7 +16873,7 @@
       <c r="AJ172" s="187"/>
       <c r="AK172" s="187"/>
     </row>
-    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="64" t="s">
         <v>573</v>
       </c>
@@ -16748,7 +16892,7 @@
       <c r="F173" s="67">
         <v>19.420000000000002</v>
       </c>
-      <c r="G173" s="242">
+      <c r="G173" s="221">
         <f t="shared" si="37"/>
         <v>38.840000000000003</v>
       </c>
@@ -16816,7 +16960,10 @@
       <c r="AJ173" s="187"/>
       <c r="AK173" s="187"/>
     </row>
-    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B174" s="65" t="s">
         <v>297</v>
       </c>
@@ -16826,7 +16973,7 @@
       <c r="D174" s="72"/>
       <c r="E174" s="203"/>
       <c r="F174" s="73"/>
-      <c r="G174" s="242"/>
+      <c r="G174" s="221"/>
       <c r="H174" s="16"/>
       <c r="I174" s="20"/>
       <c r="J174" s="21"/>
@@ -16864,7 +17011,7 @@
       <c r="AJ174" s="187"/>
       <c r="AK174" s="187"/>
     </row>
-    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="64" t="s">
         <v>573</v>
       </c>
@@ -16883,7 +17030,7 @@
       <c r="F175" s="67">
         <v>29.32</v>
       </c>
-      <c r="G175" s="242">
+      <c r="G175" s="221">
         <f t="shared" si="37"/>
         <v>2111.04</v>
       </c>
@@ -16951,7 +17098,7 @@
       <c r="AJ175" s="187"/>
       <c r="AK175" s="187"/>
     </row>
-    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="64" t="s">
         <v>573</v>
       </c>
@@ -16970,7 +17117,7 @@
       <c r="F176" s="67">
         <v>33.57</v>
       </c>
-      <c r="G176" s="242">
+      <c r="G176" s="221">
         <f t="shared" si="37"/>
         <v>671.4</v>
       </c>
@@ -17038,7 +17185,7 @@
       <c r="AJ176" s="187"/>
       <c r="AK176" s="187"/>
     </row>
-    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="64" t="s">
         <v>573</v>
       </c>
@@ -17057,7 +17204,7 @@
       <c r="F177" s="67">
         <v>53.74</v>
       </c>
-      <c r="G177" s="242">
+      <c r="G177" s="221">
         <f t="shared" si="37"/>
         <v>4836.6000000000004</v>
       </c>
@@ -17125,7 +17272,10 @@
       <c r="AJ177" s="187"/>
       <c r="AK177" s="187"/>
     </row>
-    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B178" s="65" t="s">
         <v>301</v>
       </c>
@@ -17135,7 +17285,7 @@
       <c r="D178" s="72"/>
       <c r="E178" s="203"/>
       <c r="F178" s="73"/>
-      <c r="G178" s="242"/>
+      <c r="G178" s="221"/>
       <c r="H178" s="16"/>
       <c r="I178" s="20"/>
       <c r="J178" s="21"/>
@@ -17173,7 +17323,7 @@
       <c r="AJ178" s="187"/>
       <c r="AK178" s="187"/>
     </row>
-    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>573</v>
       </c>
@@ -17186,13 +17336,13 @@
       <c r="D179" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E179" s="230">
+      <c r="E179" s="209">
         <v>101</v>
       </c>
       <c r="F179" s="24">
         <v>23.82</v>
       </c>
-      <c r="G179" s="243">
+      <c r="G179" s="222">
         <f t="shared" si="37"/>
         <v>2405.8200000000002</v>
       </c>
@@ -17260,7 +17410,7 @@
       <c r="AJ179" s="187"/>
       <c r="AK179" s="187"/>
     </row>
-    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>573</v>
       </c>
@@ -17273,13 +17423,13 @@
       <c r="D180" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E180" s="230">
+      <c r="E180" s="209">
         <v>72</v>
       </c>
       <c r="F180" s="24">
         <v>98.32</v>
       </c>
-      <c r="G180" s="243">
+      <c r="G180" s="222">
         <f t="shared" si="37"/>
         <v>7079.0399999999991</v>
       </c>
@@ -17347,7 +17497,7 @@
       <c r="AJ180" s="187"/>
       <c r="AK180" s="187"/>
     </row>
-    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>573</v>
       </c>
@@ -17360,13 +17510,13 @@
       <c r="D181" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E181" s="230">
+      <c r="E181" s="209">
         <v>43</v>
       </c>
       <c r="F181" s="24">
         <v>60.62</v>
       </c>
-      <c r="G181" s="243">
+      <c r="G181" s="222">
         <f t="shared" si="37"/>
         <v>2606.66</v>
       </c>
@@ -17434,7 +17584,10 @@
       <c r="AJ181" s="187"/>
       <c r="AK181" s="187"/>
     </row>
-    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B182" s="65" t="s">
         <v>308</v>
       </c>
@@ -17444,7 +17597,7 @@
       <c r="D182" s="72"/>
       <c r="E182" s="203"/>
       <c r="F182" s="73"/>
-      <c r="G182" s="242"/>
+      <c r="G182" s="221"/>
       <c r="H182" s="16"/>
       <c r="I182" s="20"/>
       <c r="J182" s="21"/>
@@ -17482,7 +17635,7 @@
       <c r="AJ182" s="187"/>
       <c r="AK182" s="187"/>
     </row>
-    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>573</v>
       </c>
@@ -17495,13 +17648,13 @@
       <c r="D183" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="230">
+      <c r="E183" s="209">
         <v>10</v>
       </c>
       <c r="F183" s="24">
         <v>61.56</v>
       </c>
-      <c r="G183" s="243">
+      <c r="G183" s="222">
         <f t="shared" si="37"/>
         <v>615.6</v>
       </c>
@@ -17569,7 +17722,7 @@
       <c r="AJ183" s="187"/>
       <c r="AK183" s="187"/>
     </row>
-    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>573</v>
       </c>
@@ -17582,13 +17735,13 @@
       <c r="D184" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E184" s="230">
+      <c r="E184" s="209">
         <v>91</v>
       </c>
       <c r="F184" s="24">
         <v>65.5</v>
       </c>
-      <c r="G184" s="243">
+      <c r="G184" s="222">
         <f t="shared" si="37"/>
         <v>5960.5</v>
       </c>
@@ -17656,7 +17809,7 @@
       <c r="AJ184" s="187"/>
       <c r="AK184" s="187"/>
     </row>
-    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="64" t="s">
         <v>573</v>
       </c>
@@ -17675,7 +17828,7 @@
       <c r="F185" s="67">
         <v>183.18</v>
       </c>
-      <c r="G185" s="242">
+      <c r="G185" s="221">
         <f t="shared" si="37"/>
         <v>183.18</v>
       </c>
@@ -17746,7 +17899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="64" t="s">
         <v>573</v>
       </c>
@@ -17765,7 +17918,7 @@
       <c r="F186" s="67">
         <v>218.3</v>
       </c>
-      <c r="G186" s="242">
+      <c r="G186" s="221">
         <f t="shared" si="37"/>
         <v>15499.300000000001</v>
       </c>
@@ -17836,7 +17989,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B187" s="65" t="s">
         <v>318</v>
       </c>
@@ -17846,7 +18002,7 @@
       <c r="D187" s="72"/>
       <c r="E187" s="203"/>
       <c r="F187" s="73"/>
-      <c r="G187" s="242"/>
+      <c r="G187" s="221"/>
       <c r="H187" s="16"/>
       <c r="I187" s="20"/>
       <c r="J187" s="21"/>
@@ -17884,7 +18040,7 @@
       <c r="AJ187" s="187"/>
       <c r="AK187" s="187"/>
     </row>
-    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="64" t="s">
         <v>567</v>
       </c>
@@ -17903,7 +18059,7 @@
       <c r="F188" s="67">
         <v>38906</v>
       </c>
-      <c r="G188" s="242">
+      <c r="G188" s="221">
         <f t="shared" si="37"/>
         <v>77812</v>
       </c>
@@ -17980,7 +18136,7 @@
       <c r="AJ188" s="187"/>
       <c r="AK188" s="187"/>
     </row>
-    <row r="189" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="64" t="s">
         <v>567</v>
       </c>
@@ -17999,7 +18155,7 @@
       <c r="F189" s="67">
         <v>12526.82</v>
       </c>
-      <c r="G189" s="242">
+      <c r="G189" s="221">
         <f t="shared" si="37"/>
         <v>87687.739999999991</v>
       </c>
@@ -18076,7 +18232,10 @@
       <c r="AJ189" s="187"/>
       <c r="AK189" s="187"/>
     </row>
-    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B190" s="65" t="s">
         <v>324</v>
       </c>
@@ -18086,7 +18245,7 @@
       <c r="D190" s="72"/>
       <c r="E190" s="203"/>
       <c r="F190" s="73"/>
-      <c r="G190" s="242"/>
+      <c r="G190" s="221"/>
       <c r="H190" s="16"/>
       <c r="I190" s="20"/>
       <c r="J190" s="21"/>
@@ -18124,7 +18283,7 @@
       <c r="AJ190" s="187"/>
       <c r="AK190" s="187"/>
     </row>
-    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="64" t="s">
         <v>573</v>
       </c>
@@ -18143,7 +18302,7 @@
       <c r="F191" s="67">
         <v>225.5</v>
       </c>
-      <c r="G191" s="242">
+      <c r="G191" s="221">
         <f t="shared" si="37"/>
         <v>225.5</v>
       </c>
@@ -18211,7 +18370,7 @@
       <c r="AJ191" s="187"/>
       <c r="AK191" s="187"/>
     </row>
-    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="64" t="s">
         <v>573</v>
       </c>
@@ -18230,7 +18389,7 @@
       <c r="F192" s="67">
         <v>185.4</v>
       </c>
-      <c r="G192" s="242">
+      <c r="G192" s="221">
         <f t="shared" si="37"/>
         <v>1297.8</v>
       </c>
@@ -18298,7 +18457,7 @@
       <c r="AJ192" s="187"/>
       <c r="AK192" s="187"/>
     </row>
-    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="64" t="s">
         <v>573</v>
       </c>
@@ -18317,7 +18476,7 @@
       <c r="F193" s="67">
         <v>442.5</v>
       </c>
-      <c r="G193" s="242">
+      <c r="G193" s="221">
         <f t="shared" si="37"/>
         <v>3540</v>
       </c>
@@ -18385,7 +18544,7 @@
       <c r="AJ193" s="187"/>
       <c r="AK193" s="187"/>
     </row>
-    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>573</v>
       </c>
@@ -18398,13 +18557,13 @@
       <c r="D194" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E194" s="230">
+      <c r="E194" s="209">
         <v>12</v>
       </c>
       <c r="F194" s="24">
         <v>567.41</v>
       </c>
-      <c r="G194" s="243">
+      <c r="G194" s="222">
         <f t="shared" si="37"/>
         <v>6808.92</v>
       </c>
@@ -18472,7 +18631,7 @@
       <c r="AJ194" s="187"/>
       <c r="AK194" s="187"/>
     </row>
-    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>573</v>
       </c>
@@ -18485,13 +18644,13 @@
       <c r="D195" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E195" s="230">
+      <c r="E195" s="209">
         <v>20</v>
       </c>
       <c r="F195" s="24">
         <v>443.75</v>
       </c>
-      <c r="G195" s="243">
+      <c r="G195" s="222">
         <f t="shared" si="37"/>
         <v>8875</v>
       </c>
@@ -18559,7 +18718,7 @@
       <c r="AJ195" s="187"/>
       <c r="AK195" s="187"/>
     </row>
-    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>573</v>
       </c>
@@ -18572,13 +18731,13 @@
       <c r="D196" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E196" s="230">
+      <c r="E196" s="209">
         <v>378</v>
       </c>
       <c r="F196" s="24">
         <v>34.22</v>
       </c>
-      <c r="G196" s="243">
+      <c r="G196" s="222">
         <f t="shared" si="37"/>
         <v>12935.16</v>
       </c>
@@ -18646,7 +18805,7 @@
       <c r="AJ196" s="187"/>
       <c r="AK196" s="187"/>
     </row>
-    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>573</v>
       </c>
@@ -18659,13 +18818,13 @@
       <c r="D197" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E197" s="230">
+      <c r="E197" s="209">
         <v>378</v>
       </c>
       <c r="F197" s="24">
         <v>38</v>
       </c>
-      <c r="G197" s="243">
+      <c r="G197" s="222">
         <f t="shared" si="37"/>
         <v>14364</v>
       </c>
@@ -18733,7 +18892,7 @@
       <c r="AJ197" s="187"/>
       <c r="AK197" s="187"/>
     </row>
-    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>573</v>
       </c>
@@ -18746,13 +18905,13 @@
       <c r="D198" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E198" s="230">
+      <c r="E198" s="209">
         <v>24</v>
       </c>
       <c r="F198" s="42">
         <v>261.89</v>
       </c>
-      <c r="G198" s="243">
+      <c r="G198" s="222">
         <f t="shared" si="37"/>
         <v>6285.36</v>
       </c>
@@ -18820,7 +18979,7 @@
       <c r="AJ198" s="187"/>
       <c r="AK198" s="187"/>
     </row>
-    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="64" t="s">
         <v>573</v>
       </c>
@@ -18839,7 +18998,7 @@
       <c r="F199" s="67">
         <v>36.64</v>
       </c>
-      <c r="G199" s="242">
+      <c r="G199" s="221">
         <f t="shared" si="37"/>
         <v>725.49032</v>
       </c>
@@ -18907,7 +19066,7 @@
       <c r="AJ199" s="187"/>
       <c r="AK199" s="187"/>
     </row>
-    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>573</v>
       </c>
@@ -18920,13 +19079,13 @@
       <c r="D200" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E200" s="230">
+      <c r="E200" s="209">
         <v>45</v>
       </c>
       <c r="F200" s="24">
         <v>290.99</v>
       </c>
-      <c r="G200" s="243">
+      <c r="G200" s="222">
         <f t="shared" si="37"/>
         <v>13094.550000000001</v>
       </c>
@@ -18994,7 +19153,7 @@
       <c r="AJ200" s="187"/>
       <c r="AK200" s="187"/>
     </row>
-    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="64" t="s">
         <v>573</v>
       </c>
@@ -19013,7 +19172,7 @@
       <c r="F201" s="67">
         <v>727.46</v>
       </c>
-      <c r="G201" s="242">
+      <c r="G201" s="221">
         <f t="shared" si="37"/>
         <v>727.46</v>
       </c>
@@ -19081,7 +19240,7 @@
       <c r="AJ201" s="187"/>
       <c r="AK201" s="187"/>
     </row>
-    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="64" t="s">
         <v>573</v>
       </c>
@@ -19100,7 +19259,7 @@
       <c r="F202" s="67">
         <v>65.47</v>
       </c>
-      <c r="G202" s="242">
+      <c r="G202" s="221">
         <f t="shared" si="37"/>
         <v>3142.56</v>
       </c>
@@ -19168,7 +19327,10 @@
       <c r="AJ202" s="187"/>
       <c r="AK202" s="187"/>
     </row>
-    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B203" s="65" t="s">
         <v>348</v>
       </c>
@@ -19178,7 +19340,7 @@
       <c r="D203" s="72"/>
       <c r="E203" s="203"/>
       <c r="F203" s="73"/>
-      <c r="G203" s="242"/>
+      <c r="G203" s="221"/>
       <c r="H203" s="16"/>
       <c r="I203" s="20"/>
       <c r="J203" s="21"/>
@@ -19216,7 +19378,7 @@
       <c r="AJ203" s="187"/>
       <c r="AK203" s="187"/>
     </row>
-    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="64" t="s">
         <v>573</v>
       </c>
@@ -19235,7 +19397,7 @@
       <c r="F204" s="67">
         <v>38.590000000000003</v>
       </c>
-      <c r="G204" s="242">
+      <c r="G204" s="221">
         <f t="shared" si="37"/>
         <v>14587.02</v>
       </c>
@@ -19303,7 +19465,7 @@
       <c r="AJ204" s="187"/>
       <c r="AK204" s="187"/>
     </row>
-    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="64" t="s">
         <v>573</v>
       </c>
@@ -19322,7 +19484,7 @@
       <c r="F205" s="67">
         <v>38.590000000000003</v>
       </c>
-      <c r="G205" s="242">
+      <c r="G205" s="221">
         <f t="shared" si="37"/>
         <v>14587.02</v>
       </c>
@@ -19393,7 +19555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="64" t="s">
         <v>573</v>
       </c>
@@ -19412,7 +19574,7 @@
       <c r="F206" s="67">
         <v>91.92</v>
       </c>
-      <c r="G206" s="242">
+      <c r="G206" s="221">
         <f t="shared" si="37"/>
         <v>4412.16</v>
       </c>
@@ -19480,7 +19642,7 @@
       <c r="AJ206" s="187"/>
       <c r="AK206" s="187"/>
     </row>
-    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="64" t="s">
         <v>573</v>
       </c>
@@ -19499,7 +19661,7 @@
       <c r="F207" s="67">
         <v>123.48</v>
       </c>
-      <c r="G207" s="242">
+      <c r="G207" s="221">
         <f t="shared" si="37"/>
         <v>2963.52</v>
       </c>
@@ -19567,7 +19729,7 @@
       <c r="AJ207" s="187"/>
       <c r="AK207" s="187"/>
     </row>
-    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="64" t="s">
         <v>573</v>
       </c>
@@ -19586,7 +19748,7 @@
       <c r="F208" s="67">
         <v>1271.18</v>
       </c>
-      <c r="G208" s="242">
+      <c r="G208" s="221">
         <f t="shared" si="37"/>
         <v>16525.34</v>
       </c>
@@ -19654,7 +19816,10 @@
       <c r="AJ208" s="187"/>
       <c r="AK208" s="187"/>
     </row>
-    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B209" s="113">
         <v>7</v>
       </c>
@@ -19664,7 +19829,7 @@
       <c r="D209" s="72"/>
       <c r="E209" s="203"/>
       <c r="F209" s="115"/>
-      <c r="G209" s="242"/>
+      <c r="G209" s="221"/>
       <c r="H209" s="16"/>
       <c r="I209" s="20"/>
       <c r="J209" s="21"/>
@@ -19702,7 +19867,10 @@
       <c r="AJ209" s="187"/>
       <c r="AK209" s="187"/>
     </row>
-    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B210" s="113">
         <v>7.1</v>
       </c>
@@ -19712,7 +19880,7 @@
       <c r="D210" s="65"/>
       <c r="E210" s="203"/>
       <c r="F210" s="70"/>
-      <c r="G210" s="242"/>
+      <c r="G210" s="221"/>
       <c r="H210" s="16"/>
       <c r="I210" s="20"/>
       <c r="J210" s="21"/>
@@ -19750,7 +19918,7 @@
       <c r="AJ210" s="187"/>
       <c r="AK210" s="187"/>
     </row>
-    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="64" t="s">
         <v>571</v>
       </c>
@@ -19769,7 +19937,7 @@
       <c r="F211" s="67">
         <v>5250</v>
       </c>
-      <c r="G211" s="242">
+      <c r="G211" s="221">
         <f t="shared" si="37"/>
         <v>63000</v>
       </c>
@@ -19837,7 +20005,7 @@
       <c r="AJ211" s="187"/>
       <c r="AK211" s="187"/>
     </row>
-    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="64" t="s">
         <v>571</v>
       </c>
@@ -19856,7 +20024,7 @@
       <c r="F212" s="67">
         <v>3800</v>
       </c>
-      <c r="G212" s="242">
+      <c r="G212" s="221">
         <f t="shared" si="37"/>
         <v>182400</v>
       </c>
@@ -19924,7 +20092,7 @@
       <c r="AJ212" s="187"/>
       <c r="AK212" s="187"/>
     </row>
-    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="64" t="s">
         <v>571</v>
       </c>
@@ -19943,7 +20111,7 @@
       <c r="F213" s="67">
         <v>700</v>
       </c>
-      <c r="G213" s="242">
+      <c r="G213" s="221">
         <f t="shared" si="37"/>
         <v>34300</v>
       </c>
@@ -20011,7 +20179,7 @@
       <c r="AJ213" s="187"/>
       <c r="AK213" s="187"/>
     </row>
-    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="64" t="s">
         <v>571</v>
       </c>
@@ -20030,7 +20198,7 @@
       <c r="F214" s="67">
         <v>60</v>
       </c>
-      <c r="G214" s="242">
+      <c r="G214" s="221">
         <f t="shared" si="37"/>
         <v>4980</v>
       </c>
@@ -20098,7 +20266,7 @@
       <c r="AJ214" s="187"/>
       <c r="AK214" s="187"/>
     </row>
-    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="64" t="s">
         <v>571</v>
       </c>
@@ -20117,7 +20285,7 @@
       <c r="F215" s="67">
         <v>600</v>
       </c>
-      <c r="G215" s="242">
+      <c r="G215" s="221">
         <f t="shared" si="37"/>
         <v>4200</v>
       </c>
@@ -20185,7 +20353,7 @@
       <c r="AJ215" s="187"/>
       <c r="AK215" s="187"/>
     </row>
-    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="64" t="s">
         <v>571</v>
       </c>
@@ -20204,7 +20372,7 @@
       <c r="F216" s="67">
         <v>300</v>
       </c>
-      <c r="G216" s="242">
+      <c r="G216" s="221">
         <f t="shared" si="37"/>
         <v>71700</v>
       </c>
@@ -20272,7 +20440,7 @@
       <c r="AJ216" s="187"/>
       <c r="AK216" s="187"/>
     </row>
-    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="64" t="s">
         <v>571</v>
       </c>
@@ -20291,7 +20459,7 @@
       <c r="F217" s="67">
         <v>3350</v>
       </c>
-      <c r="G217" s="242">
+      <c r="G217" s="221">
         <f t="shared" si="37"/>
         <v>157450</v>
       </c>
@@ -20359,7 +20527,7 @@
       <c r="AJ217" s="187"/>
       <c r="AK217" s="187"/>
     </row>
-    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="64" t="s">
         <v>571</v>
       </c>
@@ -20378,7 +20546,7 @@
       <c r="F218" s="67">
         <v>2280</v>
       </c>
-      <c r="G218" s="242">
+      <c r="G218" s="221">
         <f t="shared" si="37"/>
         <v>437760</v>
       </c>
@@ -20446,7 +20614,7 @@
       <c r="AJ218" s="187"/>
       <c r="AK218" s="187"/>
     </row>
-    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="64" t="s">
         <v>571</v>
       </c>
@@ -20465,7 +20633,7 @@
       <c r="F219" s="67">
         <v>400</v>
       </c>
-      <c r="G219" s="242">
+      <c r="G219" s="221">
         <f t="shared" ref="G219:G231" si="47">+E219*F219</f>
         <v>3600</v>
       </c>
@@ -20533,7 +20701,7 @@
       <c r="AJ219" s="187"/>
       <c r="AK219" s="187"/>
     </row>
-    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="64" t="s">
         <v>571</v>
       </c>
@@ -20552,7 +20720,7 @@
       <c r="F220" s="67">
         <v>500</v>
       </c>
-      <c r="G220" s="242">
+      <c r="G220" s="221">
         <f t="shared" si="47"/>
         <v>4500</v>
       </c>
@@ -20620,7 +20788,10 @@
       <c r="AJ220" s="187"/>
       <c r="AK220" s="187"/>
     </row>
-    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="B221" s="113">
         <v>7.2</v>
       </c>
@@ -20630,7 +20801,7 @@
       <c r="D221" s="65"/>
       <c r="E221" s="203"/>
       <c r="F221" s="70"/>
-      <c r="G221" s="242"/>
+      <c r="G221" s="221"/>
       <c r="H221" s="16"/>
       <c r="I221" s="20"/>
       <c r="J221" s="21"/>
@@ -20668,7 +20839,7 @@
       <c r="AJ221" s="187"/>
       <c r="AK221" s="187"/>
     </row>
-    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="64" t="s">
         <v>571</v>
       </c>
@@ -20687,7 +20858,7 @@
       <c r="F222" s="67">
         <v>500</v>
       </c>
-      <c r="G222" s="242">
+      <c r="G222" s="221">
         <f t="shared" si="47"/>
         <v>7000</v>
       </c>
@@ -20755,7 +20926,7 @@
       <c r="AJ222" s="187"/>
       <c r="AK222" s="187"/>
     </row>
-    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="64" t="s">
         <v>571</v>
       </c>
@@ -20774,7 +20945,7 @@
       <c r="F223" s="67">
         <v>850</v>
       </c>
-      <c r="G223" s="242">
+      <c r="G223" s="221">
         <f t="shared" si="47"/>
         <v>29750</v>
       </c>
@@ -20842,7 +21013,7 @@
       <c r="AJ223" s="187"/>
       <c r="AK223" s="187"/>
     </row>
-    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="64" t="s">
         <v>571</v>
       </c>
@@ -20861,7 +21032,7 @@
       <c r="F224" s="67">
         <v>500</v>
       </c>
-      <c r="G224" s="242">
+      <c r="G224" s="221">
         <f t="shared" si="47"/>
         <v>7000</v>
       </c>
@@ -20929,7 +21100,7 @@
       <c r="AJ224" s="187"/>
       <c r="AK224" s="187"/>
     </row>
-    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="64" t="s">
         <v>571</v>
       </c>
@@ -20948,7 +21119,7 @@
       <c r="F225" s="67">
         <v>5845</v>
       </c>
-      <c r="G225" s="242">
+      <c r="G225" s="221">
         <f t="shared" si="47"/>
         <v>81830</v>
       </c>
@@ -21016,7 +21187,7 @@
       <c r="AJ225" s="187"/>
       <c r="AK225" s="187"/>
     </row>
-    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="64" t="s">
         <v>571</v>
       </c>
@@ -21035,7 +21206,7 @@
       <c r="F226" s="67">
         <v>400</v>
       </c>
-      <c r="G226" s="242">
+      <c r="G226" s="221">
         <f t="shared" si="47"/>
         <v>98400</v>
       </c>
@@ -21103,7 +21274,7 @@
       <c r="AJ226" s="187"/>
       <c r="AK226" s="187"/>
     </row>
-    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="64" t="s">
         <v>571</v>
       </c>
@@ -21122,7 +21293,7 @@
       <c r="F227" s="67">
         <v>1850</v>
       </c>
-      <c r="G227" s="242">
+      <c r="G227" s="221">
         <f t="shared" si="47"/>
         <v>35150</v>
       </c>
@@ -21190,7 +21361,7 @@
       <c r="AJ227" s="187"/>
       <c r="AK227" s="187"/>
     </row>
-    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="64" t="s">
         <v>571</v>
       </c>
@@ -21209,7 +21380,7 @@
       <c r="F228" s="67">
         <v>120</v>
       </c>
-      <c r="G228" s="242">
+      <c r="G228" s="221">
         <f t="shared" si="47"/>
         <v>29520</v>
       </c>
@@ -21277,7 +21448,7 @@
       <c r="AJ228" s="187"/>
       <c r="AK228" s="187"/>
     </row>
-    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="64" t="s">
         <v>571</v>
       </c>
@@ -21296,7 +21467,7 @@
       <c r="F229" s="67">
         <v>450</v>
       </c>
-      <c r="G229" s="242">
+      <c r="G229" s="221">
         <f t="shared" si="47"/>
         <v>8550</v>
       </c>
@@ -21364,7 +21535,7 @@
       <c r="AJ229" s="187"/>
       <c r="AK229" s="187"/>
     </row>
-    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="64" t="s">
         <v>571</v>
       </c>
@@ -21377,13 +21548,13 @@
       <c r="D230" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="E230" s="232">
+      <c r="E230" s="211">
         <v>4</v>
       </c>
       <c r="F230" s="119">
         <v>3000</v>
       </c>
-      <c r="G230" s="245">
+      <c r="G230" s="224">
         <f t="shared" si="47"/>
         <v>12000</v>
       </c>
@@ -21451,7 +21622,7 @@
       <c r="AJ230" s="187"/>
       <c r="AK230" s="187"/>
     </row>
-    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="64" t="s">
         <v>571</v>
       </c>
@@ -21470,7 +21641,7 @@
       <c r="F231" s="67">
         <v>100</v>
       </c>
-      <c r="G231" s="242">
+      <c r="G231" s="221">
         <f t="shared" si="47"/>
         <v>8000</v>
       </c>
@@ -21538,7 +21709,10 @@
       <c r="AJ231" s="187"/>
       <c r="AK231" s="187"/>
     </row>
-    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B232" s="123">
         <v>6</v>
       </c>
@@ -21546,9 +21720,9 @@
         <v>19</v>
       </c>
       <c r="D232" s="72"/>
-      <c r="E232" s="233"/>
+      <c r="E232" s="212"/>
       <c r="F232" s="125"/>
-      <c r="G232" s="246" t="str">
+      <c r="G232" s="225" t="str">
         <f t="shared" ref="G232:G244" si="50">IF(ISBLANK(D232)," ",ROUND(F232*E232,2))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -21599,7 +21773,10 @@
       <c r="AJ232" s="188"/>
       <c r="AK232" s="188"/>
     </row>
-    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B233" s="68">
         <v>6.9</v>
       </c>
@@ -21607,9 +21784,9 @@
         <v>262</v>
       </c>
       <c r="D233" s="65"/>
-      <c r="E233" s="233"/>
+      <c r="E233" s="212"/>
       <c r="F233" s="70"/>
-      <c r="G233" s="246" t="str">
+      <c r="G233" s="225" t="str">
         <f t="shared" si="50"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -21660,7 +21837,10 @@
       <c r="AJ233" s="188"/>
       <c r="AK233" s="188"/>
     </row>
-    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B234" s="65" t="s">
         <v>267</v>
       </c>
@@ -21668,9 +21848,9 @@
         <v>39</v>
       </c>
       <c r="D234" s="72"/>
-      <c r="E234" s="233"/>
+      <c r="E234" s="212"/>
       <c r="F234" s="67"/>
-      <c r="G234" s="246" t="str">
+      <c r="G234" s="225" t="str">
         <f t="shared" si="50"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -21721,7 +21901,7 @@
       <c r="AJ234" s="188"/>
       <c r="AK234" s="188"/>
     </row>
-    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>573</v>
       </c>
@@ -21734,13 +21914,13 @@
       <c r="D235" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E235" s="234">
+      <c r="E235" s="213">
         <v>8409</v>
       </c>
       <c r="F235" s="43">
         <v>10.73</v>
       </c>
-      <c r="G235" s="247">
+      <c r="G235" s="226">
         <f t="shared" si="50"/>
         <v>90228.57</v>
       </c>
@@ -21808,7 +21988,7 @@
       <c r="AJ235" s="188"/>
       <c r="AK235" s="188"/>
     </row>
-    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>573</v>
       </c>
@@ -21821,13 +22001,13 @@
       <c r="D236" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E236" s="235">
+      <c r="E236" s="214">
         <v>510</v>
       </c>
       <c r="F236" s="42">
         <v>14.91</v>
       </c>
-      <c r="G236" s="248">
+      <c r="G236" s="227">
         <f t="shared" si="50"/>
         <v>7604.1</v>
       </c>
@@ -21895,7 +22075,7 @@
       <c r="AJ236" s="188"/>
       <c r="AK236" s="188"/>
     </row>
-    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>573</v>
       </c>
@@ -21908,13 +22088,13 @@
       <c r="D237" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E237" s="235">
+      <c r="E237" s="214">
         <v>19</v>
       </c>
       <c r="F237" s="24">
         <v>5.93</v>
       </c>
-      <c r="G237" s="248">
+      <c r="G237" s="227">
         <f t="shared" si="50"/>
         <v>112.67</v>
       </c>
@@ -21982,7 +22162,7 @@
       <c r="AJ237" s="188"/>
       <c r="AK237" s="188"/>
     </row>
-    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>573</v>
       </c>
@@ -21995,13 +22175,13 @@
       <c r="D238" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E238" s="235">
+      <c r="E238" s="214">
         <v>19</v>
       </c>
       <c r="F238" s="24">
         <v>8.93</v>
       </c>
-      <c r="G238" s="248">
+      <c r="G238" s="227">
         <f t="shared" si="50"/>
         <v>169.67</v>
       </c>
@@ -22069,7 +22249,7 @@
       <c r="AJ238" s="188"/>
       <c r="AK238" s="188"/>
     </row>
-    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="54" t="s">
         <v>573</v>
       </c>
@@ -22082,13 +22262,13 @@
       <c r="D239" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E239" s="233">
+      <c r="E239" s="212">
         <v>180</v>
       </c>
       <c r="F239" s="67">
         <v>9.1</v>
       </c>
-      <c r="G239" s="246">
+      <c r="G239" s="225">
         <f t="shared" si="50"/>
         <v>1638</v>
       </c>
@@ -22156,7 +22336,7 @@
       <c r="AJ239" s="188"/>
       <c r="AK239" s="188"/>
     </row>
-    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="54" t="s">
         <v>573</v>
       </c>
@@ -22169,13 +22349,13 @@
       <c r="D240" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E240" s="233">
+      <c r="E240" s="212">
         <v>111</v>
       </c>
       <c r="F240" s="67">
         <v>8</v>
       </c>
-      <c r="G240" s="246">
+      <c r="G240" s="225">
         <f t="shared" si="50"/>
         <v>888</v>
       </c>
@@ -22243,7 +22423,10 @@
       <c r="AJ240" s="188"/>
       <c r="AK240" s="188"/>
     </row>
-    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B241" s="65" t="s">
         <v>297</v>
       </c>
@@ -22251,9 +22434,9 @@
         <v>53</v>
       </c>
       <c r="D241" s="72"/>
-      <c r="E241" s="233"/>
+      <c r="E241" s="212"/>
       <c r="F241" s="67"/>
-      <c r="G241" s="246" t="str">
+      <c r="G241" s="225" t="str">
         <f t="shared" si="50"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -22301,7 +22484,7 @@
       <c r="AJ241" s="188"/>
       <c r="AK241" s="188"/>
     </row>
-    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>573</v>
       </c>
@@ -22314,13 +22497,13 @@
       <c r="D242" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E242" s="234">
+      <c r="E242" s="213">
         <v>263</v>
       </c>
       <c r="F242" s="43">
         <v>28.24</v>
       </c>
-      <c r="G242" s="247">
+      <c r="G242" s="226">
         <f t="shared" si="50"/>
         <v>7427.12</v>
       </c>
@@ -22388,7 +22571,7 @@
       <c r="AJ242" s="188"/>
       <c r="AK242" s="188"/>
     </row>
-    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="54" t="s">
         <v>573</v>
       </c>
@@ -22401,13 +22584,13 @@
       <c r="D243" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E243" s="233">
+      <c r="E243" s="212">
         <v>300</v>
       </c>
       <c r="F243" s="67">
         <v>28.24</v>
       </c>
-      <c r="G243" s="246">
+      <c r="G243" s="225">
         <f t="shared" si="50"/>
         <v>8472</v>
       </c>
@@ -22475,7 +22658,7 @@
       <c r="AJ243" s="188"/>
       <c r="AK243" s="188"/>
     </row>
-    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="54" t="s">
         <v>573</v>
       </c>
@@ -22488,13 +22671,13 @@
       <c r="D244" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E244" s="233">
+      <c r="E244" s="212">
         <v>300</v>
       </c>
       <c r="F244" s="67">
         <v>16.809999999999999</v>
       </c>
-      <c r="G244" s="246">
+      <c r="G244" s="225">
         <f t="shared" si="50"/>
         <v>5043</v>
       </c>
@@ -22562,7 +22745,10 @@
       <c r="AJ244" s="188"/>
       <c r="AK244" s="188"/>
     </row>
-    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B245" s="142" t="s">
         <v>412</v>
       </c>
@@ -22572,7 +22758,7 @@
       <c r="D245" s="157"/>
       <c r="E245" s="204"/>
       <c r="F245" s="67"/>
-      <c r="G245" s="249"/>
+      <c r="G245" s="228"/>
       <c r="H245" s="16"/>
       <c r="I245" s="20"/>
       <c r="J245" s="21"/>
@@ -22607,7 +22793,10 @@
       <c r="AJ245" s="188"/>
       <c r="AK245" s="188"/>
     </row>
-    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B246" s="144" t="s">
         <v>414</v>
       </c>
@@ -22617,7 +22806,7 @@
       <c r="D246" s="157"/>
       <c r="E246" s="204"/>
       <c r="F246" s="67"/>
-      <c r="G246" s="249"/>
+      <c r="G246" s="228"/>
       <c r="H246" s="16"/>
       <c r="I246" s="20"/>
       <c r="J246" s="21"/>
@@ -22652,7 +22841,7 @@
       <c r="AJ246" s="188"/>
       <c r="AK246" s="188"/>
     </row>
-    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>573</v>
       </c>
@@ -22665,7 +22854,7 @@
       <c r="D247" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="E247" s="236">
+      <c r="E247" s="215">
         <v>102</v>
       </c>
       <c r="F247" s="24">
@@ -22739,7 +22928,10 @@
       <c r="AJ247" s="188"/>
       <c r="AK247" s="188"/>
     </row>
-    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B248" s="144" t="s">
         <v>418</v>
       </c>
@@ -22749,7 +22941,7 @@
       <c r="D248" s="157"/>
       <c r="E248" s="204"/>
       <c r="F248" s="67"/>
-      <c r="G248" s="249"/>
+      <c r="G248" s="228"/>
       <c r="H248" s="16"/>
       <c r="I248" s="20"/>
       <c r="J248" s="21"/>
@@ -22784,7 +22976,10 @@
       <c r="AJ248" s="188"/>
       <c r="AK248" s="188"/>
     </row>
-    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B249" s="145" t="s">
         <v>420</v>
       </c>
@@ -22794,7 +22989,7 @@
       <c r="D249" s="157"/>
       <c r="E249" s="204"/>
       <c r="F249" s="67"/>
-      <c r="G249" s="249"/>
+      <c r="G249" s="228"/>
       <c r="H249" s="16"/>
       <c r="I249" s="20"/>
       <c r="J249" s="21"/>
@@ -22829,7 +23024,7 @@
       <c r="AJ249" s="188"/>
       <c r="AK249" s="188"/>
     </row>
-    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>573</v>
       </c>
@@ -22842,7 +23037,7 @@
       <c r="D250" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="E250" s="236">
+      <c r="E250" s="215">
         <v>90</v>
       </c>
       <c r="F250" s="24">
@@ -22916,7 +23111,7 @@
       <c r="AJ250" s="188"/>
       <c r="AK250" s="188"/>
     </row>
-    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>573</v>
       </c>
@@ -22929,7 +23124,7 @@
       <c r="D251" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="E251" s="236">
+      <c r="E251" s="215">
         <v>915</v>
       </c>
       <c r="F251" s="24">
@@ -23003,7 +23198,10 @@
       <c r="AJ251" s="188"/>
       <c r="AK251" s="188"/>
     </row>
-    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B252" s="145" t="s">
         <v>426</v>
       </c>
@@ -23013,7 +23211,7 @@
       <c r="D252" s="157"/>
       <c r="E252" s="204"/>
       <c r="F252" s="67"/>
-      <c r="G252" s="249"/>
+      <c r="G252" s="228"/>
       <c r="H252" s="16"/>
       <c r="I252" s="20"/>
       <c r="J252" s="21"/>
@@ -23048,7 +23246,7 @@
       <c r="AJ252" s="188"/>
       <c r="AK252" s="188"/>
     </row>
-    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="54" t="s">
         <v>573</v>
       </c>
@@ -23067,7 +23265,7 @@
       <c r="F253" s="67">
         <v>878.53</v>
       </c>
-      <c r="G253" s="249">
+      <c r="G253" s="228">
         <f t="shared" ref="G253:G254" si="82">F253*E253</f>
         <v>878.53</v>
       </c>
@@ -23135,7 +23333,7 @@
       <c r="AJ253" s="188"/>
       <c r="AK253" s="188"/>
     </row>
-    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="54" t="s">
         <v>573</v>
       </c>
@@ -23154,7 +23352,7 @@
       <c r="F254" s="67">
         <v>11094.64</v>
       </c>
-      <c r="G254" s="249">
+      <c r="G254" s="228">
         <f t="shared" si="82"/>
         <v>11094.64</v>
       </c>
@@ -23222,7 +23420,7 @@
       <c r="AJ254" s="188"/>
       <c r="AK254" s="188"/>
     </row>
-    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="54" t="s">
         <v>573</v>
       </c>
@@ -23241,7 +23439,7 @@
       <c r="F255" s="67">
         <v>395.93</v>
       </c>
-      <c r="G255" s="249">
+      <c r="G255" s="228">
         <f t="shared" si="65"/>
         <v>2771.51</v>
       </c>
@@ -23309,7 +23507,10 @@
       <c r="AJ255" s="188"/>
       <c r="AK255" s="188"/>
     </row>
-    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B256" s="144" t="s">
         <v>434</v>
       </c>
@@ -23319,7 +23520,7 @@
       <c r="D256" s="157"/>
       <c r="E256" s="204"/>
       <c r="F256" s="67"/>
-      <c r="G256" s="249"/>
+      <c r="G256" s="228"/>
       <c r="H256" s="16"/>
       <c r="I256" s="20"/>
       <c r="J256" s="21"/>
@@ -23354,7 +23555,10 @@
       <c r="AJ256" s="188"/>
       <c r="AK256" s="188"/>
     </row>
-    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B257" s="145" t="s">
         <v>436</v>
       </c>
@@ -23364,7 +23568,7 @@
       <c r="D257" s="157"/>
       <c r="E257" s="204"/>
       <c r="F257" s="67"/>
-      <c r="G257" s="249"/>
+      <c r="G257" s="228"/>
       <c r="H257" s="16"/>
       <c r="I257" s="20"/>
       <c r="J257" s="21"/>
@@ -23399,7 +23603,7 @@
       <c r="AJ257" s="188"/>
       <c r="AK257" s="188"/>
     </row>
-    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>573</v>
       </c>
@@ -23412,7 +23616,7 @@
       <c r="D258" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="E258" s="236">
+      <c r="E258" s="215">
         <v>35</v>
       </c>
       <c r="F258" s="24">
@@ -23486,7 +23690,10 @@
       <c r="AJ258" s="188"/>
       <c r="AK258" s="188"/>
     </row>
-    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B259" s="144" t="s">
         <v>439</v>
       </c>
@@ -23496,7 +23703,7 @@
       <c r="D259" s="157"/>
       <c r="E259" s="204"/>
       <c r="F259" s="67"/>
-      <c r="G259" s="249"/>
+      <c r="G259" s="228"/>
       <c r="H259" s="16"/>
       <c r="I259" s="20"/>
       <c r="J259" s="21"/>
@@ -23531,7 +23738,10 @@
       <c r="AJ259" s="188"/>
       <c r="AK259" s="188"/>
     </row>
-    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B260" s="145" t="s">
         <v>441</v>
       </c>
@@ -23541,7 +23751,7 @@
       <c r="D260" s="157"/>
       <c r="E260" s="204"/>
       <c r="F260" s="67"/>
-      <c r="G260" s="249"/>
+      <c r="G260" s="228"/>
       <c r="H260" s="16"/>
       <c r="I260" s="20"/>
       <c r="J260" s="21"/>
@@ -23576,7 +23786,7 @@
       <c r="AJ260" s="188"/>
       <c r="AK260" s="188"/>
     </row>
-    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>573</v>
       </c>
@@ -23589,10 +23799,10 @@
       <c r="D261" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="E261" s="236">
+      <c r="E261" s="215">
         <v>3050</v>
       </c>
-      <c r="F261" s="250">
+      <c r="F261" s="229">
         <v>4.46</v>
       </c>
       <c r="G261" s="43">
@@ -23663,7 +23873,7 @@
       <c r="AJ261" s="188"/>
       <c r="AK261" s="188"/>
     </row>
-    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>573</v>
       </c>
@@ -23676,7 +23886,7 @@
       <c r="D262" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="E262" s="236">
+      <c r="E262" s="215">
         <v>1525</v>
       </c>
       <c r="F262" s="24">
@@ -23750,7 +23960,10 @@
       <c r="AJ262" s="188"/>
       <c r="AK262" s="188"/>
     </row>
-    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B263" s="144" t="s">
         <v>445</v>
       </c>
@@ -23760,7 +23973,7 @@
       <c r="D263" s="157"/>
       <c r="E263" s="204"/>
       <c r="F263" s="67"/>
-      <c r="G263" s="249"/>
+      <c r="G263" s="228"/>
       <c r="H263" s="16"/>
       <c r="I263" s="20"/>
       <c r="J263" s="21"/>
@@ -23795,7 +24008,7 @@
       <c r="AJ263" s="188"/>
       <c r="AK263" s="188"/>
     </row>
-    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="64" t="s">
         <v>571</v>
       </c>
@@ -23814,7 +24027,7 @@
       <c r="F264" s="67">
         <v>228730</v>
       </c>
-      <c r="G264" s="251">
+      <c r="G264" s="230">
         <f>F264*E264</f>
         <v>457460</v>
       </c>
@@ -23875,15 +24088,15 @@
         <v>2</v>
       </c>
       <c r="AC264" s="182">
-        <v>128000</v>
+        <v>128500</v>
       </c>
       <c r="AD264" s="182">
         <f>AB264*AC264</f>
-        <v>256000</v>
+        <v>257000</v>
       </c>
       <c r="AE264" s="182">
         <f>AD264-G264</f>
-        <v>-201460</v>
+        <v>-200460</v>
       </c>
       <c r="AF264" s="137"/>
       <c r="AG264" s="137"/>
@@ -23892,7 +24105,7 @@
       <c r="AJ264" s="188"/>
       <c r="AK264" s="188"/>
     </row>
-    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="148" t="s">
         <v>562</v>
       </c>
@@ -23911,7 +24124,7 @@
       <c r="F265" s="67">
         <v>10000</v>
       </c>
-      <c r="G265" s="249">
+      <c r="G265" s="228">
         <f t="shared" si="65"/>
         <v>10000</v>
       </c>
@@ -23986,7 +24199,10 @@
       <c r="AJ265" s="188"/>
       <c r="AK265" s="188"/>
     </row>
-    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B266" s="144" t="s">
         <v>451</v>
       </c>
@@ -23996,7 +24212,7 @@
       <c r="D266" s="157"/>
       <c r="E266" s="204"/>
       <c r="F266" s="67"/>
-      <c r="G266" s="249"/>
+      <c r="G266" s="228"/>
       <c r="H266" s="16"/>
       <c r="I266" s="20"/>
       <c r="J266" s="21"/>
@@ -24031,7 +24247,7 @@
       <c r="AJ266" s="188"/>
       <c r="AK266" s="188"/>
     </row>
-    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="54" t="s">
         <v>573</v>
       </c>
@@ -24050,7 +24266,7 @@
       <c r="F267" s="67">
         <v>45007.23</v>
       </c>
-      <c r="G267" s="249">
+      <c r="G267" s="228">
         <f t="shared" si="65"/>
         <v>90014.46</v>
       </c>
@@ -24118,7 +24334,7 @@
       <c r="AJ267" s="188"/>
       <c r="AK267" s="188"/>
     </row>
-    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="148" t="s">
         <v>574</v>
       </c>
@@ -24137,7 +24353,7 @@
       <c r="F268" s="67">
         <v>2966.11</v>
       </c>
-      <c r="G268" s="249">
+      <c r="G268" s="228">
         <f t="shared" si="65"/>
         <v>17796.66</v>
       </c>
@@ -24205,7 +24421,7 @@
       <c r="AJ268" s="188"/>
       <c r="AK268" s="188"/>
     </row>
-    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="54" t="s">
         <v>573</v>
       </c>
@@ -24224,7 +24440,7 @@
       <c r="F269" s="67">
         <v>11515</v>
       </c>
-      <c r="G269" s="249">
+      <c r="G269" s="228">
         <f t="shared" si="65"/>
         <v>80605</v>
       </c>
@@ -24292,7 +24508,7 @@
       <c r="AJ269" s="188"/>
       <c r="AK269" s="188"/>
     </row>
-    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="54" t="s">
         <v>573</v>
       </c>
@@ -24311,7 +24527,7 @@
       <c r="F270" s="67">
         <v>34483</v>
       </c>
-      <c r="G270" s="249">
+      <c r="G270" s="228">
         <f t="shared" si="65"/>
         <v>413796</v>
       </c>
@@ -24379,7 +24595,7 @@
       <c r="AJ270" s="188"/>
       <c r="AK270" s="188"/>
     </row>
-    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="148" t="s">
         <v>563</v>
       </c>
@@ -24398,7 +24614,7 @@
       <c r="F271" s="67">
         <v>34.22</v>
       </c>
-      <c r="G271" s="249">
+      <c r="G271" s="228">
         <f t="shared" si="65"/>
         <v>3422</v>
       </c>
@@ -24446,7 +24662,7 @@
       <c r="AJ271" s="188"/>
       <c r="AK271" s="188"/>
     </row>
-    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="148" t="s">
         <v>563</v>
       </c>
@@ -24465,7 +24681,7 @@
       <c r="F272" s="67">
         <v>41.3</v>
       </c>
-      <c r="G272" s="249">
+      <c r="G272" s="228">
         <f t="shared" si="65"/>
         <v>4130</v>
       </c>
@@ -24507,7 +24723,7 @@
       <c r="AJ272" s="188"/>
       <c r="AK272" s="188"/>
     </row>
-    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="148" t="s">
         <v>563</v>
       </c>
@@ -24526,7 +24742,7 @@
       <c r="F273" s="67">
         <v>740</v>
       </c>
-      <c r="G273" s="249">
+      <c r="G273" s="228">
         <f t="shared" si="65"/>
         <v>11100</v>
       </c>
@@ -24568,7 +24784,7 @@
       <c r="AJ273" s="188"/>
       <c r="AK273" s="188"/>
     </row>
-    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="148" t="s">
         <v>563</v>
       </c>
@@ -24587,7 +24803,7 @@
       <c r="F274" s="67">
         <v>2966.11</v>
       </c>
-      <c r="G274" s="249">
+      <c r="G274" s="228">
         <f t="shared" ref="G274" si="84">F274*E274</f>
         <v>127542.73000000001</v>
       </c>
@@ -24637,7 +24853,10 @@
       <c r="AJ274" s="188"/>
       <c r="AK274" s="188"/>
     </row>
-    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B275" s="144" t="s">
         <v>457</v>
       </c>
@@ -24647,7 +24866,7 @@
       <c r="D275" s="157"/>
       <c r="E275" s="204"/>
       <c r="F275" s="67"/>
-      <c r="G275" s="249"/>
+      <c r="G275" s="228"/>
       <c r="H275" s="16"/>
       <c r="I275" s="20"/>
       <c r="J275" s="21"/>
@@ -24682,7 +24901,7 @@
       <c r="AJ275" s="188"/>
       <c r="AK275" s="188"/>
     </row>
-    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="54" t="s">
         <v>573</v>
       </c>
@@ -24701,7 +24920,7 @@
       <c r="F276" s="67">
         <v>43.35</v>
       </c>
-      <c r="G276" s="249">
+      <c r="G276" s="228">
         <f t="shared" si="65"/>
         <v>1820.7</v>
       </c>
@@ -24769,7 +24988,10 @@
       <c r="AJ276" s="188"/>
       <c r="AK276" s="188"/>
     </row>
-    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B277" s="144" t="s">
         <v>461</v>
       </c>
@@ -24779,7 +25001,7 @@
       <c r="D277" s="157"/>
       <c r="E277" s="204"/>
       <c r="F277" s="67"/>
-      <c r="G277" s="249"/>
+      <c r="G277" s="228"/>
       <c r="H277" s="16"/>
       <c r="I277" s="20"/>
       <c r="J277" s="21"/>
@@ -24814,7 +25036,7 @@
       <c r="AJ277" s="188"/>
       <c r="AK277" s="188"/>
     </row>
-    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="148" t="s">
         <v>562</v>
       </c>
@@ -24833,7 +25055,7 @@
       <c r="F278" s="67">
         <v>15000</v>
       </c>
-      <c r="G278" s="249">
+      <c r="G278" s="228">
         <f t="shared" si="65"/>
         <v>15000</v>
       </c>
@@ -24908,7 +25130,7 @@
       <c r="AJ278" s="188"/>
       <c r="AK278" s="188"/>
     </row>
-    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="148" t="s">
         <v>562</v>
       </c>
@@ -24927,7 +25149,7 @@
       <c r="F279" s="67">
         <v>6130</v>
       </c>
-      <c r="G279" s="249">
+      <c r="G279" s="228">
         <f t="shared" si="65"/>
         <v>12260</v>
       </c>
@@ -25002,7 +25224,7 @@
       <c r="AJ279" s="188"/>
       <c r="AK279" s="188"/>
     </row>
-    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="148" t="s">
         <v>562</v>
       </c>
@@ -25021,7 +25243,7 @@
       <c r="F280" s="67">
         <v>10940</v>
       </c>
-      <c r="G280" s="249">
+      <c r="G280" s="228">
         <f t="shared" si="65"/>
         <v>10940</v>
       </c>
@@ -25096,7 +25318,10 @@
       <c r="AJ280" s="188"/>
       <c r="AK280" s="188"/>
     </row>
-    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B281" s="144" t="s">
         <v>469</v>
       </c>
@@ -25106,7 +25331,7 @@
       <c r="D281" s="157"/>
       <c r="E281" s="204"/>
       <c r="F281" s="67"/>
-      <c r="G281" s="249"/>
+      <c r="G281" s="228"/>
       <c r="H281" s="16"/>
       <c r="I281" s="20"/>
       <c r="J281" s="21"/>
@@ -25141,7 +25366,10 @@
       <c r="AJ281" s="188"/>
       <c r="AK281" s="188"/>
     </row>
-    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B282" s="145" t="s">
         <v>471</v>
       </c>
@@ -25151,7 +25379,7 @@
       <c r="D282" s="157"/>
       <c r="E282" s="204"/>
       <c r="F282" s="67"/>
-      <c r="G282" s="249"/>
+      <c r="G282" s="228"/>
       <c r="H282" s="16"/>
       <c r="I282" s="20"/>
       <c r="J282" s="21"/>
@@ -25186,9 +25414,9 @@
       <c r="AJ282" s="188"/>
       <c r="AK282" s="188"/>
     </row>
-    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B283" s="41" t="s">
         <v>472</v>
@@ -25199,7 +25427,7 @@
       <c r="D283" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="E283" s="236">
+      <c r="E283" s="215">
         <v>9395</v>
       </c>
       <c r="F283" s="24">
@@ -25270,18 +25498,20 @@
       <c r="AG283" s="137"/>
       <c r="AH283" s="138"/>
       <c r="AI283" s="139">
-        <f>(305*64)-E283</f>
-        <v>10125</v>
+        <v>10000</v>
       </c>
       <c r="AJ283" s="188">
         <v>9.23</v>
       </c>
       <c r="AK283" s="188">
         <f>AI283*AJ283</f>
-        <v>93453.75</v>
-      </c>
-    </row>
-    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92300</v>
+      </c>
+    </row>
+    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B284" s="145" t="s">
         <v>474</v>
       </c>
@@ -25291,7 +25521,7 @@
       <c r="D284" s="157"/>
       <c r="E284" s="204"/>
       <c r="F284" s="67"/>
-      <c r="G284" s="249"/>
+      <c r="G284" s="228"/>
       <c r="H284" s="16"/>
       <c r="I284" s="20"/>
       <c r="J284" s="21"/>
@@ -25326,7 +25556,7 @@
       <c r="AJ284" s="188"/>
       <c r="AK284" s="188"/>
     </row>
-    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="64" t="s">
         <v>555</v>
       </c>
@@ -25345,7 +25575,7 @@
       <c r="F285" s="67">
         <v>38906</v>
       </c>
-      <c r="G285" s="249">
+      <c r="G285" s="228">
         <f t="shared" si="65"/>
         <v>77812</v>
       </c>
@@ -25423,7 +25653,7 @@
       <c r="AJ285" s="188"/>
       <c r="AK285" s="188"/>
     </row>
-    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="64" t="s">
         <v>555</v>
       </c>
@@ -25442,7 +25672,7 @@
       <c r="F286" s="67">
         <v>24377.25</v>
       </c>
-      <c r="G286" s="249">
+      <c r="G286" s="228">
         <f t="shared" si="65"/>
         <v>170640.75</v>
       </c>
@@ -25520,7 +25750,10 @@
       <c r="AJ286" s="188"/>
       <c r="AK286" s="188"/>
     </row>
-    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B287" s="145" t="s">
         <v>480</v>
       </c>
@@ -25530,7 +25763,7 @@
       <c r="D287" s="157"/>
       <c r="E287" s="204"/>
       <c r="F287" s="67"/>
-      <c r="G287" s="249"/>
+      <c r="G287" s="228"/>
       <c r="H287" s="16"/>
       <c r="I287" s="20"/>
       <c r="J287" s="21"/>
@@ -25565,7 +25798,7 @@
       <c r="AJ287" s="188"/>
       <c r="AK287" s="188"/>
     </row>
-    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>573</v>
       </c>
@@ -25578,7 +25811,7 @@
       <c r="D288" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="E288" s="236">
+      <c r="E288" s="215">
         <v>30</v>
       </c>
       <c r="F288" s="24">
@@ -25652,7 +25885,7 @@
       <c r="AJ288" s="188"/>
       <c r="AK288" s="188"/>
     </row>
-    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>573</v>
       </c>
@@ -25665,7 +25898,7 @@
       <c r="D289" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="E289" s="236">
+      <c r="E289" s="215">
         <v>1628</v>
       </c>
       <c r="F289" s="24">
@@ -25739,7 +25972,7 @@
       <c r="AJ289" s="188"/>
       <c r="AK289" s="188"/>
     </row>
-    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>573</v>
       </c>
@@ -25752,7 +25985,7 @@
       <c r="D290" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="E290" s="236">
+      <c r="E290" s="215">
         <v>46</v>
       </c>
       <c r="F290" s="24">
@@ -25826,7 +26059,7 @@
       <c r="AJ290" s="188"/>
       <c r="AK290" s="188"/>
     </row>
-    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>573</v>
       </c>
@@ -25839,10 +26072,10 @@
       <c r="D291" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="E291" s="236">
+      <c r="E291" s="215">
         <v>530</v>
       </c>
-      <c r="F291" s="236">
+      <c r="F291" s="215">
         <v>41.300000000000004</v>
       </c>
       <c r="G291" s="43">
@@ -25913,7 +26146,10 @@
       <c r="AJ291" s="188"/>
       <c r="AK291" s="188"/>
     </row>
-    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B292" s="144" t="s">
         <v>490</v>
       </c>
@@ -25923,7 +26159,7 @@
       <c r="D292" s="157"/>
       <c r="E292" s="204"/>
       <c r="F292" s="67"/>
-      <c r="G292" s="249"/>
+      <c r="G292" s="228"/>
       <c r="H292" s="16"/>
       <c r="I292" s="20"/>
       <c r="J292" s="21"/>
@@ -25958,7 +26194,7 @@
       <c r="AJ292" s="188"/>
       <c r="AK292" s="188"/>
     </row>
-    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="54" t="s">
         <v>573</v>
       </c>
@@ -25977,7 +26213,7 @@
       <c r="F293" s="67">
         <v>654.56000000000006</v>
       </c>
-      <c r="G293" s="249">
+      <c r="G293" s="228">
         <f t="shared" ref="G293:G323" si="88">F293*E293</f>
         <v>27491.520000000004</v>
       </c>
@@ -26045,7 +26281,7 @@
       <c r="AJ293" s="188"/>
       <c r="AK293" s="188"/>
     </row>
-    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="54" t="s">
         <v>573</v>
       </c>
@@ -26064,7 +26300,7 @@
       <c r="F294" s="67">
         <v>7041.49</v>
       </c>
-      <c r="G294" s="249">
+      <c r="G294" s="228">
         <f t="shared" si="88"/>
         <v>14082.98</v>
       </c>
@@ -26132,7 +26368,7 @@
       <c r="AJ294" s="188"/>
       <c r="AK294" s="188"/>
     </row>
-    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="54" t="s">
         <v>573</v>
       </c>
@@ -26151,7 +26387,7 @@
       <c r="F295" s="67">
         <v>16962.95</v>
       </c>
-      <c r="G295" s="249">
+      <c r="G295" s="228">
         <f t="shared" si="88"/>
         <v>16962.95</v>
       </c>
@@ -26219,8 +26455,8 @@
       <c r="AJ295" s="188"/>
       <c r="AK295" s="188"/>
     </row>
-    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="227" t="s">
+    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="207" t="s">
         <v>562</v>
       </c>
       <c r="B296" s="146" t="s">
@@ -26238,7 +26474,7 @@
       <c r="F296" s="67">
         <v>24185.75</v>
       </c>
-      <c r="G296" s="249">
+      <c r="G296" s="228">
         <f t="shared" si="88"/>
         <v>24185.75</v>
       </c>
@@ -26313,7 +26549,7 @@
       <c r="AJ296" s="188"/>
       <c r="AK296" s="188"/>
     </row>
-    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="54" t="s">
         <v>573</v>
       </c>
@@ -26332,7 +26568,7 @@
       <c r="F297" s="67">
         <v>12521.27</v>
       </c>
-      <c r="G297" s="249">
+      <c r="G297" s="228">
         <f t="shared" si="88"/>
         <v>25042.54</v>
       </c>
@@ -26400,7 +26636,7 @@
       <c r="AJ297" s="188"/>
       <c r="AK297" s="188"/>
     </row>
-    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="54" t="s">
         <v>573</v>
       </c>
@@ -26419,7 +26655,7 @@
       <c r="F298" s="67">
         <v>3690.2000000000003</v>
       </c>
-      <c r="G298" s="249">
+      <c r="G298" s="228">
         <f t="shared" si="88"/>
         <v>14760.800000000001</v>
       </c>
@@ -26487,7 +26723,7 @@
       <c r="AJ298" s="188"/>
       <c r="AK298" s="188"/>
     </row>
-    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="54" t="s">
         <v>573</v>
       </c>
@@ -26506,7 +26742,7 @@
       <c r="F299" s="67">
         <v>1658.05</v>
       </c>
-      <c r="G299" s="249">
+      <c r="G299" s="228">
         <f t="shared" si="88"/>
         <v>1658.05</v>
       </c>
@@ -26574,7 +26810,7 @@
       <c r="AJ299" s="188"/>
       <c r="AK299" s="188"/>
     </row>
-    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="54" t="s">
         <v>573</v>
       </c>
@@ -26593,7 +26829,7 @@
       <c r="F300" s="67">
         <v>8800.44</v>
       </c>
-      <c r="G300" s="249">
+      <c r="G300" s="228">
         <f t="shared" si="88"/>
         <v>8800.44</v>
       </c>
@@ -26661,7 +26897,7 @@
       <c r="AJ300" s="188"/>
       <c r="AK300" s="188"/>
     </row>
-    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="54" t="s">
         <v>573</v>
       </c>
@@ -26680,7 +26916,7 @@
       <c r="F301" s="67">
         <v>41.93</v>
       </c>
-      <c r="G301" s="249">
+      <c r="G301" s="228">
         <f t="shared" si="88"/>
         <v>209.65</v>
       </c>
@@ -26748,7 +26984,7 @@
       <c r="AJ301" s="188"/>
       <c r="AK301" s="188"/>
     </row>
-    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="54" t="s">
         <v>573</v>
       </c>
@@ -26767,7 +27003,7 @@
       <c r="F302" s="67">
         <v>319.3</v>
       </c>
-      <c r="G302" s="249">
+      <c r="G302" s="228">
         <f t="shared" si="88"/>
         <v>1277.2</v>
       </c>
@@ -26835,7 +27071,7 @@
       <c r="AJ302" s="188"/>
       <c r="AK302" s="188"/>
     </row>
-    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="54" t="s">
         <v>573</v>
       </c>
@@ -26854,7 +27090,7 @@
       <c r="F303" s="67">
         <v>39.93</v>
       </c>
-      <c r="G303" s="249">
+      <c r="G303" s="228">
         <f t="shared" si="88"/>
         <v>3194.4</v>
       </c>
@@ -26922,7 +27158,10 @@
       <c r="AJ303" s="188"/>
       <c r="AK303" s="188"/>
     </row>
-    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="54" t="s">
+        <v>589</v>
+      </c>
       <c r="B304" s="144" t="s">
         <v>514</v>
       </c>
@@ -26932,7 +27171,7 @@
       <c r="D304" s="157"/>
       <c r="E304" s="204"/>
       <c r="F304" s="67"/>
-      <c r="G304" s="249"/>
+      <c r="G304" s="228"/>
       <c r="H304" s="16"/>
       <c r="I304" s="20"/>
       <c r="J304" s="21"/>
@@ -26967,7 +27206,7 @@
       <c r="AJ304" s="188"/>
       <c r="AK304" s="188"/>
     </row>
-    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="54" t="s">
         <v>573</v>
       </c>
@@ -26986,7 +27225,7 @@
       <c r="F305" s="67">
         <v>2224.33</v>
       </c>
-      <c r="G305" s="249">
+      <c r="G305" s="228">
         <f t="shared" si="88"/>
         <v>2224.33</v>
       </c>
@@ -27054,7 +27293,7 @@
       <c r="AJ305" s="188"/>
       <c r="AK305" s="188"/>
     </row>
-    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="54" t="s">
         <v>573</v>
       </c>
@@ -27073,7 +27312,7 @@
       <c r="F306" s="67">
         <v>12.450000000000001</v>
       </c>
-      <c r="G306" s="249">
+      <c r="G306" s="228">
         <f t="shared" si="88"/>
         <v>1867.5000000000002</v>
       </c>
@@ -27141,7 +27380,7 @@
       <c r="AJ306" s="188"/>
       <c r="AK306" s="188"/>
     </row>
-    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="54" t="s">
         <v>573</v>
       </c>
@@ -27160,7 +27399,7 @@
       <c r="F307" s="67">
         <v>10.050000000000001</v>
       </c>
-      <c r="G307" s="249">
+      <c r="G307" s="228">
         <f t="shared" si="88"/>
         <v>1005.0000000000001</v>
       </c>
@@ -27228,7 +27467,7 @@
       <c r="AJ307" s="188"/>
       <c r="AK307" s="188"/>
     </row>
-    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="54" t="s">
         <v>573</v>
       </c>
@@ -27247,7 +27486,7 @@
       <c r="F308" s="67">
         <v>31.05</v>
       </c>
-      <c r="G308" s="249">
+      <c r="G308" s="228">
         <f t="shared" si="88"/>
         <v>2328.75</v>
       </c>
@@ -27315,7 +27554,7 @@
       <c r="AJ308" s="188"/>
       <c r="AK308" s="188"/>
     </row>
-    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="54" t="s">
         <v>573</v>
       </c>
@@ -27334,7 +27573,7 @@
       <c r="F309" s="67">
         <v>26.05</v>
       </c>
-      <c r="G309" s="249">
+      <c r="G309" s="228">
         <f t="shared" si="88"/>
         <v>781.5</v>
       </c>
@@ -27402,7 +27641,7 @@
       <c r="AJ309" s="188"/>
       <c r="AK309" s="188"/>
     </row>
-    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="54" t="s">
         <v>573</v>
       </c>
@@ -27421,7 +27660,7 @@
       <c r="F310" s="67">
         <v>10.050000000000001</v>
       </c>
-      <c r="G310" s="249">
+      <c r="G310" s="228">
         <f t="shared" si="88"/>
         <v>1507.5</v>
       </c>
@@ -27489,7 +27728,7 @@
       <c r="AJ310" s="188"/>
       <c r="AK310" s="188"/>
     </row>
-    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="54" t="s">
         <v>573</v>
       </c>
@@ -27508,7 +27747,7 @@
       <c r="F311" s="67">
         <v>259.47000000000003</v>
       </c>
-      <c r="G311" s="249">
+      <c r="G311" s="228">
         <f t="shared" si="88"/>
         <v>259.47000000000003</v>
       </c>
@@ -27576,7 +27815,7 @@
       <c r="AJ311" s="188"/>
       <c r="AK311" s="188"/>
     </row>
-    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="54" t="s">
         <v>573</v>
       </c>
@@ -27595,7 +27834,7 @@
       <c r="F312" s="67">
         <v>159.47</v>
       </c>
-      <c r="G312" s="249">
+      <c r="G312" s="228">
         <f t="shared" si="88"/>
         <v>159.47</v>
       </c>
@@ -27663,7 +27902,7 @@
       <c r="AJ312" s="188"/>
       <c r="AK312" s="188"/>
     </row>
-    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="54" t="s">
         <v>573</v>
       </c>
@@ -27682,7 +27921,7 @@
       <c r="F313" s="67">
         <v>74.930000000000007</v>
       </c>
-      <c r="G313" s="249">
+      <c r="G313" s="228">
         <f t="shared" si="88"/>
         <v>149.86000000000001</v>
       </c>
@@ -27750,7 +27989,7 @@
       <c r="AJ313" s="188"/>
       <c r="AK313" s="188"/>
     </row>
-    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="54" t="s">
         <v>573</v>
       </c>
@@ -27769,7 +28008,7 @@
       <c r="F314" s="67">
         <v>5.39</v>
       </c>
-      <c r="G314" s="249">
+      <c r="G314" s="228">
         <f t="shared" si="88"/>
         <v>75.459999999999994</v>
       </c>
@@ -27837,7 +28076,7 @@
       <c r="AJ314" s="188"/>
       <c r="AK314" s="188"/>
     </row>
-    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="54" t="s">
         <v>573</v>
       </c>
@@ -27856,7 +28095,7 @@
       <c r="F315" s="67">
         <v>5.39</v>
       </c>
-      <c r="G315" s="249">
+      <c r="G315" s="228">
         <f t="shared" si="88"/>
         <v>150.91999999999999</v>
       </c>
@@ -27924,7 +28163,7 @@
       <c r="AJ315" s="188"/>
       <c r="AK315" s="188"/>
     </row>
-    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="54" t="s">
         <v>573</v>
       </c>
@@ -27943,7 +28182,7 @@
       <c r="F316" s="67">
         <v>5.99</v>
       </c>
-      <c r="G316" s="249">
+      <c r="G316" s="228">
         <f t="shared" si="88"/>
         <v>23.96</v>
       </c>
@@ -28011,7 +28250,7 @@
       <c r="AJ316" s="188"/>
       <c r="AK316" s="188"/>
     </row>
-    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="54" t="s">
         <v>573</v>
       </c>
@@ -28030,7 +28269,7 @@
       <c r="F317" s="67">
         <v>6.19</v>
       </c>
-      <c r="G317" s="249">
+      <c r="G317" s="228">
         <f t="shared" si="88"/>
         <v>37.14</v>
       </c>
@@ -28098,7 +28337,7 @@
       <c r="AJ317" s="188"/>
       <c r="AK317" s="188"/>
     </row>
-    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="54" t="s">
         <v>573</v>
       </c>
@@ -28117,7 +28356,7 @@
       <c r="F318" s="67">
         <v>7.39</v>
       </c>
-      <c r="G318" s="249">
+      <c r="G318" s="228">
         <f t="shared" si="88"/>
         <v>14.78</v>
       </c>
@@ -28185,7 +28424,7 @@
       <c r="AJ318" s="188"/>
       <c r="AK318" s="188"/>
     </row>
-    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="54" t="s">
         <v>573</v>
       </c>
@@ -28204,7 +28443,7 @@
       <c r="F319" s="67">
         <v>131.31</v>
       </c>
-      <c r="G319" s="249">
+      <c r="G319" s="228">
         <f t="shared" si="88"/>
         <v>919.17000000000007</v>
       </c>
@@ -28272,7 +28511,10 @@
       <c r="AJ319" s="188"/>
       <c r="AK319" s="188"/>
     </row>
-    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B320" s="144" t="s">
         <v>546</v>
       </c>
@@ -28282,7 +28524,7 @@
       <c r="D320" s="157"/>
       <c r="E320" s="204"/>
       <c r="F320" s="67"/>
-      <c r="G320" s="249"/>
+      <c r="G320" s="228"/>
       <c r="H320" s="16">
         <v>0</v>
       </c>
@@ -28336,8 +28578,8 @@
       <c r="AJ320" s="188"/>
       <c r="AK320" s="188"/>
     </row>
-    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="227" t="s">
+    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="207" t="s">
         <v>562</v>
       </c>
       <c r="B321" s="146" t="s">
@@ -28355,7 +28597,7 @@
       <c r="F321" s="67">
         <v>53.07</v>
       </c>
-      <c r="G321" s="249">
+      <c r="G321" s="228">
         <f t="shared" si="88"/>
         <v>3555.69</v>
       </c>
@@ -28430,7 +28672,10 @@
       <c r="AJ321" s="188"/>
       <c r="AK321" s="188"/>
     </row>
-    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="54" t="s">
+        <v>588</v>
+      </c>
       <c r="B322" s="144">
         <v>5.13</v>
       </c>
@@ -28440,7 +28685,7 @@
       <c r="D322" s="157"/>
       <c r="E322" s="204"/>
       <c r="F322" s="67"/>
-      <c r="G322" s="249"/>
+      <c r="G322" s="228"/>
       <c r="H322" s="16">
         <v>0</v>
       </c>
@@ -28494,8 +28739,8 @@
       <c r="AJ322" s="188"/>
       <c r="AK322" s="188"/>
     </row>
-    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="227" t="s">
+    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="207" t="s">
         <v>562</v>
       </c>
       <c r="B323" s="146" t="s">
@@ -28513,7 +28758,7 @@
       <c r="F323" s="67">
         <v>5000</v>
       </c>
-      <c r="G323" s="249">
+      <c r="G323" s="228">
         <f t="shared" si="88"/>
         <v>10000</v>
       </c>
@@ -28587,18 +28832,18 @@
       <c r="AJ323" s="188"/>
       <c r="AK323" s="188"/>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A324" s="153" t="s">
         <v>567</v>
       </c>
-      <c r="B324" s="218" t="s">
+      <c r="B324" s="234" t="s">
         <v>560</v>
       </c>
-      <c r="C324" s="218"/>
+      <c r="C324" s="234"/>
       <c r="D324" s="131"/>
-      <c r="E324" s="237"/>
+      <c r="E324" s="216"/>
       <c r="F324" s="170"/>
-      <c r="G324" s="252">
+      <c r="G324" s="231">
         <f>SUBTOTAL(9,G7:G323)</f>
         <v>4576892.8803200014</v>
       </c>
@@ -28622,7 +28867,7 @@
       <c r="AJ324" s="189"/>
       <c r="AK324" s="189"/>
     </row>
-    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="153" t="s">
         <v>567</v>
       </c>
@@ -28635,7 +28880,7 @@
       <c r="D325" s="157"/>
       <c r="E325" s="203"/>
       <c r="F325" s="70"/>
-      <c r="G325" s="253"/>
+      <c r="G325" s="232"/>
       <c r="H325" s="16"/>
       <c r="I325" s="20"/>
       <c r="J325" s="21"/>
@@ -28667,7 +28912,7 @@
       <c r="AJ325" s="190"/>
       <c r="AK325" s="190"/>
     </row>
-    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="153" t="s">
         <v>567</v>
       </c>
@@ -28680,7 +28925,7 @@
       <c r="D326" s="157"/>
       <c r="E326" s="203"/>
       <c r="F326" s="67"/>
-      <c r="G326" s="253"/>
+      <c r="G326" s="232"/>
       <c r="H326" s="16"/>
       <c r="I326" s="20"/>
       <c r="J326" s="21"/>
@@ -28712,7 +28957,7 @@
       <c r="AJ326" s="190"/>
       <c r="AK326" s="190"/>
     </row>
-    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="153" t="s">
         <v>567</v>
       </c>
@@ -28723,9 +28968,9 @@
         <v>33</v>
       </c>
       <c r="D327" s="65"/>
-      <c r="E327" s="238"/>
+      <c r="E327" s="217"/>
       <c r="F327" s="67"/>
-      <c r="G327" s="253"/>
+      <c r="G327" s="232"/>
       <c r="H327" s="16"/>
       <c r="I327" s="20"/>
       <c r="J327" s="21"/>
@@ -28757,7 +29002,7 @@
       <c r="AJ327" s="190"/>
       <c r="AK327" s="190"/>
     </row>
-    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="153" t="s">
         <v>567</v>
       </c>
@@ -28770,13 +29015,13 @@
       <c r="D328" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E328" s="239">
+      <c r="E328" s="218">
         <v>90</v>
       </c>
       <c r="F328" s="162">
         <v>8.33</v>
       </c>
-      <c r="G328" s="253">
+      <c r="G328" s="232">
         <f t="shared" ref="G328:G353" si="98">+E328*F328</f>
         <v>749.7</v>
       </c>
@@ -28843,7 +29088,7 @@
       <c r="AJ328" s="190"/>
       <c r="AK328" s="190"/>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A329" s="153" t="s">
         <v>567</v>
       </c>
@@ -28856,13 +29101,13 @@
       <c r="D329" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E329" s="239">
+      <c r="E329" s="218">
         <v>1053</v>
       </c>
       <c r="F329" s="162">
         <v>7.94</v>
       </c>
-      <c r="G329" s="253">
+      <c r="G329" s="232">
         <f t="shared" si="98"/>
         <v>8360.82</v>
       </c>
@@ -28928,7 +29173,7 @@
       <c r="AJ329" s="189"/>
       <c r="AK329" s="189"/>
     </row>
-    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="153" t="s">
         <v>567</v>
       </c>
@@ -28939,9 +29184,9 @@
         <v>559</v>
       </c>
       <c r="D330" s="157"/>
-      <c r="E330" s="239"/>
+      <c r="E330" s="218"/>
       <c r="F330" s="162"/>
-      <c r="G330" s="253"/>
+      <c r="G330" s="232"/>
       <c r="H330" s="16"/>
       <c r="I330" s="20"/>
       <c r="J330" s="21"/>
@@ -28973,7 +29218,7 @@
       <c r="AJ330" s="190"/>
       <c r="AK330" s="190"/>
     </row>
-    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="153" t="s">
         <v>567</v>
       </c>
@@ -28984,9 +29229,9 @@
         <v>33</v>
       </c>
       <c r="D331" s="157"/>
-      <c r="E331" s="239"/>
+      <c r="E331" s="218"/>
       <c r="F331" s="162"/>
-      <c r="G331" s="253"/>
+      <c r="G331" s="232"/>
       <c r="H331" s="16"/>
       <c r="I331" s="20"/>
       <c r="J331" s="21"/>
@@ -29018,7 +29263,7 @@
       <c r="AJ331" s="190"/>
       <c r="AK331" s="190"/>
     </row>
-    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="153" t="s">
         <v>567</v>
       </c>
@@ -29031,13 +29276,13 @@
       <c r="D332" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E332" s="239">
+      <c r="E332" s="218">
         <v>35</v>
       </c>
       <c r="F332" s="162">
         <v>8.33</v>
       </c>
-      <c r="G332" s="253">
+      <c r="G332" s="232">
         <f t="shared" si="98"/>
         <v>291.55</v>
       </c>
@@ -29104,7 +29349,7 @@
       <c r="AJ332" s="190"/>
       <c r="AK332" s="190"/>
     </row>
-    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="153" t="s">
         <v>567</v>
       </c>
@@ -29115,9 +29360,9 @@
         <v>151</v>
       </c>
       <c r="D333" s="157"/>
-      <c r="E333" s="239"/>
+      <c r="E333" s="218"/>
       <c r="F333" s="162"/>
-      <c r="G333" s="253"/>
+      <c r="G333" s="232"/>
       <c r="H333" s="16"/>
       <c r="I333" s="20"/>
       <c r="J333" s="21"/>
@@ -29149,7 +29394,7 @@
       <c r="AJ333" s="190"/>
       <c r="AK333" s="190"/>
     </row>
-    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="153" t="s">
         <v>567</v>
       </c>
@@ -29160,9 +29405,9 @@
         <v>33</v>
       </c>
       <c r="D334" s="157"/>
-      <c r="E334" s="239"/>
+      <c r="E334" s="218"/>
       <c r="F334" s="162"/>
-      <c r="G334" s="253"/>
+      <c r="G334" s="232"/>
       <c r="H334" s="16"/>
       <c r="I334" s="20"/>
       <c r="J334" s="21"/>
@@ -29194,7 +29439,7 @@
       <c r="AJ334" s="190"/>
       <c r="AK334" s="190"/>
     </row>
-    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="153" t="s">
         <v>567</v>
       </c>
@@ -29207,13 +29452,13 @@
       <c r="D335" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E335" s="239">
+      <c r="E335" s="218">
         <v>2539</v>
       </c>
       <c r="F335" s="162">
         <v>3.15</v>
       </c>
-      <c r="G335" s="253">
+      <c r="G335" s="232">
         <f t="shared" si="98"/>
         <v>7997.8499999999995</v>
       </c>
@@ -29280,7 +29525,7 @@
       <c r="AJ335" s="190"/>
       <c r="AK335" s="190"/>
     </row>
-    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="153" t="s">
         <v>567</v>
       </c>
@@ -29293,13 +29538,13 @@
       <c r="D336" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E336" s="239">
+      <c r="E336" s="218">
         <v>901</v>
       </c>
       <c r="F336" s="162">
         <v>3.36</v>
       </c>
-      <c r="G336" s="253">
+      <c r="G336" s="232">
         <f t="shared" si="98"/>
         <v>3027.3599999999997</v>
       </c>
@@ -29366,7 +29611,7 @@
       <c r="AJ336" s="190"/>
       <c r="AK336" s="190"/>
     </row>
-    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="153" t="s">
         <v>567</v>
       </c>
@@ -29377,9 +29622,9 @@
         <v>217</v>
       </c>
       <c r="D337" s="157"/>
-      <c r="E337" s="239"/>
+      <c r="E337" s="218"/>
       <c r="F337" s="162"/>
-      <c r="G337" s="253"/>
+      <c r="G337" s="232"/>
       <c r="H337" s="16"/>
       <c r="I337" s="20"/>
       <c r="J337" s="21"/>
@@ -29411,7 +29656,7 @@
       <c r="AJ337" s="190"/>
       <c r="AK337" s="190"/>
     </row>
-    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="153" t="s">
         <v>567</v>
       </c>
@@ -29424,13 +29669,13 @@
       <c r="D338" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E338" s="239">
+      <c r="E338" s="218">
         <v>2</v>
       </c>
       <c r="F338" s="162">
         <v>22850</v>
       </c>
-      <c r="G338" s="253">
+      <c r="G338" s="232">
         <f t="shared" si="98"/>
         <v>45700</v>
       </c>
@@ -29497,7 +29742,7 @@
       <c r="AJ338" s="190"/>
       <c r="AK338" s="190"/>
     </row>
-    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="153" t="s">
         <v>567</v>
       </c>
@@ -29510,13 +29755,13 @@
       <c r="D339" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="E339" s="239">
+      <c r="E339" s="218">
         <v>1</v>
       </c>
       <c r="F339" s="162">
         <v>1500</v>
       </c>
-      <c r="G339" s="253">
+      <c r="G339" s="232">
         <f t="shared" si="98"/>
         <v>1500</v>
       </c>
@@ -29583,7 +29828,7 @@
       <c r="AJ339" s="190"/>
       <c r="AK339" s="190"/>
     </row>
-    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="153" t="s">
         <v>567</v>
       </c>
@@ -29594,9 +29839,9 @@
         <v>222</v>
       </c>
       <c r="D340" s="157"/>
-      <c r="E340" s="239"/>
+      <c r="E340" s="218"/>
       <c r="F340" s="162"/>
-      <c r="G340" s="253"/>
+      <c r="G340" s="232"/>
       <c r="H340" s="16"/>
       <c r="I340" s="20"/>
       <c r="J340" s="21"/>
@@ -29628,7 +29873,7 @@
       <c r="AJ340" s="190"/>
       <c r="AK340" s="190"/>
     </row>
-    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="153" t="s">
         <v>567</v>
       </c>
@@ -29641,13 +29886,13 @@
       <c r="D341" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E341" s="239">
+      <c r="E341" s="218">
         <v>2</v>
       </c>
       <c r="F341" s="162">
         <v>8980</v>
       </c>
-      <c r="G341" s="253">
+      <c r="G341" s="232">
         <f t="shared" si="98"/>
         <v>17960</v>
       </c>
@@ -29714,7 +29959,7 @@
       <c r="AJ341" s="190"/>
       <c r="AK341" s="190"/>
     </row>
-    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="153" t="s">
         <v>567</v>
       </c>
@@ -29727,13 +29972,13 @@
       <c r="D342" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E342" s="239">
+      <c r="E342" s="218">
         <v>12</v>
       </c>
       <c r="F342" s="162">
         <v>11980</v>
       </c>
-      <c r="G342" s="253">
+      <c r="G342" s="232">
         <f t="shared" si="98"/>
         <v>143760</v>
       </c>
@@ -29800,7 +30045,7 @@
       <c r="AJ342" s="190"/>
       <c r="AK342" s="190"/>
     </row>
-    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="153" t="s">
         <v>567</v>
       </c>
@@ -29813,13 +30058,13 @@
       <c r="D343" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E343" s="239">
+      <c r="E343" s="218">
         <v>4</v>
       </c>
       <c r="F343" s="162">
         <v>947.55</v>
       </c>
-      <c r="G343" s="253">
+      <c r="G343" s="232">
         <f t="shared" si="98"/>
         <v>3790.2</v>
       </c>
@@ -29886,7 +30131,7 @@
       <c r="AJ343" s="190"/>
       <c r="AK343" s="190"/>
     </row>
-    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="153" t="s">
         <v>567</v>
       </c>
@@ -29897,9 +30142,9 @@
         <v>249</v>
       </c>
       <c r="D344" s="157"/>
-      <c r="E344" s="239"/>
+      <c r="E344" s="218"/>
       <c r="F344" s="162"/>
-      <c r="G344" s="253"/>
+      <c r="G344" s="232"/>
       <c r="H344" s="16"/>
       <c r="I344" s="20"/>
       <c r="J344" s="21"/>
@@ -29931,7 +30176,7 @@
       <c r="AJ344" s="190"/>
       <c r="AK344" s="190"/>
     </row>
-    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="153" t="s">
         <v>567</v>
       </c>
@@ -29944,13 +30189,13 @@
       <c r="D345" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E345" s="239">
+      <c r="E345" s="218">
         <v>1</v>
       </c>
       <c r="F345" s="162">
         <v>5440</v>
       </c>
-      <c r="G345" s="253">
+      <c r="G345" s="232">
         <f t="shared" si="98"/>
         <v>5440</v>
       </c>
@@ -30017,7 +30262,7 @@
       <c r="AJ345" s="190"/>
       <c r="AK345" s="190"/>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A346" s="153" t="s">
         <v>567</v>
       </c>
@@ -30030,13 +30275,13 @@
       <c r="D346" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E346" s="239">
+      <c r="E346" s="218">
         <v>2</v>
       </c>
       <c r="F346" s="162">
         <v>4158</v>
       </c>
-      <c r="G346" s="253">
+      <c r="G346" s="232">
         <f t="shared" si="98"/>
         <v>8316</v>
       </c>
@@ -30102,7 +30347,7 @@
       <c r="AJ346" s="189"/>
       <c r="AK346" s="189"/>
     </row>
-    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="153" t="s">
         <v>567</v>
       </c>
@@ -30115,13 +30360,13 @@
       <c r="D347" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E347" s="239">
+      <c r="E347" s="218">
         <v>1</v>
       </c>
       <c r="F347" s="162">
         <v>6850</v>
       </c>
-      <c r="G347" s="253">
+      <c r="G347" s="232">
         <f t="shared" si="98"/>
         <v>6850</v>
       </c>
@@ -30188,7 +30433,7 @@
       <c r="AJ347" s="190"/>
       <c r="AK347" s="190"/>
     </row>
-    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="153" t="s">
         <v>567</v>
       </c>
@@ -30199,9 +30444,9 @@
         <v>262</v>
       </c>
       <c r="D348" s="157"/>
-      <c r="E348" s="239"/>
+      <c r="E348" s="218"/>
       <c r="F348" s="162"/>
-      <c r="G348" s="253"/>
+      <c r="G348" s="232"/>
       <c r="H348" s="16"/>
       <c r="I348" s="20"/>
       <c r="J348" s="21"/>
@@ -30233,7 +30478,7 @@
       <c r="AJ348" s="190"/>
       <c r="AK348" s="190"/>
     </row>
-    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="153" t="s">
         <v>567</v>
       </c>
@@ -30244,9 +30489,9 @@
         <v>33</v>
       </c>
       <c r="D349" s="157"/>
-      <c r="E349" s="239"/>
+      <c r="E349" s="218"/>
       <c r="F349" s="162"/>
-      <c r="G349" s="253"/>
+      <c r="G349" s="232"/>
       <c r="H349" s="16"/>
       <c r="I349" s="20"/>
       <c r="J349" s="21"/>
@@ -30278,7 +30523,7 @@
       <c r="AJ349" s="190"/>
       <c r="AK349" s="190"/>
     </row>
-    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="153" t="s">
         <v>567</v>
       </c>
@@ -30291,13 +30536,13 @@
       <c r="D350" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E350" s="239">
+      <c r="E350" s="218">
         <v>14346</v>
       </c>
       <c r="F350" s="162">
         <v>8.33</v>
       </c>
-      <c r="G350" s="253">
+      <c r="G350" s="232">
         <f t="shared" si="98"/>
         <v>119502.18000000001</v>
       </c>
@@ -30364,7 +30609,7 @@
       <c r="AJ350" s="190"/>
       <c r="AK350" s="190"/>
     </row>
-    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="153" t="s">
         <v>567</v>
       </c>
@@ -30375,9 +30620,9 @@
         <v>319</v>
       </c>
       <c r="D351" s="157"/>
-      <c r="E351" s="239"/>
+      <c r="E351" s="218"/>
       <c r="F351" s="162"/>
-      <c r="G351" s="253"/>
+      <c r="G351" s="232"/>
       <c r="H351" s="16"/>
       <c r="I351" s="20"/>
       <c r="J351" s="21"/>
@@ -30409,7 +30654,7 @@
       <c r="AJ351" s="190"/>
       <c r="AK351" s="190"/>
     </row>
-    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="153" t="s">
         <v>567</v>
       </c>
@@ -30422,13 +30667,13 @@
       <c r="D352" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E352" s="239">
+      <c r="E352" s="218">
         <v>2</v>
       </c>
       <c r="F352" s="162">
         <v>38906</v>
       </c>
-      <c r="G352" s="253">
+      <c r="G352" s="232">
         <f t="shared" si="98"/>
         <v>77812</v>
       </c>
@@ -30495,7 +30740,7 @@
       <c r="AJ352" s="190"/>
       <c r="AK352" s="190"/>
     </row>
-    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="153" t="s">
         <v>567</v>
       </c>
@@ -30508,13 +30753,13 @@
       <c r="D353" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E353" s="239">
+      <c r="E353" s="218">
         <v>7</v>
       </c>
       <c r="F353" s="162">
         <v>12526.82</v>
       </c>
-      <c r="G353" s="253">
+      <c r="G353" s="232">
         <f t="shared" si="98"/>
         <v>87687.739999999991</v>
       </c>
@@ -30581,7 +30826,7 @@
       <c r="AJ353" s="190"/>
       <c r="AK353" s="190"/>
     </row>
-    <row r="354" spans="1:38" ht="21" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A354" s="120" t="s">
         <v>572</v>
       </c>
@@ -30603,11 +30848,11 @@
       <c r="AC354" s="152"/>
       <c r="AD354" s="152">
         <f>SUBTOTAL(9,AD5:AD353)</f>
-        <v>536379.75</v>
+        <v>537533.5</v>
       </c>
       <c r="AE354" s="152">
         <f>SUM(AE6:AE353)</f>
-        <v>-198832.78</v>
+        <v>-197679.03</v>
       </c>
       <c r="AF354" s="152"/>
       <c r="AG354" s="152"/>
@@ -30619,27 +30864,27 @@
       <c r="AJ354" s="152"/>
       <c r="AK354" s="152">
         <f t="shared" si="179"/>
-        <v>107333.75</v>
+        <v>106180</v>
       </c>
       <c r="AL354" s="193">
         <f>(AK354+AH354)</f>
-        <v>340343.86</v>
-      </c>
-    </row>
-    <row r="355" spans="1:38" ht="21" x14ac:dyDescent="0.35">
+        <v>339190.11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A355" s="120" t="s">
         <v>572</v>
       </c>
-      <c r="G355" s="254">
+      <c r="G355" s="233">
         <f>G324-G354</f>
         <v>4038147.4803200015</v>
       </c>
       <c r="AL355" s="193">
         <f>AE354-AA354</f>
-        <v>-340343.86</v>
-      </c>
-    </row>
-    <row r="356" spans="1:38" ht="21" x14ac:dyDescent="0.35">
+        <v>-339190.11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A356" s="120" t="s">
         <v>572</v>
       </c>
@@ -30655,6 +30900,12 @@
   </sheetData>
   <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}"/>
   <mergeCells count="17">
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="B324:C324"/>
     <mergeCell ref="Q2:S3"/>
     <mergeCell ref="H3:J3"/>
@@ -30666,12 +30917,6 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D325:F326">
@@ -30729,7 +30974,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="19" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="18" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
+++ b/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B57908-D0F6-48AC-B20E-C06FC4CDF82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E36DE8-8D44-4657-A73D-FE46D3352BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="339" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
   </bookViews>
@@ -2985,36 +2985,6 @@
     <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3047,6 +3017,36 @@
     </xf>
     <xf numFmtId="4" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3416,13 +3416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AL356"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AI42" sqref="AI42:AI283"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD286" sqref="AD286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3493,22 +3493,22 @@
       <c r="AK1" s="84"/>
     </row>
     <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="240" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="241" t="s">
+      <c r="B2" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="251" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="242" t="s">
+      <c r="E2" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="243" t="s">
+      <c r="F2" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="243" t="s">
+      <c r="G2" s="254" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="7"/>
@@ -3522,93 +3522,93 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="235" t="s">
+      <c r="Q2" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="244" t="s">
+      <c r="V2" s="234" t="s">
         <v>569</v>
       </c>
-      <c r="W2" s="244"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="252" t="s">
+      <c r="W2" s="234"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="242" t="s">
         <v>561</v>
       </c>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="252"/>
-      <c r="AB2" s="250" t="s">
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="242"/>
+      <c r="AB2" s="240" t="s">
         <v>555</v>
       </c>
-      <c r="AC2" s="251"/>
-      <c r="AD2" s="251"/>
-      <c r="AE2" s="253" t="s">
+      <c r="AC2" s="241"/>
+      <c r="AD2" s="241"/>
+      <c r="AE2" s="243" t="s">
         <v>570</v>
       </c>
-      <c r="AF2" s="246" t="s">
+      <c r="AF2" s="236" t="s">
         <v>563</v>
       </c>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248" t="s">
+      <c r="AG2" s="236"/>
+      <c r="AH2" s="237"/>
+      <c r="AI2" s="238" t="s">
         <v>566</v>
       </c>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="249"/>
+      <c r="AJ2" s="238"/>
+      <c r="AK2" s="239"/>
     </row>
     <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="236" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="237"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="239" t="s">
+      <c r="I3" s="248"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239" t="s">
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="235"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="246"/>
       <c r="T3" s="2"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="252"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="250"/>
-      <c r="AC3" s="251"/>
-      <c r="AD3" s="251"/>
-      <c r="AE3" s="254"/>
-      <c r="AF3" s="246"/>
-      <c r="AG3" s="246"/>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
-      <c r="AJ3" s="248"/>
-      <c r="AK3" s="249"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="242"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="241"/>
+      <c r="AD3" s="241"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="236"/>
+      <c r="AH3" s="237"/>
+      <c r="AI3" s="238"/>
+      <c r="AJ3" s="238"/>
+      <c r="AK3" s="239"/>
     </row>
     <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
       <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="AJ5" s="104"/>
       <c r="AK5" s="104"/>
     </row>
-    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>588</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="AJ6" s="187"/>
       <c r="AK6" s="187"/>
     </row>
-    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>588</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="AJ7" s="187"/>
       <c r="AK7" s="187"/>
     </row>
-    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>555</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="AJ8" s="187"/>
       <c r="AK8" s="187"/>
     </row>
-    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>555</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="AJ9" s="187"/>
       <c r="AK9" s="187"/>
     </row>
-    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>555</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="AJ10" s="187"/>
       <c r="AK10" s="187"/>
     </row>
-    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>555</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="AJ11" s="187"/>
       <c r="AK11" s="187"/>
     </row>
-    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
         <v>562</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="AJ12" s="187"/>
       <c r="AK12" s="187"/>
     </row>
-    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>588</v>
       </c>
@@ -4379,7 +4379,7 @@
       <c r="AJ13" s="187"/>
       <c r="AK13" s="187"/>
     </row>
-    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>588</v>
       </c>
@@ -4430,7 +4430,7 @@
       <c r="AJ14" s="187"/>
       <c r="AK14" s="187"/>
     </row>
-    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>567</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="AJ15" s="187"/>
       <c r="AK15" s="187"/>
     </row>
-    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
         <v>567</v>
       </c>
@@ -4622,7 +4622,7 @@
       <c r="AJ16" s="187"/>
       <c r="AK16" s="187"/>
     </row>
-    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
         <v>588</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="AJ17" s="187"/>
       <c r="AK17" s="187"/>
     </row>
-    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="s">
         <v>573</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="AJ18" s="187"/>
       <c r="AK18" s="187"/>
     </row>
-    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>573</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="AJ19" s="187"/>
       <c r="AK19" s="187"/>
     </row>
-    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
         <v>573</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="AJ20" s="187"/>
       <c r="AK20" s="187"/>
     </row>
-    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>573</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="AJ21" s="187"/>
       <c r="AK21" s="187"/>
     </row>
-    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>573</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="AJ22" s="187"/>
       <c r="AK22" s="187"/>
     </row>
-    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>573</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="AJ23" s="187"/>
       <c r="AK23" s="187"/>
     </row>
-    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="s">
         <v>588</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="AJ24" s="187"/>
       <c r="AK24" s="187"/>
     </row>
-    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>573</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="AJ25" s="187"/>
       <c r="AK25" s="187"/>
     </row>
-    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>573</v>
       </c>
@@ -5420,7 +5420,7 @@
       <c r="AJ26" s="187"/>
       <c r="AK26" s="187"/>
     </row>
-    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="s">
         <v>588</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="AJ27" s="187"/>
       <c r="AK27" s="187"/>
     </row>
-    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>573</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="AJ28" s="187"/>
       <c r="AK28" s="187"/>
     </row>
-    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>573</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="AJ29" s="187"/>
       <c r="AK29" s="187"/>
     </row>
-    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>573</v>
       </c>
@@ -5732,7 +5732,7 @@
       <c r="AJ30" s="187"/>
       <c r="AK30" s="187"/>
     </row>
-    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="64" t="s">
         <v>588</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="AJ31" s="187"/>
       <c r="AK31" s="187"/>
     </row>
-    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>573</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="AJ32" s="187"/>
       <c r="AK32" s="187"/>
     </row>
-    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
         <v>588</v>
       </c>
@@ -5921,7 +5921,7 @@
       <c r="AJ33" s="187"/>
       <c r="AK33" s="187"/>
     </row>
-    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="s">
         <v>573</v>
       </c>
@@ -6008,7 +6008,7 @@
       <c r="AJ34" s="187"/>
       <c r="AK34" s="187"/>
     </row>
-    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
         <v>573</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="AJ35" s="187"/>
       <c r="AK35" s="187"/>
     </row>
-    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="64" t="s">
         <v>573</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="AJ36" s="187"/>
       <c r="AK36" s="187"/>
     </row>
-    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
         <v>573</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="AJ37" s="187"/>
       <c r="AK37" s="187"/>
     </row>
-    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
         <v>588</v>
       </c>
@@ -6320,7 +6320,7 @@
       <c r="AJ38" s="187"/>
       <c r="AK38" s="187"/>
     </row>
-    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
         <v>555</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="AJ39" s="187"/>
       <c r="AK39" s="187"/>
     </row>
-    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="64" t="s">
         <v>573</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="64" t="s">
         <v>574</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="64" t="s">
         <v>564</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="64" t="s">
         <v>564</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
         <v>573</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="AJ44" s="104"/>
       <c r="AK44" s="104"/>
     </row>
-    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
         <v>564</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
         <v>562</v>
       </c>
@@ -7053,7 +7053,7 @@
       <c r="AJ46" s="187"/>
       <c r="AK46" s="187"/>
     </row>
-    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>562</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="AJ47" s="187"/>
       <c r="AK47" s="187"/>
     </row>
-    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="64" t="s">
         <v>563</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="AJ48" s="187"/>
       <c r="AK48" s="187"/>
     </row>
-    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="64" t="s">
         <v>563</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="AJ49" s="187"/>
       <c r="AK49" s="187"/>
     </row>
-    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="64" t="s">
         <v>563</v>
       </c>
@@ -7318,7 +7318,7 @@
       <c r="AJ50" s="187"/>
       <c r="AK50" s="187"/>
     </row>
-    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
         <v>588</v>
       </c>
@@ -7359,7 +7359,7 @@
       <c r="AJ51" s="187"/>
       <c r="AK51" s="187"/>
     </row>
-    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="64" t="s">
         <v>588</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="AJ52" s="187"/>
       <c r="AK52" s="187"/>
     </row>
-    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="64" t="s">
         <v>562</v>
       </c>
@@ -7504,7 +7504,7 @@
       <c r="AJ53" s="187"/>
       <c r="AK53" s="187"/>
     </row>
-    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="64" t="s">
         <v>588</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="AJ54" s="187"/>
       <c r="AK54" s="187"/>
     </row>
-    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="64" t="s">
         <v>588</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="AJ55" s="187"/>
       <c r="AK55" s="187"/>
     </row>
-    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
         <v>567</v>
       </c>
@@ -7702,7 +7702,7 @@
       <c r="AJ56" s="187"/>
       <c r="AK56" s="187"/>
     </row>
-    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="64" t="s">
         <v>588</v>
       </c>
@@ -7753,7 +7753,7 @@
       <c r="AJ57" s="187"/>
       <c r="AK57" s="187"/>
     </row>
-    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>573</v>
       </c>
@@ -7840,7 +7840,7 @@
       <c r="AJ58" s="187"/>
       <c r="AK58" s="187"/>
     </row>
-    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="64" t="s">
         <v>573</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="AJ59" s="187"/>
       <c r="AK59" s="187"/>
     </row>
-    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="64" t="s">
         <v>573</v>
       </c>
@@ -8014,7 +8014,7 @@
       <c r="AJ60" s="187"/>
       <c r="AK60" s="187"/>
     </row>
-    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>573</v>
       </c>
@@ -8101,7 +8101,7 @@
       <c r="AJ61" s="187"/>
       <c r="AK61" s="187"/>
     </row>
-    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>573</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="AJ62" s="187"/>
       <c r="AK62" s="187"/>
     </row>
-    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>573</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="AJ63" s="187"/>
       <c r="AK63" s="187"/>
     </row>
-    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="64" t="s">
         <v>588</v>
       </c>
@@ -8326,7 +8326,7 @@
       <c r="AJ64" s="187"/>
       <c r="AK64" s="187"/>
     </row>
-    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>573</v>
       </c>
@@ -8413,7 +8413,7 @@
       <c r="AJ65" s="187"/>
       <c r="AK65" s="187"/>
     </row>
-    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>573</v>
       </c>
@@ -8500,7 +8500,7 @@
       <c r="AJ66" s="187"/>
       <c r="AK66" s="187"/>
     </row>
-    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>588</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="AJ67" s="187"/>
       <c r="AK67" s="187"/>
     </row>
-    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>573</v>
       </c>
@@ -8638,7 +8638,7 @@
       <c r="AJ68" s="187"/>
       <c r="AK68" s="187"/>
     </row>
-    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>573</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="AJ69" s="187"/>
       <c r="AK69" s="187"/>
     </row>
-    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>573</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="AJ70" s="187"/>
       <c r="AK70" s="187"/>
     </row>
-    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>573</v>
       </c>
@@ -8899,7 +8899,7 @@
       <c r="AJ71" s="187"/>
       <c r="AK71" s="187"/>
     </row>
-    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
         <v>588</v>
       </c>
@@ -8950,7 +8950,7 @@
       <c r="AJ72" s="187"/>
       <c r="AK72" s="187"/>
     </row>
-    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="64" t="s">
         <v>573</v>
       </c>
@@ -9037,7 +9037,7 @@
       <c r="AJ73" s="187"/>
       <c r="AK73" s="187"/>
     </row>
-    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="64" t="s">
         <v>588</v>
       </c>
@@ -9088,7 +9088,7 @@
       <c r="AJ74" s="187"/>
       <c r="AK74" s="187"/>
     </row>
-    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="64" t="s">
         <v>573</v>
       </c>
@@ -9175,7 +9175,7 @@
       <c r="AJ75" s="187"/>
       <c r="AK75" s="187"/>
     </row>
-    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="64" t="s">
         <v>573</v>
       </c>
@@ -9262,7 +9262,7 @@
       <c r="AJ76" s="187"/>
       <c r="AK76" s="187"/>
     </row>
-    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="64" t="s">
         <v>573</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="AJ77" s="187"/>
       <c r="AK77" s="187"/>
     </row>
-    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="64" t="s">
         <v>573</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="AJ78" s="187"/>
       <c r="AK78" s="187"/>
     </row>
-    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="64" t="s">
         <v>573</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="AJ79" s="187"/>
       <c r="AK79" s="187"/>
     </row>
-    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="64" t="s">
         <v>588</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="AJ80" s="187"/>
       <c r="AK80" s="187"/>
     </row>
-    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>573</v>
       </c>
@@ -9661,7 +9661,7 @@
       <c r="AJ81" s="187"/>
       <c r="AK81" s="187"/>
     </row>
-    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="64" t="s">
         <v>588</v>
       </c>
@@ -9712,7 +9712,7 @@
       <c r="AJ82" s="187"/>
       <c r="AK82" s="187"/>
     </row>
-    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="64" t="s">
         <v>573</v>
       </c>
@@ -9799,7 +9799,7 @@
       <c r="AJ83" s="187"/>
       <c r="AK83" s="187"/>
     </row>
-    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="64" t="s">
         <v>588</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="AJ84" s="187"/>
       <c r="AK84" s="187"/>
     </row>
-    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
         <v>588</v>
       </c>
@@ -9901,7 +9901,7 @@
       <c r="AJ85" s="187"/>
       <c r="AK85" s="187"/>
     </row>
-    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="64" t="s">
         <v>567</v>
       </c>
@@ -9996,7 +9996,7 @@
       <c r="AJ86" s="187"/>
       <c r="AK86" s="187"/>
     </row>
-    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="64" t="s">
         <v>567</v>
       </c>
@@ -10091,7 +10091,7 @@
       <c r="AJ87" s="187"/>
       <c r="AK87" s="187"/>
     </row>
-    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="64" t="s">
         <v>588</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="AJ88" s="187"/>
       <c r="AK88" s="187"/>
     </row>
-    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="64" t="s">
         <v>573</v>
       </c>
@@ -10229,7 +10229,7 @@
       <c r="AJ89" s="187"/>
       <c r="AK89" s="187"/>
     </row>
-    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="64" t="s">
         <v>573</v>
       </c>
@@ -10316,7 +10316,7 @@
       <c r="AJ90" s="187"/>
       <c r="AK90" s="187"/>
     </row>
-    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="64" t="s">
         <v>573</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="AJ91" s="187"/>
       <c r="AK91" s="187"/>
     </row>
-    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>573</v>
       </c>
@@ -10490,7 +10490,7 @@
       <c r="AJ92" s="187"/>
       <c r="AK92" s="187"/>
     </row>
-    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>573</v>
       </c>
@@ -10577,7 +10577,7 @@
       <c r="AJ93" s="187"/>
       <c r="AK93" s="187"/>
     </row>
-    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>573</v>
       </c>
@@ -10664,7 +10664,7 @@
       <c r="AJ94" s="187"/>
       <c r="AK94" s="187"/>
     </row>
-    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>573</v>
       </c>
@@ -10751,7 +10751,7 @@
       <c r="AJ95" s="187"/>
       <c r="AK95" s="187"/>
     </row>
-    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>573</v>
       </c>
@@ -10838,7 +10838,7 @@
       <c r="AJ96" s="187"/>
       <c r="AK96" s="187"/>
     </row>
-    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>588</v>
       </c>
@@ -10889,7 +10889,7 @@
       <c r="AJ97" s="187"/>
       <c r="AK97" s="187"/>
     </row>
-    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>573</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="AJ98" s="187"/>
       <c r="AK98" s="187"/>
     </row>
-    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>573</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="AJ99" s="187"/>
       <c r="AK99" s="187"/>
     </row>
-    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>573</v>
       </c>
@@ -11150,7 +11150,7 @@
       <c r="AJ100" s="187"/>
       <c r="AK100" s="187"/>
     </row>
-    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="64" t="s">
         <v>588</v>
       </c>
@@ -11201,7 +11201,7 @@
       <c r="AJ101" s="187"/>
       <c r="AK101" s="187"/>
     </row>
-    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>573</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>573</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="AJ103" s="187"/>
       <c r="AK103" s="187"/>
     </row>
-    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>573</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>573</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="AJ105" s="187"/>
       <c r="AK105" s="187"/>
     </row>
-    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>573</v>
       </c>
@@ -11642,7 +11642,7 @@
       <c r="AJ106" s="187"/>
       <c r="AK106" s="187"/>
     </row>
-    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
         <v>588</v>
       </c>
@@ -11693,7 +11693,7 @@
       <c r="AJ107" s="187"/>
       <c r="AK107" s="187"/>
     </row>
-    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
         <v>588</v>
       </c>
@@ -11744,7 +11744,7 @@
       <c r="AJ108" s="187"/>
       <c r="AK108" s="187"/>
     </row>
-    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="64" t="s">
         <v>573</v>
       </c>
@@ -11831,7 +11831,7 @@
       <c r="AJ109" s="187"/>
       <c r="AK109" s="187"/>
     </row>
-    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="64" t="s">
         <v>588</v>
       </c>
@@ -11882,7 +11882,7 @@
       <c r="AJ110" s="187"/>
       <c r="AK110" s="187"/>
     </row>
-    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="64" t="s">
         <v>573</v>
       </c>
@@ -11969,7 +11969,7 @@
       <c r="AJ111" s="187"/>
       <c r="AK111" s="187"/>
     </row>
-    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="64" t="s">
         <v>588</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="AJ112" s="187"/>
       <c r="AK112" s="187"/>
     </row>
-    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="64" t="s">
         <v>573</v>
       </c>
@@ -12107,7 +12107,7 @@
       <c r="AJ113" s="187"/>
       <c r="AK113" s="187"/>
     </row>
-    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>573</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="AJ114" s="187"/>
       <c r="AK114" s="187"/>
     </row>
-    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>573</v>
       </c>
@@ -12281,7 +12281,7 @@
       <c r="AJ115" s="187"/>
       <c r="AK115" s="187"/>
     </row>
-    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="64" t="s">
         <v>573</v>
       </c>
@@ -12368,7 +12368,7 @@
       <c r="AJ116" s="187"/>
       <c r="AK116" s="187"/>
     </row>
-    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="64" t="s">
         <v>573</v>
       </c>
@@ -12455,7 +12455,7 @@
       <c r="AJ117" s="187"/>
       <c r="AK117" s="187"/>
     </row>
-    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="64" t="s">
         <v>573</v>
       </c>
@@ -12542,7 +12542,7 @@
       <c r="AJ118" s="187"/>
       <c r="AK118" s="187"/>
     </row>
-    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="64" t="s">
         <v>573</v>
       </c>
@@ -12629,7 +12629,7 @@
       <c r="AJ119" s="187"/>
       <c r="AK119" s="187"/>
     </row>
-    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="64" t="s">
         <v>573</v>
       </c>
@@ -12716,7 +12716,7 @@
       <c r="AJ120" s="187"/>
       <c r="AK120" s="187"/>
     </row>
-    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="64" t="s">
         <v>588</v>
       </c>
@@ -12767,7 +12767,7 @@
       <c r="AJ121" s="187"/>
       <c r="AK121" s="187"/>
     </row>
-    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="64" t="s">
         <v>562</v>
       </c>
@@ -12861,7 +12861,7 @@
       <c r="AJ122" s="187"/>
       <c r="AK122" s="187"/>
     </row>
-    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="64" t="s">
         <v>588</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="AJ123" s="187"/>
       <c r="AK123" s="187"/>
     </row>
-    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="64" t="s">
         <v>567</v>
       </c>
@@ -13008,7 +13008,7 @@
       <c r="AJ124" s="187"/>
       <c r="AK124" s="187"/>
     </row>
-    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="64" t="s">
         <v>567</v>
       </c>
@@ -13104,7 +13104,7 @@
       <c r="AJ125" s="187"/>
       <c r="AK125" s="187"/>
     </row>
-    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="64" t="s">
         <v>588</v>
       </c>
@@ -13155,7 +13155,7 @@
       <c r="AJ126" s="187"/>
       <c r="AK126" s="187"/>
     </row>
-    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="64" t="s">
         <v>573</v>
       </c>
@@ -13242,7 +13242,7 @@
       <c r="AJ127" s="187"/>
       <c r="AK127" s="187"/>
     </row>
-    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="64" t="s">
         <v>567</v>
       </c>
@@ -13337,7 +13337,7 @@
       <c r="AJ128" s="187"/>
       <c r="AK128" s="187"/>
     </row>
-    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="64" t="s">
         <v>567</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="AJ129" s="187"/>
       <c r="AK129" s="187"/>
     </row>
-    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="64" t="s">
         <v>567</v>
       </c>
@@ -13527,7 +13527,7 @@
       <c r="AJ130" s="187"/>
       <c r="AK130" s="187"/>
     </row>
-    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="64" t="s">
         <v>573</v>
       </c>
@@ -13614,7 +13614,7 @@
       <c r="AJ131" s="187"/>
       <c r="AK131" s="187"/>
     </row>
-    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="64" t="s">
         <v>555</v>
       </c>
@@ -13701,7 +13701,7 @@
       <c r="AJ132" s="187"/>
       <c r="AK132" s="187"/>
     </row>
-    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="64" t="s">
         <v>562</v>
       </c>
@@ -13795,7 +13795,7 @@
       <c r="AJ133" s="187"/>
       <c r="AK133" s="187"/>
     </row>
-    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="64" t="s">
         <v>588</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="AJ134" s="187"/>
       <c r="AK134" s="187"/>
     </row>
-    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="64" t="s">
         <v>588</v>
       </c>
@@ -13897,7 +13897,7 @@
       <c r="AJ135" s="187"/>
       <c r="AK135" s="187"/>
     </row>
-    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="64" t="s">
         <v>588</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="AJ136" s="187"/>
       <c r="AK136" s="187"/>
     </row>
-    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="64" t="s">
         <v>588</v>
       </c>
@@ -13999,7 +13999,7 @@
       <c r="AJ137" s="187"/>
       <c r="AK137" s="187"/>
     </row>
-    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="64" t="s">
         <v>573</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="64" t="s">
         <v>573</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="64" t="s">
         <v>588</v>
       </c>
@@ -14230,7 +14230,7 @@
       <c r="AJ140" s="187"/>
       <c r="AK140" s="187"/>
     </row>
-    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="64" t="s">
         <v>573</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="64" t="s">
         <v>588</v>
       </c>
@@ -14371,7 +14371,7 @@
       <c r="AJ142" s="187"/>
       <c r="AK142" s="187"/>
     </row>
-    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="64" t="s">
         <v>567</v>
       </c>
@@ -14467,7 +14467,7 @@
       <c r="AJ143" s="187"/>
       <c r="AK143" s="187"/>
     </row>
-    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="64" t="s">
         <v>567</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="AJ144" s="187"/>
       <c r="AK144" s="187"/>
     </row>
-    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="64" t="s">
         <v>567</v>
       </c>
@@ -14659,7 +14659,7 @@
       <c r="AJ145" s="187"/>
       <c r="AK145" s="187"/>
     </row>
-    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="64" t="s">
         <v>573</v>
       </c>
@@ -14746,7 +14746,7 @@
       <c r="AJ146" s="187"/>
       <c r="AK146" s="187"/>
     </row>
-    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="64" t="s">
         <v>573</v>
       </c>
@@ -14833,7 +14833,7 @@
       <c r="AJ147" s="187"/>
       <c r="AK147" s="187"/>
     </row>
-    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="64" t="s">
         <v>573</v>
       </c>
@@ -14920,7 +14920,7 @@
       <c r="AJ148" s="187"/>
       <c r="AK148" s="187"/>
     </row>
-    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="64" t="s">
         <v>588</v>
       </c>
@@ -14971,7 +14971,7 @@
       <c r="AJ149" s="187"/>
       <c r="AK149" s="187"/>
     </row>
-    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="64" t="s">
         <v>588</v>
       </c>
@@ -15022,7 +15022,7 @@
       <c r="AJ150" s="187"/>
       <c r="AK150" s="187"/>
     </row>
-    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="64" t="s">
         <v>573</v>
       </c>
@@ -15109,7 +15109,7 @@
       <c r="AJ151" s="187"/>
       <c r="AK151" s="187"/>
     </row>
-    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="64" t="s">
         <v>567</v>
       </c>
@@ -15205,7 +15205,7 @@
       <c r="AJ152" s="187"/>
       <c r="AK152" s="187"/>
     </row>
-    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="64" t="s">
         <v>588</v>
       </c>
@@ -15256,7 +15256,7 @@
       <c r="AJ153" s="187"/>
       <c r="AK153" s="187"/>
     </row>
-    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="64" t="s">
         <v>573</v>
       </c>
@@ -15343,7 +15343,7 @@
       <c r="AJ154" s="187"/>
       <c r="AK154" s="187"/>
     </row>
-    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>573</v>
       </c>
@@ -15430,7 +15430,7 @@
       <c r="AJ155" s="187"/>
       <c r="AK155" s="187"/>
     </row>
-    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="64" t="s">
         <v>573</v>
       </c>
@@ -15517,7 +15517,7 @@
       <c r="AJ156" s="187"/>
       <c r="AK156" s="187"/>
     </row>
-    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="64" t="s">
         <v>573</v>
       </c>
@@ -15604,7 +15604,7 @@
       <c r="AJ157" s="187"/>
       <c r="AK157" s="187"/>
     </row>
-    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="64" t="s">
         <v>573</v>
       </c>
@@ -15691,7 +15691,7 @@
       <c r="AJ158" s="187"/>
       <c r="AK158" s="187"/>
     </row>
-    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>573</v>
       </c>
@@ -15778,7 +15778,7 @@
       <c r="AJ159" s="187"/>
       <c r="AK159" s="187"/>
     </row>
-    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="64" t="s">
         <v>573</v>
       </c>
@@ -15865,7 +15865,7 @@
       <c r="AJ160" s="187"/>
       <c r="AK160" s="187"/>
     </row>
-    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>573</v>
       </c>
@@ -15952,7 +15952,7 @@
       <c r="AJ161" s="187"/>
       <c r="AK161" s="187"/>
     </row>
-    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="64" t="s">
         <v>573</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="AJ162" s="187"/>
       <c r="AK162" s="187"/>
     </row>
-    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>573</v>
       </c>
@@ -16126,7 +16126,7 @@
       <c r="AJ163" s="187"/>
       <c r="AK163" s="187"/>
     </row>
-    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="64" t="s">
         <v>573</v>
       </c>
@@ -16213,7 +16213,7 @@
       <c r="AJ164" s="187"/>
       <c r="AK164" s="187"/>
     </row>
-    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="64" t="s">
         <v>588</v>
       </c>
@@ -16264,7 +16264,7 @@
       <c r="AJ165" s="187"/>
       <c r="AK165" s="187"/>
     </row>
-    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>573</v>
       </c>
@@ -16351,7 +16351,7 @@
       <c r="AJ166" s="187"/>
       <c r="AK166" s="187"/>
     </row>
-    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>573</v>
       </c>
@@ -16438,7 +16438,7 @@
       <c r="AJ167" s="187"/>
       <c r="AK167" s="187"/>
     </row>
-    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>573</v>
       </c>
@@ -16525,7 +16525,7 @@
       <c r="AJ168" s="187"/>
       <c r="AK168" s="187"/>
     </row>
-    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>573</v>
       </c>
@@ -16612,7 +16612,7 @@
       <c r="AJ169" s="187"/>
       <c r="AK169" s="187"/>
     </row>
-    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>573</v>
       </c>
@@ -16699,7 +16699,7 @@
       <c r="AJ170" s="187"/>
       <c r="AK170" s="187"/>
     </row>
-    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>573</v>
       </c>
@@ -16786,7 +16786,7 @@
       <c r="AJ171" s="187"/>
       <c r="AK171" s="187"/>
     </row>
-    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>573</v>
       </c>
@@ -16873,7 +16873,7 @@
       <c r="AJ172" s="187"/>
       <c r="AK172" s="187"/>
     </row>
-    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="64" t="s">
         <v>573</v>
       </c>
@@ -16960,7 +16960,7 @@
       <c r="AJ173" s="187"/>
       <c r="AK173" s="187"/>
     </row>
-    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="64" t="s">
         <v>588</v>
       </c>
@@ -17011,7 +17011,7 @@
       <c r="AJ174" s="187"/>
       <c r="AK174" s="187"/>
     </row>
-    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="64" t="s">
         <v>573</v>
       </c>
@@ -17098,7 +17098,7 @@
       <c r="AJ175" s="187"/>
       <c r="AK175" s="187"/>
     </row>
-    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="64" t="s">
         <v>573</v>
       </c>
@@ -17185,7 +17185,7 @@
       <c r="AJ176" s="187"/>
       <c r="AK176" s="187"/>
     </row>
-    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="64" t="s">
         <v>573</v>
       </c>
@@ -17272,7 +17272,7 @@
       <c r="AJ177" s="187"/>
       <c r="AK177" s="187"/>
     </row>
-    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="64" t="s">
         <v>588</v>
       </c>
@@ -17323,7 +17323,7 @@
       <c r="AJ178" s="187"/>
       <c r="AK178" s="187"/>
     </row>
-    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>573</v>
       </c>
@@ -17410,7 +17410,7 @@
       <c r="AJ179" s="187"/>
       <c r="AK179" s="187"/>
     </row>
-    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>573</v>
       </c>
@@ -17497,7 +17497,7 @@
       <c r="AJ180" s="187"/>
       <c r="AK180" s="187"/>
     </row>
-    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>573</v>
       </c>
@@ -17584,7 +17584,7 @@
       <c r="AJ181" s="187"/>
       <c r="AK181" s="187"/>
     </row>
-    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="64" t="s">
         <v>588</v>
       </c>
@@ -17635,7 +17635,7 @@
       <c r="AJ182" s="187"/>
       <c r="AK182" s="187"/>
     </row>
-    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>573</v>
       </c>
@@ -17722,7 +17722,7 @@
       <c r="AJ183" s="187"/>
       <c r="AK183" s="187"/>
     </row>
-    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>573</v>
       </c>
@@ -17809,7 +17809,7 @@
       <c r="AJ184" s="187"/>
       <c r="AK184" s="187"/>
     </row>
-    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="64" t="s">
         <v>573</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="64" t="s">
         <v>573</v>
       </c>
@@ -18232,7 +18232,7 @@
       <c r="AJ189" s="187"/>
       <c r="AK189" s="187"/>
     </row>
-    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="64" t="s">
         <v>588</v>
       </c>
@@ -18283,7 +18283,7 @@
       <c r="AJ190" s="187"/>
       <c r="AK190" s="187"/>
     </row>
-    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="64" t="s">
         <v>573</v>
       </c>
@@ -18370,7 +18370,7 @@
       <c r="AJ191" s="187"/>
       <c r="AK191" s="187"/>
     </row>
-    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="64" t="s">
         <v>573</v>
       </c>
@@ -18457,7 +18457,7 @@
       <c r="AJ192" s="187"/>
       <c r="AK192" s="187"/>
     </row>
-    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="64" t="s">
         <v>573</v>
       </c>
@@ -18544,7 +18544,7 @@
       <c r="AJ193" s="187"/>
       <c r="AK193" s="187"/>
     </row>
-    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>573</v>
       </c>
@@ -18631,7 +18631,7 @@
       <c r="AJ194" s="187"/>
       <c r="AK194" s="187"/>
     </row>
-    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>573</v>
       </c>
@@ -18718,7 +18718,7 @@
       <c r="AJ195" s="187"/>
       <c r="AK195" s="187"/>
     </row>
-    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>573</v>
       </c>
@@ -18805,7 +18805,7 @@
       <c r="AJ196" s="187"/>
       <c r="AK196" s="187"/>
     </row>
-    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>573</v>
       </c>
@@ -18892,7 +18892,7 @@
       <c r="AJ197" s="187"/>
       <c r="AK197" s="187"/>
     </row>
-    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>573</v>
       </c>
@@ -18979,7 +18979,7 @@
       <c r="AJ198" s="187"/>
       <c r="AK198" s="187"/>
     </row>
-    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="64" t="s">
         <v>573</v>
       </c>
@@ -19066,7 +19066,7 @@
       <c r="AJ199" s="187"/>
       <c r="AK199" s="187"/>
     </row>
-    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>573</v>
       </c>
@@ -19153,7 +19153,7 @@
       <c r="AJ200" s="187"/>
       <c r="AK200" s="187"/>
     </row>
-    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="64" t="s">
         <v>573</v>
       </c>
@@ -19240,7 +19240,7 @@
       <c r="AJ201" s="187"/>
       <c r="AK201" s="187"/>
     </row>
-    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="64" t="s">
         <v>573</v>
       </c>
@@ -19327,7 +19327,7 @@
       <c r="AJ202" s="187"/>
       <c r="AK202" s="187"/>
     </row>
-    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="64" t="s">
         <v>588</v>
       </c>
@@ -19378,7 +19378,7 @@
       <c r="AJ203" s="187"/>
       <c r="AK203" s="187"/>
     </row>
-    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="64" t="s">
         <v>573</v>
       </c>
@@ -19465,7 +19465,7 @@
       <c r="AJ204" s="187"/>
       <c r="AK204" s="187"/>
     </row>
-    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="64" t="s">
         <v>573</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="64" t="s">
         <v>573</v>
       </c>
@@ -19642,7 +19642,7 @@
       <c r="AJ206" s="187"/>
       <c r="AK206" s="187"/>
     </row>
-    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="64" t="s">
         <v>573</v>
       </c>
@@ -19729,7 +19729,7 @@
       <c r="AJ207" s="187"/>
       <c r="AK207" s="187"/>
     </row>
-    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="64" t="s">
         <v>573</v>
       </c>
@@ -19816,7 +19816,7 @@
       <c r="AJ208" s="187"/>
       <c r="AK208" s="187"/>
     </row>
-    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="64" t="s">
         <v>588</v>
       </c>
@@ -19867,7 +19867,7 @@
       <c r="AJ209" s="187"/>
       <c r="AK209" s="187"/>
     </row>
-    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="64" t="s">
         <v>588</v>
       </c>
@@ -19918,7 +19918,7 @@
       <c r="AJ210" s="187"/>
       <c r="AK210" s="187"/>
     </row>
-    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="64" t="s">
         <v>571</v>
       </c>
@@ -20005,7 +20005,7 @@
       <c r="AJ211" s="187"/>
       <c r="AK211" s="187"/>
     </row>
-    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="64" t="s">
         <v>571</v>
       </c>
@@ -20092,7 +20092,7 @@
       <c r="AJ212" s="187"/>
       <c r="AK212" s="187"/>
     </row>
-    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="64" t="s">
         <v>571</v>
       </c>
@@ -20179,7 +20179,7 @@
       <c r="AJ213" s="187"/>
       <c r="AK213" s="187"/>
     </row>
-    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="64" t="s">
         <v>571</v>
       </c>
@@ -20266,7 +20266,7 @@
       <c r="AJ214" s="187"/>
       <c r="AK214" s="187"/>
     </row>
-    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="64" t="s">
         <v>571</v>
       </c>
@@ -20353,7 +20353,7 @@
       <c r="AJ215" s="187"/>
       <c r="AK215" s="187"/>
     </row>
-    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="64" t="s">
         <v>571</v>
       </c>
@@ -20440,7 +20440,7 @@
       <c r="AJ216" s="187"/>
       <c r="AK216" s="187"/>
     </row>
-    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="64" t="s">
         <v>571</v>
       </c>
@@ -20527,7 +20527,7 @@
       <c r="AJ217" s="187"/>
       <c r="AK217" s="187"/>
     </row>
-    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="64" t="s">
         <v>571</v>
       </c>
@@ -20614,7 +20614,7 @@
       <c r="AJ218" s="187"/>
       <c r="AK218" s="187"/>
     </row>
-    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="64" t="s">
         <v>571</v>
       </c>
@@ -20701,7 +20701,7 @@
       <c r="AJ219" s="187"/>
       <c r="AK219" s="187"/>
     </row>
-    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="64" t="s">
         <v>571</v>
       </c>
@@ -20788,7 +20788,7 @@
       <c r="AJ220" s="187"/>
       <c r="AK220" s="187"/>
     </row>
-    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="64" t="s">
         <v>588</v>
       </c>
@@ -20839,7 +20839,7 @@
       <c r="AJ221" s="187"/>
       <c r="AK221" s="187"/>
     </row>
-    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="64" t="s">
         <v>571</v>
       </c>
@@ -20926,7 +20926,7 @@
       <c r="AJ222" s="187"/>
       <c r="AK222" s="187"/>
     </row>
-    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="64" t="s">
         <v>571</v>
       </c>
@@ -21013,7 +21013,7 @@
       <c r="AJ223" s="187"/>
       <c r="AK223" s="187"/>
     </row>
-    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="64" t="s">
         <v>571</v>
       </c>
@@ -21100,7 +21100,7 @@
       <c r="AJ224" s="187"/>
       <c r="AK224" s="187"/>
     </row>
-    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="64" t="s">
         <v>571</v>
       </c>
@@ -21187,7 +21187,7 @@
       <c r="AJ225" s="187"/>
       <c r="AK225" s="187"/>
     </row>
-    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="64" t="s">
         <v>571</v>
       </c>
@@ -21274,7 +21274,7 @@
       <c r="AJ226" s="187"/>
       <c r="AK226" s="187"/>
     </row>
-    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="64" t="s">
         <v>571</v>
       </c>
@@ -21361,7 +21361,7 @@
       <c r="AJ227" s="187"/>
       <c r="AK227" s="187"/>
     </row>
-    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="64" t="s">
         <v>571</v>
       </c>
@@ -21448,7 +21448,7 @@
       <c r="AJ228" s="187"/>
       <c r="AK228" s="187"/>
     </row>
-    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="64" t="s">
         <v>571</v>
       </c>
@@ -21535,7 +21535,7 @@
       <c r="AJ229" s="187"/>
       <c r="AK229" s="187"/>
     </row>
-    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="64" t="s">
         <v>571</v>
       </c>
@@ -21622,7 +21622,7 @@
       <c r="AJ230" s="187"/>
       <c r="AK230" s="187"/>
     </row>
-    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="64" t="s">
         <v>571</v>
       </c>
@@ -21709,7 +21709,7 @@
       <c r="AJ231" s="187"/>
       <c r="AK231" s="187"/>
     </row>
-    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="54" t="s">
         <v>588</v>
       </c>
@@ -21773,7 +21773,7 @@
       <c r="AJ232" s="188"/>
       <c r="AK232" s="188"/>
     </row>
-    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="54" t="s">
         <v>588</v>
       </c>
@@ -21837,7 +21837,7 @@
       <c r="AJ233" s="188"/>
       <c r="AK233" s="188"/>
     </row>
-    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="54" t="s">
         <v>588</v>
       </c>
@@ -21901,7 +21901,7 @@
       <c r="AJ234" s="188"/>
       <c r="AK234" s="188"/>
     </row>
-    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>573</v>
       </c>
@@ -21988,7 +21988,7 @@
       <c r="AJ235" s="188"/>
       <c r="AK235" s="188"/>
     </row>
-    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>573</v>
       </c>
@@ -22075,7 +22075,7 @@
       <c r="AJ236" s="188"/>
       <c r="AK236" s="188"/>
     </row>
-    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>573</v>
       </c>
@@ -22162,7 +22162,7 @@
       <c r="AJ237" s="188"/>
       <c r="AK237" s="188"/>
     </row>
-    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>573</v>
       </c>
@@ -22249,7 +22249,7 @@
       <c r="AJ238" s="188"/>
       <c r="AK238" s="188"/>
     </row>
-    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="54" t="s">
         <v>573</v>
       </c>
@@ -22336,7 +22336,7 @@
       <c r="AJ239" s="188"/>
       <c r="AK239" s="188"/>
     </row>
-    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="54" t="s">
         <v>573</v>
       </c>
@@ -22423,7 +22423,7 @@
       <c r="AJ240" s="188"/>
       <c r="AK240" s="188"/>
     </row>
-    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="54" t="s">
         <v>588</v>
       </c>
@@ -22484,7 +22484,7 @@
       <c r="AJ241" s="188"/>
       <c r="AK241" s="188"/>
     </row>
-    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>573</v>
       </c>
@@ -22571,7 +22571,7 @@
       <c r="AJ242" s="188"/>
       <c r="AK242" s="188"/>
     </row>
-    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="54" t="s">
         <v>573</v>
       </c>
@@ -22658,7 +22658,7 @@
       <c r="AJ243" s="188"/>
       <c r="AK243" s="188"/>
     </row>
-    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="54" t="s">
         <v>573</v>
       </c>
@@ -22745,7 +22745,7 @@
       <c r="AJ244" s="188"/>
       <c r="AK244" s="188"/>
     </row>
-    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="54" t="s">
         <v>588</v>
       </c>
@@ -22793,7 +22793,7 @@
       <c r="AJ245" s="188"/>
       <c r="AK245" s="188"/>
     </row>
-    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="54" t="s">
         <v>588</v>
       </c>
@@ -22841,7 +22841,7 @@
       <c r="AJ246" s="188"/>
       <c r="AK246" s="188"/>
     </row>
-    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>573</v>
       </c>
@@ -22928,7 +22928,7 @@
       <c r="AJ247" s="188"/>
       <c r="AK247" s="188"/>
     </row>
-    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="54" t="s">
         <v>588</v>
       </c>
@@ -22976,7 +22976,7 @@
       <c r="AJ248" s="188"/>
       <c r="AK248" s="188"/>
     </row>
-    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="54" t="s">
         <v>588</v>
       </c>
@@ -23024,7 +23024,7 @@
       <c r="AJ249" s="188"/>
       <c r="AK249" s="188"/>
     </row>
-    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>573</v>
       </c>
@@ -23111,7 +23111,7 @@
       <c r="AJ250" s="188"/>
       <c r="AK250" s="188"/>
     </row>
-    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>573</v>
       </c>
@@ -23198,7 +23198,7 @@
       <c r="AJ251" s="188"/>
       <c r="AK251" s="188"/>
     </row>
-    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="54" t="s">
         <v>588</v>
       </c>
@@ -23246,7 +23246,7 @@
       <c r="AJ252" s="188"/>
       <c r="AK252" s="188"/>
     </row>
-    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="54" t="s">
         <v>573</v>
       </c>
@@ -23333,7 +23333,7 @@
       <c r="AJ253" s="188"/>
       <c r="AK253" s="188"/>
     </row>
-    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="54" t="s">
         <v>573</v>
       </c>
@@ -23420,7 +23420,7 @@
       <c r="AJ254" s="188"/>
       <c r="AK254" s="188"/>
     </row>
-    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="54" t="s">
         <v>573</v>
       </c>
@@ -23507,7 +23507,7 @@
       <c r="AJ255" s="188"/>
       <c r="AK255" s="188"/>
     </row>
-    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="54" t="s">
         <v>588</v>
       </c>
@@ -23555,7 +23555,7 @@
       <c r="AJ256" s="188"/>
       <c r="AK256" s="188"/>
     </row>
-    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="54" t="s">
         <v>588</v>
       </c>
@@ -23603,7 +23603,7 @@
       <c r="AJ257" s="188"/>
       <c r="AK257" s="188"/>
     </row>
-    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>573</v>
       </c>
@@ -23690,7 +23690,7 @@
       <c r="AJ258" s="188"/>
       <c r="AK258" s="188"/>
     </row>
-    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="54" t="s">
         <v>588</v>
       </c>
@@ -23738,7 +23738,7 @@
       <c r="AJ259" s="188"/>
       <c r="AK259" s="188"/>
     </row>
-    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="54" t="s">
         <v>588</v>
       </c>
@@ -23786,7 +23786,7 @@
       <c r="AJ260" s="188"/>
       <c r="AK260" s="188"/>
     </row>
-    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>573</v>
       </c>
@@ -23873,7 +23873,7 @@
       <c r="AJ261" s="188"/>
       <c r="AK261" s="188"/>
     </row>
-    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>573</v>
       </c>
@@ -23960,7 +23960,7 @@
       <c r="AJ262" s="188"/>
       <c r="AK262" s="188"/>
     </row>
-    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="54" t="s">
         <v>588</v>
       </c>
@@ -24008,7 +24008,7 @@
       <c r="AJ263" s="188"/>
       <c r="AK263" s="188"/>
     </row>
-    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="64" t="s">
         <v>571</v>
       </c>
@@ -24105,7 +24105,7 @@
       <c r="AJ264" s="188"/>
       <c r="AK264" s="188"/>
     </row>
-    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="148" t="s">
         <v>562</v>
       </c>
@@ -24199,7 +24199,7 @@
       <c r="AJ265" s="188"/>
       <c r="AK265" s="188"/>
     </row>
-    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="54" t="s">
         <v>588</v>
       </c>
@@ -24247,7 +24247,7 @@
       <c r="AJ266" s="188"/>
       <c r="AK266" s="188"/>
     </row>
-    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="54" t="s">
         <v>573</v>
       </c>
@@ -24334,7 +24334,7 @@
       <c r="AJ267" s="188"/>
       <c r="AK267" s="188"/>
     </row>
-    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="148" t="s">
         <v>574</v>
       </c>
@@ -24421,7 +24421,7 @@
       <c r="AJ268" s="188"/>
       <c r="AK268" s="188"/>
     </row>
-    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="54" t="s">
         <v>573</v>
       </c>
@@ -24508,7 +24508,7 @@
       <c r="AJ269" s="188"/>
       <c r="AK269" s="188"/>
     </row>
-    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="54" t="s">
         <v>573</v>
       </c>
@@ -24595,7 +24595,7 @@
       <c r="AJ270" s="188"/>
       <c r="AK270" s="188"/>
     </row>
-    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="148" t="s">
         <v>563</v>
       </c>
@@ -24662,7 +24662,7 @@
       <c r="AJ271" s="188"/>
       <c r="AK271" s="188"/>
     </row>
-    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="148" t="s">
         <v>563</v>
       </c>
@@ -24723,7 +24723,7 @@
       <c r="AJ272" s="188"/>
       <c r="AK272" s="188"/>
     </row>
-    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="148" t="s">
         <v>563</v>
       </c>
@@ -24784,7 +24784,7 @@
       <c r="AJ273" s="188"/>
       <c r="AK273" s="188"/>
     </row>
-    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="148" t="s">
         <v>563</v>
       </c>
@@ -24853,7 +24853,7 @@
       <c r="AJ274" s="188"/>
       <c r="AK274" s="188"/>
     </row>
-    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="54" t="s">
         <v>588</v>
       </c>
@@ -24901,7 +24901,7 @@
       <c r="AJ275" s="188"/>
       <c r="AK275" s="188"/>
     </row>
-    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="54" t="s">
         <v>573</v>
       </c>
@@ -24988,7 +24988,7 @@
       <c r="AJ276" s="188"/>
       <c r="AK276" s="188"/>
     </row>
-    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="54" t="s">
         <v>588</v>
       </c>
@@ -25036,7 +25036,7 @@
       <c r="AJ277" s="188"/>
       <c r="AK277" s="188"/>
     </row>
-    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="148" t="s">
         <v>562</v>
       </c>
@@ -25130,7 +25130,7 @@
       <c r="AJ278" s="188"/>
       <c r="AK278" s="188"/>
     </row>
-    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="148" t="s">
         <v>562</v>
       </c>
@@ -25224,7 +25224,7 @@
       <c r="AJ279" s="188"/>
       <c r="AK279" s="188"/>
     </row>
-    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="148" t="s">
         <v>562</v>
       </c>
@@ -25318,7 +25318,7 @@
       <c r="AJ280" s="188"/>
       <c r="AK280" s="188"/>
     </row>
-    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="54" t="s">
         <v>588</v>
       </c>
@@ -25366,7 +25366,7 @@
       <c r="AJ281" s="188"/>
       <c r="AK281" s="188"/>
     </row>
-    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="54" t="s">
         <v>588</v>
       </c>
@@ -25414,7 +25414,7 @@
       <c r="AJ282" s="188"/>
       <c r="AK282" s="188"/>
     </row>
-    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>564</v>
       </c>
@@ -25750,7 +25750,7 @@
       <c r="AJ286" s="188"/>
       <c r="AK286" s="188"/>
     </row>
-    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="54" t="s">
         <v>588</v>
       </c>
@@ -25798,7 +25798,7 @@
       <c r="AJ287" s="188"/>
       <c r="AK287" s="188"/>
     </row>
-    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>573</v>
       </c>
@@ -25885,7 +25885,7 @@
       <c r="AJ288" s="188"/>
       <c r="AK288" s="188"/>
     </row>
-    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>573</v>
       </c>
@@ -25972,7 +25972,7 @@
       <c r="AJ289" s="188"/>
       <c r="AK289" s="188"/>
     </row>
-    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>573</v>
       </c>
@@ -26059,7 +26059,7 @@
       <c r="AJ290" s="188"/>
       <c r="AK290" s="188"/>
     </row>
-    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>573</v>
       </c>
@@ -26146,7 +26146,7 @@
       <c r="AJ291" s="188"/>
       <c r="AK291" s="188"/>
     </row>
-    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="54" t="s">
         <v>588</v>
       </c>
@@ -26194,7 +26194,7 @@
       <c r="AJ292" s="188"/>
       <c r="AK292" s="188"/>
     </row>
-    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="54" t="s">
         <v>573</v>
       </c>
@@ -26281,7 +26281,7 @@
       <c r="AJ293" s="188"/>
       <c r="AK293" s="188"/>
     </row>
-    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="54" t="s">
         <v>573</v>
       </c>
@@ -26368,7 +26368,7 @@
       <c r="AJ294" s="188"/>
       <c r="AK294" s="188"/>
     </row>
-    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="54" t="s">
         <v>573</v>
       </c>
@@ -26455,7 +26455,7 @@
       <c r="AJ295" s="188"/>
       <c r="AK295" s="188"/>
     </row>
-    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="207" t="s">
         <v>562</v>
       </c>
@@ -26549,7 +26549,7 @@
       <c r="AJ296" s="188"/>
       <c r="AK296" s="188"/>
     </row>
-    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="54" t="s">
         <v>573</v>
       </c>
@@ -26636,7 +26636,7 @@
       <c r="AJ297" s="188"/>
       <c r="AK297" s="188"/>
     </row>
-    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="54" t="s">
         <v>573</v>
       </c>
@@ -26723,7 +26723,7 @@
       <c r="AJ298" s="188"/>
       <c r="AK298" s="188"/>
     </row>
-    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="54" t="s">
         <v>573</v>
       </c>
@@ -26810,7 +26810,7 @@
       <c r="AJ299" s="188"/>
       <c r="AK299" s="188"/>
     </row>
-    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="54" t="s">
         <v>573</v>
       </c>
@@ -26897,7 +26897,7 @@
       <c r="AJ300" s="188"/>
       <c r="AK300" s="188"/>
     </row>
-    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="54" t="s">
         <v>573</v>
       </c>
@@ -26984,7 +26984,7 @@
       <c r="AJ301" s="188"/>
       <c r="AK301" s="188"/>
     </row>
-    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="54" t="s">
         <v>573</v>
       </c>
@@ -27071,7 +27071,7 @@
       <c r="AJ302" s="188"/>
       <c r="AK302" s="188"/>
     </row>
-    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="54" t="s">
         <v>573</v>
       </c>
@@ -27158,7 +27158,7 @@
       <c r="AJ303" s="188"/>
       <c r="AK303" s="188"/>
     </row>
-    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="54" t="s">
         <v>589</v>
       </c>
@@ -27206,7 +27206,7 @@
       <c r="AJ304" s="188"/>
       <c r="AK304" s="188"/>
     </row>
-    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="54" t="s">
         <v>573</v>
       </c>
@@ -27293,7 +27293,7 @@
       <c r="AJ305" s="188"/>
       <c r="AK305" s="188"/>
     </row>
-    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="54" t="s">
         <v>573</v>
       </c>
@@ -27380,7 +27380,7 @@
       <c r="AJ306" s="188"/>
       <c r="AK306" s="188"/>
     </row>
-    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="54" t="s">
         <v>573</v>
       </c>
@@ -27467,7 +27467,7 @@
       <c r="AJ307" s="188"/>
       <c r="AK307" s="188"/>
     </row>
-    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="54" t="s">
         <v>573</v>
       </c>
@@ -27554,7 +27554,7 @@
       <c r="AJ308" s="188"/>
       <c r="AK308" s="188"/>
     </row>
-    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="54" t="s">
         <v>573</v>
       </c>
@@ -27641,7 +27641,7 @@
       <c r="AJ309" s="188"/>
       <c r="AK309" s="188"/>
     </row>
-    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="54" t="s">
         <v>573</v>
       </c>
@@ -27728,7 +27728,7 @@
       <c r="AJ310" s="188"/>
       <c r="AK310" s="188"/>
     </row>
-    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="54" t="s">
         <v>573</v>
       </c>
@@ -27815,7 +27815,7 @@
       <c r="AJ311" s="188"/>
       <c r="AK311" s="188"/>
     </row>
-    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="54" t="s">
         <v>573</v>
       </c>
@@ -27902,7 +27902,7 @@
       <c r="AJ312" s="188"/>
       <c r="AK312" s="188"/>
     </row>
-    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="54" t="s">
         <v>573</v>
       </c>
@@ -27989,7 +27989,7 @@
       <c r="AJ313" s="188"/>
       <c r="AK313" s="188"/>
     </row>
-    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="54" t="s">
         <v>573</v>
       </c>
@@ -28076,7 +28076,7 @@
       <c r="AJ314" s="188"/>
       <c r="AK314" s="188"/>
     </row>
-    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="54" t="s">
         <v>573</v>
       </c>
@@ -28163,7 +28163,7 @@
       <c r="AJ315" s="188"/>
       <c r="AK315" s="188"/>
     </row>
-    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="54" t="s">
         <v>573</v>
       </c>
@@ -28250,7 +28250,7 @@
       <c r="AJ316" s="188"/>
       <c r="AK316" s="188"/>
     </row>
-    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="54" t="s">
         <v>573</v>
       </c>
@@ -28337,7 +28337,7 @@
       <c r="AJ317" s="188"/>
       <c r="AK317" s="188"/>
     </row>
-    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="54" t="s">
         <v>573</v>
       </c>
@@ -28424,7 +28424,7 @@
       <c r="AJ318" s="188"/>
       <c r="AK318" s="188"/>
     </row>
-    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="54" t="s">
         <v>573</v>
       </c>
@@ -28511,7 +28511,7 @@
       <c r="AJ319" s="188"/>
       <c r="AK319" s="188"/>
     </row>
-    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="54" t="s">
         <v>588</v>
       </c>
@@ -28578,7 +28578,7 @@
       <c r="AJ320" s="188"/>
       <c r="AK320" s="188"/>
     </row>
-    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="207" t="s">
         <v>562</v>
       </c>
@@ -28672,7 +28672,7 @@
       <c r="AJ321" s="188"/>
       <c r="AK321" s="188"/>
     </row>
-    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="54" t="s">
         <v>588</v>
       </c>
@@ -28739,7 +28739,7 @@
       <c r="AJ322" s="188"/>
       <c r="AK322" s="188"/>
     </row>
-    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="207" t="s">
         <v>562</v>
       </c>
@@ -28832,20 +28832,20 @@
       <c r="AJ323" s="188"/>
       <c r="AK323" s="188"/>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="153" t="s">
         <v>567</v>
       </c>
-      <c r="B324" s="234" t="s">
+      <c r="B324" s="245" t="s">
         <v>560</v>
       </c>
-      <c r="C324" s="234"/>
+      <c r="C324" s="245"/>
       <c r="D324" s="131"/>
       <c r="E324" s="216"/>
       <c r="F324" s="170"/>
       <c r="G324" s="231">
         <f>SUBTOTAL(9,G7:G323)</f>
-        <v>4576892.8803200014</v>
+        <v>413952.49</v>
       </c>
       <c r="Q324" s="171"/>
       <c r="R324" s="131"/>
@@ -28867,7 +28867,7 @@
       <c r="AJ324" s="189"/>
       <c r="AK324" s="189"/>
     </row>
-    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="153" t="s">
         <v>567</v>
       </c>
@@ -28912,7 +28912,7 @@
       <c r="AJ325" s="190"/>
       <c r="AK325" s="190"/>
     </row>
-    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="153" t="s">
         <v>567</v>
       </c>
@@ -28957,7 +28957,7 @@
       <c r="AJ326" s="190"/>
       <c r="AK326" s="190"/>
     </row>
-    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="153" t="s">
         <v>567</v>
       </c>
@@ -29002,7 +29002,7 @@
       <c r="AJ327" s="190"/>
       <c r="AK327" s="190"/>
     </row>
-    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="153" t="s">
         <v>567</v>
       </c>
@@ -29088,7 +29088,7 @@
       <c r="AJ328" s="190"/>
       <c r="AK328" s="190"/>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="153" t="s">
         <v>567</v>
       </c>
@@ -29173,7 +29173,7 @@
       <c r="AJ329" s="189"/>
       <c r="AK329" s="189"/>
     </row>
-    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="153" t="s">
         <v>567</v>
       </c>
@@ -29218,7 +29218,7 @@
       <c r="AJ330" s="190"/>
       <c r="AK330" s="190"/>
     </row>
-    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="153" t="s">
         <v>567</v>
       </c>
@@ -29263,7 +29263,7 @@
       <c r="AJ331" s="190"/>
       <c r="AK331" s="190"/>
     </row>
-    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="153" t="s">
         <v>567</v>
       </c>
@@ -29349,7 +29349,7 @@
       <c r="AJ332" s="190"/>
       <c r="AK332" s="190"/>
     </row>
-    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="153" t="s">
         <v>567</v>
       </c>
@@ -29394,7 +29394,7 @@
       <c r="AJ333" s="190"/>
       <c r="AK333" s="190"/>
     </row>
-    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="153" t="s">
         <v>567</v>
       </c>
@@ -29439,7 +29439,7 @@
       <c r="AJ334" s="190"/>
       <c r="AK334" s="190"/>
     </row>
-    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="153" t="s">
         <v>567</v>
       </c>
@@ -29525,7 +29525,7 @@
       <c r="AJ335" s="190"/>
       <c r="AK335" s="190"/>
     </row>
-    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="153" t="s">
         <v>567</v>
       </c>
@@ -29611,7 +29611,7 @@
       <c r="AJ336" s="190"/>
       <c r="AK336" s="190"/>
     </row>
-    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="153" t="s">
         <v>567</v>
       </c>
@@ -29656,7 +29656,7 @@
       <c r="AJ337" s="190"/>
       <c r="AK337" s="190"/>
     </row>
-    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="153" t="s">
         <v>567</v>
       </c>
@@ -29742,7 +29742,7 @@
       <c r="AJ338" s="190"/>
       <c r="AK338" s="190"/>
     </row>
-    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="153" t="s">
         <v>567</v>
       </c>
@@ -29828,7 +29828,7 @@
       <c r="AJ339" s="190"/>
       <c r="AK339" s="190"/>
     </row>
-    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="153" t="s">
         <v>567</v>
       </c>
@@ -29873,7 +29873,7 @@
       <c r="AJ340" s="190"/>
       <c r="AK340" s="190"/>
     </row>
-    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="153" t="s">
         <v>567</v>
       </c>
@@ -29959,7 +29959,7 @@
       <c r="AJ341" s="190"/>
       <c r="AK341" s="190"/>
     </row>
-    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="153" t="s">
         <v>567</v>
       </c>
@@ -30045,7 +30045,7 @@
       <c r="AJ342" s="190"/>
       <c r="AK342" s="190"/>
     </row>
-    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="153" t="s">
         <v>567</v>
       </c>
@@ -30131,7 +30131,7 @@
       <c r="AJ343" s="190"/>
       <c r="AK343" s="190"/>
     </row>
-    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="153" t="s">
         <v>567</v>
       </c>
@@ -30176,7 +30176,7 @@
       <c r="AJ344" s="190"/>
       <c r="AK344" s="190"/>
     </row>
-    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="153" t="s">
         <v>567</v>
       </c>
@@ -30262,7 +30262,7 @@
       <c r="AJ345" s="190"/>
       <c r="AK345" s="190"/>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="153" t="s">
         <v>567</v>
       </c>
@@ -30347,7 +30347,7 @@
       <c r="AJ346" s="189"/>
       <c r="AK346" s="189"/>
     </row>
-    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="153" t="s">
         <v>567</v>
       </c>
@@ -30433,7 +30433,7 @@
       <c r="AJ347" s="190"/>
       <c r="AK347" s="190"/>
     </row>
-    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="153" t="s">
         <v>567</v>
       </c>
@@ -30478,7 +30478,7 @@
       <c r="AJ348" s="190"/>
       <c r="AK348" s="190"/>
     </row>
-    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="153" t="s">
         <v>567</v>
       </c>
@@ -30523,7 +30523,7 @@
       <c r="AJ349" s="190"/>
       <c r="AK349" s="190"/>
     </row>
-    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="153" t="s">
         <v>567</v>
       </c>
@@ -30826,29 +30826,29 @@
       <c r="AJ353" s="190"/>
       <c r="AK353" s="190"/>
     </row>
-    <row r="354" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:38" ht="21" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" s="120" t="s">
         <v>572</v>
       </c>
       <c r="G354" s="121">
         <f>SUBTOTAL(9,G325:P353)</f>
-        <v>538745.4</v>
+        <v>165499.74</v>
       </c>
       <c r="X354" s="152">
         <f>SUBTOTAL(9,X5:X353)</f>
-        <v>1206612.54</v>
+        <v>769438.17999999993</v>
       </c>
       <c r="Y354" s="152"/>
       <c r="Z354" s="152"/>
       <c r="AA354" s="152">
         <f>SUBTOTAL(9,AA5:AA353)</f>
-        <v>141511.07999999999</v>
+        <v>0</v>
       </c>
       <c r="AB354" s="152"/>
       <c r="AC354" s="152"/>
       <c r="AD354" s="152">
         <f>SUBTOTAL(9,AD5:AD353)</f>
-        <v>537533.5</v>
+        <v>238040</v>
       </c>
       <c r="AE354" s="152">
         <f>SUM(AE6:AE353)</f>
@@ -30858,54 +30858,58 @@
       <c r="AG354" s="152"/>
       <c r="AH354" s="152">
         <f t="shared" ref="AH354:AK354" si="179">SUBTOTAL(9,AH5:AH353)</f>
-        <v>233010.11000000002</v>
+        <v>0</v>
       </c>
       <c r="AI354" s="152"/>
       <c r="AJ354" s="152"/>
       <c r="AK354" s="152">
         <f t="shared" si="179"/>
-        <v>106180</v>
+        <v>0</v>
       </c>
       <c r="AL354" s="193">
         <f>(AK354+AH354)</f>
-        <v>339190.11</v>
-      </c>
-    </row>
-    <row r="355" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:38" ht="21" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355" s="120" t="s">
         <v>572</v>
       </c>
       <c r="G355" s="233">
         <f>G324-G354</f>
-        <v>4038147.4803200015</v>
+        <v>248452.75</v>
       </c>
       <c r="AL355" s="193">
         <f>AE354-AA354</f>
-        <v>-339190.11</v>
-      </c>
-    </row>
-    <row r="356" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+        <v>-197679.03</v>
+      </c>
+    </row>
+    <row r="356" spans="1:38" ht="21" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356" s="120" t="s">
         <v>572</v>
       </c>
       <c r="G356" s="121">
         <f>SUM(G6:G353)</f>
-        <v>9692531.1606400013</v>
+        <v>5529590.770320002</v>
       </c>
       <c r="AL356" s="194">
         <f>SUM(AL354:AL355)</f>
-        <v>0</v>
+        <v>-197679.03</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}"/>
+  <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="GABINETE DE COMUNICACIONES"/>
+        <filter val="GABINETE PRINCIPAL DE COMUNICACIONES (DATA CENTER)"/>
+        <filter val="GABINETE PRINCIPAL DE COMUNICACIONES (GDP)"/>
+        <filter val="GABINETE SECUNDARIO DE COMUNICACIONES (GDS)"/>
+        <filter val="RACK/GABINETE DE TELECOMUNICACIONES"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="B324:C324"/>
     <mergeCell ref="Q2:S3"/>
     <mergeCell ref="H3:J3"/>
@@ -30917,6 +30921,12 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D325:F326">
@@ -30974,7 +30984,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="18" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="33" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
+++ b/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E36DE8-8D44-4657-A73D-FE46D3352BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0B3A58-A70B-46AC-A6BE-ED1E08AD2F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="339" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
   </bookViews>
@@ -2985,6 +2985,36 @@
     <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3017,36 +3047,6 @@
     </xf>
     <xf numFmtId="4" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3422,7 +3422,7 @@
   <dimension ref="A1:AL356"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD286" sqref="AD286"/>
+      <selection activeCell="F267" sqref="F267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3493,22 +3493,22 @@
       <c r="AK1" s="84"/>
     </row>
     <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="251" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="252" t="s">
+      <c r="B2" s="240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="253" t="s">
+      <c r="E2" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="254" t="s">
+      <c r="F2" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="254" t="s">
+      <c r="G2" s="243" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="7"/>
@@ -3522,93 +3522,93 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="246" t="s">
+      <c r="Q2" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
+      <c r="R2" s="235"/>
+      <c r="S2" s="235"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="234" t="s">
+      <c r="V2" s="244" t="s">
         <v>569</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="242" t="s">
+      <c r="W2" s="244"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="252" t="s">
         <v>561</v>
       </c>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="242"/>
-      <c r="AB2" s="240" t="s">
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="252"/>
+      <c r="AB2" s="250" t="s">
         <v>555</v>
       </c>
-      <c r="AC2" s="241"/>
-      <c r="AD2" s="241"/>
-      <c r="AE2" s="243" t="s">
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="253" t="s">
         <v>570</v>
       </c>
-      <c r="AF2" s="236" t="s">
+      <c r="AF2" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="AG2" s="236"/>
-      <c r="AH2" s="237"/>
-      <c r="AI2" s="238" t="s">
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="248" t="s">
         <v>566</v>
       </c>
-      <c r="AJ2" s="238"/>
-      <c r="AK2" s="239"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="249"/>
     </row>
     <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="247" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="248"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="250" t="s">
+      <c r="I3" s="237"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250" t="s">
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="250"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="246"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="246"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
       <c r="T3" s="2"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="235"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="241"/>
-      <c r="AD3" s="241"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="236"/>
-      <c r="AH3" s="237"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="239"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="245"/>
+      <c r="Y3" s="252"/>
+      <c r="Z3" s="252"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="250"/>
+      <c r="AC3" s="251"/>
+      <c r="AD3" s="251"/>
+      <c r="AE3" s="254"/>
+      <c r="AF3" s="246"/>
+      <c r="AG3" s="246"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="248"/>
+      <c r="AJ3" s="248"/>
+      <c r="AK3" s="249"/>
     </row>
     <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
       <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="64" t="s">
         <v>564</v>
       </c>
@@ -13242,7 +13242,7 @@
       <c r="AJ127" s="187"/>
       <c r="AK127" s="187"/>
     </row>
-    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="64" t="s">
         <v>567</v>
       </c>
@@ -13337,7 +13337,7 @@
       <c r="AJ128" s="187"/>
       <c r="AK128" s="187"/>
     </row>
-    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="64" t="s">
         <v>567</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="64" t="s">
         <v>588</v>
       </c>
@@ -18040,7 +18040,7 @@
       <c r="AJ187" s="187"/>
       <c r="AK187" s="187"/>
     </row>
-    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="64" t="s">
         <v>567</v>
       </c>
@@ -18136,7 +18136,7 @@
       <c r="AJ188" s="187"/>
       <c r="AK188" s="187"/>
     </row>
-    <row r="189" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:38" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="64" t="s">
         <v>567</v>
       </c>
@@ -24247,7 +24247,7 @@
       <c r="AJ266" s="188"/>
       <c r="AK266" s="188"/>
     </row>
-    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="54" t="s">
         <v>573</v>
       </c>
@@ -24421,7 +24421,7 @@
       <c r="AJ268" s="188"/>
       <c r="AK268" s="188"/>
     </row>
-    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="54" t="s">
         <v>573</v>
       </c>
@@ -24508,7 +24508,7 @@
       <c r="AJ269" s="188"/>
       <c r="AK269" s="188"/>
     </row>
-    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="54" t="s">
         <v>573</v>
       </c>
@@ -25508,7 +25508,7 @@
         <v>92300</v>
       </c>
     </row>
-    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="54" t="s">
         <v>588</v>
       </c>
@@ -25556,7 +25556,7 @@
       <c r="AJ284" s="188"/>
       <c r="AK284" s="188"/>
     </row>
-    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="64" t="s">
         <v>555</v>
       </c>
@@ -25653,7 +25653,7 @@
       <c r="AJ285" s="188"/>
       <c r="AK285" s="188"/>
     </row>
-    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="64" t="s">
         <v>555</v>
       </c>
@@ -28836,16 +28836,16 @@
       <c r="A324" s="153" t="s">
         <v>567</v>
       </c>
-      <c r="B324" s="245" t="s">
+      <c r="B324" s="234" t="s">
         <v>560</v>
       </c>
-      <c r="C324" s="245"/>
+      <c r="C324" s="234"/>
       <c r="D324" s="131"/>
       <c r="E324" s="216"/>
       <c r="F324" s="170"/>
       <c r="G324" s="231">
         <f>SUBTOTAL(9,G7:G323)</f>
-        <v>413952.49</v>
+        <v>747255.46</v>
       </c>
       <c r="Q324" s="171"/>
       <c r="R324" s="131"/>
@@ -29873,7 +29873,7 @@
       <c r="AJ340" s="190"/>
       <c r="AK340" s="190"/>
     </row>
-    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="153" t="s">
         <v>567</v>
       </c>
@@ -29959,7 +29959,7 @@
       <c r="AJ341" s="190"/>
       <c r="AK341" s="190"/>
     </row>
-    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="153" t="s">
         <v>567</v>
       </c>
@@ -30609,7 +30609,7 @@
       <c r="AJ350" s="190"/>
       <c r="AK350" s="190"/>
     </row>
-    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="153" t="s">
         <v>567</v>
       </c>
@@ -30654,7 +30654,7 @@
       <c r="AJ351" s="190"/>
       <c r="AK351" s="190"/>
     </row>
-    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="153" t="s">
         <v>567</v>
       </c>
@@ -30740,7 +30740,7 @@
       <c r="AJ352" s="190"/>
       <c r="AK352" s="190"/>
     </row>
-    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="153" t="s">
         <v>567</v>
       </c>
@@ -30832,11 +30832,11 @@
       </c>
       <c r="G354" s="121">
         <f>SUBTOTAL(9,G325:P353)</f>
-        <v>165499.74</v>
+        <v>161720</v>
       </c>
       <c r="X354" s="152">
         <f>SUBTOTAL(9,X5:X353)</f>
-        <v>769438.17999999993</v>
+        <v>161720</v>
       </c>
       <c r="Y354" s="152"/>
       <c r="Z354" s="152"/>
@@ -30848,7 +30848,7 @@
       <c r="AC354" s="152"/>
       <c r="AD354" s="152">
         <f>SUBTOTAL(9,AD5:AD353)</f>
-        <v>238040</v>
+        <v>0</v>
       </c>
       <c r="AE354" s="152">
         <f>SUM(AE6:AE353)</f>
@@ -30864,11 +30864,11 @@
       <c r="AJ354" s="152"/>
       <c r="AK354" s="152">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>7280</v>
       </c>
       <c r="AL354" s="193">
         <f>(AK354+AH354)</f>
-        <v>0</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="355" spans="1:38" ht="21" hidden="1" x14ac:dyDescent="0.4">
@@ -30877,7 +30877,7 @@
       </c>
       <c r="G355" s="233">
         <f>G324-G354</f>
-        <v>248452.75</v>
+        <v>585535.46</v>
       </c>
       <c r="AL355" s="193">
         <f>AE354-AA354</f>
@@ -30890,26 +30890,33 @@
       </c>
       <c r="G356" s="121">
         <f>SUM(G6:G353)</f>
-        <v>5529590.770320002</v>
+        <v>5862893.7403200017</v>
       </c>
       <c r="AL356" s="194">
         <f>SUM(AL354:AL355)</f>
-        <v>-197679.03</v>
+        <v>-190399.03</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}">
     <filterColumn colId="2">
       <filters>
-        <filter val="GABINETE DE COMUNICACIONES"/>
-        <filter val="GABINETE PRINCIPAL DE COMUNICACIONES (DATA CENTER)"/>
-        <filter val="GABINETE PRINCIPAL DE COMUNICACIONES (GDP)"/>
-        <filter val="GABINETE SECUNDARIO DE COMUNICACIONES (GDS)"/>
-        <filter val="RACK/GABINETE DE TELECOMUNICACIONES"/>
+        <filter val="MICRÓFONO CONDENSADOR CON FLEXO CON BASE DE SOBREMESA Y SWITCH DE ENCENDIDO"/>
+        <filter val="SWITCH BORDE 24 PUERTOS POE+"/>
+        <filter val="SWITCH BORDE 48 PUERTOS"/>
+        <filter val="SWITCH CORE 24 PUERTOS DE FIBRA 10GBPS"/>
+        <filter val="SWITCH TIPO BORDE 48 PUERTOS POE+"/>
+        <filter val="SWITCH TIPO CORE 24 PUERTOS DE FIBRA 10GBPS"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="B324:C324"/>
     <mergeCell ref="Q2:S3"/>
     <mergeCell ref="H3:J3"/>
@@ -30921,12 +30928,6 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D325:F326">

--- a/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
+++ b/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0B3A58-A70B-46AC-A6BE-ED1E08AD2F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6639DFA8-84B5-44DB-8BF7-FCE08F708F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="339" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
   </bookViews>
@@ -2985,36 +2985,6 @@
     <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3047,6 +3017,36 @@
     </xf>
     <xf numFmtId="4" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3416,12 +3416,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AL356"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A208" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F267" sqref="F267"/>
     </sheetView>
   </sheetViews>
@@ -3493,22 +3493,22 @@
       <c r="AK1" s="84"/>
     </row>
     <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="240" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="241" t="s">
+      <c r="B2" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="251" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="242" t="s">
+      <c r="E2" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="243" t="s">
+      <c r="F2" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="243" t="s">
+      <c r="G2" s="254" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="7"/>
@@ -3522,93 +3522,93 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="235" t="s">
+      <c r="Q2" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="244" t="s">
+      <c r="V2" s="234" t="s">
         <v>569</v>
       </c>
-      <c r="W2" s="244"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="252" t="s">
+      <c r="W2" s="234"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="242" t="s">
         <v>561</v>
       </c>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="252"/>
-      <c r="AB2" s="250" t="s">
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="242"/>
+      <c r="AB2" s="240" t="s">
         <v>555</v>
       </c>
-      <c r="AC2" s="251"/>
-      <c r="AD2" s="251"/>
-      <c r="AE2" s="253" t="s">
+      <c r="AC2" s="241"/>
+      <c r="AD2" s="241"/>
+      <c r="AE2" s="243" t="s">
         <v>570</v>
       </c>
-      <c r="AF2" s="246" t="s">
+      <c r="AF2" s="236" t="s">
         <v>563</v>
       </c>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248" t="s">
+      <c r="AG2" s="236"/>
+      <c r="AH2" s="237"/>
+      <c r="AI2" s="238" t="s">
         <v>566</v>
       </c>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="249"/>
+      <c r="AJ2" s="238"/>
+      <c r="AK2" s="239"/>
     </row>
     <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="236" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="237"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="239" t="s">
+      <c r="I3" s="248"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239" t="s">
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="235"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="246"/>
       <c r="T3" s="2"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="252"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="250"/>
-      <c r="AC3" s="251"/>
-      <c r="AD3" s="251"/>
-      <c r="AE3" s="254"/>
-      <c r="AF3" s="246"/>
-      <c r="AG3" s="246"/>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
-      <c r="AJ3" s="248"/>
-      <c r="AK3" s="249"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="242"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="241"/>
+      <c r="AD3" s="241"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="236"/>
+      <c r="AH3" s="237"/>
+      <c r="AI3" s="238"/>
+      <c r="AJ3" s="238"/>
+      <c r="AK3" s="239"/>
     </row>
     <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
       <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="AJ5" s="104"/>
       <c r="AK5" s="104"/>
     </row>
-    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>588</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="AJ6" s="187"/>
       <c r="AK6" s="187"/>
     </row>
-    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>588</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="AJ7" s="187"/>
       <c r="AK7" s="187"/>
     </row>
-    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>555</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="AJ8" s="187"/>
       <c r="AK8" s="187"/>
     </row>
-    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>555</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="AJ9" s="187"/>
       <c r="AK9" s="187"/>
     </row>
-    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>555</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="AJ10" s="187"/>
       <c r="AK10" s="187"/>
     </row>
-    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>555</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="AJ11" s="187"/>
       <c r="AK11" s="187"/>
     </row>
-    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
         <v>562</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="AJ12" s="187"/>
       <c r="AK12" s="187"/>
     </row>
-    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>588</v>
       </c>
@@ -4379,7 +4379,7 @@
       <c r="AJ13" s="187"/>
       <c r="AK13" s="187"/>
     </row>
-    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>588</v>
       </c>
@@ -4430,7 +4430,7 @@
       <c r="AJ14" s="187"/>
       <c r="AK14" s="187"/>
     </row>
-    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>567</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="AJ15" s="187"/>
       <c r="AK15" s="187"/>
     </row>
-    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
         <v>567</v>
       </c>
@@ -4622,7 +4622,7 @@
       <c r="AJ16" s="187"/>
       <c r="AK16" s="187"/>
     </row>
-    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
         <v>588</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="AJ17" s="187"/>
       <c r="AK17" s="187"/>
     </row>
-    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="s">
         <v>573</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="AJ18" s="187"/>
       <c r="AK18" s="187"/>
     </row>
-    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>573</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="AJ19" s="187"/>
       <c r="AK19" s="187"/>
     </row>
-    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
         <v>573</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="AJ20" s="187"/>
       <c r="AK20" s="187"/>
     </row>
-    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>573</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="AJ21" s="187"/>
       <c r="AK21" s="187"/>
     </row>
-    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>573</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="AJ22" s="187"/>
       <c r="AK22" s="187"/>
     </row>
-    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>573</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="AJ23" s="187"/>
       <c r="AK23" s="187"/>
     </row>
-    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="s">
         <v>588</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="AJ24" s="187"/>
       <c r="AK24" s="187"/>
     </row>
-    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>573</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="AJ25" s="187"/>
       <c r="AK25" s="187"/>
     </row>
-    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>573</v>
       </c>
@@ -5420,7 +5420,7 @@
       <c r="AJ26" s="187"/>
       <c r="AK26" s="187"/>
     </row>
-    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="s">
         <v>588</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="AJ27" s="187"/>
       <c r="AK27" s="187"/>
     </row>
-    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>573</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="AJ28" s="187"/>
       <c r="AK28" s="187"/>
     </row>
-    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>573</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="AJ29" s="187"/>
       <c r="AK29" s="187"/>
     </row>
-    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>573</v>
       </c>
@@ -5732,7 +5732,7 @@
       <c r="AJ30" s="187"/>
       <c r="AK30" s="187"/>
     </row>
-    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="64" t="s">
         <v>588</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="AJ31" s="187"/>
       <c r="AK31" s="187"/>
     </row>
-    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>573</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="AJ32" s="187"/>
       <c r="AK32" s="187"/>
     </row>
-    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
         <v>588</v>
       </c>
@@ -5921,7 +5921,7 @@
       <c r="AJ33" s="187"/>
       <c r="AK33" s="187"/>
     </row>
-    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="s">
         <v>573</v>
       </c>
@@ -6008,7 +6008,7 @@
       <c r="AJ34" s="187"/>
       <c r="AK34" s="187"/>
     </row>
-    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
         <v>573</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="AJ35" s="187"/>
       <c r="AK35" s="187"/>
     </row>
-    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="64" t="s">
         <v>573</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="AJ36" s="187"/>
       <c r="AK36" s="187"/>
     </row>
-    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
         <v>573</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="AJ37" s="187"/>
       <c r="AK37" s="187"/>
     </row>
-    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
         <v>588</v>
       </c>
@@ -6320,7 +6320,7 @@
       <c r="AJ38" s="187"/>
       <c r="AK38" s="187"/>
     </row>
-    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
         <v>555</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="AJ39" s="187"/>
       <c r="AK39" s="187"/>
     </row>
-    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="64" t="s">
         <v>573</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="64" t="s">
         <v>574</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="64" t="s">
         <v>564</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
         <v>573</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="AJ44" s="104"/>
       <c r="AK44" s="104"/>
     </row>
-    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
         <v>564</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
         <v>562</v>
       </c>
@@ -7053,7 +7053,7 @@
       <c r="AJ46" s="187"/>
       <c r="AK46" s="187"/>
     </row>
-    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>562</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="AJ47" s="187"/>
       <c r="AK47" s="187"/>
     </row>
-    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="64" t="s">
         <v>563</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="AJ48" s="187"/>
       <c r="AK48" s="187"/>
     </row>
-    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="64" t="s">
         <v>563</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="AJ49" s="187"/>
       <c r="AK49" s="187"/>
     </row>
-    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="64" t="s">
         <v>563</v>
       </c>
@@ -7318,7 +7318,7 @@
       <c r="AJ50" s="187"/>
       <c r="AK50" s="187"/>
     </row>
-    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
         <v>588</v>
       </c>
@@ -7359,7 +7359,7 @@
       <c r="AJ51" s="187"/>
       <c r="AK51" s="187"/>
     </row>
-    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="64" t="s">
         <v>588</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="AJ52" s="187"/>
       <c r="AK52" s="187"/>
     </row>
-    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="64" t="s">
         <v>562</v>
       </c>
@@ -7504,7 +7504,7 @@
       <c r="AJ53" s="187"/>
       <c r="AK53" s="187"/>
     </row>
-    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="64" t="s">
         <v>588</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="AJ54" s="187"/>
       <c r="AK54" s="187"/>
     </row>
-    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="64" t="s">
         <v>588</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="AJ55" s="187"/>
       <c r="AK55" s="187"/>
     </row>
-    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
         <v>567</v>
       </c>
@@ -7702,7 +7702,7 @@
       <c r="AJ56" s="187"/>
       <c r="AK56" s="187"/>
     </row>
-    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="64" t="s">
         <v>588</v>
       </c>
@@ -7753,7 +7753,7 @@
       <c r="AJ57" s="187"/>
       <c r="AK57" s="187"/>
     </row>
-    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>573</v>
       </c>
@@ -7840,7 +7840,7 @@
       <c r="AJ58" s="187"/>
       <c r="AK58" s="187"/>
     </row>
-    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="64" t="s">
         <v>573</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="AJ59" s="187"/>
       <c r="AK59" s="187"/>
     </row>
-    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="64" t="s">
         <v>573</v>
       </c>
@@ -8014,7 +8014,7 @@
       <c r="AJ60" s="187"/>
       <c r="AK60" s="187"/>
     </row>
-    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>573</v>
       </c>
@@ -8101,7 +8101,7 @@
       <c r="AJ61" s="187"/>
       <c r="AK61" s="187"/>
     </row>
-    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>573</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="AJ62" s="187"/>
       <c r="AK62" s="187"/>
     </row>
-    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>573</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="AJ63" s="187"/>
       <c r="AK63" s="187"/>
     </row>
-    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="64" t="s">
         <v>588</v>
       </c>
@@ -8326,7 +8326,7 @@
       <c r="AJ64" s="187"/>
       <c r="AK64" s="187"/>
     </row>
-    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>573</v>
       </c>
@@ -8413,7 +8413,7 @@
       <c r="AJ65" s="187"/>
       <c r="AK65" s="187"/>
     </row>
-    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>573</v>
       </c>
@@ -8500,7 +8500,7 @@
       <c r="AJ66" s="187"/>
       <c r="AK66" s="187"/>
     </row>
-    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>588</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="AJ67" s="187"/>
       <c r="AK67" s="187"/>
     </row>
-    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>573</v>
       </c>
@@ -8638,7 +8638,7 @@
       <c r="AJ68" s="187"/>
       <c r="AK68" s="187"/>
     </row>
-    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>573</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="AJ69" s="187"/>
       <c r="AK69" s="187"/>
     </row>
-    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>573</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="AJ70" s="187"/>
       <c r="AK70" s="187"/>
     </row>
-    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>573</v>
       </c>
@@ -8899,7 +8899,7 @@
       <c r="AJ71" s="187"/>
       <c r="AK71" s="187"/>
     </row>
-    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
         <v>588</v>
       </c>
@@ -8950,7 +8950,7 @@
       <c r="AJ72" s="187"/>
       <c r="AK72" s="187"/>
     </row>
-    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="64" t="s">
         <v>573</v>
       </c>
@@ -9037,7 +9037,7 @@
       <c r="AJ73" s="187"/>
       <c r="AK73" s="187"/>
     </row>
-    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="64" t="s">
         <v>588</v>
       </c>
@@ -9088,7 +9088,7 @@
       <c r="AJ74" s="187"/>
       <c r="AK74" s="187"/>
     </row>
-    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="64" t="s">
         <v>573</v>
       </c>
@@ -9175,7 +9175,7 @@
       <c r="AJ75" s="187"/>
       <c r="AK75" s="187"/>
     </row>
-    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="64" t="s">
         <v>573</v>
       </c>
@@ -9262,7 +9262,7 @@
       <c r="AJ76" s="187"/>
       <c r="AK76" s="187"/>
     </row>
-    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="64" t="s">
         <v>573</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="AJ77" s="187"/>
       <c r="AK77" s="187"/>
     </row>
-    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="64" t="s">
         <v>573</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="AJ78" s="187"/>
       <c r="AK78" s="187"/>
     </row>
-    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="64" t="s">
         <v>573</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="AJ79" s="187"/>
       <c r="AK79" s="187"/>
     </row>
-    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="64" t="s">
         <v>588</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="AJ80" s="187"/>
       <c r="AK80" s="187"/>
     </row>
-    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>573</v>
       </c>
@@ -9661,7 +9661,7 @@
       <c r="AJ81" s="187"/>
       <c r="AK81" s="187"/>
     </row>
-    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="64" t="s">
         <v>588</v>
       </c>
@@ -9712,7 +9712,7 @@
       <c r="AJ82" s="187"/>
       <c r="AK82" s="187"/>
     </row>
-    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="64" t="s">
         <v>573</v>
       </c>
@@ -9799,7 +9799,7 @@
       <c r="AJ83" s="187"/>
       <c r="AK83" s="187"/>
     </row>
-    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="64" t="s">
         <v>588</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="AJ84" s="187"/>
       <c r="AK84" s="187"/>
     </row>
-    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
         <v>588</v>
       </c>
@@ -9901,7 +9901,7 @@
       <c r="AJ85" s="187"/>
       <c r="AK85" s="187"/>
     </row>
-    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="64" t="s">
         <v>567</v>
       </c>
@@ -9996,7 +9996,7 @@
       <c r="AJ86" s="187"/>
       <c r="AK86" s="187"/>
     </row>
-    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="64" t="s">
         <v>567</v>
       </c>
@@ -10091,7 +10091,7 @@
       <c r="AJ87" s="187"/>
       <c r="AK87" s="187"/>
     </row>
-    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="64" t="s">
         <v>588</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="AJ88" s="187"/>
       <c r="AK88" s="187"/>
     </row>
-    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="64" t="s">
         <v>573</v>
       </c>
@@ -10229,7 +10229,7 @@
       <c r="AJ89" s="187"/>
       <c r="AK89" s="187"/>
     </row>
-    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="64" t="s">
         <v>573</v>
       </c>
@@ -10316,7 +10316,7 @@
       <c r="AJ90" s="187"/>
       <c r="AK90" s="187"/>
     </row>
-    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="64" t="s">
         <v>573</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="AJ91" s="187"/>
       <c r="AK91" s="187"/>
     </row>
-    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>573</v>
       </c>
@@ -10490,7 +10490,7 @@
       <c r="AJ92" s="187"/>
       <c r="AK92" s="187"/>
     </row>
-    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>573</v>
       </c>
@@ -10577,7 +10577,7 @@
       <c r="AJ93" s="187"/>
       <c r="AK93" s="187"/>
     </row>
-    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>573</v>
       </c>
@@ -10664,7 +10664,7 @@
       <c r="AJ94" s="187"/>
       <c r="AK94" s="187"/>
     </row>
-    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>573</v>
       </c>
@@ -10751,7 +10751,7 @@
       <c r="AJ95" s="187"/>
       <c r="AK95" s="187"/>
     </row>
-    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>573</v>
       </c>
@@ -10838,7 +10838,7 @@
       <c r="AJ96" s="187"/>
       <c r="AK96" s="187"/>
     </row>
-    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>588</v>
       </c>
@@ -10889,7 +10889,7 @@
       <c r="AJ97" s="187"/>
       <c r="AK97" s="187"/>
     </row>
-    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>573</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="AJ98" s="187"/>
       <c r="AK98" s="187"/>
     </row>
-    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>573</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="AJ99" s="187"/>
       <c r="AK99" s="187"/>
     </row>
-    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>573</v>
       </c>
@@ -11150,7 +11150,7 @@
       <c r="AJ100" s="187"/>
       <c r="AK100" s="187"/>
     </row>
-    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="64" t="s">
         <v>588</v>
       </c>
@@ -11201,7 +11201,7 @@
       <c r="AJ101" s="187"/>
       <c r="AK101" s="187"/>
     </row>
-    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>573</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>573</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="AJ103" s="187"/>
       <c r="AK103" s="187"/>
     </row>
-    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>573</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>573</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="AJ105" s="187"/>
       <c r="AK105" s="187"/>
     </row>
-    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>573</v>
       </c>
@@ -11642,7 +11642,7 @@
       <c r="AJ106" s="187"/>
       <c r="AK106" s="187"/>
     </row>
-    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
         <v>588</v>
       </c>
@@ -11693,7 +11693,7 @@
       <c r="AJ107" s="187"/>
       <c r="AK107" s="187"/>
     </row>
-    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
         <v>588</v>
       </c>
@@ -11744,7 +11744,7 @@
       <c r="AJ108" s="187"/>
       <c r="AK108" s="187"/>
     </row>
-    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="64" t="s">
         <v>573</v>
       </c>
@@ -11831,7 +11831,7 @@
       <c r="AJ109" s="187"/>
       <c r="AK109" s="187"/>
     </row>
-    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="64" t="s">
         <v>588</v>
       </c>
@@ -11882,7 +11882,7 @@
       <c r="AJ110" s="187"/>
       <c r="AK110" s="187"/>
     </row>
-    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="64" t="s">
         <v>573</v>
       </c>
@@ -11969,7 +11969,7 @@
       <c r="AJ111" s="187"/>
       <c r="AK111" s="187"/>
     </row>
-    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="64" t="s">
         <v>588</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="AJ112" s="187"/>
       <c r="AK112" s="187"/>
     </row>
-    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="64" t="s">
         <v>573</v>
       </c>
@@ -12107,7 +12107,7 @@
       <c r="AJ113" s="187"/>
       <c r="AK113" s="187"/>
     </row>
-    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>573</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="AJ114" s="187"/>
       <c r="AK114" s="187"/>
     </row>
-    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>573</v>
       </c>
@@ -12281,7 +12281,7 @@
       <c r="AJ115" s="187"/>
       <c r="AK115" s="187"/>
     </row>
-    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="64" t="s">
         <v>573</v>
       </c>
@@ -12368,7 +12368,7 @@
       <c r="AJ116" s="187"/>
       <c r="AK116" s="187"/>
     </row>
-    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="64" t="s">
         <v>573</v>
       </c>
@@ -12455,7 +12455,7 @@
       <c r="AJ117" s="187"/>
       <c r="AK117" s="187"/>
     </row>
-    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="64" t="s">
         <v>573</v>
       </c>
@@ -12542,7 +12542,7 @@
       <c r="AJ118" s="187"/>
       <c r="AK118" s="187"/>
     </row>
-    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="64" t="s">
         <v>573</v>
       </c>
@@ -12629,7 +12629,7 @@
       <c r="AJ119" s="187"/>
       <c r="AK119" s="187"/>
     </row>
-    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="64" t="s">
         <v>573</v>
       </c>
@@ -12716,7 +12716,7 @@
       <c r="AJ120" s="187"/>
       <c r="AK120" s="187"/>
     </row>
-    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="64" t="s">
         <v>588</v>
       </c>
@@ -12767,7 +12767,7 @@
       <c r="AJ121" s="187"/>
       <c r="AK121" s="187"/>
     </row>
-    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="64" t="s">
         <v>562</v>
       </c>
@@ -12861,7 +12861,7 @@
       <c r="AJ122" s="187"/>
       <c r="AK122" s="187"/>
     </row>
-    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="64" t="s">
         <v>588</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="AJ123" s="187"/>
       <c r="AK123" s="187"/>
     </row>
-    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="64" t="s">
         <v>567</v>
       </c>
@@ -13008,7 +13008,7 @@
       <c r="AJ124" s="187"/>
       <c r="AK124" s="187"/>
     </row>
-    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="64" t="s">
         <v>567</v>
       </c>
@@ -13104,7 +13104,7 @@
       <c r="AJ125" s="187"/>
       <c r="AK125" s="187"/>
     </row>
-    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="64" t="s">
         <v>588</v>
       </c>
@@ -13155,7 +13155,7 @@
       <c r="AJ126" s="187"/>
       <c r="AK126" s="187"/>
     </row>
-    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="64" t="s">
         <v>573</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="AJ129" s="187"/>
       <c r="AK129" s="187"/>
     </row>
-    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="64" t="s">
         <v>567</v>
       </c>
@@ -13527,7 +13527,7 @@
       <c r="AJ130" s="187"/>
       <c r="AK130" s="187"/>
     </row>
-    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="64" t="s">
         <v>573</v>
       </c>
@@ -13614,7 +13614,7 @@
       <c r="AJ131" s="187"/>
       <c r="AK131" s="187"/>
     </row>
-    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="64" t="s">
         <v>555</v>
       </c>
@@ -13701,7 +13701,7 @@
       <c r="AJ132" s="187"/>
       <c r="AK132" s="187"/>
     </row>
-    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="64" t="s">
         <v>562</v>
       </c>
@@ -13795,7 +13795,7 @@
       <c r="AJ133" s="187"/>
       <c r="AK133" s="187"/>
     </row>
-    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="64" t="s">
         <v>588</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="AJ134" s="187"/>
       <c r="AK134" s="187"/>
     </row>
-    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="64" t="s">
         <v>588</v>
       </c>
@@ -13897,7 +13897,7 @@
       <c r="AJ135" s="187"/>
       <c r="AK135" s="187"/>
     </row>
-    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="64" t="s">
         <v>588</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="AJ136" s="187"/>
       <c r="AK136" s="187"/>
     </row>
-    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="64" t="s">
         <v>588</v>
       </c>
@@ -13999,7 +13999,7 @@
       <c r="AJ137" s="187"/>
       <c r="AK137" s="187"/>
     </row>
-    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="64" t="s">
         <v>573</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="64" t="s">
         <v>573</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="64" t="s">
         <v>588</v>
       </c>
@@ -14230,7 +14230,7 @@
       <c r="AJ140" s="187"/>
       <c r="AK140" s="187"/>
     </row>
-    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="64" t="s">
         <v>573</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="64" t="s">
         <v>588</v>
       </c>
@@ -14371,7 +14371,7 @@
       <c r="AJ142" s="187"/>
       <c r="AK142" s="187"/>
     </row>
-    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="64" t="s">
         <v>567</v>
       </c>
@@ -14467,7 +14467,7 @@
       <c r="AJ143" s="187"/>
       <c r="AK143" s="187"/>
     </row>
-    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="64" t="s">
         <v>567</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="AJ144" s="187"/>
       <c r="AK144" s="187"/>
     </row>
-    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="64" t="s">
         <v>567</v>
       </c>
@@ -14659,7 +14659,7 @@
       <c r="AJ145" s="187"/>
       <c r="AK145" s="187"/>
     </row>
-    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="64" t="s">
         <v>573</v>
       </c>
@@ -14746,7 +14746,7 @@
       <c r="AJ146" s="187"/>
       <c r="AK146" s="187"/>
     </row>
-    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="64" t="s">
         <v>573</v>
       </c>
@@ -14833,7 +14833,7 @@
       <c r="AJ147" s="187"/>
       <c r="AK147" s="187"/>
     </row>
-    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="64" t="s">
         <v>573</v>
       </c>
@@ -14920,7 +14920,7 @@
       <c r="AJ148" s="187"/>
       <c r="AK148" s="187"/>
     </row>
-    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="64" t="s">
         <v>588</v>
       </c>
@@ -14971,7 +14971,7 @@
       <c r="AJ149" s="187"/>
       <c r="AK149" s="187"/>
     </row>
-    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="64" t="s">
         <v>588</v>
       </c>
@@ -15022,7 +15022,7 @@
       <c r="AJ150" s="187"/>
       <c r="AK150" s="187"/>
     </row>
-    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="64" t="s">
         <v>573</v>
       </c>
@@ -15109,7 +15109,7 @@
       <c r="AJ151" s="187"/>
       <c r="AK151" s="187"/>
     </row>
-    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="64" t="s">
         <v>567</v>
       </c>
@@ -15205,7 +15205,7 @@
       <c r="AJ152" s="187"/>
       <c r="AK152" s="187"/>
     </row>
-    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="64" t="s">
         <v>588</v>
       </c>
@@ -15256,7 +15256,7 @@
       <c r="AJ153" s="187"/>
       <c r="AK153" s="187"/>
     </row>
-    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="64" t="s">
         <v>573</v>
       </c>
@@ -15343,7 +15343,7 @@
       <c r="AJ154" s="187"/>
       <c r="AK154" s="187"/>
     </row>
-    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>573</v>
       </c>
@@ -15430,7 +15430,7 @@
       <c r="AJ155" s="187"/>
       <c r="AK155" s="187"/>
     </row>
-    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="64" t="s">
         <v>573</v>
       </c>
@@ -15517,7 +15517,7 @@
       <c r="AJ156" s="187"/>
       <c r="AK156" s="187"/>
     </row>
-    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="64" t="s">
         <v>573</v>
       </c>
@@ -15604,7 +15604,7 @@
       <c r="AJ157" s="187"/>
       <c r="AK157" s="187"/>
     </row>
-    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="64" t="s">
         <v>573</v>
       </c>
@@ -15691,7 +15691,7 @@
       <c r="AJ158" s="187"/>
       <c r="AK158" s="187"/>
     </row>
-    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>573</v>
       </c>
@@ -15778,7 +15778,7 @@
       <c r="AJ159" s="187"/>
       <c r="AK159" s="187"/>
     </row>
-    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="64" t="s">
         <v>573</v>
       </c>
@@ -15865,7 +15865,7 @@
       <c r="AJ160" s="187"/>
       <c r="AK160" s="187"/>
     </row>
-    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>573</v>
       </c>
@@ -15952,7 +15952,7 @@
       <c r="AJ161" s="187"/>
       <c r="AK161" s="187"/>
     </row>
-    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="64" t="s">
         <v>573</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="AJ162" s="187"/>
       <c r="AK162" s="187"/>
     </row>
-    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>573</v>
       </c>
@@ -16126,7 +16126,7 @@
       <c r="AJ163" s="187"/>
       <c r="AK163" s="187"/>
     </row>
-    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="64" t="s">
         <v>573</v>
       </c>
@@ -16213,7 +16213,7 @@
       <c r="AJ164" s="187"/>
       <c r="AK164" s="187"/>
     </row>
-    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="64" t="s">
         <v>588</v>
       </c>
@@ -16264,7 +16264,7 @@
       <c r="AJ165" s="187"/>
       <c r="AK165" s="187"/>
     </row>
-    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>573</v>
       </c>
@@ -16351,7 +16351,7 @@
       <c r="AJ166" s="187"/>
       <c r="AK166" s="187"/>
     </row>
-    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>573</v>
       </c>
@@ -16438,7 +16438,7 @@
       <c r="AJ167" s="187"/>
       <c r="AK167" s="187"/>
     </row>
-    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>573</v>
       </c>
@@ -16525,7 +16525,7 @@
       <c r="AJ168" s="187"/>
       <c r="AK168" s="187"/>
     </row>
-    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>573</v>
       </c>
@@ -16612,7 +16612,7 @@
       <c r="AJ169" s="187"/>
       <c r="AK169" s="187"/>
     </row>
-    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>573</v>
       </c>
@@ -16699,7 +16699,7 @@
       <c r="AJ170" s="187"/>
       <c r="AK170" s="187"/>
     </row>
-    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>573</v>
       </c>
@@ -16786,7 +16786,7 @@
       <c r="AJ171" s="187"/>
       <c r="AK171" s="187"/>
     </row>
-    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>573</v>
       </c>
@@ -16873,7 +16873,7 @@
       <c r="AJ172" s="187"/>
       <c r="AK172" s="187"/>
     </row>
-    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="64" t="s">
         <v>573</v>
       </c>
@@ -16960,7 +16960,7 @@
       <c r="AJ173" s="187"/>
       <c r="AK173" s="187"/>
     </row>
-    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="64" t="s">
         <v>588</v>
       </c>
@@ -17011,7 +17011,7 @@
       <c r="AJ174" s="187"/>
       <c r="AK174" s="187"/>
     </row>
-    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="64" t="s">
         <v>573</v>
       </c>
@@ -17098,7 +17098,7 @@
       <c r="AJ175" s="187"/>
       <c r="AK175" s="187"/>
     </row>
-    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="64" t="s">
         <v>573</v>
       </c>
@@ -17185,7 +17185,7 @@
       <c r="AJ176" s="187"/>
       <c r="AK176" s="187"/>
     </row>
-    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="64" t="s">
         <v>573</v>
       </c>
@@ -17272,7 +17272,7 @@
       <c r="AJ177" s="187"/>
       <c r="AK177" s="187"/>
     </row>
-    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="64" t="s">
         <v>588</v>
       </c>
@@ -17323,7 +17323,7 @@
       <c r="AJ178" s="187"/>
       <c r="AK178" s="187"/>
     </row>
-    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>573</v>
       </c>
@@ -17410,7 +17410,7 @@
       <c r="AJ179" s="187"/>
       <c r="AK179" s="187"/>
     </row>
-    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>573</v>
       </c>
@@ -17497,7 +17497,7 @@
       <c r="AJ180" s="187"/>
       <c r="AK180" s="187"/>
     </row>
-    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>573</v>
       </c>
@@ -17584,7 +17584,7 @@
       <c r="AJ181" s="187"/>
       <c r="AK181" s="187"/>
     </row>
-    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="64" t="s">
         <v>588</v>
       </c>
@@ -17635,7 +17635,7 @@
       <c r="AJ182" s="187"/>
       <c r="AK182" s="187"/>
     </row>
-    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>573</v>
       </c>
@@ -17722,7 +17722,7 @@
       <c r="AJ183" s="187"/>
       <c r="AK183" s="187"/>
     </row>
-    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>573</v>
       </c>
@@ -17809,7 +17809,7 @@
       <c r="AJ184" s="187"/>
       <c r="AK184" s="187"/>
     </row>
-    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="64" t="s">
         <v>573</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="64" t="s">
         <v>573</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="64" t="s">
         <v>588</v>
       </c>
@@ -18040,7 +18040,7 @@
       <c r="AJ187" s="187"/>
       <c r="AK187" s="187"/>
     </row>
-    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="64" t="s">
         <v>567</v>
       </c>
@@ -18136,7 +18136,7 @@
       <c r="AJ188" s="187"/>
       <c r="AK188" s="187"/>
     </row>
-    <row r="189" spans="1:38" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="64" t="s">
         <v>567</v>
       </c>
@@ -18232,7 +18232,7 @@
       <c r="AJ189" s="187"/>
       <c r="AK189" s="187"/>
     </row>
-    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="64" t="s">
         <v>588</v>
       </c>
@@ -18283,7 +18283,7 @@
       <c r="AJ190" s="187"/>
       <c r="AK190" s="187"/>
     </row>
-    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="64" t="s">
         <v>573</v>
       </c>
@@ -18370,7 +18370,7 @@
       <c r="AJ191" s="187"/>
       <c r="AK191" s="187"/>
     </row>
-    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="64" t="s">
         <v>573</v>
       </c>
@@ -18457,7 +18457,7 @@
       <c r="AJ192" s="187"/>
       <c r="AK192" s="187"/>
     </row>
-    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="64" t="s">
         <v>573</v>
       </c>
@@ -18544,7 +18544,7 @@
       <c r="AJ193" s="187"/>
       <c r="AK193" s="187"/>
     </row>
-    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>573</v>
       </c>
@@ -18631,7 +18631,7 @@
       <c r="AJ194" s="187"/>
       <c r="AK194" s="187"/>
     </row>
-    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>573</v>
       </c>
@@ -18718,7 +18718,7 @@
       <c r="AJ195" s="187"/>
       <c r="AK195" s="187"/>
     </row>
-    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>573</v>
       </c>
@@ -18805,7 +18805,7 @@
       <c r="AJ196" s="187"/>
       <c r="AK196" s="187"/>
     </row>
-    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>573</v>
       </c>
@@ -18892,7 +18892,7 @@
       <c r="AJ197" s="187"/>
       <c r="AK197" s="187"/>
     </row>
-    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>573</v>
       </c>
@@ -18979,7 +18979,7 @@
       <c r="AJ198" s="187"/>
       <c r="AK198" s="187"/>
     </row>
-    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="64" t="s">
         <v>573</v>
       </c>
@@ -19066,7 +19066,7 @@
       <c r="AJ199" s="187"/>
       <c r="AK199" s="187"/>
     </row>
-    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>573</v>
       </c>
@@ -19153,7 +19153,7 @@
       <c r="AJ200" s="187"/>
       <c r="AK200" s="187"/>
     </row>
-    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="64" t="s">
         <v>573</v>
       </c>
@@ -19240,7 +19240,7 @@
       <c r="AJ201" s="187"/>
       <c r="AK201" s="187"/>
     </row>
-    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="64" t="s">
         <v>573</v>
       </c>
@@ -19327,7 +19327,7 @@
       <c r="AJ202" s="187"/>
       <c r="AK202" s="187"/>
     </row>
-    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="64" t="s">
         <v>588</v>
       </c>
@@ -19378,7 +19378,7 @@
       <c r="AJ203" s="187"/>
       <c r="AK203" s="187"/>
     </row>
-    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="64" t="s">
         <v>573</v>
       </c>
@@ -19465,7 +19465,7 @@
       <c r="AJ204" s="187"/>
       <c r="AK204" s="187"/>
     </row>
-    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="64" t="s">
         <v>573</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="64" t="s">
         <v>573</v>
       </c>
@@ -19642,7 +19642,7 @@
       <c r="AJ206" s="187"/>
       <c r="AK206" s="187"/>
     </row>
-    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="64" t="s">
         <v>573</v>
       </c>
@@ -19729,7 +19729,7 @@
       <c r="AJ207" s="187"/>
       <c r="AK207" s="187"/>
     </row>
-    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="64" t="s">
         <v>573</v>
       </c>
@@ -19816,7 +19816,7 @@
       <c r="AJ208" s="187"/>
       <c r="AK208" s="187"/>
     </row>
-    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="64" t="s">
         <v>588</v>
       </c>
@@ -19867,7 +19867,7 @@
       <c r="AJ209" s="187"/>
       <c r="AK209" s="187"/>
     </row>
-    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="64" t="s">
         <v>588</v>
       </c>
@@ -19918,7 +19918,7 @@
       <c r="AJ210" s="187"/>
       <c r="AK210" s="187"/>
     </row>
-    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="64" t="s">
         <v>571</v>
       </c>
@@ -20005,7 +20005,7 @@
       <c r="AJ211" s="187"/>
       <c r="AK211" s="187"/>
     </row>
-    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="64" t="s">
         <v>571</v>
       </c>
@@ -20092,7 +20092,7 @@
       <c r="AJ212" s="187"/>
       <c r="AK212" s="187"/>
     </row>
-    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="64" t="s">
         <v>571</v>
       </c>
@@ -20179,7 +20179,7 @@
       <c r="AJ213" s="187"/>
       <c r="AK213" s="187"/>
     </row>
-    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="64" t="s">
         <v>571</v>
       </c>
@@ -20266,7 +20266,7 @@
       <c r="AJ214" s="187"/>
       <c r="AK214" s="187"/>
     </row>
-    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="64" t="s">
         <v>571</v>
       </c>
@@ -20353,7 +20353,7 @@
       <c r="AJ215" s="187"/>
       <c r="AK215" s="187"/>
     </row>
-    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="64" t="s">
         <v>571</v>
       </c>
@@ -20440,7 +20440,7 @@
       <c r="AJ216" s="187"/>
       <c r="AK216" s="187"/>
     </row>
-    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="64" t="s">
         <v>571</v>
       </c>
@@ -20527,7 +20527,7 @@
       <c r="AJ217" s="187"/>
       <c r="AK217" s="187"/>
     </row>
-    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="64" t="s">
         <v>571</v>
       </c>
@@ -20614,7 +20614,7 @@
       <c r="AJ218" s="187"/>
       <c r="AK218" s="187"/>
     </row>
-    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="64" t="s">
         <v>571</v>
       </c>
@@ -20701,7 +20701,7 @@
       <c r="AJ219" s="187"/>
       <c r="AK219" s="187"/>
     </row>
-    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="64" t="s">
         <v>571</v>
       </c>
@@ -20788,7 +20788,7 @@
       <c r="AJ220" s="187"/>
       <c r="AK220" s="187"/>
     </row>
-    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="64" t="s">
         <v>588</v>
       </c>
@@ -20839,7 +20839,7 @@
       <c r="AJ221" s="187"/>
       <c r="AK221" s="187"/>
     </row>
-    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="64" t="s">
         <v>571</v>
       </c>
@@ -20926,7 +20926,7 @@
       <c r="AJ222" s="187"/>
       <c r="AK222" s="187"/>
     </row>
-    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="64" t="s">
         <v>571</v>
       </c>
@@ -21013,7 +21013,7 @@
       <c r="AJ223" s="187"/>
       <c r="AK223" s="187"/>
     </row>
-    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="64" t="s">
         <v>571</v>
       </c>
@@ -21100,7 +21100,7 @@
       <c r="AJ224" s="187"/>
       <c r="AK224" s="187"/>
     </row>
-    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="64" t="s">
         <v>571</v>
       </c>
@@ -21187,7 +21187,7 @@
       <c r="AJ225" s="187"/>
       <c r="AK225" s="187"/>
     </row>
-    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="64" t="s">
         <v>571</v>
       </c>
@@ -21274,7 +21274,7 @@
       <c r="AJ226" s="187"/>
       <c r="AK226" s="187"/>
     </row>
-    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="64" t="s">
         <v>571</v>
       </c>
@@ -21361,7 +21361,7 @@
       <c r="AJ227" s="187"/>
       <c r="AK227" s="187"/>
     </row>
-    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="64" t="s">
         <v>571</v>
       </c>
@@ -21448,7 +21448,7 @@
       <c r="AJ228" s="187"/>
       <c r="AK228" s="187"/>
     </row>
-    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="64" t="s">
         <v>571</v>
       </c>
@@ -21535,7 +21535,7 @@
       <c r="AJ229" s="187"/>
       <c r="AK229" s="187"/>
     </row>
-    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="64" t="s">
         <v>571</v>
       </c>
@@ -21622,7 +21622,7 @@
       <c r="AJ230" s="187"/>
       <c r="AK230" s="187"/>
     </row>
-    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="64" t="s">
         <v>571</v>
       </c>
@@ -21709,7 +21709,7 @@
       <c r="AJ231" s="187"/>
       <c r="AK231" s="187"/>
     </row>
-    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="54" t="s">
         <v>588</v>
       </c>
@@ -21773,7 +21773,7 @@
       <c r="AJ232" s="188"/>
       <c r="AK232" s="188"/>
     </row>
-    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="54" t="s">
         <v>588</v>
       </c>
@@ -21837,7 +21837,7 @@
       <c r="AJ233" s="188"/>
       <c r="AK233" s="188"/>
     </row>
-    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="54" t="s">
         <v>588</v>
       </c>
@@ -21901,7 +21901,7 @@
       <c r="AJ234" s="188"/>
       <c r="AK234" s="188"/>
     </row>
-    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>573</v>
       </c>
@@ -21988,7 +21988,7 @@
       <c r="AJ235" s="188"/>
       <c r="AK235" s="188"/>
     </row>
-    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>573</v>
       </c>
@@ -22075,7 +22075,7 @@
       <c r="AJ236" s="188"/>
       <c r="AK236" s="188"/>
     </row>
-    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>573</v>
       </c>
@@ -22162,7 +22162,7 @@
       <c r="AJ237" s="188"/>
       <c r="AK237" s="188"/>
     </row>
-    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>573</v>
       </c>
@@ -22249,7 +22249,7 @@
       <c r="AJ238" s="188"/>
       <c r="AK238" s="188"/>
     </row>
-    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="54" t="s">
         <v>573</v>
       </c>
@@ -22336,7 +22336,7 @@
       <c r="AJ239" s="188"/>
       <c r="AK239" s="188"/>
     </row>
-    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="54" t="s">
         <v>573</v>
       </c>
@@ -22423,7 +22423,7 @@
       <c r="AJ240" s="188"/>
       <c r="AK240" s="188"/>
     </row>
-    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="54" t="s">
         <v>588</v>
       </c>
@@ -22484,7 +22484,7 @@
       <c r="AJ241" s="188"/>
       <c r="AK241" s="188"/>
     </row>
-    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>573</v>
       </c>
@@ -22571,7 +22571,7 @@
       <c r="AJ242" s="188"/>
       <c r="AK242" s="188"/>
     </row>
-    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="54" t="s">
         <v>573</v>
       </c>
@@ -22658,7 +22658,7 @@
       <c r="AJ243" s="188"/>
       <c r="AK243" s="188"/>
     </row>
-    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="54" t="s">
         <v>573</v>
       </c>
@@ -22745,7 +22745,7 @@
       <c r="AJ244" s="188"/>
       <c r="AK244" s="188"/>
     </row>
-    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="54" t="s">
         <v>588</v>
       </c>
@@ -22793,7 +22793,7 @@
       <c r="AJ245" s="188"/>
       <c r="AK245" s="188"/>
     </row>
-    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="54" t="s">
         <v>588</v>
       </c>
@@ -22841,7 +22841,7 @@
       <c r="AJ246" s="188"/>
       <c r="AK246" s="188"/>
     </row>
-    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>573</v>
       </c>
@@ -22928,7 +22928,7 @@
       <c r="AJ247" s="188"/>
       <c r="AK247" s="188"/>
     </row>
-    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="54" t="s">
         <v>588</v>
       </c>
@@ -22976,7 +22976,7 @@
       <c r="AJ248" s="188"/>
       <c r="AK248" s="188"/>
     </row>
-    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="54" t="s">
         <v>588</v>
       </c>
@@ -23024,7 +23024,7 @@
       <c r="AJ249" s="188"/>
       <c r="AK249" s="188"/>
     </row>
-    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>573</v>
       </c>
@@ -23111,7 +23111,7 @@
       <c r="AJ250" s="188"/>
       <c r="AK250" s="188"/>
     </row>
-    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>573</v>
       </c>
@@ -23198,7 +23198,7 @@
       <c r="AJ251" s="188"/>
       <c r="AK251" s="188"/>
     </row>
-    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="54" t="s">
         <v>588</v>
       </c>
@@ -23246,7 +23246,7 @@
       <c r="AJ252" s="188"/>
       <c r="AK252" s="188"/>
     </row>
-    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="54" t="s">
         <v>573</v>
       </c>
@@ -23333,7 +23333,7 @@
       <c r="AJ253" s="188"/>
       <c r="AK253" s="188"/>
     </row>
-    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="54" t="s">
         <v>573</v>
       </c>
@@ -23420,7 +23420,7 @@
       <c r="AJ254" s="188"/>
       <c r="AK254" s="188"/>
     </row>
-    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="54" t="s">
         <v>573</v>
       </c>
@@ -23507,7 +23507,7 @@
       <c r="AJ255" s="188"/>
       <c r="AK255" s="188"/>
     </row>
-    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="54" t="s">
         <v>588</v>
       </c>
@@ -23555,7 +23555,7 @@
       <c r="AJ256" s="188"/>
       <c r="AK256" s="188"/>
     </row>
-    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="54" t="s">
         <v>588</v>
       </c>
@@ -23603,7 +23603,7 @@
       <c r="AJ257" s="188"/>
       <c r="AK257" s="188"/>
     </row>
-    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>573</v>
       </c>
@@ -23690,7 +23690,7 @@
       <c r="AJ258" s="188"/>
       <c r="AK258" s="188"/>
     </row>
-    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="54" t="s">
         <v>588</v>
       </c>
@@ -23738,7 +23738,7 @@
       <c r="AJ259" s="188"/>
       <c r="AK259" s="188"/>
     </row>
-    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="54" t="s">
         <v>588</v>
       </c>
@@ -23786,7 +23786,7 @@
       <c r="AJ260" s="188"/>
       <c r="AK260" s="188"/>
     </row>
-    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>573</v>
       </c>
@@ -23873,7 +23873,7 @@
       <c r="AJ261" s="188"/>
       <c r="AK261" s="188"/>
     </row>
-    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>573</v>
       </c>
@@ -23960,7 +23960,7 @@
       <c r="AJ262" s="188"/>
       <c r="AK262" s="188"/>
     </row>
-    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="54" t="s">
         <v>588</v>
       </c>
@@ -24008,7 +24008,7 @@
       <c r="AJ263" s="188"/>
       <c r="AK263" s="188"/>
     </row>
-    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="64" t="s">
         <v>571</v>
       </c>
@@ -24105,7 +24105,7 @@
       <c r="AJ264" s="188"/>
       <c r="AK264" s="188"/>
     </row>
-    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="148" t="s">
         <v>562</v>
       </c>
@@ -24199,7 +24199,7 @@
       <c r="AJ265" s="188"/>
       <c r="AK265" s="188"/>
     </row>
-    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="54" t="s">
         <v>588</v>
       </c>
@@ -24334,7 +24334,7 @@
       <c r="AJ267" s="188"/>
       <c r="AK267" s="188"/>
     </row>
-    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="148" t="s">
         <v>574</v>
       </c>
@@ -24595,7 +24595,7 @@
       <c r="AJ270" s="188"/>
       <c r="AK270" s="188"/>
     </row>
-    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="148" t="s">
         <v>563</v>
       </c>
@@ -24662,7 +24662,7 @@
       <c r="AJ271" s="188"/>
       <c r="AK271" s="188"/>
     </row>
-    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="148" t="s">
         <v>563</v>
       </c>
@@ -24723,7 +24723,7 @@
       <c r="AJ272" s="188"/>
       <c r="AK272" s="188"/>
     </row>
-    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="148" t="s">
         <v>563</v>
       </c>
@@ -24784,7 +24784,7 @@
       <c r="AJ273" s="188"/>
       <c r="AK273" s="188"/>
     </row>
-    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="148" t="s">
         <v>563</v>
       </c>
@@ -24853,7 +24853,7 @@
       <c r="AJ274" s="188"/>
       <c r="AK274" s="188"/>
     </row>
-    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="54" t="s">
         <v>588</v>
       </c>
@@ -24901,7 +24901,7 @@
       <c r="AJ275" s="188"/>
       <c r="AK275" s="188"/>
     </row>
-    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="54" t="s">
         <v>573</v>
       </c>
@@ -24988,7 +24988,7 @@
       <c r="AJ276" s="188"/>
       <c r="AK276" s="188"/>
     </row>
-    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="54" t="s">
         <v>588</v>
       </c>
@@ -25036,7 +25036,7 @@
       <c r="AJ277" s="188"/>
       <c r="AK277" s="188"/>
     </row>
-    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="148" t="s">
         <v>562</v>
       </c>
@@ -25130,7 +25130,7 @@
       <c r="AJ278" s="188"/>
       <c r="AK278" s="188"/>
     </row>
-    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="148" t="s">
         <v>562</v>
       </c>
@@ -25224,7 +25224,7 @@
       <c r="AJ279" s="188"/>
       <c r="AK279" s="188"/>
     </row>
-    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="148" t="s">
         <v>562</v>
       </c>
@@ -25318,7 +25318,7 @@
       <c r="AJ280" s="188"/>
       <c r="AK280" s="188"/>
     </row>
-    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="54" t="s">
         <v>588</v>
       </c>
@@ -25366,7 +25366,7 @@
       <c r="AJ281" s="188"/>
       <c r="AK281" s="188"/>
     </row>
-    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="54" t="s">
         <v>588</v>
       </c>
@@ -25414,7 +25414,7 @@
       <c r="AJ282" s="188"/>
       <c r="AK282" s="188"/>
     </row>
-    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>564</v>
       </c>
@@ -25508,7 +25508,7 @@
         <v>92300</v>
       </c>
     </row>
-    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="54" t="s">
         <v>588</v>
       </c>
@@ -25556,7 +25556,7 @@
       <c r="AJ284" s="188"/>
       <c r="AK284" s="188"/>
     </row>
-    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="64" t="s">
         <v>555</v>
       </c>
@@ -25653,7 +25653,7 @@
       <c r="AJ285" s="188"/>
       <c r="AK285" s="188"/>
     </row>
-    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="64" t="s">
         <v>555</v>
       </c>
@@ -25750,7 +25750,7 @@
       <c r="AJ286" s="188"/>
       <c r="AK286" s="188"/>
     </row>
-    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="54" t="s">
         <v>588</v>
       </c>
@@ -25798,7 +25798,7 @@
       <c r="AJ287" s="188"/>
       <c r="AK287" s="188"/>
     </row>
-    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>573</v>
       </c>
@@ -25885,7 +25885,7 @@
       <c r="AJ288" s="188"/>
       <c r="AK288" s="188"/>
     </row>
-    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>573</v>
       </c>
@@ -25972,7 +25972,7 @@
       <c r="AJ289" s="188"/>
       <c r="AK289" s="188"/>
     </row>
-    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>573</v>
       </c>
@@ -26059,7 +26059,7 @@
       <c r="AJ290" s="188"/>
       <c r="AK290" s="188"/>
     </row>
-    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>573</v>
       </c>
@@ -26146,7 +26146,7 @@
       <c r="AJ291" s="188"/>
       <c r="AK291" s="188"/>
     </row>
-    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="54" t="s">
         <v>588</v>
       </c>
@@ -26194,7 +26194,7 @@
       <c r="AJ292" s="188"/>
       <c r="AK292" s="188"/>
     </row>
-    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="54" t="s">
         <v>573</v>
       </c>
@@ -26281,7 +26281,7 @@
       <c r="AJ293" s="188"/>
       <c r="AK293" s="188"/>
     </row>
-    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="54" t="s">
         <v>573</v>
       </c>
@@ -26368,7 +26368,7 @@
       <c r="AJ294" s="188"/>
       <c r="AK294" s="188"/>
     </row>
-    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="54" t="s">
         <v>573</v>
       </c>
@@ -26455,7 +26455,7 @@
       <c r="AJ295" s="188"/>
       <c r="AK295" s="188"/>
     </row>
-    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="207" t="s">
         <v>562</v>
       </c>
@@ -26549,7 +26549,7 @@
       <c r="AJ296" s="188"/>
       <c r="AK296" s="188"/>
     </row>
-    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="54" t="s">
         <v>573</v>
       </c>
@@ -26636,7 +26636,7 @@
       <c r="AJ297" s="188"/>
       <c r="AK297" s="188"/>
     </row>
-    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="54" t="s">
         <v>573</v>
       </c>
@@ -26723,7 +26723,7 @@
       <c r="AJ298" s="188"/>
       <c r="AK298" s="188"/>
     </row>
-    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="54" t="s">
         <v>573</v>
       </c>
@@ -26810,7 +26810,7 @@
       <c r="AJ299" s="188"/>
       <c r="AK299" s="188"/>
     </row>
-    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="54" t="s">
         <v>573</v>
       </c>
@@ -26897,7 +26897,7 @@
       <c r="AJ300" s="188"/>
       <c r="AK300" s="188"/>
     </row>
-    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="54" t="s">
         <v>573</v>
       </c>
@@ -26984,7 +26984,7 @@
       <c r="AJ301" s="188"/>
       <c r="AK301" s="188"/>
     </row>
-    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="54" t="s">
         <v>573</v>
       </c>
@@ -27071,7 +27071,7 @@
       <c r="AJ302" s="188"/>
       <c r="AK302" s="188"/>
     </row>
-    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="54" t="s">
         <v>573</v>
       </c>
@@ -27158,7 +27158,7 @@
       <c r="AJ303" s="188"/>
       <c r="AK303" s="188"/>
     </row>
-    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="54" t="s">
         <v>589</v>
       </c>
@@ -27206,7 +27206,7 @@
       <c r="AJ304" s="188"/>
       <c r="AK304" s="188"/>
     </row>
-    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="54" t="s">
         <v>573</v>
       </c>
@@ -27293,7 +27293,7 @@
       <c r="AJ305" s="188"/>
       <c r="AK305" s="188"/>
     </row>
-    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="54" t="s">
         <v>573</v>
       </c>
@@ -27380,7 +27380,7 @@
       <c r="AJ306" s="188"/>
       <c r="AK306" s="188"/>
     </row>
-    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="54" t="s">
         <v>573</v>
       </c>
@@ -27467,7 +27467,7 @@
       <c r="AJ307" s="188"/>
       <c r="AK307" s="188"/>
     </row>
-    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="54" t="s">
         <v>573</v>
       </c>
@@ -27554,7 +27554,7 @@
       <c r="AJ308" s="188"/>
       <c r="AK308" s="188"/>
     </row>
-    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="54" t="s">
         <v>573</v>
       </c>
@@ -27641,7 +27641,7 @@
       <c r="AJ309" s="188"/>
       <c r="AK309" s="188"/>
     </row>
-    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="54" t="s">
         <v>573</v>
       </c>
@@ -27728,7 +27728,7 @@
       <c r="AJ310" s="188"/>
       <c r="AK310" s="188"/>
     </row>
-    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="54" t="s">
         <v>573</v>
       </c>
@@ -27815,7 +27815,7 @@
       <c r="AJ311" s="188"/>
       <c r="AK311" s="188"/>
     </row>
-    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="54" t="s">
         <v>573</v>
       </c>
@@ -27902,7 +27902,7 @@
       <c r="AJ312" s="188"/>
       <c r="AK312" s="188"/>
     </row>
-    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="54" t="s">
         <v>573</v>
       </c>
@@ -27989,7 +27989,7 @@
       <c r="AJ313" s="188"/>
       <c r="AK313" s="188"/>
     </row>
-    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="54" t="s">
         <v>573</v>
       </c>
@@ -28076,7 +28076,7 @@
       <c r="AJ314" s="188"/>
       <c r="AK314" s="188"/>
     </row>
-    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="54" t="s">
         <v>573</v>
       </c>
@@ -28163,7 +28163,7 @@
       <c r="AJ315" s="188"/>
       <c r="AK315" s="188"/>
     </row>
-    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="54" t="s">
         <v>573</v>
       </c>
@@ -28250,7 +28250,7 @@
       <c r="AJ316" s="188"/>
       <c r="AK316" s="188"/>
     </row>
-    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="54" t="s">
         <v>573</v>
       </c>
@@ -28337,7 +28337,7 @@
       <c r="AJ317" s="188"/>
       <c r="AK317" s="188"/>
     </row>
-    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="54" t="s">
         <v>573</v>
       </c>
@@ -28424,7 +28424,7 @@
       <c r="AJ318" s="188"/>
       <c r="AK318" s="188"/>
     </row>
-    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="54" t="s">
         <v>573</v>
       </c>
@@ -28511,7 +28511,7 @@
       <c r="AJ319" s="188"/>
       <c r="AK319" s="188"/>
     </row>
-    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="54" t="s">
         <v>588</v>
       </c>
@@ -28578,7 +28578,7 @@
       <c r="AJ320" s="188"/>
       <c r="AK320" s="188"/>
     </row>
-    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="207" t="s">
         <v>562</v>
       </c>
@@ -28672,7 +28672,7 @@
       <c r="AJ321" s="188"/>
       <c r="AK321" s="188"/>
     </row>
-    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="54" t="s">
         <v>588</v>
       </c>
@@ -28739,7 +28739,7 @@
       <c r="AJ322" s="188"/>
       <c r="AK322" s="188"/>
     </row>
-    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="207" t="s">
         <v>562</v>
       </c>
@@ -28832,20 +28832,20 @@
       <c r="AJ323" s="188"/>
       <c r="AK323" s="188"/>
     </row>
-    <row r="324" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A324" s="153" t="s">
         <v>567</v>
       </c>
-      <c r="B324" s="234" t="s">
+      <c r="B324" s="245" t="s">
         <v>560</v>
       </c>
-      <c r="C324" s="234"/>
+      <c r="C324" s="245"/>
       <c r="D324" s="131"/>
       <c r="E324" s="216"/>
       <c r="F324" s="170"/>
       <c r="G324" s="231">
         <f>SUBTOTAL(9,G7:G323)</f>
-        <v>747255.46</v>
+        <v>4576892.8803200014</v>
       </c>
       <c r="Q324" s="171"/>
       <c r="R324" s="131"/>
@@ -28867,7 +28867,7 @@
       <c r="AJ324" s="189"/>
       <c r="AK324" s="189"/>
     </row>
-    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="153" t="s">
         <v>567</v>
       </c>
@@ -28912,7 +28912,7 @@
       <c r="AJ325" s="190"/>
       <c r="AK325" s="190"/>
     </row>
-    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="153" t="s">
         <v>567</v>
       </c>
@@ -28957,7 +28957,7 @@
       <c r="AJ326" s="190"/>
       <c r="AK326" s="190"/>
     </row>
-    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="153" t="s">
         <v>567</v>
       </c>
@@ -29002,7 +29002,7 @@
       <c r="AJ327" s="190"/>
       <c r="AK327" s="190"/>
     </row>
-    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="153" t="s">
         <v>567</v>
       </c>
@@ -29088,7 +29088,7 @@
       <c r="AJ328" s="190"/>
       <c r="AK328" s="190"/>
     </row>
-    <row r="329" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A329" s="153" t="s">
         <v>567</v>
       </c>
@@ -29173,7 +29173,7 @@
       <c r="AJ329" s="189"/>
       <c r="AK329" s="189"/>
     </row>
-    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="153" t="s">
         <v>567</v>
       </c>
@@ -29218,7 +29218,7 @@
       <c r="AJ330" s="190"/>
       <c r="AK330" s="190"/>
     </row>
-    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="153" t="s">
         <v>567</v>
       </c>
@@ -29263,7 +29263,7 @@
       <c r="AJ331" s="190"/>
       <c r="AK331" s="190"/>
     </row>
-    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="153" t="s">
         <v>567</v>
       </c>
@@ -29349,7 +29349,7 @@
       <c r="AJ332" s="190"/>
       <c r="AK332" s="190"/>
     </row>
-    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="153" t="s">
         <v>567</v>
       </c>
@@ -29394,7 +29394,7 @@
       <c r="AJ333" s="190"/>
       <c r="AK333" s="190"/>
     </row>
-    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="153" t="s">
         <v>567</v>
       </c>
@@ -29439,7 +29439,7 @@
       <c r="AJ334" s="190"/>
       <c r="AK334" s="190"/>
     </row>
-    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="153" t="s">
         <v>567</v>
       </c>
@@ -29525,7 +29525,7 @@
       <c r="AJ335" s="190"/>
       <c r="AK335" s="190"/>
     </row>
-    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="153" t="s">
         <v>567</v>
       </c>
@@ -29611,7 +29611,7 @@
       <c r="AJ336" s="190"/>
       <c r="AK336" s="190"/>
     </row>
-    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="153" t="s">
         <v>567</v>
       </c>
@@ -29656,7 +29656,7 @@
       <c r="AJ337" s="190"/>
       <c r="AK337" s="190"/>
     </row>
-    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="153" t="s">
         <v>567</v>
       </c>
@@ -29742,7 +29742,7 @@
       <c r="AJ338" s="190"/>
       <c r="AK338" s="190"/>
     </row>
-    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="153" t="s">
         <v>567</v>
       </c>
@@ -29828,7 +29828,7 @@
       <c r="AJ339" s="190"/>
       <c r="AK339" s="190"/>
     </row>
-    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="153" t="s">
         <v>567</v>
       </c>
@@ -30045,7 +30045,7 @@
       <c r="AJ342" s="190"/>
       <c r="AK342" s="190"/>
     </row>
-    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="153" t="s">
         <v>567</v>
       </c>
@@ -30131,7 +30131,7 @@
       <c r="AJ343" s="190"/>
       <c r="AK343" s="190"/>
     </row>
-    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="153" t="s">
         <v>567</v>
       </c>
@@ -30176,7 +30176,7 @@
       <c r="AJ344" s="190"/>
       <c r="AK344" s="190"/>
     </row>
-    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="153" t="s">
         <v>567</v>
       </c>
@@ -30262,7 +30262,7 @@
       <c r="AJ345" s="190"/>
       <c r="AK345" s="190"/>
     </row>
-    <row r="346" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A346" s="153" t="s">
         <v>567</v>
       </c>
@@ -30347,7 +30347,7 @@
       <c r="AJ346" s="189"/>
       <c r="AK346" s="189"/>
     </row>
-    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="153" t="s">
         <v>567</v>
       </c>
@@ -30433,7 +30433,7 @@
       <c r="AJ347" s="190"/>
       <c r="AK347" s="190"/>
     </row>
-    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="153" t="s">
         <v>567</v>
       </c>
@@ -30478,7 +30478,7 @@
       <c r="AJ348" s="190"/>
       <c r="AK348" s="190"/>
     </row>
-    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="153" t="s">
         <v>567</v>
       </c>
@@ -30523,7 +30523,7 @@
       <c r="AJ349" s="190"/>
       <c r="AK349" s="190"/>
     </row>
-    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="153" t="s">
         <v>567</v>
       </c>
@@ -30609,7 +30609,7 @@
       <c r="AJ350" s="190"/>
       <c r="AK350" s="190"/>
     </row>
-    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="153" t="s">
         <v>567</v>
       </c>
@@ -30654,7 +30654,7 @@
       <c r="AJ351" s="190"/>
       <c r="AK351" s="190"/>
     </row>
-    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="153" t="s">
         <v>567</v>
       </c>
@@ -30740,7 +30740,7 @@
       <c r="AJ352" s="190"/>
       <c r="AK352" s="190"/>
     </row>
-    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="153" t="s">
         <v>567</v>
       </c>
@@ -30826,29 +30826,29 @@
       <c r="AJ353" s="190"/>
       <c r="AK353" s="190"/>
     </row>
-    <row r="354" spans="1:38" ht="21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A354" s="120" t="s">
         <v>572</v>
       </c>
       <c r="G354" s="121">
         <f>SUBTOTAL(9,G325:P353)</f>
-        <v>161720</v>
+        <v>538745.4</v>
       </c>
       <c r="X354" s="152">
         <f>SUBTOTAL(9,X5:X353)</f>
-        <v>161720</v>
+        <v>1206612.54</v>
       </c>
       <c r="Y354" s="152"/>
       <c r="Z354" s="152"/>
       <c r="AA354" s="152">
         <f>SUBTOTAL(9,AA5:AA353)</f>
-        <v>0</v>
+        <v>141511.07999999999</v>
       </c>
       <c r="AB354" s="152"/>
       <c r="AC354" s="152"/>
       <c r="AD354" s="152">
         <f>SUBTOTAL(9,AD5:AD353)</f>
-        <v>0</v>
+        <v>537533.5</v>
       </c>
       <c r="AE354" s="152">
         <f>SUM(AE6:AE353)</f>
@@ -30858,65 +30858,48 @@
       <c r="AG354" s="152"/>
       <c r="AH354" s="152">
         <f t="shared" ref="AH354:AK354" si="179">SUBTOTAL(9,AH5:AH353)</f>
-        <v>0</v>
+        <v>233010.11000000002</v>
       </c>
       <c r="AI354" s="152"/>
       <c r="AJ354" s="152"/>
       <c r="AK354" s="152">
         <f t="shared" si="179"/>
-        <v>7280</v>
+        <v>106180</v>
       </c>
       <c r="AL354" s="193">
         <f>(AK354+AH354)</f>
-        <v>7280</v>
-      </c>
-    </row>
-    <row r="355" spans="1:38" ht="21" hidden="1" x14ac:dyDescent="0.4">
+        <v>339190.11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A355" s="120" t="s">
         <v>572</v>
       </c>
       <c r="G355" s="233">
         <f>G324-G354</f>
-        <v>585535.46</v>
+        <v>4038147.4803200015</v>
       </c>
       <c r="AL355" s="193">
         <f>AE354-AA354</f>
-        <v>-197679.03</v>
-      </c>
-    </row>
-    <row r="356" spans="1:38" ht="21" hidden="1" x14ac:dyDescent="0.4">
+        <v>-339190.11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A356" s="120" t="s">
         <v>572</v>
       </c>
       <c r="G356" s="121">
         <f>SUM(G6:G353)</f>
-        <v>5862893.7403200017</v>
+        <v>9692531.1606400013</v>
       </c>
       <c r="AL356" s="194">
         <f>SUM(AL354:AL355)</f>
-        <v>-190399.03</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="MICRÓFONO CONDENSADOR CON FLEXO CON BASE DE SOBREMESA Y SWITCH DE ENCENDIDO"/>
-        <filter val="SWITCH BORDE 24 PUERTOS POE+"/>
-        <filter val="SWITCH BORDE 48 PUERTOS"/>
-        <filter val="SWITCH CORE 24 PUERTOS DE FIBRA 10GBPS"/>
-        <filter val="SWITCH TIPO BORDE 48 PUERTOS POE+"/>
-        <filter val="SWITCH TIPO CORE 24 PUERTOS DE FIBRA 10GBPS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}"/>
   <mergeCells count="17">
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="B324:C324"/>
     <mergeCell ref="Q2:S3"/>
     <mergeCell ref="H3:J3"/>
@@ -30928,6 +30911,12 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D325:F326">
@@ -30985,7 +30974,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="33" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="18" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
+++ b/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
@@ -5,33 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6639DFA8-84B5-44DB-8BF7-FCE08F708F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4C8B41-4E57-4683-8B24-95BF813EF508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="339" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="339" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$5:$AL$356</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$AK$354</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$AK$352</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1839,7 +1830,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -2985,6 +2976,36 @@
     <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3017,36 +3038,6 @@
     </xf>
     <xf numFmtId="4" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3421,52 +3412,52 @@
   </sheetPr>
   <dimension ref="A1:AL356"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A208" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F267" sqref="F267"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A173" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203:C203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="120" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="120" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.44140625" style="120" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="120" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="205" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="121" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="121" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.42578125" style="120" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="205" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="121" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="120" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" style="34" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="34" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="120" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" style="120" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" style="120" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" style="120" customWidth="1"/>
-    <col min="26" max="27" width="14.33203125" style="122" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" style="120" customWidth="1"/>
-    <col min="29" max="30" width="14.33203125" style="122" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="120" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="120" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="120" customWidth="1"/>
+    <col min="26" max="27" width="14.28515625" style="122" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="120" customWidth="1"/>
+    <col min="29" max="30" width="14.28515625" style="122" customWidth="1"/>
     <col min="31" max="31" width="15" style="122" customWidth="1"/>
     <col min="32" max="32" width="11" style="120" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" style="120" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.7109375" style="120" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" style="120" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10" style="122" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" style="122" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.6640625" style="120" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="11.44140625" style="120"/>
+    <col min="37" max="37" width="15.7109375" style="122" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="11.42578125" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="52" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="52" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="54"/>
@@ -3492,23 +3483,23 @@
       <c r="AJ1" s="84"/>
       <c r="AK1" s="84"/>
     </row>
-    <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="251" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="252" t="s">
+    <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="253" t="s">
+      <c r="E2" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="254" t="s">
+      <c r="F2" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="254" t="s">
+      <c r="G2" s="243" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="7"/>
@@ -3522,93 +3513,93 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="246" t="s">
+      <c r="Q2" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
+      <c r="R2" s="235"/>
+      <c r="S2" s="235"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="234" t="s">
+      <c r="V2" s="244" t="s">
         <v>569</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="242" t="s">
+      <c r="W2" s="244"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="252" t="s">
         <v>561</v>
       </c>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="242"/>
-      <c r="AB2" s="240" t="s">
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="252"/>
+      <c r="AB2" s="250" t="s">
         <v>555</v>
       </c>
-      <c r="AC2" s="241"/>
-      <c r="AD2" s="241"/>
-      <c r="AE2" s="243" t="s">
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="253" t="s">
         <v>570</v>
       </c>
-      <c r="AF2" s="236" t="s">
+      <c r="AF2" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="AG2" s="236"/>
-      <c r="AH2" s="237"/>
-      <c r="AI2" s="238" t="s">
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="248" t="s">
         <v>566</v>
       </c>
-      <c r="AJ2" s="238"/>
-      <c r="AK2" s="239"/>
-    </row>
-    <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="247" t="s">
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="249"/>
+    </row>
+    <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="248"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="250" t="s">
+      <c r="I3" s="237"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250" t="s">
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="250"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="246"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="246"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
       <c r="T3" s="2"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="235"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="241"/>
-      <c r="AD3" s="241"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="236"/>
-      <c r="AH3" s="237"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="239"/>
-    </row>
-    <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="245"/>
+      <c r="Y3" s="252"/>
+      <c r="Z3" s="252"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="250"/>
+      <c r="AC3" s="251"/>
+      <c r="AD3" s="251"/>
+      <c r="AE3" s="254"/>
+      <c r="AF3" s="246"/>
+      <c r="AG3" s="246"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="248"/>
+      <c r="AJ3" s="248"/>
+      <c r="AK3" s="249"/>
+    </row>
+    <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
       <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="198"/>
@@ -3734,7 +3725,7 @@
       <c r="AJ5" s="104"/>
       <c r="AK5" s="104"/>
     </row>
-    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>588</v>
       </c>
@@ -3785,7 +3776,7 @@
       <c r="AJ6" s="187"/>
       <c r="AK6" s="187"/>
     </row>
-    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>588</v>
       </c>
@@ -3836,7 +3827,7 @@
       <c r="AJ7" s="187"/>
       <c r="AK7" s="187"/>
     </row>
-    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>555</v>
       </c>
@@ -3933,7 +3924,7 @@
       <c r="AJ8" s="187"/>
       <c r="AK8" s="187"/>
     </row>
-    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>555</v>
       </c>
@@ -4030,7 +4021,7 @@
       <c r="AJ9" s="187"/>
       <c r="AK9" s="187"/>
     </row>
-    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
         <v>555</v>
       </c>
@@ -4044,14 +4035,14 @@
         <v>17</v>
       </c>
       <c r="E10" s="203">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F10" s="67">
         <v>753.49</v>
       </c>
       <c r="G10" s="221">
         <f t="shared" si="2"/>
-        <v>17330.27</v>
+        <v>12055.84</v>
       </c>
       <c r="H10" s="16">
         <v>0</v>
@@ -4085,11 +4076,11 @@
       </c>
       <c r="Q10" s="83">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="R10" s="81">
         <f t="shared" si="0"/>
-        <v>17330.27</v>
+        <v>12055.84</v>
       </c>
       <c r="S10" s="82">
         <f t="shared" si="9"/>
@@ -4118,7 +4109,7 @@
       </c>
       <c r="AE10" s="182">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5274.43</v>
       </c>
       <c r="AF10" s="97"/>
       <c r="AG10" s="97"/>
@@ -4127,7 +4118,7 @@
       <c r="AJ10" s="187"/>
       <c r="AK10" s="187"/>
     </row>
-    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
         <v>555</v>
       </c>
@@ -4141,14 +4132,14 @@
         <v>17</v>
       </c>
       <c r="E11" s="203">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F11" s="67">
         <v>295.41000000000003</v>
       </c>
       <c r="G11" s="221">
         <f t="shared" si="2"/>
-        <v>2658.69</v>
+        <v>9748.5300000000007</v>
       </c>
       <c r="H11" s="16">
         <v>0</v>
@@ -4182,11 +4173,11 @@
       </c>
       <c r="Q11" s="83">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="R11" s="81">
         <f t="shared" si="0"/>
-        <v>2658.69</v>
+        <v>9748.5300000000007</v>
       </c>
       <c r="S11" s="82">
         <f t="shared" si="9"/>
@@ -4215,7 +4206,7 @@
       </c>
       <c r="AE11" s="182">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-7089.84</v>
       </c>
       <c r="AF11" s="97"/>
       <c r="AG11" s="97"/>
@@ -4224,7 +4215,7 @@
       <c r="AJ11" s="187"/>
       <c r="AK11" s="187"/>
     </row>
-    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>562</v>
       </c>
@@ -4328,7 +4319,7 @@
       <c r="AJ12" s="187"/>
       <c r="AK12" s="187"/>
     </row>
-    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>588</v>
       </c>
@@ -4379,7 +4370,7 @@
       <c r="AJ13" s="187"/>
       <c r="AK13" s="187"/>
     </row>
-    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>588</v>
       </c>
@@ -4430,7 +4421,7 @@
       <c r="AJ14" s="187"/>
       <c r="AK14" s="187"/>
     </row>
-    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
         <v>567</v>
       </c>
@@ -4526,7 +4517,7 @@
       <c r="AJ15" s="187"/>
       <c r="AK15" s="187"/>
     </row>
-    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>567</v>
       </c>
@@ -4622,7 +4613,7 @@
       <c r="AJ16" s="187"/>
       <c r="AK16" s="187"/>
     </row>
-    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>588</v>
       </c>
@@ -4673,7 +4664,7 @@
       <c r="AJ17" s="187"/>
       <c r="AK17" s="187"/>
     </row>
-    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
         <v>573</v>
       </c>
@@ -4760,7 +4751,7 @@
       <c r="AJ18" s="187"/>
       <c r="AK18" s="187"/>
     </row>
-    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>573</v>
       </c>
@@ -4847,7 +4838,7 @@
       <c r="AJ19" s="187"/>
       <c r="AK19" s="187"/>
     </row>
-    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
         <v>573</v>
       </c>
@@ -4934,7 +4925,7 @@
       <c r="AJ20" s="187"/>
       <c r="AK20" s="187"/>
     </row>
-    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>573</v>
       </c>
@@ -5021,7 +5012,7 @@
       <c r="AJ21" s="187"/>
       <c r="AK21" s="187"/>
     </row>
-    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>573</v>
       </c>
@@ -5108,7 +5099,7 @@
       <c r="AJ22" s="187"/>
       <c r="AK22" s="187"/>
     </row>
-    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>573</v>
       </c>
@@ -5195,7 +5186,7 @@
       <c r="AJ23" s="187"/>
       <c r="AK23" s="187"/>
     </row>
-    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
         <v>588</v>
       </c>
@@ -5246,7 +5237,7 @@
       <c r="AJ24" s="187"/>
       <c r="AK24" s="187"/>
     </row>
-    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>573</v>
       </c>
@@ -5333,7 +5324,7 @@
       <c r="AJ25" s="187"/>
       <c r="AK25" s="187"/>
     </row>
-    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>573</v>
       </c>
@@ -5420,7 +5411,7 @@
       <c r="AJ26" s="187"/>
       <c r="AK26" s="187"/>
     </row>
-    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="64" t="s">
         <v>588</v>
       </c>
@@ -5471,7 +5462,7 @@
       <c r="AJ27" s="187"/>
       <c r="AK27" s="187"/>
     </row>
-    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>573</v>
       </c>
@@ -5558,7 +5549,7 @@
       <c r="AJ28" s="187"/>
       <c r="AK28" s="187"/>
     </row>
-    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>573</v>
       </c>
@@ -5645,7 +5636,7 @@
       <c r="AJ29" s="187"/>
       <c r="AK29" s="187"/>
     </row>
-    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>573</v>
       </c>
@@ -5732,7 +5723,7 @@
       <c r="AJ30" s="187"/>
       <c r="AK30" s="187"/>
     </row>
-    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
         <v>588</v>
       </c>
@@ -5783,7 +5774,7 @@
       <c r="AJ31" s="187"/>
       <c r="AK31" s="187"/>
     </row>
-    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>573</v>
       </c>
@@ -5870,7 +5861,7 @@
       <c r="AJ32" s="187"/>
       <c r="AK32" s="187"/>
     </row>
-    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
         <v>588</v>
       </c>
@@ -5921,7 +5912,7 @@
       <c r="AJ33" s="187"/>
       <c r="AK33" s="187"/>
     </row>
-    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="64" t="s">
         <v>573</v>
       </c>
@@ -6008,7 +5999,7 @@
       <c r="AJ34" s="187"/>
       <c r="AK34" s="187"/>
     </row>
-    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="64" t="s">
         <v>573</v>
       </c>
@@ -6095,7 +6086,7 @@
       <c r="AJ35" s="187"/>
       <c r="AK35" s="187"/>
     </row>
-    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
         <v>573</v>
       </c>
@@ -6182,7 +6173,7 @@
       <c r="AJ36" s="187"/>
       <c r="AK36" s="187"/>
     </row>
-    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="64" t="s">
         <v>573</v>
       </c>
@@ -6269,7 +6260,7 @@
       <c r="AJ37" s="187"/>
       <c r="AK37" s="187"/>
     </row>
-    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="64" t="s">
         <v>588</v>
       </c>
@@ -6320,7 +6311,7 @@
       <c r="AJ38" s="187"/>
       <c r="AK38" s="187"/>
     </row>
-    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
         <v>555</v>
       </c>
@@ -6407,7 +6398,7 @@
       <c r="AJ39" s="187"/>
       <c r="AK39" s="187"/>
     </row>
-    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
         <v>573</v>
       </c>
@@ -6497,7 +6488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="64" t="s">
         <v>574</v>
       </c>
@@ -6587,7 +6578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>564</v>
       </c>
@@ -6681,7 +6672,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
         <v>564</v>
       </c>
@@ -6775,7 +6766,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>573</v>
       </c>
@@ -6862,7 +6853,7 @@
       <c r="AJ44" s="104"/>
       <c r="AK44" s="104"/>
     </row>
-    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="64" t="s">
         <v>564</v>
       </c>
@@ -6959,7 +6950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="64" t="s">
         <v>562</v>
       </c>
@@ -7053,7 +7044,7 @@
       <c r="AJ46" s="187"/>
       <c r="AK46" s="187"/>
     </row>
-    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="64" t="s">
         <v>562</v>
       </c>
@@ -7147,7 +7138,7 @@
       <c r="AJ47" s="187"/>
       <c r="AK47" s="187"/>
     </row>
-    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
         <v>563</v>
       </c>
@@ -7203,7 +7194,7 @@
       <c r="AJ48" s="187"/>
       <c r="AK48" s="187"/>
     </row>
-    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
         <v>563</v>
       </c>
@@ -7261,7 +7252,7 @@
       <c r="AJ49" s="187"/>
       <c r="AK49" s="187"/>
     </row>
-    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
         <v>563</v>
       </c>
@@ -7318,7 +7309,7 @@
       <c r="AJ50" s="187"/>
       <c r="AK50" s="187"/>
     </row>
-    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
         <v>588</v>
       </c>
@@ -7359,7 +7350,7 @@
       <c r="AJ51" s="187"/>
       <c r="AK51" s="187"/>
     </row>
-    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
         <v>588</v>
       </c>
@@ -7410,7 +7401,7 @@
       <c r="AJ52" s="187"/>
       <c r="AK52" s="187"/>
     </row>
-    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
         <v>562</v>
       </c>
@@ -7504,7 +7495,7 @@
       <c r="AJ53" s="187"/>
       <c r="AK53" s="187"/>
     </row>
-    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="64" t="s">
         <v>588</v>
       </c>
@@ -7555,7 +7546,7 @@
       <c r="AJ54" s="187"/>
       <c r="AK54" s="187"/>
     </row>
-    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
         <v>588</v>
       </c>
@@ -7606,7 +7597,7 @@
       <c r="AJ55" s="187"/>
       <c r="AK55" s="187"/>
     </row>
-    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
         <v>567</v>
       </c>
@@ -7702,7 +7693,7 @@
       <c r="AJ56" s="187"/>
       <c r="AK56" s="187"/>
     </row>
-    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="64" t="s">
         <v>588</v>
       </c>
@@ -7753,7 +7744,7 @@
       <c r="AJ57" s="187"/>
       <c r="AK57" s="187"/>
     </row>
-    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>573</v>
       </c>
@@ -7840,7 +7831,7 @@
       <c r="AJ58" s="187"/>
       <c r="AK58" s="187"/>
     </row>
-    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>573</v>
       </c>
@@ -7927,7 +7918,7 @@
       <c r="AJ59" s="187"/>
       <c r="AK59" s="187"/>
     </row>
-    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
         <v>573</v>
       </c>
@@ -8014,7 +8005,7 @@
       <c r="AJ60" s="187"/>
       <c r="AK60" s="187"/>
     </row>
-    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>573</v>
       </c>
@@ -8101,7 +8092,7 @@
       <c r="AJ61" s="187"/>
       <c r="AK61" s="187"/>
     </row>
-    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>573</v>
       </c>
@@ -8188,7 +8179,7 @@
       <c r="AJ62" s="187"/>
       <c r="AK62" s="187"/>
     </row>
-    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>573</v>
       </c>
@@ -8275,7 +8266,7 @@
       <c r="AJ63" s="187"/>
       <c r="AK63" s="187"/>
     </row>
-    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="64" t="s">
         <v>588</v>
       </c>
@@ -8326,7 +8317,7 @@
       <c r="AJ64" s="187"/>
       <c r="AK64" s="187"/>
     </row>
-    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>573</v>
       </c>
@@ -8413,7 +8404,7 @@
       <c r="AJ65" s="187"/>
       <c r="AK65" s="187"/>
     </row>
-    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>573</v>
       </c>
@@ -8500,7 +8491,7 @@
       <c r="AJ66" s="187"/>
       <c r="AK66" s="187"/>
     </row>
-    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
         <v>588</v>
       </c>
@@ -8551,7 +8542,7 @@
       <c r="AJ67" s="187"/>
       <c r="AK67" s="187"/>
     </row>
-    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>573</v>
       </c>
@@ -8638,7 +8629,7 @@
       <c r="AJ68" s="187"/>
       <c r="AK68" s="187"/>
     </row>
-    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>573</v>
       </c>
@@ -8725,7 +8716,7 @@
       <c r="AJ69" s="187"/>
       <c r="AK69" s="187"/>
     </row>
-    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>573</v>
       </c>
@@ -8812,7 +8803,7 @@
       <c r="AJ70" s="187"/>
       <c r="AK70" s="187"/>
     </row>
-    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>573</v>
       </c>
@@ -8899,7 +8890,7 @@
       <c r="AJ71" s="187"/>
       <c r="AK71" s="187"/>
     </row>
-    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
         <v>588</v>
       </c>
@@ -8950,7 +8941,7 @@
       <c r="AJ72" s="187"/>
       <c r="AK72" s="187"/>
     </row>
-    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
         <v>573</v>
       </c>
@@ -9037,7 +9028,7 @@
       <c r="AJ73" s="187"/>
       <c r="AK73" s="187"/>
     </row>
-    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="s">
         <v>588</v>
       </c>
@@ -9088,7 +9079,7 @@
       <c r="AJ74" s="187"/>
       <c r="AK74" s="187"/>
     </row>
-    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="s">
         <v>573</v>
       </c>
@@ -9175,7 +9166,7 @@
       <c r="AJ75" s="187"/>
       <c r="AK75" s="187"/>
     </row>
-    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="64" t="s">
         <v>573</v>
       </c>
@@ -9262,7 +9253,7 @@
       <c r="AJ76" s="187"/>
       <c r="AK76" s="187"/>
     </row>
-    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="64" t="s">
         <v>573</v>
       </c>
@@ -9349,7 +9340,7 @@
       <c r="AJ77" s="187"/>
       <c r="AK77" s="187"/>
     </row>
-    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="s">
         <v>573</v>
       </c>
@@ -9436,7 +9427,7 @@
       <c r="AJ78" s="187"/>
       <c r="AK78" s="187"/>
     </row>
-    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="64" t="s">
         <v>573</v>
       </c>
@@ -9523,7 +9514,7 @@
       <c r="AJ79" s="187"/>
       <c r="AK79" s="187"/>
     </row>
-    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="s">
         <v>588</v>
       </c>
@@ -9574,7 +9565,7 @@
       <c r="AJ80" s="187"/>
       <c r="AK80" s="187"/>
     </row>
-    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>573</v>
       </c>
@@ -9661,7 +9652,7 @@
       <c r="AJ81" s="187"/>
       <c r="AK81" s="187"/>
     </row>
-    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="64" t="s">
         <v>588</v>
       </c>
@@ -9712,7 +9703,7 @@
       <c r="AJ82" s="187"/>
       <c r="AK82" s="187"/>
     </row>
-    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="s">
         <v>573</v>
       </c>
@@ -9799,7 +9790,7 @@
       <c r="AJ83" s="187"/>
       <c r="AK83" s="187"/>
     </row>
-    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
         <v>588</v>
       </c>
@@ -9850,7 +9841,7 @@
       <c r="AJ84" s="187"/>
       <c r="AK84" s="187"/>
     </row>
-    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="64" t="s">
         <v>588</v>
       </c>
@@ -9901,7 +9892,7 @@
       <c r="AJ85" s="187"/>
       <c r="AK85" s="187"/>
     </row>
-    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
         <v>567</v>
       </c>
@@ -9996,7 +9987,7 @@
       <c r="AJ86" s="187"/>
       <c r="AK86" s="187"/>
     </row>
-    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="s">
         <v>567</v>
       </c>
@@ -10091,7 +10082,7 @@
       <c r="AJ87" s="187"/>
       <c r="AK87" s="187"/>
     </row>
-    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="s">
         <v>588</v>
       </c>
@@ -10142,7 +10133,7 @@
       <c r="AJ88" s="187"/>
       <c r="AK88" s="187"/>
     </row>
-    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="64" t="s">
         <v>573</v>
       </c>
@@ -10229,7 +10220,7 @@
       <c r="AJ89" s="187"/>
       <c r="AK89" s="187"/>
     </row>
-    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="64" t="s">
         <v>573</v>
       </c>
@@ -10316,7 +10307,7 @@
       <c r="AJ90" s="187"/>
       <c r="AK90" s="187"/>
     </row>
-    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="s">
         <v>573</v>
       </c>
@@ -10403,7 +10394,7 @@
       <c r="AJ91" s="187"/>
       <c r="AK91" s="187"/>
     </row>
-    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="s">
         <v>573</v>
       </c>
@@ -10490,7 +10481,7 @@
       <c r="AJ92" s="187"/>
       <c r="AK92" s="187"/>
     </row>
-    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="s">
         <v>573</v>
       </c>
@@ -10577,7 +10568,7 @@
       <c r="AJ93" s="187"/>
       <c r="AK93" s="187"/>
     </row>
-    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>573</v>
       </c>
@@ -10664,7 +10655,7 @@
       <c r="AJ94" s="187"/>
       <c r="AK94" s="187"/>
     </row>
-    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>573</v>
       </c>
@@ -10751,7 +10742,7 @@
       <c r="AJ95" s="187"/>
       <c r="AK95" s="187"/>
     </row>
-    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>573</v>
       </c>
@@ -10838,7 +10829,7 @@
       <c r="AJ96" s="187"/>
       <c r="AK96" s="187"/>
     </row>
-    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="64" t="s">
         <v>588</v>
       </c>
@@ -10889,7 +10880,7 @@
       <c r="AJ97" s="187"/>
       <c r="AK97" s="187"/>
     </row>
-    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>573</v>
       </c>
@@ -10976,7 +10967,7 @@
       <c r="AJ98" s="187"/>
       <c r="AK98" s="187"/>
     </row>
-    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>573</v>
       </c>
@@ -11063,7 +11054,7 @@
       <c r="AJ99" s="187"/>
       <c r="AK99" s="187"/>
     </row>
-    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>573</v>
       </c>
@@ -11150,7 +11141,7 @@
       <c r="AJ100" s="187"/>
       <c r="AK100" s="187"/>
     </row>
-    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="64" t="s">
         <v>588</v>
       </c>
@@ -11201,7 +11192,7 @@
       <c r="AJ101" s="187"/>
       <c r="AK101" s="187"/>
     </row>
-    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>573</v>
       </c>
@@ -11291,7 +11282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>573</v>
       </c>
@@ -11378,7 +11369,7 @@
       <c r="AJ103" s="187"/>
       <c r="AK103" s="187"/>
     </row>
-    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>573</v>
       </c>
@@ -11468,7 +11459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>573</v>
       </c>
@@ -11555,7 +11546,7 @@
       <c r="AJ105" s="187"/>
       <c r="AK105" s="187"/>
     </row>
-    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>573</v>
       </c>
@@ -11642,7 +11633,7 @@
       <c r="AJ106" s="187"/>
       <c r="AK106" s="187"/>
     </row>
-    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="64" t="s">
         <v>588</v>
       </c>
@@ -11693,7 +11684,7 @@
       <c r="AJ107" s="187"/>
       <c r="AK107" s="187"/>
     </row>
-    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="64" t="s">
         <v>588</v>
       </c>
@@ -11744,7 +11735,7 @@
       <c r="AJ108" s="187"/>
       <c r="AK108" s="187"/>
     </row>
-    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="64" t="s">
         <v>573</v>
       </c>
@@ -11831,7 +11822,7 @@
       <c r="AJ109" s="187"/>
       <c r="AK109" s="187"/>
     </row>
-    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="64" t="s">
         <v>588</v>
       </c>
@@ -11882,7 +11873,7 @@
       <c r="AJ110" s="187"/>
       <c r="AK110" s="187"/>
     </row>
-    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="64" t="s">
         <v>573</v>
       </c>
@@ -11969,7 +11960,7 @@
       <c r="AJ111" s="187"/>
       <c r="AK111" s="187"/>
     </row>
-    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="64" t="s">
         <v>588</v>
       </c>
@@ -12020,7 +12011,7 @@
       <c r="AJ112" s="187"/>
       <c r="AK112" s="187"/>
     </row>
-    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="64" t="s">
         <v>573</v>
       </c>
@@ -12107,7 +12098,7 @@
       <c r="AJ113" s="187"/>
       <c r="AK113" s="187"/>
     </row>
-    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="64" t="s">
         <v>573</v>
       </c>
@@ -12194,7 +12185,7 @@
       <c r="AJ114" s="187"/>
       <c r="AK114" s="187"/>
     </row>
-    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="64" t="s">
         <v>573</v>
       </c>
@@ -12281,7 +12272,7 @@
       <c r="AJ115" s="187"/>
       <c r="AK115" s="187"/>
     </row>
-    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="64" t="s">
         <v>573</v>
       </c>
@@ -12368,7 +12359,7 @@
       <c r="AJ116" s="187"/>
       <c r="AK116" s="187"/>
     </row>
-    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="64" t="s">
         <v>573</v>
       </c>
@@ -12455,7 +12446,7 @@
       <c r="AJ117" s="187"/>
       <c r="AK117" s="187"/>
     </row>
-    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="64" t="s">
         <v>573</v>
       </c>
@@ -12542,7 +12533,7 @@
       <c r="AJ118" s="187"/>
       <c r="AK118" s="187"/>
     </row>
-    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="64" t="s">
         <v>573</v>
       </c>
@@ -12629,7 +12620,7 @@
       <c r="AJ119" s="187"/>
       <c r="AK119" s="187"/>
     </row>
-    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="64" t="s">
         <v>573</v>
       </c>
@@ -12716,7 +12707,7 @@
       <c r="AJ120" s="187"/>
       <c r="AK120" s="187"/>
     </row>
-    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="64" t="s">
         <v>588</v>
       </c>
@@ -12767,7 +12758,7 @@
       <c r="AJ121" s="187"/>
       <c r="AK121" s="187"/>
     </row>
-    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="64" t="s">
         <v>562</v>
       </c>
@@ -12861,7 +12852,7 @@
       <c r="AJ122" s="187"/>
       <c r="AK122" s="187"/>
     </row>
-    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="64" t="s">
         <v>588</v>
       </c>
@@ -12912,7 +12903,7 @@
       <c r="AJ123" s="187"/>
       <c r="AK123" s="187"/>
     </row>
-    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="64" t="s">
         <v>567</v>
       </c>
@@ -13008,7 +12999,7 @@
       <c r="AJ124" s="187"/>
       <c r="AK124" s="187"/>
     </row>
-    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="64" t="s">
         <v>567</v>
       </c>
@@ -13104,7 +13095,7 @@
       <c r="AJ125" s="187"/>
       <c r="AK125" s="187"/>
     </row>
-    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="64" t="s">
         <v>588</v>
       </c>
@@ -13155,7 +13146,7 @@
       <c r="AJ126" s="187"/>
       <c r="AK126" s="187"/>
     </row>
-    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="64" t="s">
         <v>573</v>
       </c>
@@ -13242,7 +13233,7 @@
       <c r="AJ127" s="187"/>
       <c r="AK127" s="187"/>
     </row>
-    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="64" t="s">
         <v>567</v>
       </c>
@@ -13337,7 +13328,7 @@
       <c r="AJ128" s="187"/>
       <c r="AK128" s="187"/>
     </row>
-    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="64" t="s">
         <v>567</v>
       </c>
@@ -13432,7 +13423,7 @@
       <c r="AJ129" s="187"/>
       <c r="AK129" s="187"/>
     </row>
-    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="64" t="s">
         <v>567</v>
       </c>
@@ -13527,7 +13518,7 @@
       <c r="AJ130" s="187"/>
       <c r="AK130" s="187"/>
     </row>
-    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="64" t="s">
         <v>573</v>
       </c>
@@ -13614,7 +13605,7 @@
       <c r="AJ131" s="187"/>
       <c r="AK131" s="187"/>
     </row>
-    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="64" t="s">
         <v>555</v>
       </c>
@@ -13701,7 +13692,7 @@
       <c r="AJ132" s="187"/>
       <c r="AK132" s="187"/>
     </row>
-    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="64" t="s">
         <v>562</v>
       </c>
@@ -13795,7 +13786,7 @@
       <c r="AJ133" s="187"/>
       <c r="AK133" s="187"/>
     </row>
-    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="64" t="s">
         <v>588</v>
       </c>
@@ -13846,7 +13837,7 @@
       <c r="AJ134" s="187"/>
       <c r="AK134" s="187"/>
     </row>
-    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="64" t="s">
         <v>588</v>
       </c>
@@ -13897,7 +13888,7 @@
       <c r="AJ135" s="187"/>
       <c r="AK135" s="187"/>
     </row>
-    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="64" t="s">
         <v>588</v>
       </c>
@@ -13948,7 +13939,7 @@
       <c r="AJ136" s="187"/>
       <c r="AK136" s="187"/>
     </row>
-    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="64" t="s">
         <v>588</v>
       </c>
@@ -13999,7 +13990,7 @@
       <c r="AJ137" s="187"/>
       <c r="AK137" s="187"/>
     </row>
-    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="64" t="s">
         <v>573</v>
       </c>
@@ -14089,7 +14080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="64" t="s">
         <v>573</v>
       </c>
@@ -14179,7 +14170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="64" t="s">
         <v>588</v>
       </c>
@@ -14230,7 +14221,7 @@
       <c r="AJ140" s="187"/>
       <c r="AK140" s="187"/>
     </row>
-    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="64" t="s">
         <v>573</v>
       </c>
@@ -14320,7 +14311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="64" t="s">
         <v>588</v>
       </c>
@@ -14371,7 +14362,7 @@
       <c r="AJ142" s="187"/>
       <c r="AK142" s="187"/>
     </row>
-    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="64" t="s">
         <v>567</v>
       </c>
@@ -14467,7 +14458,7 @@
       <c r="AJ143" s="187"/>
       <c r="AK143" s="187"/>
     </row>
-    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="64" t="s">
         <v>567</v>
       </c>
@@ -14563,7 +14554,7 @@
       <c r="AJ144" s="187"/>
       <c r="AK144" s="187"/>
     </row>
-    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="64" t="s">
         <v>567</v>
       </c>
@@ -14659,7 +14650,7 @@
       <c r="AJ145" s="187"/>
       <c r="AK145" s="187"/>
     </row>
-    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="64" t="s">
         <v>573</v>
       </c>
@@ -14746,7 +14737,7 @@
       <c r="AJ146" s="187"/>
       <c r="AK146" s="187"/>
     </row>
-    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="64" t="s">
         <v>573</v>
       </c>
@@ -14833,7 +14824,7 @@
       <c r="AJ147" s="187"/>
       <c r="AK147" s="187"/>
     </row>
-    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="64" t="s">
         <v>573</v>
       </c>
@@ -14920,7 +14911,7 @@
       <c r="AJ148" s="187"/>
       <c r="AK148" s="187"/>
     </row>
-    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="64" t="s">
         <v>588</v>
       </c>
@@ -14971,7 +14962,7 @@
       <c r="AJ149" s="187"/>
       <c r="AK149" s="187"/>
     </row>
-    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="64" t="s">
         <v>588</v>
       </c>
@@ -15022,7 +15013,7 @@
       <c r="AJ150" s="187"/>
       <c r="AK150" s="187"/>
     </row>
-    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="64" t="s">
         <v>573</v>
       </c>
@@ -15109,7 +15100,7 @@
       <c r="AJ151" s="187"/>
       <c r="AK151" s="187"/>
     </row>
-    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="64" t="s">
         <v>567</v>
       </c>
@@ -15205,7 +15196,7 @@
       <c r="AJ152" s="187"/>
       <c r="AK152" s="187"/>
     </row>
-    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="64" t="s">
         <v>588</v>
       </c>
@@ -15256,7 +15247,7 @@
       <c r="AJ153" s="187"/>
       <c r="AK153" s="187"/>
     </row>
-    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="64" t="s">
         <v>573</v>
       </c>
@@ -15343,7 +15334,7 @@
       <c r="AJ154" s="187"/>
       <c r="AK154" s="187"/>
     </row>
-    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
         <v>573</v>
       </c>
@@ -15430,7 +15421,7 @@
       <c r="AJ155" s="187"/>
       <c r="AK155" s="187"/>
     </row>
-    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="64" t="s">
         <v>573</v>
       </c>
@@ -15517,7 +15508,7 @@
       <c r="AJ156" s="187"/>
       <c r="AK156" s="187"/>
     </row>
-    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="64" t="s">
         <v>573</v>
       </c>
@@ -15604,7 +15595,7 @@
       <c r="AJ157" s="187"/>
       <c r="AK157" s="187"/>
     </row>
-    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="64" t="s">
         <v>573</v>
       </c>
@@ -15691,7 +15682,7 @@
       <c r="AJ158" s="187"/>
       <c r="AK158" s="187"/>
     </row>
-    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>573</v>
       </c>
@@ -15778,7 +15769,7 @@
       <c r="AJ159" s="187"/>
       <c r="AK159" s="187"/>
     </row>
-    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="64" t="s">
         <v>573</v>
       </c>
@@ -15865,7 +15856,7 @@
       <c r="AJ160" s="187"/>
       <c r="AK160" s="187"/>
     </row>
-    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>573</v>
       </c>
@@ -15952,7 +15943,7 @@
       <c r="AJ161" s="187"/>
       <c r="AK161" s="187"/>
     </row>
-    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="64" t="s">
         <v>573</v>
       </c>
@@ -16039,7 +16030,7 @@
       <c r="AJ162" s="187"/>
       <c r="AK162" s="187"/>
     </row>
-    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>573</v>
       </c>
@@ -16126,7 +16117,7 @@
       <c r="AJ163" s="187"/>
       <c r="AK163" s="187"/>
     </row>
-    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="64" t="s">
         <v>573</v>
       </c>
@@ -16213,7 +16204,7 @@
       <c r="AJ164" s="187"/>
       <c r="AK164" s="187"/>
     </row>
-    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="64" t="s">
         <v>588</v>
       </c>
@@ -16264,7 +16255,7 @@
       <c r="AJ165" s="187"/>
       <c r="AK165" s="187"/>
     </row>
-    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>573</v>
       </c>
@@ -16351,7 +16342,7 @@
       <c r="AJ166" s="187"/>
       <c r="AK166" s="187"/>
     </row>
-    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>573</v>
       </c>
@@ -16438,7 +16429,7 @@
       <c r="AJ167" s="187"/>
       <c r="AK167" s="187"/>
     </row>
-    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>573</v>
       </c>
@@ -16525,7 +16516,7 @@
       <c r="AJ168" s="187"/>
       <c r="AK168" s="187"/>
     </row>
-    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>573</v>
       </c>
@@ -16612,7 +16603,7 @@
       <c r="AJ169" s="187"/>
       <c r="AK169" s="187"/>
     </row>
-    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>573</v>
       </c>
@@ -16699,7 +16690,7 @@
       <c r="AJ170" s="187"/>
       <c r="AK170" s="187"/>
     </row>
-    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>573</v>
       </c>
@@ -16786,7 +16777,7 @@
       <c r="AJ171" s="187"/>
       <c r="AK171" s="187"/>
     </row>
-    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>573</v>
       </c>
@@ -16873,7 +16864,7 @@
       <c r="AJ172" s="187"/>
       <c r="AK172" s="187"/>
     </row>
-    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="64" t="s">
         <v>573</v>
       </c>
@@ -16960,7 +16951,7 @@
       <c r="AJ173" s="187"/>
       <c r="AK173" s="187"/>
     </row>
-    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="64" t="s">
         <v>588</v>
       </c>
@@ -17011,7 +17002,7 @@
       <c r="AJ174" s="187"/>
       <c r="AK174" s="187"/>
     </row>
-    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="64" t="s">
         <v>573</v>
       </c>
@@ -17098,7 +17089,7 @@
       <c r="AJ175" s="187"/>
       <c r="AK175" s="187"/>
     </row>
-    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="64" t="s">
         <v>573</v>
       </c>
@@ -17185,7 +17176,7 @@
       <c r="AJ176" s="187"/>
       <c r="AK176" s="187"/>
     </row>
-    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="64" t="s">
         <v>573</v>
       </c>
@@ -17272,7 +17263,7 @@
       <c r="AJ177" s="187"/>
       <c r="AK177" s="187"/>
     </row>
-    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="64" t="s">
         <v>588</v>
       </c>
@@ -17323,7 +17314,7 @@
       <c r="AJ178" s="187"/>
       <c r="AK178" s="187"/>
     </row>
-    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>573</v>
       </c>
@@ -17410,7 +17401,7 @@
       <c r="AJ179" s="187"/>
       <c r="AK179" s="187"/>
     </row>
-    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>573</v>
       </c>
@@ -17497,7 +17488,7 @@
       <c r="AJ180" s="187"/>
       <c r="AK180" s="187"/>
     </row>
-    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>573</v>
       </c>
@@ -17584,7 +17575,7 @@
       <c r="AJ181" s="187"/>
       <c r="AK181" s="187"/>
     </row>
-    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="64" t="s">
         <v>588</v>
       </c>
@@ -17635,7 +17626,7 @@
       <c r="AJ182" s="187"/>
       <c r="AK182" s="187"/>
     </row>
-    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>573</v>
       </c>
@@ -17722,7 +17713,7 @@
       <c r="AJ183" s="187"/>
       <c r="AK183" s="187"/>
     </row>
-    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>573</v>
       </c>
@@ -17809,7 +17800,7 @@
       <c r="AJ184" s="187"/>
       <c r="AK184" s="187"/>
     </row>
-    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="64" t="s">
         <v>573</v>
       </c>
@@ -17899,7 +17890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="64" t="s">
         <v>573</v>
       </c>
@@ -17989,7 +17980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="64" t="s">
         <v>588</v>
       </c>
@@ -18040,7 +18031,7 @@
       <c r="AJ187" s="187"/>
       <c r="AK187" s="187"/>
     </row>
-    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="64" t="s">
         <v>567</v>
       </c>
@@ -18136,7 +18127,7 @@
       <c r="AJ188" s="187"/>
       <c r="AK188" s="187"/>
     </row>
-    <row r="189" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="64" t="s">
         <v>567</v>
       </c>
@@ -18232,7 +18223,7 @@
       <c r="AJ189" s="187"/>
       <c r="AK189" s="187"/>
     </row>
-    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="64" t="s">
         <v>588</v>
       </c>
@@ -18283,7 +18274,7 @@
       <c r="AJ190" s="187"/>
       <c r="AK190" s="187"/>
     </row>
-    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="64" t="s">
         <v>573</v>
       </c>
@@ -18370,7 +18361,7 @@
       <c r="AJ191" s="187"/>
       <c r="AK191" s="187"/>
     </row>
-    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="64" t="s">
         <v>573</v>
       </c>
@@ -18457,7 +18448,7 @@
       <c r="AJ192" s="187"/>
       <c r="AK192" s="187"/>
     </row>
-    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="64" t="s">
         <v>573</v>
       </c>
@@ -18544,7 +18535,7 @@
       <c r="AJ193" s="187"/>
       <c r="AK193" s="187"/>
     </row>
-    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>573</v>
       </c>
@@ -18631,7 +18622,7 @@
       <c r="AJ194" s="187"/>
       <c r="AK194" s="187"/>
     </row>
-    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>573</v>
       </c>
@@ -18718,7 +18709,7 @@
       <c r="AJ195" s="187"/>
       <c r="AK195" s="187"/>
     </row>
-    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>573</v>
       </c>
@@ -18805,7 +18796,7 @@
       <c r="AJ196" s="187"/>
       <c r="AK196" s="187"/>
     </row>
-    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>573</v>
       </c>
@@ -18892,7 +18883,7 @@
       <c r="AJ197" s="187"/>
       <c r="AK197" s="187"/>
     </row>
-    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>573</v>
       </c>
@@ -18979,7 +18970,7 @@
       <c r="AJ198" s="187"/>
       <c r="AK198" s="187"/>
     </row>
-    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="64" t="s">
         <v>573</v>
       </c>
@@ -19066,7 +19057,7 @@
       <c r="AJ199" s="187"/>
       <c r="AK199" s="187"/>
     </row>
-    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>573</v>
       </c>
@@ -19153,7 +19144,7 @@
       <c r="AJ200" s="187"/>
       <c r="AK200" s="187"/>
     </row>
-    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="64" t="s">
         <v>573</v>
       </c>
@@ -19240,7 +19231,7 @@
       <c r="AJ201" s="187"/>
       <c r="AK201" s="187"/>
     </row>
-    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="64" t="s">
         <v>573</v>
       </c>
@@ -19327,7 +19318,7 @@
       <c r="AJ202" s="187"/>
       <c r="AK202" s="187"/>
     </row>
-    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="64" t="s">
         <v>588</v>
       </c>
@@ -19378,7 +19369,7 @@
       <c r="AJ203" s="187"/>
       <c r="AK203" s="187"/>
     </row>
-    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="64" t="s">
         <v>573</v>
       </c>
@@ -19465,7 +19456,7 @@
       <c r="AJ204" s="187"/>
       <c r="AK204" s="187"/>
     </row>
-    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="64" t="s">
         <v>573</v>
       </c>
@@ -19555,7 +19546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="64" t="s">
         <v>573</v>
       </c>
@@ -19642,7 +19633,7 @@
       <c r="AJ206" s="187"/>
       <c r="AK206" s="187"/>
     </row>
-    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="64" t="s">
         <v>573</v>
       </c>
@@ -19729,7 +19720,7 @@
       <c r="AJ207" s="187"/>
       <c r="AK207" s="187"/>
     </row>
-    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="64" t="s">
         <v>573</v>
       </c>
@@ -19816,7 +19807,7 @@
       <c r="AJ208" s="187"/>
       <c r="AK208" s="187"/>
     </row>
-    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="64" t="s">
         <v>588</v>
       </c>
@@ -19867,7 +19858,7 @@
       <c r="AJ209" s="187"/>
       <c r="AK209" s="187"/>
     </row>
-    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="64" t="s">
         <v>588</v>
       </c>
@@ -19918,7 +19909,7 @@
       <c r="AJ210" s="187"/>
       <c r="AK210" s="187"/>
     </row>
-    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="64" t="s">
         <v>571</v>
       </c>
@@ -20005,7 +19996,7 @@
       <c r="AJ211" s="187"/>
       <c r="AK211" s="187"/>
     </row>
-    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="64" t="s">
         <v>571</v>
       </c>
@@ -20092,7 +20083,7 @@
       <c r="AJ212" s="187"/>
       <c r="AK212" s="187"/>
     </row>
-    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="64" t="s">
         <v>571</v>
       </c>
@@ -20179,7 +20170,7 @@
       <c r="AJ213" s="187"/>
       <c r="AK213" s="187"/>
     </row>
-    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="64" t="s">
         <v>571</v>
       </c>
@@ -20266,7 +20257,7 @@
       <c r="AJ214" s="187"/>
       <c r="AK214" s="187"/>
     </row>
-    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="64" t="s">
         <v>571</v>
       </c>
@@ -20353,7 +20344,7 @@
       <c r="AJ215" s="187"/>
       <c r="AK215" s="187"/>
     </row>
-    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="64" t="s">
         <v>571</v>
       </c>
@@ -20440,7 +20431,7 @@
       <c r="AJ216" s="187"/>
       <c r="AK216" s="187"/>
     </row>
-    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="64" t="s">
         <v>571</v>
       </c>
@@ -20527,7 +20518,7 @@
       <c r="AJ217" s="187"/>
       <c r="AK217" s="187"/>
     </row>
-    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="64" t="s">
         <v>571</v>
       </c>
@@ -20614,7 +20605,7 @@
       <c r="AJ218" s="187"/>
       <c r="AK218" s="187"/>
     </row>
-    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="64" t="s">
         <v>571</v>
       </c>
@@ -20701,7 +20692,7 @@
       <c r="AJ219" s="187"/>
       <c r="AK219" s="187"/>
     </row>
-    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="64" t="s">
         <v>571</v>
       </c>
@@ -20788,7 +20779,7 @@
       <c r="AJ220" s="187"/>
       <c r="AK220" s="187"/>
     </row>
-    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="64" t="s">
         <v>588</v>
       </c>
@@ -20839,7 +20830,7 @@
       <c r="AJ221" s="187"/>
       <c r="AK221" s="187"/>
     </row>
-    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="64" t="s">
         <v>571</v>
       </c>
@@ -20926,7 +20917,7 @@
       <c r="AJ222" s="187"/>
       <c r="AK222" s="187"/>
     </row>
-    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="64" t="s">
         <v>571</v>
       </c>
@@ -21013,7 +21004,7 @@
       <c r="AJ223" s="187"/>
       <c r="AK223" s="187"/>
     </row>
-    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="64" t="s">
         <v>571</v>
       </c>
@@ -21100,7 +21091,7 @@
       <c r="AJ224" s="187"/>
       <c r="AK224" s="187"/>
     </row>
-    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="64" t="s">
         <v>571</v>
       </c>
@@ -21187,7 +21178,7 @@
       <c r="AJ225" s="187"/>
       <c r="AK225" s="187"/>
     </row>
-    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="64" t="s">
         <v>571</v>
       </c>
@@ -21274,7 +21265,7 @@
       <c r="AJ226" s="187"/>
       <c r="AK226" s="187"/>
     </row>
-    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="64" t="s">
         <v>571</v>
       </c>
@@ -21361,7 +21352,7 @@
       <c r="AJ227" s="187"/>
       <c r="AK227" s="187"/>
     </row>
-    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="64" t="s">
         <v>571</v>
       </c>
@@ -21448,7 +21439,7 @@
       <c r="AJ228" s="187"/>
       <c r="AK228" s="187"/>
     </row>
-    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="64" t="s">
         <v>571</v>
       </c>
@@ -21535,7 +21526,7 @@
       <c r="AJ229" s="187"/>
       <c r="AK229" s="187"/>
     </row>
-    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="64" t="s">
         <v>571</v>
       </c>
@@ -21622,7 +21613,7 @@
       <c r="AJ230" s="187"/>
       <c r="AK230" s="187"/>
     </row>
-    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="64" t="s">
         <v>571</v>
       </c>
@@ -21709,7 +21700,7 @@
       <c r="AJ231" s="187"/>
       <c r="AK231" s="187"/>
     </row>
-    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="54" t="s">
         <v>588</v>
       </c>
@@ -21773,7 +21764,7 @@
       <c r="AJ232" s="188"/>
       <c r="AK232" s="188"/>
     </row>
-    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="54" t="s">
         <v>588</v>
       </c>
@@ -21837,7 +21828,7 @@
       <c r="AJ233" s="188"/>
       <c r="AK233" s="188"/>
     </row>
-    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="54" t="s">
         <v>588</v>
       </c>
@@ -21901,7 +21892,7 @@
       <c r="AJ234" s="188"/>
       <c r="AK234" s="188"/>
     </row>
-    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>573</v>
       </c>
@@ -21988,7 +21979,7 @@
       <c r="AJ235" s="188"/>
       <c r="AK235" s="188"/>
     </row>
-    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>573</v>
       </c>
@@ -22075,7 +22066,7 @@
       <c r="AJ236" s="188"/>
       <c r="AK236" s="188"/>
     </row>
-    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>573</v>
       </c>
@@ -22162,7 +22153,7 @@
       <c r="AJ237" s="188"/>
       <c r="AK237" s="188"/>
     </row>
-    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>573</v>
       </c>
@@ -22249,7 +22240,7 @@
       <c r="AJ238" s="188"/>
       <c r="AK238" s="188"/>
     </row>
-    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="54" t="s">
         <v>573</v>
       </c>
@@ -22336,7 +22327,7 @@
       <c r="AJ239" s="188"/>
       <c r="AK239" s="188"/>
     </row>
-    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="54" t="s">
         <v>573</v>
       </c>
@@ -22423,7 +22414,7 @@
       <c r="AJ240" s="188"/>
       <c r="AK240" s="188"/>
     </row>
-    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="54" t="s">
         <v>588</v>
       </c>
@@ -22484,7 +22475,7 @@
       <c r="AJ241" s="188"/>
       <c r="AK241" s="188"/>
     </row>
-    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>573</v>
       </c>
@@ -22571,7 +22562,7 @@
       <c r="AJ242" s="188"/>
       <c r="AK242" s="188"/>
     </row>
-    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="54" t="s">
         <v>573</v>
       </c>
@@ -22658,7 +22649,7 @@
       <c r="AJ243" s="188"/>
       <c r="AK243" s="188"/>
     </row>
-    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="54" t="s">
         <v>573</v>
       </c>
@@ -22745,7 +22736,7 @@
       <c r="AJ244" s="188"/>
       <c r="AK244" s="188"/>
     </row>
-    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="54" t="s">
         <v>588</v>
       </c>
@@ -22793,7 +22784,7 @@
       <c r="AJ245" s="188"/>
       <c r="AK245" s="188"/>
     </row>
-    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="54" t="s">
         <v>588</v>
       </c>
@@ -22841,7 +22832,7 @@
       <c r="AJ246" s="188"/>
       <c r="AK246" s="188"/>
     </row>
-    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>573</v>
       </c>
@@ -22928,7 +22919,7 @@
       <c r="AJ247" s="188"/>
       <c r="AK247" s="188"/>
     </row>
-    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="54" t="s">
         <v>588</v>
       </c>
@@ -22976,7 +22967,7 @@
       <c r="AJ248" s="188"/>
       <c r="AK248" s="188"/>
     </row>
-    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="54" t="s">
         <v>588</v>
       </c>
@@ -23024,7 +23015,7 @@
       <c r="AJ249" s="188"/>
       <c r="AK249" s="188"/>
     </row>
-    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>573</v>
       </c>
@@ -23111,7 +23102,7 @@
       <c r="AJ250" s="188"/>
       <c r="AK250" s="188"/>
     </row>
-    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>573</v>
       </c>
@@ -23198,7 +23189,7 @@
       <c r="AJ251" s="188"/>
       <c r="AK251" s="188"/>
     </row>
-    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="54" t="s">
         <v>588</v>
       </c>
@@ -23246,7 +23237,7 @@
       <c r="AJ252" s="188"/>
       <c r="AK252" s="188"/>
     </row>
-    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="54" t="s">
         <v>573</v>
       </c>
@@ -23333,7 +23324,7 @@
       <c r="AJ253" s="188"/>
       <c r="AK253" s="188"/>
     </row>
-    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="54" t="s">
         <v>573</v>
       </c>
@@ -23420,7 +23411,7 @@
       <c r="AJ254" s="188"/>
       <c r="AK254" s="188"/>
     </row>
-    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="54" t="s">
         <v>573</v>
       </c>
@@ -23507,7 +23498,7 @@
       <c r="AJ255" s="188"/>
       <c r="AK255" s="188"/>
     </row>
-    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="54" t="s">
         <v>588</v>
       </c>
@@ -23555,7 +23546,7 @@
       <c r="AJ256" s="188"/>
       <c r="AK256" s="188"/>
     </row>
-    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="54" t="s">
         <v>588</v>
       </c>
@@ -23603,7 +23594,7 @@
       <c r="AJ257" s="188"/>
       <c r="AK257" s="188"/>
     </row>
-    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>573</v>
       </c>
@@ -23690,7 +23681,7 @@
       <c r="AJ258" s="188"/>
       <c r="AK258" s="188"/>
     </row>
-    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="54" t="s">
         <v>588</v>
       </c>
@@ -23738,7 +23729,7 @@
       <c r="AJ259" s="188"/>
       <c r="AK259" s="188"/>
     </row>
-    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="54" t="s">
         <v>588</v>
       </c>
@@ -23786,7 +23777,7 @@
       <c r="AJ260" s="188"/>
       <c r="AK260" s="188"/>
     </row>
-    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>573</v>
       </c>
@@ -23873,7 +23864,7 @@
       <c r="AJ261" s="188"/>
       <c r="AK261" s="188"/>
     </row>
-    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>573</v>
       </c>
@@ -23960,7 +23951,7 @@
       <c r="AJ262" s="188"/>
       <c r="AK262" s="188"/>
     </row>
-    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="54" t="s">
         <v>588</v>
       </c>
@@ -24008,7 +23999,7 @@
       <c r="AJ263" s="188"/>
       <c r="AK263" s="188"/>
     </row>
-    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="64" t="s">
         <v>571</v>
       </c>
@@ -24105,7 +24096,7 @@
       <c r="AJ264" s="188"/>
       <c r="AK264" s="188"/>
     </row>
-    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="148" t="s">
         <v>562</v>
       </c>
@@ -24199,7 +24190,7 @@
       <c r="AJ265" s="188"/>
       <c r="AK265" s="188"/>
     </row>
-    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="54" t="s">
         <v>588</v>
       </c>
@@ -24247,7 +24238,7 @@
       <c r="AJ266" s="188"/>
       <c r="AK266" s="188"/>
     </row>
-    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="54" t="s">
         <v>573</v>
       </c>
@@ -24334,7 +24325,7 @@
       <c r="AJ267" s="188"/>
       <c r="AK267" s="188"/>
     </row>
-    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="148" t="s">
         <v>574</v>
       </c>
@@ -24421,7 +24412,7 @@
       <c r="AJ268" s="188"/>
       <c r="AK268" s="188"/>
     </row>
-    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="54" t="s">
         <v>573</v>
       </c>
@@ -24508,7 +24499,7 @@
       <c r="AJ269" s="188"/>
       <c r="AK269" s="188"/>
     </row>
-    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="54" t="s">
         <v>573</v>
       </c>
@@ -24595,7 +24586,7 @@
       <c r="AJ270" s="188"/>
       <c r="AK270" s="188"/>
     </row>
-    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="148" t="s">
         <v>563</v>
       </c>
@@ -24662,7 +24653,7 @@
       <c r="AJ271" s="188"/>
       <c r="AK271" s="188"/>
     </row>
-    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="148" t="s">
         <v>563</v>
       </c>
@@ -24723,7 +24714,7 @@
       <c r="AJ272" s="188"/>
       <c r="AK272" s="188"/>
     </row>
-    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="148" t="s">
         <v>563</v>
       </c>
@@ -24784,7 +24775,7 @@
       <c r="AJ273" s="188"/>
       <c r="AK273" s="188"/>
     </row>
-    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="148" t="s">
         <v>563</v>
       </c>
@@ -24853,7 +24844,7 @@
       <c r="AJ274" s="188"/>
       <c r="AK274" s="188"/>
     </row>
-    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="54" t="s">
         <v>588</v>
       </c>
@@ -24901,7 +24892,7 @@
       <c r="AJ275" s="188"/>
       <c r="AK275" s="188"/>
     </row>
-    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="54" t="s">
         <v>573</v>
       </c>
@@ -24988,7 +24979,7 @@
       <c r="AJ276" s="188"/>
       <c r="AK276" s="188"/>
     </row>
-    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="54" t="s">
         <v>588</v>
       </c>
@@ -25036,7 +25027,7 @@
       <c r="AJ277" s="188"/>
       <c r="AK277" s="188"/>
     </row>
-    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="148" t="s">
         <v>562</v>
       </c>
@@ -25130,7 +25121,7 @@
       <c r="AJ278" s="188"/>
       <c r="AK278" s="188"/>
     </row>
-    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="148" t="s">
         <v>562</v>
       </c>
@@ -25224,7 +25215,7 @@
       <c r="AJ279" s="188"/>
       <c r="AK279" s="188"/>
     </row>
-    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="148" t="s">
         <v>562</v>
       </c>
@@ -25318,7 +25309,7 @@
       <c r="AJ280" s="188"/>
       <c r="AK280" s="188"/>
     </row>
-    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="54" t="s">
         <v>588</v>
       </c>
@@ -25366,7 +25357,7 @@
       <c r="AJ281" s="188"/>
       <c r="AK281" s="188"/>
     </row>
-    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="54" t="s">
         <v>588</v>
       </c>
@@ -25414,7 +25405,7 @@
       <c r="AJ282" s="188"/>
       <c r="AK282" s="188"/>
     </row>
-    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>564</v>
       </c>
@@ -25508,7 +25499,7 @@
         <v>92300</v>
       </c>
     </row>
-    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="54" t="s">
         <v>588</v>
       </c>
@@ -25556,7 +25547,7 @@
       <c r="AJ284" s="188"/>
       <c r="AK284" s="188"/>
     </row>
-    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="64" t="s">
         <v>555</v>
       </c>
@@ -25653,7 +25644,7 @@
       <c r="AJ285" s="188"/>
       <c r="AK285" s="188"/>
     </row>
-    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="64" t="s">
         <v>555</v>
       </c>
@@ -25750,7 +25741,7 @@
       <c r="AJ286" s="188"/>
       <c r="AK286" s="188"/>
     </row>
-    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="54" t="s">
         <v>588</v>
       </c>
@@ -25798,7 +25789,7 @@
       <c r="AJ287" s="188"/>
       <c r="AK287" s="188"/>
     </row>
-    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>573</v>
       </c>
@@ -25885,7 +25876,7 @@
       <c r="AJ288" s="188"/>
       <c r="AK288" s="188"/>
     </row>
-    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>573</v>
       </c>
@@ -25972,7 +25963,7 @@
       <c r="AJ289" s="188"/>
       <c r="AK289" s="188"/>
     </row>
-    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>573</v>
       </c>
@@ -26059,7 +26050,7 @@
       <c r="AJ290" s="188"/>
       <c r="AK290" s="188"/>
     </row>
-    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>573</v>
       </c>
@@ -26146,7 +26137,7 @@
       <c r="AJ291" s="188"/>
       <c r="AK291" s="188"/>
     </row>
-    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="54" t="s">
         <v>588</v>
       </c>
@@ -26194,7 +26185,7 @@
       <c r="AJ292" s="188"/>
       <c r="AK292" s="188"/>
     </row>
-    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="54" t="s">
         <v>573</v>
       </c>
@@ -26281,7 +26272,7 @@
       <c r="AJ293" s="188"/>
       <c r="AK293" s="188"/>
     </row>
-    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="54" t="s">
         <v>573</v>
       </c>
@@ -26368,7 +26359,7 @@
       <c r="AJ294" s="188"/>
       <c r="AK294" s="188"/>
     </row>
-    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="54" t="s">
         <v>573</v>
       </c>
@@ -26455,7 +26446,7 @@
       <c r="AJ295" s="188"/>
       <c r="AK295" s="188"/>
     </row>
-    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="207" t="s">
         <v>562</v>
       </c>
@@ -26549,7 +26540,7 @@
       <c r="AJ296" s="188"/>
       <c r="AK296" s="188"/>
     </row>
-    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="54" t="s">
         <v>573</v>
       </c>
@@ -26636,7 +26627,7 @@
       <c r="AJ297" s="188"/>
       <c r="AK297" s="188"/>
     </row>
-    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="54" t="s">
         <v>573</v>
       </c>
@@ -26723,7 +26714,7 @@
       <c r="AJ298" s="188"/>
       <c r="AK298" s="188"/>
     </row>
-    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="54" t="s">
         <v>573</v>
       </c>
@@ -26810,7 +26801,7 @@
       <c r="AJ299" s="188"/>
       <c r="AK299" s="188"/>
     </row>
-    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="54" t="s">
         <v>573</v>
       </c>
@@ -26897,7 +26888,7 @@
       <c r="AJ300" s="188"/>
       <c r="AK300" s="188"/>
     </row>
-    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="54" t="s">
         <v>573</v>
       </c>
@@ -26984,7 +26975,7 @@
       <c r="AJ301" s="188"/>
       <c r="AK301" s="188"/>
     </row>
-    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="54" t="s">
         <v>573</v>
       </c>
@@ -27071,7 +27062,7 @@
       <c r="AJ302" s="188"/>
       <c r="AK302" s="188"/>
     </row>
-    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="54" t="s">
         <v>573</v>
       </c>
@@ -27158,7 +27149,7 @@
       <c r="AJ303" s="188"/>
       <c r="AK303" s="188"/>
     </row>
-    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="54" t="s">
         <v>589</v>
       </c>
@@ -27206,7 +27197,7 @@
       <c r="AJ304" s="188"/>
       <c r="AK304" s="188"/>
     </row>
-    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="54" t="s">
         <v>573</v>
       </c>
@@ -27293,7 +27284,7 @@
       <c r="AJ305" s="188"/>
       <c r="AK305" s="188"/>
     </row>
-    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="54" t="s">
         <v>573</v>
       </c>
@@ -27380,7 +27371,7 @@
       <c r="AJ306" s="188"/>
       <c r="AK306" s="188"/>
     </row>
-    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="54" t="s">
         <v>573</v>
       </c>
@@ -27467,7 +27458,7 @@
       <c r="AJ307" s="188"/>
       <c r="AK307" s="188"/>
     </row>
-    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="54" t="s">
         <v>573</v>
       </c>
@@ -27554,7 +27545,7 @@
       <c r="AJ308" s="188"/>
       <c r="AK308" s="188"/>
     </row>
-    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="54" t="s">
         <v>573</v>
       </c>
@@ -27641,7 +27632,7 @@
       <c r="AJ309" s="188"/>
       <c r="AK309" s="188"/>
     </row>
-    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="54" t="s">
         <v>573</v>
       </c>
@@ -27728,7 +27719,7 @@
       <c r="AJ310" s="188"/>
       <c r="AK310" s="188"/>
     </row>
-    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="54" t="s">
         <v>573</v>
       </c>
@@ -27815,7 +27806,7 @@
       <c r="AJ311" s="188"/>
       <c r="AK311" s="188"/>
     </row>
-    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="54" t="s">
         <v>573</v>
       </c>
@@ -27902,7 +27893,7 @@
       <c r="AJ312" s="188"/>
       <c r="AK312" s="188"/>
     </row>
-    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="54" t="s">
         <v>573</v>
       </c>
@@ -27989,7 +27980,7 @@
       <c r="AJ313" s="188"/>
       <c r="AK313" s="188"/>
     </row>
-    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="54" t="s">
         <v>573</v>
       </c>
@@ -28076,7 +28067,7 @@
       <c r="AJ314" s="188"/>
       <c r="AK314" s="188"/>
     </row>
-    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="54" t="s">
         <v>573</v>
       </c>
@@ -28163,7 +28154,7 @@
       <c r="AJ315" s="188"/>
       <c r="AK315" s="188"/>
     </row>
-    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="54" t="s">
         <v>573</v>
       </c>
@@ -28250,7 +28241,7 @@
       <c r="AJ316" s="188"/>
       <c r="AK316" s="188"/>
     </row>
-    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="54" t="s">
         <v>573</v>
       </c>
@@ -28337,7 +28328,7 @@
       <c r="AJ317" s="188"/>
       <c r="AK317" s="188"/>
     </row>
-    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="54" t="s">
         <v>573</v>
       </c>
@@ -28424,7 +28415,7 @@
       <c r="AJ318" s="188"/>
       <c r="AK318" s="188"/>
     </row>
-    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="54" t="s">
         <v>573</v>
       </c>
@@ -28511,7 +28502,7 @@
       <c r="AJ319" s="188"/>
       <c r="AK319" s="188"/>
     </row>
-    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="54" t="s">
         <v>588</v>
       </c>
@@ -28578,7 +28569,7 @@
       <c r="AJ320" s="188"/>
       <c r="AK320" s="188"/>
     </row>
-    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="207" t="s">
         <v>562</v>
       </c>
@@ -28672,7 +28663,7 @@
       <c r="AJ321" s="188"/>
       <c r="AK321" s="188"/>
     </row>
-    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="54" t="s">
         <v>588</v>
       </c>
@@ -28739,7 +28730,7 @@
       <c r="AJ322" s="188"/>
       <c r="AK322" s="188"/>
     </row>
-    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="207" t="s">
         <v>562</v>
       </c>
@@ -28832,20 +28823,20 @@
       <c r="AJ323" s="188"/>
       <c r="AK323" s="188"/>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A324" s="153" t="s">
         <v>567</v>
       </c>
-      <c r="B324" s="245" t="s">
+      <c r="B324" s="234" t="s">
         <v>560</v>
       </c>
-      <c r="C324" s="245"/>
+      <c r="C324" s="234"/>
       <c r="D324" s="131"/>
       <c r="E324" s="216"/>
       <c r="F324" s="170"/>
       <c r="G324" s="231">
         <f>SUBTOTAL(9,G7:G323)</f>
-        <v>4576892.8803200014</v>
+        <v>4578708.2903200015</v>
       </c>
       <c r="Q324" s="171"/>
       <c r="R324" s="131"/>
@@ -28867,7 +28858,7 @@
       <c r="AJ324" s="189"/>
       <c r="AK324" s="189"/>
     </row>
-    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="153" t="s">
         <v>567</v>
       </c>
@@ -28912,7 +28903,7 @@
       <c r="AJ325" s="190"/>
       <c r="AK325" s="190"/>
     </row>
-    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="153" t="s">
         <v>567</v>
       </c>
@@ -28957,7 +28948,7 @@
       <c r="AJ326" s="190"/>
       <c r="AK326" s="190"/>
     </row>
-    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="153" t="s">
         <v>567</v>
       </c>
@@ -29002,7 +28993,7 @@
       <c r="AJ327" s="190"/>
       <c r="AK327" s="190"/>
     </row>
-    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="153" t="s">
         <v>567</v>
       </c>
@@ -29088,7 +29079,7 @@
       <c r="AJ328" s="190"/>
       <c r="AK328" s="190"/>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A329" s="153" t="s">
         <v>567</v>
       </c>
@@ -29173,7 +29164,7 @@
       <c r="AJ329" s="189"/>
       <c r="AK329" s="189"/>
     </row>
-    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="153" t="s">
         <v>567</v>
       </c>
@@ -29218,7 +29209,7 @@
       <c r="AJ330" s="190"/>
       <c r="AK330" s="190"/>
     </row>
-    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="153" t="s">
         <v>567</v>
       </c>
@@ -29263,7 +29254,7 @@
       <c r="AJ331" s="190"/>
       <c r="AK331" s="190"/>
     </row>
-    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="153" t="s">
         <v>567</v>
       </c>
@@ -29349,7 +29340,7 @@
       <c r="AJ332" s="190"/>
       <c r="AK332" s="190"/>
     </row>
-    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="153" t="s">
         <v>567</v>
       </c>
@@ -29394,7 +29385,7 @@
       <c r="AJ333" s="190"/>
       <c r="AK333" s="190"/>
     </row>
-    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="153" t="s">
         <v>567</v>
       </c>
@@ -29439,7 +29430,7 @@
       <c r="AJ334" s="190"/>
       <c r="AK334" s="190"/>
     </row>
-    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="153" t="s">
         <v>567</v>
       </c>
@@ -29525,7 +29516,7 @@
       <c r="AJ335" s="190"/>
       <c r="AK335" s="190"/>
     </row>
-    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="153" t="s">
         <v>567</v>
       </c>
@@ -29611,7 +29602,7 @@
       <c r="AJ336" s="190"/>
       <c r="AK336" s="190"/>
     </row>
-    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="153" t="s">
         <v>567</v>
       </c>
@@ -29656,7 +29647,7 @@
       <c r="AJ337" s="190"/>
       <c r="AK337" s="190"/>
     </row>
-    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="153" t="s">
         <v>567</v>
       </c>
@@ -29742,7 +29733,7 @@
       <c r="AJ338" s="190"/>
       <c r="AK338" s="190"/>
     </row>
-    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="153" t="s">
         <v>567</v>
       </c>
@@ -29828,7 +29819,7 @@
       <c r="AJ339" s="190"/>
       <c r="AK339" s="190"/>
     </row>
-    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="153" t="s">
         <v>567</v>
       </c>
@@ -29873,7 +29864,7 @@
       <c r="AJ340" s="190"/>
       <c r="AK340" s="190"/>
     </row>
-    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="153" t="s">
         <v>567</v>
       </c>
@@ -29959,7 +29950,7 @@
       <c r="AJ341" s="190"/>
       <c r="AK341" s="190"/>
     </row>
-    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="153" t="s">
         <v>567</v>
       </c>
@@ -30045,7 +30036,7 @@
       <c r="AJ342" s="190"/>
       <c r="AK342" s="190"/>
     </row>
-    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="153" t="s">
         <v>567</v>
       </c>
@@ -30131,7 +30122,7 @@
       <c r="AJ343" s="190"/>
       <c r="AK343" s="190"/>
     </row>
-    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="153" t="s">
         <v>567</v>
       </c>
@@ -30176,7 +30167,7 @@
       <c r="AJ344" s="190"/>
       <c r="AK344" s="190"/>
     </row>
-    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="153" t="s">
         <v>567</v>
       </c>
@@ -30262,7 +30253,7 @@
       <c r="AJ345" s="190"/>
       <c r="AK345" s="190"/>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A346" s="153" t="s">
         <v>567</v>
       </c>
@@ -30347,7 +30338,7 @@
       <c r="AJ346" s="189"/>
       <c r="AK346" s="189"/>
     </row>
-    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="153" t="s">
         <v>567</v>
       </c>
@@ -30433,7 +30424,7 @@
       <c r="AJ347" s="190"/>
       <c r="AK347" s="190"/>
     </row>
-    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="153" t="s">
         <v>567</v>
       </c>
@@ -30478,7 +30469,7 @@
       <c r="AJ348" s="190"/>
       <c r="AK348" s="190"/>
     </row>
-    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="153" t="s">
         <v>567</v>
       </c>
@@ -30523,7 +30514,7 @@
       <c r="AJ349" s="190"/>
       <c r="AK349" s="190"/>
     </row>
-    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="153" t="s">
         <v>567</v>
       </c>
@@ -30609,7 +30600,7 @@
       <c r="AJ350" s="190"/>
       <c r="AK350" s="190"/>
     </row>
-    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="153" t="s">
         <v>567</v>
       </c>
@@ -30654,7 +30645,7 @@
       <c r="AJ351" s="190"/>
       <c r="AK351" s="190"/>
     </row>
-    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="153" t="s">
         <v>567</v>
       </c>
@@ -30740,7 +30731,7 @@
       <c r="AJ352" s="190"/>
       <c r="AK352" s="190"/>
     </row>
-    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="153" t="s">
         <v>567</v>
       </c>
@@ -30826,7 +30817,7 @@
       <c r="AJ353" s="190"/>
       <c r="AK353" s="190"/>
     </row>
-    <row r="354" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:38" ht="21" x14ac:dyDescent="0.35">
       <c r="A354" s="120" t="s">
         <v>572</v>
       </c>
@@ -30852,7 +30843,7 @@
       </c>
       <c r="AE354" s="152">
         <f>SUM(AE6:AE353)</f>
-        <v>-197679.03</v>
+        <v>-199494.44</v>
       </c>
       <c r="AF354" s="152"/>
       <c r="AG354" s="152"/>
@@ -30871,35 +30862,41 @@
         <v>339190.11</v>
       </c>
     </row>
-    <row r="355" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:38" ht="21" x14ac:dyDescent="0.35">
       <c r="A355" s="120" t="s">
         <v>572</v>
       </c>
       <c r="G355" s="233">
         <f>G324-G354</f>
-        <v>4038147.4803200015</v>
+        <v>4039962.8903200016</v>
       </c>
       <c r="AL355" s="193">
         <f>AE354-AA354</f>
-        <v>-339190.11</v>
-      </c>
-    </row>
-    <row r="356" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+        <v>-341005.52</v>
+      </c>
+    </row>
+    <row r="356" spans="1:38" ht="21" x14ac:dyDescent="0.35">
       <c r="A356" s="120" t="s">
         <v>572</v>
       </c>
       <c r="G356" s="121">
         <f>SUM(G6:G353)</f>
-        <v>9692531.1606400013</v>
+        <v>9696161.9806400016</v>
       </c>
       <c r="AL356" s="194">
         <f>SUM(AL354:AL355)</f>
-        <v>0</v>
+        <v>-1815.4100000000326</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}"/>
   <mergeCells count="17">
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="B324:C324"/>
     <mergeCell ref="Q2:S3"/>
     <mergeCell ref="H3:J3"/>
@@ -30911,12 +30908,6 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D325:F326">
@@ -30974,7 +30965,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="18" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="19" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
+++ b/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4C8B41-4E57-4683-8B24-95BF813EF508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847D0A8-89D9-493F-B054-86AA47B76DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="339" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="339" activeTab="1" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$5:$AL$356</definedName>
@@ -24,12 +25,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="594">
   <si>
     <t>ITEM</t>
   </si>
@@ -1823,18 +1833,29 @@
   </si>
   <si>
     <t>TT</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2092,6 +2113,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="24">
     <fill>
@@ -2322,11 +2351,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2377,7 +2406,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2397,7 +2426,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2415,7 +2444,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2427,7 +2456,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2459,11 +2488,11 @@
     <xf numFmtId="4" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2554,14 +2583,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2629,7 +2658,7 @@
     <xf numFmtId="0" fontId="22" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2687,7 +2716,7 @@
     <xf numFmtId="4" fontId="12" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2903,13 +2932,13 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,36 +3005,6 @@
     <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3039,6 +3038,52 @@
     <xf numFmtId="4" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" xr:uid="{71FE554C-0749-4D45-8F91-598A053081A4}"/>
@@ -3412,52 +3457,52 @@
   </sheetPr>
   <dimension ref="A1:AL356"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A173" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203:C203"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A205" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210:F231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.42578125" style="120" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="205" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.44140625" style="120" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="120" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="205" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="121" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="121" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="120" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="120" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="34" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" style="34" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="120" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="120" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="120" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="120" customWidth="1"/>
-    <col min="26" max="27" width="14.28515625" style="122" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="120" customWidth="1"/>
-    <col min="29" max="30" width="14.28515625" style="122" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" style="120" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="120" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="120" customWidth="1"/>
+    <col min="26" max="27" width="14.33203125" style="122" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" style="120" customWidth="1"/>
+    <col min="29" max="30" width="14.33203125" style="122" customWidth="1"/>
     <col min="31" max="31" width="15" style="122" customWidth="1"/>
     <col min="32" max="32" width="11" style="120" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" style="120" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" style="120" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" style="120" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10" style="122" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" style="122" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="11.42578125" style="120"/>
+    <col min="37" max="37" width="15.6640625" style="122" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="11.44140625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="52" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="52" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="54"/>
@@ -3483,23 +3528,23 @@
       <c r="AJ1" s="84"/>
       <c r="AK1" s="84"/>
     </row>
-    <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="240" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="240" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="241" t="s">
+    <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="251" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="242" t="s">
+      <c r="E2" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="243" t="s">
+      <c r="F2" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="243" t="s">
+      <c r="G2" s="254" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="7"/>
@@ -3513,93 +3558,93 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="235" t="s">
+      <c r="Q2" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="244" t="s">
+      <c r="V2" s="234" t="s">
         <v>569</v>
       </c>
-      <c r="W2" s="244"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="252" t="s">
+      <c r="W2" s="234"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="242" t="s">
         <v>561</v>
       </c>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="252"/>
-      <c r="AB2" s="250" t="s">
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="242"/>
+      <c r="AB2" s="240" t="s">
         <v>555</v>
       </c>
-      <c r="AC2" s="251"/>
-      <c r="AD2" s="251"/>
-      <c r="AE2" s="253" t="s">
+      <c r="AC2" s="241"/>
+      <c r="AD2" s="241"/>
+      <c r="AE2" s="243" t="s">
         <v>570</v>
       </c>
-      <c r="AF2" s="246" t="s">
+      <c r="AF2" s="236" t="s">
         <v>563</v>
       </c>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248" t="s">
+      <c r="AG2" s="236"/>
+      <c r="AH2" s="237"/>
+      <c r="AI2" s="238" t="s">
         <v>566</v>
       </c>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="249"/>
-    </row>
-    <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="236" t="s">
+      <c r="AJ2" s="238"/>
+      <c r="AK2" s="239"/>
+    </row>
+    <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="237"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="239" t="s">
+      <c r="I3" s="248"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239" t="s">
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="235"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="246"/>
       <c r="T3" s="2"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="252"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="250"/>
-      <c r="AC3" s="251"/>
-      <c r="AD3" s="251"/>
-      <c r="AE3" s="254"/>
-      <c r="AF3" s="246"/>
-      <c r="AG3" s="246"/>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
-      <c r="AJ3" s="248"/>
-      <c r="AK3" s="249"/>
-    </row>
-    <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="242"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="241"/>
+      <c r="AD3" s="241"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="236"/>
+      <c r="AH3" s="237"/>
+      <c r="AI3" s="238"/>
+      <c r="AJ3" s="238"/>
+      <c r="AK3" s="239"/>
+    </row>
+    <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
       <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3687,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="198"/>
@@ -3725,7 +3770,7 @@
       <c r="AJ5" s="104"/>
       <c r="AK5" s="104"/>
     </row>
-    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>588</v>
       </c>
@@ -3776,7 +3821,7 @@
       <c r="AJ6" s="187"/>
       <c r="AK6" s="187"/>
     </row>
-    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>588</v>
       </c>
@@ -3827,7 +3872,7 @@
       <c r="AJ7" s="187"/>
       <c r="AK7" s="187"/>
     </row>
-    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>555</v>
       </c>
@@ -3924,7 +3969,7 @@
       <c r="AJ8" s="187"/>
       <c r="AK8" s="187"/>
     </row>
-    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>555</v>
       </c>
@@ -4021,7 +4066,7 @@
       <c r="AJ9" s="187"/>
       <c r="AK9" s="187"/>
     </row>
-    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>555</v>
       </c>
@@ -4118,7 +4163,7 @@
       <c r="AJ10" s="187"/>
       <c r="AK10" s="187"/>
     </row>
-    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>555</v>
       </c>
@@ -4215,7 +4260,7 @@
       <c r="AJ11" s="187"/>
       <c r="AK11" s="187"/>
     </row>
-    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
         <v>562</v>
       </c>
@@ -4319,7 +4364,7 @@
       <c r="AJ12" s="187"/>
       <c r="AK12" s="187"/>
     </row>
-    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>588</v>
       </c>
@@ -4370,7 +4415,7 @@
       <c r="AJ13" s="187"/>
       <c r="AK13" s="187"/>
     </row>
-    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>588</v>
       </c>
@@ -4421,7 +4466,7 @@
       <c r="AJ14" s="187"/>
       <c r="AK14" s="187"/>
     </row>
-    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>567</v>
       </c>
@@ -4517,7 +4562,7 @@
       <c r="AJ15" s="187"/>
       <c r="AK15" s="187"/>
     </row>
-    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
         <v>567</v>
       </c>
@@ -4613,7 +4658,7 @@
       <c r="AJ16" s="187"/>
       <c r="AK16" s="187"/>
     </row>
-    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
         <v>588</v>
       </c>
@@ -4664,7 +4709,7 @@
       <c r="AJ17" s="187"/>
       <c r="AK17" s="187"/>
     </row>
-    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="s">
         <v>573</v>
       </c>
@@ -4751,7 +4796,7 @@
       <c r="AJ18" s="187"/>
       <c r="AK18" s="187"/>
     </row>
-    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>573</v>
       </c>
@@ -4838,7 +4883,7 @@
       <c r="AJ19" s="187"/>
       <c r="AK19" s="187"/>
     </row>
-    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
         <v>573</v>
       </c>
@@ -4925,7 +4970,7 @@
       <c r="AJ20" s="187"/>
       <c r="AK20" s="187"/>
     </row>
-    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>573</v>
       </c>
@@ -5012,7 +5057,7 @@
       <c r="AJ21" s="187"/>
       <c r="AK21" s="187"/>
     </row>
-    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>573</v>
       </c>
@@ -5099,7 +5144,7 @@
       <c r="AJ22" s="187"/>
       <c r="AK22" s="187"/>
     </row>
-    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>573</v>
       </c>
@@ -5186,7 +5231,7 @@
       <c r="AJ23" s="187"/>
       <c r="AK23" s="187"/>
     </row>
-    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="s">
         <v>588</v>
       </c>
@@ -5237,7 +5282,7 @@
       <c r="AJ24" s="187"/>
       <c r="AK24" s="187"/>
     </row>
-    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>573</v>
       </c>
@@ -5324,7 +5369,7 @@
       <c r="AJ25" s="187"/>
       <c r="AK25" s="187"/>
     </row>
-    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>573</v>
       </c>
@@ -5411,7 +5456,7 @@
       <c r="AJ26" s="187"/>
       <c r="AK26" s="187"/>
     </row>
-    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="s">
         <v>588</v>
       </c>
@@ -5462,7 +5507,7 @@
       <c r="AJ27" s="187"/>
       <c r="AK27" s="187"/>
     </row>
-    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>573</v>
       </c>
@@ -5549,7 +5594,7 @@
       <c r="AJ28" s="187"/>
       <c r="AK28" s="187"/>
     </row>
-    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>573</v>
       </c>
@@ -5636,7 +5681,7 @@
       <c r="AJ29" s="187"/>
       <c r="AK29" s="187"/>
     </row>
-    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>573</v>
       </c>
@@ -5723,7 +5768,7 @@
       <c r="AJ30" s="187"/>
       <c r="AK30" s="187"/>
     </row>
-    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="64" t="s">
         <v>588</v>
       </c>
@@ -5774,7 +5819,7 @@
       <c r="AJ31" s="187"/>
       <c r="AK31" s="187"/>
     </row>
-    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>573</v>
       </c>
@@ -5861,7 +5906,7 @@
       <c r="AJ32" s="187"/>
       <c r="AK32" s="187"/>
     </row>
-    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
         <v>588</v>
       </c>
@@ -5912,7 +5957,7 @@
       <c r="AJ33" s="187"/>
       <c r="AK33" s="187"/>
     </row>
-    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="s">
         <v>573</v>
       </c>
@@ -5999,7 +6044,7 @@
       <c r="AJ34" s="187"/>
       <c r="AK34" s="187"/>
     </row>
-    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
         <v>573</v>
       </c>
@@ -6086,7 +6131,7 @@
       <c r="AJ35" s="187"/>
       <c r="AK35" s="187"/>
     </row>
-    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="64" t="s">
         <v>573</v>
       </c>
@@ -6173,7 +6218,7 @@
       <c r="AJ36" s="187"/>
       <c r="AK36" s="187"/>
     </row>
-    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
         <v>573</v>
       </c>
@@ -6260,7 +6305,7 @@
       <c r="AJ37" s="187"/>
       <c r="AK37" s="187"/>
     </row>
-    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
         <v>588</v>
       </c>
@@ -6311,7 +6356,7 @@
       <c r="AJ38" s="187"/>
       <c r="AK38" s="187"/>
     </row>
-    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
         <v>555</v>
       </c>
@@ -6398,7 +6443,7 @@
       <c r="AJ39" s="187"/>
       <c r="AK39" s="187"/>
     </row>
-    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="64" t="s">
         <v>573</v>
       </c>
@@ -6488,7 +6533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="64" t="s">
         <v>574</v>
       </c>
@@ -6578,7 +6623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="64" t="s">
         <v>564</v>
       </c>
@@ -6672,7 +6717,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="64" t="s">
         <v>564</v>
       </c>
@@ -6766,7 +6811,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
         <v>573</v>
       </c>
@@ -6853,7 +6898,7 @@
       <c r="AJ44" s="104"/>
       <c r="AK44" s="104"/>
     </row>
-    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" s="64" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
         <v>564</v>
       </c>
@@ -6950,7 +6995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
         <v>562</v>
       </c>
@@ -7044,7 +7089,7 @@
       <c r="AJ46" s="187"/>
       <c r="AK46" s="187"/>
     </row>
-    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>562</v>
       </c>
@@ -7138,7 +7183,7 @@
       <c r="AJ47" s="187"/>
       <c r="AK47" s="187"/>
     </row>
-    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="64" t="s">
         <v>563</v>
       </c>
@@ -7194,7 +7239,7 @@
       <c r="AJ48" s="187"/>
       <c r="AK48" s="187"/>
     </row>
-    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="64" t="s">
         <v>563</v>
       </c>
@@ -7252,7 +7297,7 @@
       <c r="AJ49" s="187"/>
       <c r="AK49" s="187"/>
     </row>
-    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="64" t="s">
         <v>563</v>
       </c>
@@ -7309,7 +7354,7 @@
       <c r="AJ50" s="187"/>
       <c r="AK50" s="187"/>
     </row>
-    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
         <v>588</v>
       </c>
@@ -7350,7 +7395,7 @@
       <c r="AJ51" s="187"/>
       <c r="AK51" s="187"/>
     </row>
-    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="64" t="s">
         <v>588</v>
       </c>
@@ -7401,7 +7446,7 @@
       <c r="AJ52" s="187"/>
       <c r="AK52" s="187"/>
     </row>
-    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="64" t="s">
         <v>562</v>
       </c>
@@ -7495,7 +7540,7 @@
       <c r="AJ53" s="187"/>
       <c r="AK53" s="187"/>
     </row>
-    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="64" t="s">
         <v>588</v>
       </c>
@@ -7546,7 +7591,7 @@
       <c r="AJ54" s="187"/>
       <c r="AK54" s="187"/>
     </row>
-    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="64" t="s">
         <v>588</v>
       </c>
@@ -7597,7 +7642,7 @@
       <c r="AJ55" s="187"/>
       <c r="AK55" s="187"/>
     </row>
-    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
         <v>567</v>
       </c>
@@ -7693,7 +7738,7 @@
       <c r="AJ56" s="187"/>
       <c r="AK56" s="187"/>
     </row>
-    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="64" t="s">
         <v>588</v>
       </c>
@@ -7744,7 +7789,7 @@
       <c r="AJ57" s="187"/>
       <c r="AK57" s="187"/>
     </row>
-    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>573</v>
       </c>
@@ -7831,7 +7876,7 @@
       <c r="AJ58" s="187"/>
       <c r="AK58" s="187"/>
     </row>
-    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="64" t="s">
         <v>573</v>
       </c>
@@ -7918,7 +7963,7 @@
       <c r="AJ59" s="187"/>
       <c r="AK59" s="187"/>
     </row>
-    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="64" t="s">
         <v>573</v>
       </c>
@@ -8005,7 +8050,7 @@
       <c r="AJ60" s="187"/>
       <c r="AK60" s="187"/>
     </row>
-    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>573</v>
       </c>
@@ -8092,7 +8137,7 @@
       <c r="AJ61" s="187"/>
       <c r="AK61" s="187"/>
     </row>
-    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>573</v>
       </c>
@@ -8179,7 +8224,7 @@
       <c r="AJ62" s="187"/>
       <c r="AK62" s="187"/>
     </row>
-    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>573</v>
       </c>
@@ -8266,7 +8311,7 @@
       <c r="AJ63" s="187"/>
       <c r="AK63" s="187"/>
     </row>
-    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="64" t="s">
         <v>588</v>
       </c>
@@ -8317,7 +8362,7 @@
       <c r="AJ64" s="187"/>
       <c r="AK64" s="187"/>
     </row>
-    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>573</v>
       </c>
@@ -8404,7 +8449,7 @@
       <c r="AJ65" s="187"/>
       <c r="AK65" s="187"/>
     </row>
-    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>573</v>
       </c>
@@ -8491,7 +8536,7 @@
       <c r="AJ66" s="187"/>
       <c r="AK66" s="187"/>
     </row>
-    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>588</v>
       </c>
@@ -8542,7 +8587,7 @@
       <c r="AJ67" s="187"/>
       <c r="AK67" s="187"/>
     </row>
-    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>573</v>
       </c>
@@ -8629,7 +8674,7 @@
       <c r="AJ68" s="187"/>
       <c r="AK68" s="187"/>
     </row>
-    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>573</v>
       </c>
@@ -8716,7 +8761,7 @@
       <c r="AJ69" s="187"/>
       <c r="AK69" s="187"/>
     </row>
-    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>573</v>
       </c>
@@ -8803,7 +8848,7 @@
       <c r="AJ70" s="187"/>
       <c r="AK70" s="187"/>
     </row>
-    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>573</v>
       </c>
@@ -8890,7 +8935,7 @@
       <c r="AJ71" s="187"/>
       <c r="AK71" s="187"/>
     </row>
-    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
         <v>588</v>
       </c>
@@ -8941,7 +8986,7 @@
       <c r="AJ72" s="187"/>
       <c r="AK72" s="187"/>
     </row>
-    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="64" t="s">
         <v>573</v>
       </c>
@@ -9028,7 +9073,7 @@
       <c r="AJ73" s="187"/>
       <c r="AK73" s="187"/>
     </row>
-    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="64" t="s">
         <v>588</v>
       </c>
@@ -9079,7 +9124,7 @@
       <c r="AJ74" s="187"/>
       <c r="AK74" s="187"/>
     </row>
-    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="64" t="s">
         <v>573</v>
       </c>
@@ -9166,7 +9211,7 @@
       <c r="AJ75" s="187"/>
       <c r="AK75" s="187"/>
     </row>
-    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="64" t="s">
         <v>573</v>
       </c>
@@ -9253,7 +9298,7 @@
       <c r="AJ76" s="187"/>
       <c r="AK76" s="187"/>
     </row>
-    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="64" t="s">
         <v>573</v>
       </c>
@@ -9340,7 +9385,7 @@
       <c r="AJ77" s="187"/>
       <c r="AK77" s="187"/>
     </row>
-    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="64" t="s">
         <v>573</v>
       </c>
@@ -9427,7 +9472,7 @@
       <c r="AJ78" s="187"/>
       <c r="AK78" s="187"/>
     </row>
-    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="64" t="s">
         <v>573</v>
       </c>
@@ -9514,7 +9559,7 @@
       <c r="AJ79" s="187"/>
       <c r="AK79" s="187"/>
     </row>
-    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="64" t="s">
         <v>588</v>
       </c>
@@ -9565,7 +9610,7 @@
       <c r="AJ80" s="187"/>
       <c r="AK80" s="187"/>
     </row>
-    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>573</v>
       </c>
@@ -9652,7 +9697,7 @@
       <c r="AJ81" s="187"/>
       <c r="AK81" s="187"/>
     </row>
-    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="64" t="s">
         <v>588</v>
       </c>
@@ -9703,7 +9748,7 @@
       <c r="AJ82" s="187"/>
       <c r="AK82" s="187"/>
     </row>
-    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="64" t="s">
         <v>573</v>
       </c>
@@ -9790,7 +9835,7 @@
       <c r="AJ83" s="187"/>
       <c r="AK83" s="187"/>
     </row>
-    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="64" t="s">
         <v>588</v>
       </c>
@@ -9841,7 +9886,7 @@
       <c r="AJ84" s="187"/>
       <c r="AK84" s="187"/>
     </row>
-    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
         <v>588</v>
       </c>
@@ -9892,7 +9937,7 @@
       <c r="AJ85" s="187"/>
       <c r="AK85" s="187"/>
     </row>
-    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="64" t="s">
         <v>567</v>
       </c>
@@ -9987,7 +10032,7 @@
       <c r="AJ86" s="187"/>
       <c r="AK86" s="187"/>
     </row>
-    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="64" t="s">
         <v>567</v>
       </c>
@@ -10082,7 +10127,7 @@
       <c r="AJ87" s="187"/>
       <c r="AK87" s="187"/>
     </row>
-    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="64" t="s">
         <v>588</v>
       </c>
@@ -10133,7 +10178,7 @@
       <c r="AJ88" s="187"/>
       <c r="AK88" s="187"/>
     </row>
-    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="64" t="s">
         <v>573</v>
       </c>
@@ -10220,7 +10265,7 @@
       <c r="AJ89" s="187"/>
       <c r="AK89" s="187"/>
     </row>
-    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="64" t="s">
         <v>573</v>
       </c>
@@ -10307,7 +10352,7 @@
       <c r="AJ90" s="187"/>
       <c r="AK90" s="187"/>
     </row>
-    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="64" t="s">
         <v>573</v>
       </c>
@@ -10394,7 +10439,7 @@
       <c r="AJ91" s="187"/>
       <c r="AK91" s="187"/>
     </row>
-    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>573</v>
       </c>
@@ -10481,7 +10526,7 @@
       <c r="AJ92" s="187"/>
       <c r="AK92" s="187"/>
     </row>
-    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>573</v>
       </c>
@@ -10568,7 +10613,7 @@
       <c r="AJ93" s="187"/>
       <c r="AK93" s="187"/>
     </row>
-    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>573</v>
       </c>
@@ -10655,7 +10700,7 @@
       <c r="AJ94" s="187"/>
       <c r="AK94" s="187"/>
     </row>
-    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>573</v>
       </c>
@@ -10742,7 +10787,7 @@
       <c r="AJ95" s="187"/>
       <c r="AK95" s="187"/>
     </row>
-    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>573</v>
       </c>
@@ -10829,7 +10874,7 @@
       <c r="AJ96" s="187"/>
       <c r="AK96" s="187"/>
     </row>
-    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>588</v>
       </c>
@@ -10880,7 +10925,7 @@
       <c r="AJ97" s="187"/>
       <c r="AK97" s="187"/>
     </row>
-    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>573</v>
       </c>
@@ -10967,7 +11012,7 @@
       <c r="AJ98" s="187"/>
       <c r="AK98" s="187"/>
     </row>
-    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>573</v>
       </c>
@@ -11054,7 +11099,7 @@
       <c r="AJ99" s="187"/>
       <c r="AK99" s="187"/>
     </row>
-    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>573</v>
       </c>
@@ -11141,7 +11186,7 @@
       <c r="AJ100" s="187"/>
       <c r="AK100" s="187"/>
     </row>
-    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="64" t="s">
         <v>588</v>
       </c>
@@ -11192,7 +11237,7 @@
       <c r="AJ101" s="187"/>
       <c r="AK101" s="187"/>
     </row>
-    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>573</v>
       </c>
@@ -11282,7 +11327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>573</v>
       </c>
@@ -11369,7 +11414,7 @@
       <c r="AJ103" s="187"/>
       <c r="AK103" s="187"/>
     </row>
-    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>573</v>
       </c>
@@ -11459,7 +11504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>573</v>
       </c>
@@ -11546,7 +11591,7 @@
       <c r="AJ105" s="187"/>
       <c r="AK105" s="187"/>
     </row>
-    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>573</v>
       </c>
@@ -11633,7 +11678,7 @@
       <c r="AJ106" s="187"/>
       <c r="AK106" s="187"/>
     </row>
-    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
         <v>588</v>
       </c>
@@ -11684,7 +11729,7 @@
       <c r="AJ107" s="187"/>
       <c r="AK107" s="187"/>
     </row>
-    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
         <v>588</v>
       </c>
@@ -11735,7 +11780,7 @@
       <c r="AJ108" s="187"/>
       <c r="AK108" s="187"/>
     </row>
-    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="64" t="s">
         <v>573</v>
       </c>
@@ -11822,7 +11867,7 @@
       <c r="AJ109" s="187"/>
       <c r="AK109" s="187"/>
     </row>
-    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="64" t="s">
         <v>588</v>
       </c>
@@ -11873,7 +11918,7 @@
       <c r="AJ110" s="187"/>
       <c r="AK110" s="187"/>
     </row>
-    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="64" t="s">
         <v>573</v>
       </c>
@@ -11960,7 +12005,7 @@
       <c r="AJ111" s="187"/>
       <c r="AK111" s="187"/>
     </row>
-    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="64" t="s">
         <v>588</v>
       </c>
@@ -12011,7 +12056,7 @@
       <c r="AJ112" s="187"/>
       <c r="AK112" s="187"/>
     </row>
-    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="64" t="s">
         <v>573</v>
       </c>
@@ -12098,7 +12143,7 @@
       <c r="AJ113" s="187"/>
       <c r="AK113" s="187"/>
     </row>
-    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>573</v>
       </c>
@@ -12185,7 +12230,7 @@
       <c r="AJ114" s="187"/>
       <c r="AK114" s="187"/>
     </row>
-    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>573</v>
       </c>
@@ -12272,7 +12317,7 @@
       <c r="AJ115" s="187"/>
       <c r="AK115" s="187"/>
     </row>
-    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="64" t="s">
         <v>573</v>
       </c>
@@ -12359,7 +12404,7 @@
       <c r="AJ116" s="187"/>
       <c r="AK116" s="187"/>
     </row>
-    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="64" t="s">
         <v>573</v>
       </c>
@@ -12446,7 +12491,7 @@
       <c r="AJ117" s="187"/>
       <c r="AK117" s="187"/>
     </row>
-    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="64" t="s">
         <v>573</v>
       </c>
@@ -12533,7 +12578,7 @@
       <c r="AJ118" s="187"/>
       <c r="AK118" s="187"/>
     </row>
-    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="64" t="s">
         <v>573</v>
       </c>
@@ -12620,7 +12665,7 @@
       <c r="AJ119" s="187"/>
       <c r="AK119" s="187"/>
     </row>
-    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="64" t="s">
         <v>573</v>
       </c>
@@ -12707,7 +12752,7 @@
       <c r="AJ120" s="187"/>
       <c r="AK120" s="187"/>
     </row>
-    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="64" t="s">
         <v>588</v>
       </c>
@@ -12758,7 +12803,7 @@
       <c r="AJ121" s="187"/>
       <c r="AK121" s="187"/>
     </row>
-    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="64" t="s">
         <v>562</v>
       </c>
@@ -12852,7 +12897,7 @@
       <c r="AJ122" s="187"/>
       <c r="AK122" s="187"/>
     </row>
-    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="64" t="s">
         <v>588</v>
       </c>
@@ -12903,7 +12948,7 @@
       <c r="AJ123" s="187"/>
       <c r="AK123" s="187"/>
     </row>
-    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="64" t="s">
         <v>567</v>
       </c>
@@ -12999,7 +13044,7 @@
       <c r="AJ124" s="187"/>
       <c r="AK124" s="187"/>
     </row>
-    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="64" t="s">
         <v>567</v>
       </c>
@@ -13095,7 +13140,7 @@
       <c r="AJ125" s="187"/>
       <c r="AK125" s="187"/>
     </row>
-    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="64" t="s">
         <v>588</v>
       </c>
@@ -13146,7 +13191,7 @@
       <c r="AJ126" s="187"/>
       <c r="AK126" s="187"/>
     </row>
-    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="64" t="s">
         <v>573</v>
       </c>
@@ -13233,7 +13278,7 @@
       <c r="AJ127" s="187"/>
       <c r="AK127" s="187"/>
     </row>
-    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="64" t="s">
         <v>567</v>
       </c>
@@ -13328,7 +13373,7 @@
       <c r="AJ128" s="187"/>
       <c r="AK128" s="187"/>
     </row>
-    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="64" t="s">
         <v>567</v>
       </c>
@@ -13423,7 +13468,7 @@
       <c r="AJ129" s="187"/>
       <c r="AK129" s="187"/>
     </row>
-    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="64" t="s">
         <v>567</v>
       </c>
@@ -13518,7 +13563,7 @@
       <c r="AJ130" s="187"/>
       <c r="AK130" s="187"/>
     </row>
-    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="64" t="s">
         <v>573</v>
       </c>
@@ -13605,7 +13650,7 @@
       <c r="AJ131" s="187"/>
       <c r="AK131" s="187"/>
     </row>
-    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="64" t="s">
         <v>555</v>
       </c>
@@ -13692,7 +13737,7 @@
       <c r="AJ132" s="187"/>
       <c r="AK132" s="187"/>
     </row>
-    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="64" t="s">
         <v>562</v>
       </c>
@@ -13786,7 +13831,7 @@
       <c r="AJ133" s="187"/>
       <c r="AK133" s="187"/>
     </row>
-    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="64" t="s">
         <v>588</v>
       </c>
@@ -13837,7 +13882,7 @@
       <c r="AJ134" s="187"/>
       <c r="AK134" s="187"/>
     </row>
-    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="64" t="s">
         <v>588</v>
       </c>
@@ -13888,7 +13933,7 @@
       <c r="AJ135" s="187"/>
       <c r="AK135" s="187"/>
     </row>
-    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="64" t="s">
         <v>588</v>
       </c>
@@ -13939,7 +13984,7 @@
       <c r="AJ136" s="187"/>
       <c r="AK136" s="187"/>
     </row>
-    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="64" t="s">
         <v>588</v>
       </c>
@@ -13990,7 +14035,7 @@
       <c r="AJ137" s="187"/>
       <c r="AK137" s="187"/>
     </row>
-    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="64" t="s">
         <v>573</v>
       </c>
@@ -14080,7 +14125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="64" t="s">
         <v>573</v>
       </c>
@@ -14170,7 +14215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="64" t="s">
         <v>588</v>
       </c>
@@ -14221,7 +14266,7 @@
       <c r="AJ140" s="187"/>
       <c r="AK140" s="187"/>
     </row>
-    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="64" t="s">
         <v>573</v>
       </c>
@@ -14311,7 +14356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="64" t="s">
         <v>588</v>
       </c>
@@ -14362,7 +14407,7 @@
       <c r="AJ142" s="187"/>
       <c r="AK142" s="187"/>
     </row>
-    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="64" t="s">
         <v>567</v>
       </c>
@@ -14458,7 +14503,7 @@
       <c r="AJ143" s="187"/>
       <c r="AK143" s="187"/>
     </row>
-    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="64" t="s">
         <v>567</v>
       </c>
@@ -14554,7 +14599,7 @@
       <c r="AJ144" s="187"/>
       <c r="AK144" s="187"/>
     </row>
-    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="64" t="s">
         <v>567</v>
       </c>
@@ -14650,7 +14695,7 @@
       <c r="AJ145" s="187"/>
       <c r="AK145" s="187"/>
     </row>
-    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="64" t="s">
         <v>573</v>
       </c>
@@ -14737,7 +14782,7 @@
       <c r="AJ146" s="187"/>
       <c r="AK146" s="187"/>
     </row>
-    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="64" t="s">
         <v>573</v>
       </c>
@@ -14824,7 +14869,7 @@
       <c r="AJ147" s="187"/>
       <c r="AK147" s="187"/>
     </row>
-    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="64" t="s">
         <v>573</v>
       </c>
@@ -14911,7 +14956,7 @@
       <c r="AJ148" s="187"/>
       <c r="AK148" s="187"/>
     </row>
-    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="64" t="s">
         <v>588</v>
       </c>
@@ -14962,7 +15007,7 @@
       <c r="AJ149" s="187"/>
       <c r="AK149" s="187"/>
     </row>
-    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="64" t="s">
         <v>588</v>
       </c>
@@ -15013,7 +15058,7 @@
       <c r="AJ150" s="187"/>
       <c r="AK150" s="187"/>
     </row>
-    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="64" t="s">
         <v>573</v>
       </c>
@@ -15100,7 +15145,7 @@
       <c r="AJ151" s="187"/>
       <c r="AK151" s="187"/>
     </row>
-    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="64" t="s">
         <v>567</v>
       </c>
@@ -15196,7 +15241,7 @@
       <c r="AJ152" s="187"/>
       <c r="AK152" s="187"/>
     </row>
-    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="64" t="s">
         <v>588</v>
       </c>
@@ -15247,7 +15292,7 @@
       <c r="AJ153" s="187"/>
       <c r="AK153" s="187"/>
     </row>
-    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="64" t="s">
         <v>573</v>
       </c>
@@ -15334,7 +15379,7 @@
       <c r="AJ154" s="187"/>
       <c r="AK154" s="187"/>
     </row>
-    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>573</v>
       </c>
@@ -15421,7 +15466,7 @@
       <c r="AJ155" s="187"/>
       <c r="AK155" s="187"/>
     </row>
-    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="64" t="s">
         <v>573</v>
       </c>
@@ -15508,7 +15553,7 @@
       <c r="AJ156" s="187"/>
       <c r="AK156" s="187"/>
     </row>
-    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="64" t="s">
         <v>573</v>
       </c>
@@ -15595,7 +15640,7 @@
       <c r="AJ157" s="187"/>
       <c r="AK157" s="187"/>
     </row>
-    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="64" t="s">
         <v>573</v>
       </c>
@@ -15682,7 +15727,7 @@
       <c r="AJ158" s="187"/>
       <c r="AK158" s="187"/>
     </row>
-    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>573</v>
       </c>
@@ -15769,7 +15814,7 @@
       <c r="AJ159" s="187"/>
       <c r="AK159" s="187"/>
     </row>
-    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="64" t="s">
         <v>573</v>
       </c>
@@ -15856,7 +15901,7 @@
       <c r="AJ160" s="187"/>
       <c r="AK160" s="187"/>
     </row>
-    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>573</v>
       </c>
@@ -15943,7 +15988,7 @@
       <c r="AJ161" s="187"/>
       <c r="AK161" s="187"/>
     </row>
-    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="64" t="s">
         <v>573</v>
       </c>
@@ -16030,7 +16075,7 @@
       <c r="AJ162" s="187"/>
       <c r="AK162" s="187"/>
     </row>
-    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>573</v>
       </c>
@@ -16117,7 +16162,7 @@
       <c r="AJ163" s="187"/>
       <c r="AK163" s="187"/>
     </row>
-    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="64" t="s">
         <v>573</v>
       </c>
@@ -16204,7 +16249,7 @@
       <c r="AJ164" s="187"/>
       <c r="AK164" s="187"/>
     </row>
-    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="64" t="s">
         <v>588</v>
       </c>
@@ -16255,7 +16300,7 @@
       <c r="AJ165" s="187"/>
       <c r="AK165" s="187"/>
     </row>
-    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>573</v>
       </c>
@@ -16342,7 +16387,7 @@
       <c r="AJ166" s="187"/>
       <c r="AK166" s="187"/>
     </row>
-    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>573</v>
       </c>
@@ -16429,7 +16474,7 @@
       <c r="AJ167" s="187"/>
       <c r="AK167" s="187"/>
     </row>
-    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>573</v>
       </c>
@@ -16516,7 +16561,7 @@
       <c r="AJ168" s="187"/>
       <c r="AK168" s="187"/>
     </row>
-    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>573</v>
       </c>
@@ -16603,7 +16648,7 @@
       <c r="AJ169" s="187"/>
       <c r="AK169" s="187"/>
     </row>
-    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>573</v>
       </c>
@@ -16690,7 +16735,7 @@
       <c r="AJ170" s="187"/>
       <c r="AK170" s="187"/>
     </row>
-    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>573</v>
       </c>
@@ -16777,7 +16822,7 @@
       <c r="AJ171" s="187"/>
       <c r="AK171" s="187"/>
     </row>
-    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>573</v>
       </c>
@@ -16864,7 +16909,7 @@
       <c r="AJ172" s="187"/>
       <c r="AK172" s="187"/>
     </row>
-    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="64" t="s">
         <v>573</v>
       </c>
@@ -16951,7 +16996,7 @@
       <c r="AJ173" s="187"/>
       <c r="AK173" s="187"/>
     </row>
-    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="64" t="s">
         <v>588</v>
       </c>
@@ -17002,7 +17047,7 @@
       <c r="AJ174" s="187"/>
       <c r="AK174" s="187"/>
     </row>
-    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="64" t="s">
         <v>573</v>
       </c>
@@ -17089,7 +17134,7 @@
       <c r="AJ175" s="187"/>
       <c r="AK175" s="187"/>
     </row>
-    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="64" t="s">
         <v>573</v>
       </c>
@@ -17176,7 +17221,7 @@
       <c r="AJ176" s="187"/>
       <c r="AK176" s="187"/>
     </row>
-    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="64" t="s">
         <v>573</v>
       </c>
@@ -17263,7 +17308,7 @@
       <c r="AJ177" s="187"/>
       <c r="AK177" s="187"/>
     </row>
-    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="64" t="s">
         <v>588</v>
       </c>
@@ -17314,7 +17359,7 @@
       <c r="AJ178" s="187"/>
       <c r="AK178" s="187"/>
     </row>
-    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>573</v>
       </c>
@@ -17401,7 +17446,7 @@
       <c r="AJ179" s="187"/>
       <c r="AK179" s="187"/>
     </row>
-    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>573</v>
       </c>
@@ -17488,7 +17533,7 @@
       <c r="AJ180" s="187"/>
       <c r="AK180" s="187"/>
     </row>
-    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>573</v>
       </c>
@@ -17575,7 +17620,7 @@
       <c r="AJ181" s="187"/>
       <c r="AK181" s="187"/>
     </row>
-    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="64" t="s">
         <v>588</v>
       </c>
@@ -17626,7 +17671,7 @@
       <c r="AJ182" s="187"/>
       <c r="AK182" s="187"/>
     </row>
-    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>573</v>
       </c>
@@ -17713,7 +17758,7 @@
       <c r="AJ183" s="187"/>
       <c r="AK183" s="187"/>
     </row>
-    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>573</v>
       </c>
@@ -17800,7 +17845,7 @@
       <c r="AJ184" s="187"/>
       <c r="AK184" s="187"/>
     </row>
-    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="64" t="s">
         <v>573</v>
       </c>
@@ -17890,7 +17935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="64" t="s">
         <v>573</v>
       </c>
@@ -17980,7 +18025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="64" t="s">
         <v>588</v>
       </c>
@@ -18031,7 +18076,7 @@
       <c r="AJ187" s="187"/>
       <c r="AK187" s="187"/>
     </row>
-    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="64" t="s">
         <v>567</v>
       </c>
@@ -18127,7 +18172,7 @@
       <c r="AJ188" s="187"/>
       <c r="AK188" s="187"/>
     </row>
-    <row r="189" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="64" t="s">
         <v>567</v>
       </c>
@@ -18223,7 +18268,7 @@
       <c r="AJ189" s="187"/>
       <c r="AK189" s="187"/>
     </row>
-    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="64" t="s">
         <v>588</v>
       </c>
@@ -18274,7 +18319,7 @@
       <c r="AJ190" s="187"/>
       <c r="AK190" s="187"/>
     </row>
-    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="64" t="s">
         <v>573</v>
       </c>
@@ -18361,7 +18406,7 @@
       <c r="AJ191" s="187"/>
       <c r="AK191" s="187"/>
     </row>
-    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="64" t="s">
         <v>573</v>
       </c>
@@ -18448,7 +18493,7 @@
       <c r="AJ192" s="187"/>
       <c r="AK192" s="187"/>
     </row>
-    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="64" t="s">
         <v>573</v>
       </c>
@@ -18535,7 +18580,7 @@
       <c r="AJ193" s="187"/>
       <c r="AK193" s="187"/>
     </row>
-    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>573</v>
       </c>
@@ -18622,7 +18667,7 @@
       <c r="AJ194" s="187"/>
       <c r="AK194" s="187"/>
     </row>
-    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>573</v>
       </c>
@@ -18709,7 +18754,7 @@
       <c r="AJ195" s="187"/>
       <c r="AK195" s="187"/>
     </row>
-    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>573</v>
       </c>
@@ -18796,7 +18841,7 @@
       <c r="AJ196" s="187"/>
       <c r="AK196" s="187"/>
     </row>
-    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>573</v>
       </c>
@@ -18883,7 +18928,7 @@
       <c r="AJ197" s="187"/>
       <c r="AK197" s="187"/>
     </row>
-    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>573</v>
       </c>
@@ -18970,7 +19015,7 @@
       <c r="AJ198" s="187"/>
       <c r="AK198" s="187"/>
     </row>
-    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="64" t="s">
         <v>573</v>
       </c>
@@ -19057,7 +19102,7 @@
       <c r="AJ199" s="187"/>
       <c r="AK199" s="187"/>
     </row>
-    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>573</v>
       </c>
@@ -19144,7 +19189,7 @@
       <c r="AJ200" s="187"/>
       <c r="AK200" s="187"/>
     </row>
-    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="64" t="s">
         <v>573</v>
       </c>
@@ -19231,7 +19276,7 @@
       <c r="AJ201" s="187"/>
       <c r="AK201" s="187"/>
     </row>
-    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="64" t="s">
         <v>573</v>
       </c>
@@ -19318,7 +19363,7 @@
       <c r="AJ202" s="187"/>
       <c r="AK202" s="187"/>
     </row>
-    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="64" t="s">
         <v>588</v>
       </c>
@@ -19369,7 +19414,7 @@
       <c r="AJ203" s="187"/>
       <c r="AK203" s="187"/>
     </row>
-    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="64" t="s">
         <v>573</v>
       </c>
@@ -19456,7 +19501,7 @@
       <c r="AJ204" s="187"/>
       <c r="AK204" s="187"/>
     </row>
-    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="64" t="s">
         <v>573</v>
       </c>
@@ -19546,7 +19591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="64" t="s">
         <v>573</v>
       </c>
@@ -19633,7 +19678,7 @@
       <c r="AJ206" s="187"/>
       <c r="AK206" s="187"/>
     </row>
-    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="64" t="s">
         <v>573</v>
       </c>
@@ -19720,7 +19765,7 @@
       <c r="AJ207" s="187"/>
       <c r="AK207" s="187"/>
     </row>
-    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="64" t="s">
         <v>573</v>
       </c>
@@ -19807,7 +19852,7 @@
       <c r="AJ208" s="187"/>
       <c r="AK208" s="187"/>
     </row>
-    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="64" t="s">
         <v>588</v>
       </c>
@@ -19858,7 +19903,7 @@
       <c r="AJ209" s="187"/>
       <c r="AK209" s="187"/>
     </row>
-    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="64" t="s">
         <v>588</v>
       </c>
@@ -19909,7 +19954,7 @@
       <c r="AJ210" s="187"/>
       <c r="AK210" s="187"/>
     </row>
-    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="64" t="s">
         <v>571</v>
       </c>
@@ -19996,7 +20041,7 @@
       <c r="AJ211" s="187"/>
       <c r="AK211" s="187"/>
     </row>
-    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="64" t="s">
         <v>571</v>
       </c>
@@ -20083,7 +20128,7 @@
       <c r="AJ212" s="187"/>
       <c r="AK212" s="187"/>
     </row>
-    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="64" t="s">
         <v>571</v>
       </c>
@@ -20170,7 +20215,7 @@
       <c r="AJ213" s="187"/>
       <c r="AK213" s="187"/>
     </row>
-    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="64" t="s">
         <v>571</v>
       </c>
@@ -20257,7 +20302,7 @@
       <c r="AJ214" s="187"/>
       <c r="AK214" s="187"/>
     </row>
-    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="64" t="s">
         <v>571</v>
       </c>
@@ -20344,7 +20389,7 @@
       <c r="AJ215" s="187"/>
       <c r="AK215" s="187"/>
     </row>
-    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="64" t="s">
         <v>571</v>
       </c>
@@ -20431,7 +20476,7 @@
       <c r="AJ216" s="187"/>
       <c r="AK216" s="187"/>
     </row>
-    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="64" t="s">
         <v>571</v>
       </c>
@@ -20518,7 +20563,7 @@
       <c r="AJ217" s="187"/>
       <c r="AK217" s="187"/>
     </row>
-    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="64" t="s">
         <v>571</v>
       </c>
@@ -20605,7 +20650,7 @@
       <c r="AJ218" s="187"/>
       <c r="AK218" s="187"/>
     </row>
-    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="64" t="s">
         <v>571</v>
       </c>
@@ -20692,7 +20737,7 @@
       <c r="AJ219" s="187"/>
       <c r="AK219" s="187"/>
     </row>
-    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="64" t="s">
         <v>571</v>
       </c>
@@ -20779,7 +20824,7 @@
       <c r="AJ220" s="187"/>
       <c r="AK220" s="187"/>
     </row>
-    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="64" t="s">
         <v>588</v>
       </c>
@@ -20830,7 +20875,7 @@
       <c r="AJ221" s="187"/>
       <c r="AK221" s="187"/>
     </row>
-    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="64" t="s">
         <v>571</v>
       </c>
@@ -20917,7 +20962,7 @@
       <c r="AJ222" s="187"/>
       <c r="AK222" s="187"/>
     </row>
-    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="64" t="s">
         <v>571</v>
       </c>
@@ -21004,7 +21049,7 @@
       <c r="AJ223" s="187"/>
       <c r="AK223" s="187"/>
     </row>
-    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="64" t="s">
         <v>571</v>
       </c>
@@ -21091,7 +21136,7 @@
       <c r="AJ224" s="187"/>
       <c r="AK224" s="187"/>
     </row>
-    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="64" t="s">
         <v>571</v>
       </c>
@@ -21178,7 +21223,7 @@
       <c r="AJ225" s="187"/>
       <c r="AK225" s="187"/>
     </row>
-    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="64" t="s">
         <v>571</v>
       </c>
@@ -21265,7 +21310,7 @@
       <c r="AJ226" s="187"/>
       <c r="AK226" s="187"/>
     </row>
-    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="64" t="s">
         <v>571</v>
       </c>
@@ -21352,7 +21397,7 @@
       <c r="AJ227" s="187"/>
       <c r="AK227" s="187"/>
     </row>
-    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="64" t="s">
         <v>571</v>
       </c>
@@ -21439,7 +21484,7 @@
       <c r="AJ228" s="187"/>
       <c r="AK228" s="187"/>
     </row>
-    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="64" t="s">
         <v>571</v>
       </c>
@@ -21526,7 +21571,7 @@
       <c r="AJ229" s="187"/>
       <c r="AK229" s="187"/>
     </row>
-    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="64" t="s">
         <v>571</v>
       </c>
@@ -21613,7 +21658,7 @@
       <c r="AJ230" s="187"/>
       <c r="AK230" s="187"/>
     </row>
-    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:37" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="64" t="s">
         <v>571</v>
       </c>
@@ -21700,7 +21745,7 @@
       <c r="AJ231" s="187"/>
       <c r="AK231" s="187"/>
     </row>
-    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="54" t="s">
         <v>588</v>
       </c>
@@ -21764,7 +21809,7 @@
       <c r="AJ232" s="188"/>
       <c r="AK232" s="188"/>
     </row>
-    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="54" t="s">
         <v>588</v>
       </c>
@@ -21828,7 +21873,7 @@
       <c r="AJ233" s="188"/>
       <c r="AK233" s="188"/>
     </row>
-    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="54" t="s">
         <v>588</v>
       </c>
@@ -21892,7 +21937,7 @@
       <c r="AJ234" s="188"/>
       <c r="AK234" s="188"/>
     </row>
-    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>573</v>
       </c>
@@ -21979,7 +22024,7 @@
       <c r="AJ235" s="188"/>
       <c r="AK235" s="188"/>
     </row>
-    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>573</v>
       </c>
@@ -22066,7 +22111,7 @@
       <c r="AJ236" s="188"/>
       <c r="AK236" s="188"/>
     </row>
-    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>573</v>
       </c>
@@ -22153,7 +22198,7 @@
       <c r="AJ237" s="188"/>
       <c r="AK237" s="188"/>
     </row>
-    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>573</v>
       </c>
@@ -22240,7 +22285,7 @@
       <c r="AJ238" s="188"/>
       <c r="AK238" s="188"/>
     </row>
-    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="54" t="s">
         <v>573</v>
       </c>
@@ -22327,7 +22372,7 @@
       <c r="AJ239" s="188"/>
       <c r="AK239" s="188"/>
     </row>
-    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="54" t="s">
         <v>573</v>
       </c>
@@ -22414,7 +22459,7 @@
       <c r="AJ240" s="188"/>
       <c r="AK240" s="188"/>
     </row>
-    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="54" t="s">
         <v>588</v>
       </c>
@@ -22475,7 +22520,7 @@
       <c r="AJ241" s="188"/>
       <c r="AK241" s="188"/>
     </row>
-    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>573</v>
       </c>
@@ -22562,7 +22607,7 @@
       <c r="AJ242" s="188"/>
       <c r="AK242" s="188"/>
     </row>
-    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="54" t="s">
         <v>573</v>
       </c>
@@ -22649,7 +22694,7 @@
       <c r="AJ243" s="188"/>
       <c r="AK243" s="188"/>
     </row>
-    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="54" t="s">
         <v>573</v>
       </c>
@@ -22736,7 +22781,7 @@
       <c r="AJ244" s="188"/>
       <c r="AK244" s="188"/>
     </row>
-    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="54" t="s">
         <v>588</v>
       </c>
@@ -22784,7 +22829,7 @@
       <c r="AJ245" s="188"/>
       <c r="AK245" s="188"/>
     </row>
-    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="54" t="s">
         <v>588</v>
       </c>
@@ -22832,7 +22877,7 @@
       <c r="AJ246" s="188"/>
       <c r="AK246" s="188"/>
     </row>
-    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>573</v>
       </c>
@@ -22919,7 +22964,7 @@
       <c r="AJ247" s="188"/>
       <c r="AK247" s="188"/>
     </row>
-    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="54" t="s">
         <v>588</v>
       </c>
@@ -22967,7 +23012,7 @@
       <c r="AJ248" s="188"/>
       <c r="AK248" s="188"/>
     </row>
-    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="54" t="s">
         <v>588</v>
       </c>
@@ -23015,7 +23060,7 @@
       <c r="AJ249" s="188"/>
       <c r="AK249" s="188"/>
     </row>
-    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>573</v>
       </c>
@@ -23102,7 +23147,7 @@
       <c r="AJ250" s="188"/>
       <c r="AK250" s="188"/>
     </row>
-    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>573</v>
       </c>
@@ -23189,7 +23234,7 @@
       <c r="AJ251" s="188"/>
       <c r="AK251" s="188"/>
     </row>
-    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="54" t="s">
         <v>588</v>
       </c>
@@ -23237,7 +23282,7 @@
       <c r="AJ252" s="188"/>
       <c r="AK252" s="188"/>
     </row>
-    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="54" t="s">
         <v>573</v>
       </c>
@@ -23324,7 +23369,7 @@
       <c r="AJ253" s="188"/>
       <c r="AK253" s="188"/>
     </row>
-    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="54" t="s">
         <v>573</v>
       </c>
@@ -23411,7 +23456,7 @@
       <c r="AJ254" s="188"/>
       <c r="AK254" s="188"/>
     </row>
-    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="54" t="s">
         <v>573</v>
       </c>
@@ -23498,7 +23543,7 @@
       <c r="AJ255" s="188"/>
       <c r="AK255" s="188"/>
     </row>
-    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="54" t="s">
         <v>588</v>
       </c>
@@ -23546,7 +23591,7 @@
       <c r="AJ256" s="188"/>
       <c r="AK256" s="188"/>
     </row>
-    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="54" t="s">
         <v>588</v>
       </c>
@@ -23594,7 +23639,7 @@
       <c r="AJ257" s="188"/>
       <c r="AK257" s="188"/>
     </row>
-    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>573</v>
       </c>
@@ -23681,7 +23726,7 @@
       <c r="AJ258" s="188"/>
       <c r="AK258" s="188"/>
     </row>
-    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="54" t="s">
         <v>588</v>
       </c>
@@ -23729,7 +23774,7 @@
       <c r="AJ259" s="188"/>
       <c r="AK259" s="188"/>
     </row>
-    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="54" t="s">
         <v>588</v>
       </c>
@@ -23777,7 +23822,7 @@
       <c r="AJ260" s="188"/>
       <c r="AK260" s="188"/>
     </row>
-    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>573</v>
       </c>
@@ -23864,7 +23909,7 @@
       <c r="AJ261" s="188"/>
       <c r="AK261" s="188"/>
     </row>
-    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>573</v>
       </c>
@@ -23951,7 +23996,7 @@
       <c r="AJ262" s="188"/>
       <c r="AK262" s="188"/>
     </row>
-    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="54" t="s">
         <v>588</v>
       </c>
@@ -23999,7 +24044,7 @@
       <c r="AJ263" s="188"/>
       <c r="AK263" s="188"/>
     </row>
-    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="64" t="s">
         <v>571</v>
       </c>
@@ -24096,7 +24141,7 @@
       <c r="AJ264" s="188"/>
       <c r="AK264" s="188"/>
     </row>
-    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="148" t="s">
         <v>562</v>
       </c>
@@ -24190,7 +24235,7 @@
       <c r="AJ265" s="188"/>
       <c r="AK265" s="188"/>
     </row>
-    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="54" t="s">
         <v>588</v>
       </c>
@@ -24238,7 +24283,7 @@
       <c r="AJ266" s="188"/>
       <c r="AK266" s="188"/>
     </row>
-    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="54" t="s">
         <v>573</v>
       </c>
@@ -24325,7 +24370,7 @@
       <c r="AJ267" s="188"/>
       <c r="AK267" s="188"/>
     </row>
-    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="148" t="s">
         <v>574</v>
       </c>
@@ -24412,7 +24457,7 @@
       <c r="AJ268" s="188"/>
       <c r="AK268" s="188"/>
     </row>
-    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="54" t="s">
         <v>573</v>
       </c>
@@ -24499,7 +24544,7 @@
       <c r="AJ269" s="188"/>
       <c r="AK269" s="188"/>
     </row>
-    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="54" t="s">
         <v>573</v>
       </c>
@@ -24586,7 +24631,7 @@
       <c r="AJ270" s="188"/>
       <c r="AK270" s="188"/>
     </row>
-    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="148" t="s">
         <v>563</v>
       </c>
@@ -24653,7 +24698,7 @@
       <c r="AJ271" s="188"/>
       <c r="AK271" s="188"/>
     </row>
-    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="148" t="s">
         <v>563</v>
       </c>
@@ -24714,7 +24759,7 @@
       <c r="AJ272" s="188"/>
       <c r="AK272" s="188"/>
     </row>
-    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="148" t="s">
         <v>563</v>
       </c>
@@ -24775,7 +24820,7 @@
       <c r="AJ273" s="188"/>
       <c r="AK273" s="188"/>
     </row>
-    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="148" t="s">
         <v>563</v>
       </c>
@@ -24844,7 +24889,7 @@
       <c r="AJ274" s="188"/>
       <c r="AK274" s="188"/>
     </row>
-    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="54" t="s">
         <v>588</v>
       </c>
@@ -24892,7 +24937,7 @@
       <c r="AJ275" s="188"/>
       <c r="AK275" s="188"/>
     </row>
-    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="54" t="s">
         <v>573</v>
       </c>
@@ -24979,7 +25024,7 @@
       <c r="AJ276" s="188"/>
       <c r="AK276" s="188"/>
     </row>
-    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="54" t="s">
         <v>588</v>
       </c>
@@ -25027,7 +25072,7 @@
       <c r="AJ277" s="188"/>
       <c r="AK277" s="188"/>
     </row>
-    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="148" t="s">
         <v>562</v>
       </c>
@@ -25121,7 +25166,7 @@
       <c r="AJ278" s="188"/>
       <c r="AK278" s="188"/>
     </row>
-    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="148" t="s">
         <v>562</v>
       </c>
@@ -25215,7 +25260,7 @@
       <c r="AJ279" s="188"/>
       <c r="AK279" s="188"/>
     </row>
-    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="148" t="s">
         <v>562</v>
       </c>
@@ -25309,7 +25354,7 @@
       <c r="AJ280" s="188"/>
       <c r="AK280" s="188"/>
     </row>
-    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="54" t="s">
         <v>588</v>
       </c>
@@ -25357,7 +25402,7 @@
       <c r="AJ281" s="188"/>
       <c r="AK281" s="188"/>
     </row>
-    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="54" t="s">
         <v>588</v>
       </c>
@@ -25405,7 +25450,7 @@
       <c r="AJ282" s="188"/>
       <c r="AK282" s="188"/>
     </row>
-    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>564</v>
       </c>
@@ -25499,7 +25544,7 @@
         <v>92300</v>
       </c>
     </row>
-    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="54" t="s">
         <v>588</v>
       </c>
@@ -25547,7 +25592,7 @@
       <c r="AJ284" s="188"/>
       <c r="AK284" s="188"/>
     </row>
-    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="64" t="s">
         <v>555</v>
       </c>
@@ -25644,7 +25689,7 @@
       <c r="AJ285" s="188"/>
       <c r="AK285" s="188"/>
     </row>
-    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="64" t="s">
         <v>555</v>
       </c>
@@ -25741,7 +25786,7 @@
       <c r="AJ286" s="188"/>
       <c r="AK286" s="188"/>
     </row>
-    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="54" t="s">
         <v>588</v>
       </c>
@@ -25789,7 +25834,7 @@
       <c r="AJ287" s="188"/>
       <c r="AK287" s="188"/>
     </row>
-    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>573</v>
       </c>
@@ -25876,7 +25921,7 @@
       <c r="AJ288" s="188"/>
       <c r="AK288" s="188"/>
     </row>
-    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>573</v>
       </c>
@@ -25963,7 +26008,7 @@
       <c r="AJ289" s="188"/>
       <c r="AK289" s="188"/>
     </row>
-    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>573</v>
       </c>
@@ -26050,7 +26095,7 @@
       <c r="AJ290" s="188"/>
       <c r="AK290" s="188"/>
     </row>
-    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>573</v>
       </c>
@@ -26137,7 +26182,7 @@
       <c r="AJ291" s="188"/>
       <c r="AK291" s="188"/>
     </row>
-    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="54" t="s">
         <v>588</v>
       </c>
@@ -26185,7 +26230,7 @@
       <c r="AJ292" s="188"/>
       <c r="AK292" s="188"/>
     </row>
-    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="54" t="s">
         <v>573</v>
       </c>
@@ -26272,7 +26317,7 @@
       <c r="AJ293" s="188"/>
       <c r="AK293" s="188"/>
     </row>
-    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="54" t="s">
         <v>573</v>
       </c>
@@ -26359,7 +26404,7 @@
       <c r="AJ294" s="188"/>
       <c r="AK294" s="188"/>
     </row>
-    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="54" t="s">
         <v>573</v>
       </c>
@@ -26446,7 +26491,7 @@
       <c r="AJ295" s="188"/>
       <c r="AK295" s="188"/>
     </row>
-    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="207" t="s">
         <v>562</v>
       </c>
@@ -26540,7 +26585,7 @@
       <c r="AJ296" s="188"/>
       <c r="AK296" s="188"/>
     </row>
-    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="54" t="s">
         <v>573</v>
       </c>
@@ -26627,7 +26672,7 @@
       <c r="AJ297" s="188"/>
       <c r="AK297" s="188"/>
     </row>
-    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="54" t="s">
         <v>573</v>
       </c>
@@ -26714,7 +26759,7 @@
       <c r="AJ298" s="188"/>
       <c r="AK298" s="188"/>
     </row>
-    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="54" t="s">
         <v>573</v>
       </c>
@@ -26801,7 +26846,7 @@
       <c r="AJ299" s="188"/>
       <c r="AK299" s="188"/>
     </row>
-    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="54" t="s">
         <v>573</v>
       </c>
@@ -26888,7 +26933,7 @@
       <c r="AJ300" s="188"/>
       <c r="AK300" s="188"/>
     </row>
-    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="54" t="s">
         <v>573</v>
       </c>
@@ -26975,7 +27020,7 @@
       <c r="AJ301" s="188"/>
       <c r="AK301" s="188"/>
     </row>
-    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="54" t="s">
         <v>573</v>
       </c>
@@ -27062,7 +27107,7 @@
       <c r="AJ302" s="188"/>
       <c r="AK302" s="188"/>
     </row>
-    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="54" t="s">
         <v>573</v>
       </c>
@@ -27149,7 +27194,7 @@
       <c r="AJ303" s="188"/>
       <c r="AK303" s="188"/>
     </row>
-    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="54" t="s">
         <v>589</v>
       </c>
@@ -27197,7 +27242,7 @@
       <c r="AJ304" s="188"/>
       <c r="AK304" s="188"/>
     </row>
-    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="54" t="s">
         <v>573</v>
       </c>
@@ -27284,7 +27329,7 @@
       <c r="AJ305" s="188"/>
       <c r="AK305" s="188"/>
     </row>
-    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="54" t="s">
         <v>573</v>
       </c>
@@ -27371,7 +27416,7 @@
       <c r="AJ306" s="188"/>
       <c r="AK306" s="188"/>
     </row>
-    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="54" t="s">
         <v>573</v>
       </c>
@@ -27458,7 +27503,7 @@
       <c r="AJ307" s="188"/>
       <c r="AK307" s="188"/>
     </row>
-    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="54" t="s">
         <v>573</v>
       </c>
@@ -27545,7 +27590,7 @@
       <c r="AJ308" s="188"/>
       <c r="AK308" s="188"/>
     </row>
-    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="54" t="s">
         <v>573</v>
       </c>
@@ -27632,7 +27677,7 @@
       <c r="AJ309" s="188"/>
       <c r="AK309" s="188"/>
     </row>
-    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="54" t="s">
         <v>573</v>
       </c>
@@ -27719,7 +27764,7 @@
       <c r="AJ310" s="188"/>
       <c r="AK310" s="188"/>
     </row>
-    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="54" t="s">
         <v>573</v>
       </c>
@@ -27806,7 +27851,7 @@
       <c r="AJ311" s="188"/>
       <c r="AK311" s="188"/>
     </row>
-    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="54" t="s">
         <v>573</v>
       </c>
@@ -27893,7 +27938,7 @@
       <c r="AJ312" s="188"/>
       <c r="AK312" s="188"/>
     </row>
-    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="54" t="s">
         <v>573</v>
       </c>
@@ -27980,7 +28025,7 @@
       <c r="AJ313" s="188"/>
       <c r="AK313" s="188"/>
     </row>
-    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="54" t="s">
         <v>573</v>
       </c>
@@ -28067,7 +28112,7 @@
       <c r="AJ314" s="188"/>
       <c r="AK314" s="188"/>
     </row>
-    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="54" t="s">
         <v>573</v>
       </c>
@@ -28154,7 +28199,7 @@
       <c r="AJ315" s="188"/>
       <c r="AK315" s="188"/>
     </row>
-    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="54" t="s">
         <v>573</v>
       </c>
@@ -28241,7 +28286,7 @@
       <c r="AJ316" s="188"/>
       <c r="AK316" s="188"/>
     </row>
-    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="54" t="s">
         <v>573</v>
       </c>
@@ -28328,7 +28373,7 @@
       <c r="AJ317" s="188"/>
       <c r="AK317" s="188"/>
     </row>
-    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="54" t="s">
         <v>573</v>
       </c>
@@ -28415,7 +28460,7 @@
       <c r="AJ318" s="188"/>
       <c r="AK318" s="188"/>
     </row>
-    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="54" t="s">
         <v>573</v>
       </c>
@@ -28502,7 +28547,7 @@
       <c r="AJ319" s="188"/>
       <c r="AK319" s="188"/>
     </row>
-    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="54" t="s">
         <v>588</v>
       </c>
@@ -28569,7 +28614,7 @@
       <c r="AJ320" s="188"/>
       <c r="AK320" s="188"/>
     </row>
-    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="207" t="s">
         <v>562</v>
       </c>
@@ -28663,7 +28708,7 @@
       <c r="AJ321" s="188"/>
       <c r="AK321" s="188"/>
     </row>
-    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="54" t="s">
         <v>588</v>
       </c>
@@ -28730,7 +28775,7 @@
       <c r="AJ322" s="188"/>
       <c r="AK322" s="188"/>
     </row>
-    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="207" t="s">
         <v>562</v>
       </c>
@@ -28823,14 +28868,14 @@
       <c r="AJ323" s="188"/>
       <c r="AK323" s="188"/>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A324" s="153" t="s">
         <v>567</v>
       </c>
-      <c r="B324" s="234" t="s">
+      <c r="B324" s="245" t="s">
         <v>560</v>
       </c>
-      <c r="C324" s="234"/>
+      <c r="C324" s="245"/>
       <c r="D324" s="131"/>
       <c r="E324" s="216"/>
       <c r="F324" s="170"/>
@@ -28858,7 +28903,7 @@
       <c r="AJ324" s="189"/>
       <c r="AK324" s="189"/>
     </row>
-    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="153" t="s">
         <v>567</v>
       </c>
@@ -28903,7 +28948,7 @@
       <c r="AJ325" s="190"/>
       <c r="AK325" s="190"/>
     </row>
-    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="153" t="s">
         <v>567</v>
       </c>
@@ -28948,7 +28993,7 @@
       <c r="AJ326" s="190"/>
       <c r="AK326" s="190"/>
     </row>
-    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="153" t="s">
         <v>567</v>
       </c>
@@ -28993,7 +29038,7 @@
       <c r="AJ327" s="190"/>
       <c r="AK327" s="190"/>
     </row>
-    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="153" t="s">
         <v>567</v>
       </c>
@@ -29079,7 +29124,7 @@
       <c r="AJ328" s="190"/>
       <c r="AK328" s="190"/>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A329" s="153" t="s">
         <v>567</v>
       </c>
@@ -29164,7 +29209,7 @@
       <c r="AJ329" s="189"/>
       <c r="AK329" s="189"/>
     </row>
-    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="153" t="s">
         <v>567</v>
       </c>
@@ -29209,7 +29254,7 @@
       <c r="AJ330" s="190"/>
       <c r="AK330" s="190"/>
     </row>
-    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="153" t="s">
         <v>567</v>
       </c>
@@ -29254,7 +29299,7 @@
       <c r="AJ331" s="190"/>
       <c r="AK331" s="190"/>
     </row>
-    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="153" t="s">
         <v>567</v>
       </c>
@@ -29340,7 +29385,7 @@
       <c r="AJ332" s="190"/>
       <c r="AK332" s="190"/>
     </row>
-    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="153" t="s">
         <v>567</v>
       </c>
@@ -29385,7 +29430,7 @@
       <c r="AJ333" s="190"/>
       <c r="AK333" s="190"/>
     </row>
-    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="153" t="s">
         <v>567</v>
       </c>
@@ -29430,7 +29475,7 @@
       <c r="AJ334" s="190"/>
       <c r="AK334" s="190"/>
     </row>
-    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="153" t="s">
         <v>567</v>
       </c>
@@ -29516,7 +29561,7 @@
       <c r="AJ335" s="190"/>
       <c r="AK335" s="190"/>
     </row>
-    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="153" t="s">
         <v>567</v>
       </c>
@@ -29602,7 +29647,7 @@
       <c r="AJ336" s="190"/>
       <c r="AK336" s="190"/>
     </row>
-    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="153" t="s">
         <v>567</v>
       </c>
@@ -29647,7 +29692,7 @@
       <c r="AJ337" s="190"/>
       <c r="AK337" s="190"/>
     </row>
-    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="153" t="s">
         <v>567</v>
       </c>
@@ -29733,7 +29778,7 @@
       <c r="AJ338" s="190"/>
       <c r="AK338" s="190"/>
     </row>
-    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="153" t="s">
         <v>567</v>
       </c>
@@ -29819,7 +29864,7 @@
       <c r="AJ339" s="190"/>
       <c r="AK339" s="190"/>
     </row>
-    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="153" t="s">
         <v>567</v>
       </c>
@@ -29864,7 +29909,7 @@
       <c r="AJ340" s="190"/>
       <c r="AK340" s="190"/>
     </row>
-    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="153" t="s">
         <v>567</v>
       </c>
@@ -29950,7 +29995,7 @@
       <c r="AJ341" s="190"/>
       <c r="AK341" s="190"/>
     </row>
-    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="153" t="s">
         <v>567</v>
       </c>
@@ -30036,7 +30081,7 @@
       <c r="AJ342" s="190"/>
       <c r="AK342" s="190"/>
     </row>
-    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="153" t="s">
         <v>567</v>
       </c>
@@ -30122,7 +30167,7 @@
       <c r="AJ343" s="190"/>
       <c r="AK343" s="190"/>
     </row>
-    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="153" t="s">
         <v>567</v>
       </c>
@@ -30167,7 +30212,7 @@
       <c r="AJ344" s="190"/>
       <c r="AK344" s="190"/>
     </row>
-    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="153" t="s">
         <v>567</v>
       </c>
@@ -30253,7 +30298,7 @@
       <c r="AJ345" s="190"/>
       <c r="AK345" s="190"/>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A346" s="153" t="s">
         <v>567</v>
       </c>
@@ -30338,7 +30383,7 @@
       <c r="AJ346" s="189"/>
       <c r="AK346" s="189"/>
     </row>
-    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="153" t="s">
         <v>567</v>
       </c>
@@ -30424,7 +30469,7 @@
       <c r="AJ347" s="190"/>
       <c r="AK347" s="190"/>
     </row>
-    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="153" t="s">
         <v>567</v>
       </c>
@@ -30469,7 +30514,7 @@
       <c r="AJ348" s="190"/>
       <c r="AK348" s="190"/>
     </row>
-    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="153" t="s">
         <v>567</v>
       </c>
@@ -30514,7 +30559,7 @@
       <c r="AJ349" s="190"/>
       <c r="AK349" s="190"/>
     </row>
-    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="153" t="s">
         <v>567</v>
       </c>
@@ -30600,7 +30645,7 @@
       <c r="AJ350" s="190"/>
       <c r="AK350" s="190"/>
     </row>
-    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="153" t="s">
         <v>567</v>
       </c>
@@ -30645,7 +30690,7 @@
       <c r="AJ351" s="190"/>
       <c r="AK351" s="190"/>
     </row>
-    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:37" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="153" t="s">
         <v>567</v>
       </c>
@@ -30731,7 +30776,7 @@
       <c r="AJ352" s="190"/>
       <c r="AK352" s="190"/>
     </row>
-    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:38" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="153" t="s">
         <v>567</v>
       </c>
@@ -30817,7 +30862,7 @@
       <c r="AJ353" s="190"/>
       <c r="AK353" s="190"/>
     </row>
-    <row r="354" spans="1:38" ht="21" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A354" s="120" t="s">
         <v>572</v>
       </c>
@@ -30862,7 +30907,7 @@
         <v>339190.11</v>
       </c>
     </row>
-    <row r="355" spans="1:38" ht="21" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A355" s="120" t="s">
         <v>572</v>
       </c>
@@ -30875,7 +30920,7 @@
         <v>-341005.52</v>
       </c>
     </row>
-    <row r="356" spans="1:38" ht="21" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A356" s="120" t="s">
         <v>572</v>
       </c>
@@ -30891,12 +30936,6 @@
   </sheetData>
   <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}"/>
   <mergeCells count="17">
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="B324:C324"/>
     <mergeCell ref="Q2:S3"/>
     <mergeCell ref="H3:J3"/>
@@ -30908,6 +30947,12 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D325:F326">
@@ -30965,7 +31010,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="19" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="18" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -30984,4 +31029,487 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF52CC3E-1B7B-4D25-BAB0-7B98F2ABEA53}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="69.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="255"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="113">
+        <v>7.1</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="256" t="s">
+        <v>591</v>
+      </c>
+      <c r="F3" s="257" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3" s="258" t="s">
+        <v>591</v>
+      </c>
+      <c r="H3" s="259" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="113" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="203">
+        <v>12</v>
+      </c>
+      <c r="F4" s="67">
+        <v>5250</v>
+      </c>
+      <c r="G4" s="260"/>
+      <c r="H4" s="261"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="203">
+        <v>48</v>
+      </c>
+      <c r="F5" s="67">
+        <v>3800</v>
+      </c>
+      <c r="G5" s="260"/>
+      <c r="H5" s="261"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="113" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="203">
+        <v>49</v>
+      </c>
+      <c r="F6" s="67">
+        <v>700</v>
+      </c>
+      <c r="G6" s="260"/>
+      <c r="H6" s="261"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="113" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="203">
+        <v>83</v>
+      </c>
+      <c r="F7" s="67">
+        <v>60</v>
+      </c>
+      <c r="G7" s="260"/>
+      <c r="H7" s="261"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="113" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="203">
+        <v>7</v>
+      </c>
+      <c r="F8" s="67">
+        <v>600</v>
+      </c>
+      <c r="G8" s="260"/>
+      <c r="H8" s="261"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="113" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="203">
+        <v>239</v>
+      </c>
+      <c r="F9" s="67">
+        <v>300</v>
+      </c>
+      <c r="G9" s="260"/>
+      <c r="H9" s="261"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="113" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="203">
+        <v>47</v>
+      </c>
+      <c r="F10" s="67">
+        <v>3350</v>
+      </c>
+      <c r="G10" s="260"/>
+      <c r="H10" s="261"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="113" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="203">
+        <v>192</v>
+      </c>
+      <c r="F11" s="67">
+        <v>2280</v>
+      </c>
+      <c r="G11" s="260"/>
+      <c r="H11" s="261"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="113" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="203">
+        <v>9</v>
+      </c>
+      <c r="F12" s="67">
+        <v>400</v>
+      </c>
+      <c r="G12" s="260"/>
+      <c r="H12" s="261"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="113" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="203">
+        <v>9</v>
+      </c>
+      <c r="F13" s="67">
+        <v>500</v>
+      </c>
+      <c r="G13" s="260"/>
+      <c r="H13" s="261"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="113">
+        <v>7.2</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="261"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="113" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="203">
+        <v>14</v>
+      </c>
+      <c r="F15" s="67">
+        <v>500</v>
+      </c>
+      <c r="G15" s="260">
+        <v>14</v>
+      </c>
+      <c r="H15" s="261">
+        <f>F15*G15</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="113" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="203">
+        <v>35</v>
+      </c>
+      <c r="F16" s="67">
+        <v>850</v>
+      </c>
+      <c r="G16" s="260">
+        <v>6</v>
+      </c>
+      <c r="H16" s="261">
+        <f t="shared" ref="H16:H24" si="0">F16*G16</f>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="113" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="203">
+        <v>14</v>
+      </c>
+      <c r="F17" s="67">
+        <v>500</v>
+      </c>
+      <c r="G17" s="260">
+        <v>14</v>
+      </c>
+      <c r="H17" s="261">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="113" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="203">
+        <v>14</v>
+      </c>
+      <c r="F18" s="67">
+        <v>5845</v>
+      </c>
+      <c r="G18" s="260">
+        <v>14</v>
+      </c>
+      <c r="H18" s="261">
+        <f t="shared" si="0"/>
+        <v>81830</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="113" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="203">
+        <v>246</v>
+      </c>
+      <c r="F19" s="67">
+        <v>400</v>
+      </c>
+      <c r="G19" s="260"/>
+      <c r="H19" s="261">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="113" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="203">
+        <v>19</v>
+      </c>
+      <c r="F20" s="67">
+        <v>1850</v>
+      </c>
+      <c r="G20" s="260"/>
+      <c r="H20" s="261">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="113" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="203">
+        <v>246</v>
+      </c>
+      <c r="F21" s="67">
+        <v>120</v>
+      </c>
+      <c r="G21" s="260"/>
+      <c r="H21" s="261">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="113" t="s">
+        <v>397</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="203">
+        <v>19</v>
+      </c>
+      <c r="F22" s="67">
+        <v>450</v>
+      </c>
+      <c r="G22" s="260"/>
+      <c r="H22" s="261">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" s="117" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="211">
+        <v>4</v>
+      </c>
+      <c r="F23" s="119">
+        <v>3000</v>
+      </c>
+      <c r="G23" s="260"/>
+      <c r="H23" s="261">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="113" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="203">
+        <v>80</v>
+      </c>
+      <c r="F24" s="67">
+        <v>100</v>
+      </c>
+      <c r="G24" s="260"/>
+      <c r="H24" s="261">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="262">
+        <f>SUM(H4:H24)</f>
+        <v>100930</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
+++ b/TIC MUNICIPALIDAD PALACIO/PARTIDAS PRESUPUESTO 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\TIC MUNICIPALIDAD PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847D0A8-89D9-493F-B054-86AA47B76DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E38B1C-9339-406C-83DF-D36C6854A9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="339" activeTab="1" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="339" xr2:uid="{0859E5E4-26D7-41A9-B98D-A4223A5A41B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="593">
   <si>
     <t>ITEM</t>
   </si>
@@ -1830,9 +1830,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>TT</t>
   </si>
   <si>
     <t>unidad</t>
@@ -3005,6 +3002,52 @@
     <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3038,52 +3081,6 @@
     <xf numFmtId="4" fontId="13" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" xr:uid="{71FE554C-0749-4D45-8F91-598A053081A4}"/>
@@ -3457,8 +3454,8 @@
   </sheetPr>
   <dimension ref="A1:AL356"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A205" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210:F231"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3529,22 +3526,22 @@
       <c r="AK1" s="84"/>
     </row>
     <row r="2" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="251" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="252" t="s">
+      <c r="B2" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="248" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="253" t="s">
+      <c r="E2" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="254" t="s">
+      <c r="F2" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="254" t="s">
+      <c r="G2" s="251" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="7"/>
@@ -3558,93 +3555,93 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="246" t="s">
+      <c r="Q2" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="243"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="234" t="s">
+      <c r="V2" s="252" t="s">
         <v>569</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="242" t="s">
+      <c r="W2" s="252"/>
+      <c r="X2" s="253"/>
+      <c r="Y2" s="260" t="s">
         <v>561</v>
       </c>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="242"/>
-      <c r="AB2" s="240" t="s">
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="260"/>
+      <c r="AB2" s="258" t="s">
         <v>555</v>
       </c>
-      <c r="AC2" s="241"/>
-      <c r="AD2" s="241"/>
-      <c r="AE2" s="243" t="s">
+      <c r="AC2" s="259"/>
+      <c r="AD2" s="259"/>
+      <c r="AE2" s="261" t="s">
         <v>570</v>
       </c>
-      <c r="AF2" s="236" t="s">
+      <c r="AF2" s="254" t="s">
         <v>563</v>
       </c>
-      <c r="AG2" s="236"/>
-      <c r="AH2" s="237"/>
-      <c r="AI2" s="238" t="s">
+      <c r="AG2" s="254"/>
+      <c r="AH2" s="255"/>
+      <c r="AI2" s="256" t="s">
         <v>566</v>
       </c>
-      <c r="AJ2" s="238"/>
-      <c r="AK2" s="239"/>
+      <c r="AJ2" s="256"/>
+      <c r="AK2" s="257"/>
     </row>
     <row r="3" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="247" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="248"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="250" t="s">
+      <c r="I3" s="245"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250" t="s">
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="250"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="246"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="246"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="243"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="243"/>
       <c r="T3" s="2"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="235"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="241"/>
-      <c r="AD3" s="241"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="236"/>
-      <c r="AH3" s="237"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="239"/>
+      <c r="V3" s="252"/>
+      <c r="W3" s="252"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="260"/>
+      <c r="AA3" s="260"/>
+      <c r="AB3" s="258"/>
+      <c r="AC3" s="259"/>
+      <c r="AD3" s="259"/>
+      <c r="AE3" s="262"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="254"/>
+      <c r="AH3" s="255"/>
+      <c r="AI3" s="256"/>
+      <c r="AJ3" s="256"/>
+      <c r="AK3" s="257"/>
     </row>
     <row r="4" spans="1:37" s="52" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
       <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
@@ -27196,7 +27193,7 @@
     </row>
     <row r="304" spans="1:37" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="54" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B304" s="144" t="s">
         <v>514</v>
@@ -28872,10 +28869,10 @@
       <c r="A324" s="153" t="s">
         <v>567</v>
       </c>
-      <c r="B324" s="245" t="s">
+      <c r="B324" s="242" t="s">
         <v>560</v>
       </c>
-      <c r="C324" s="245"/>
+      <c r="C324" s="242"/>
       <c r="D324" s="131"/>
       <c r="E324" s="216"/>
       <c r="F324" s="170"/>
@@ -30936,6 +30933,12 @@
   </sheetData>
   <autoFilter ref="A5:AL356" xr:uid="{9E4CE30C-FDA8-46D0-A462-CA10E19C3D2E}"/>
   <mergeCells count="17">
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="B324:C324"/>
     <mergeCell ref="Q2:S3"/>
     <mergeCell ref="H3:J3"/>
@@ -30947,12 +30950,6 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D325:F326">
@@ -31038,14 +31035,14 @@
   </sheetPr>
   <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="69.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="255"/>
+    <col min="8" max="8" width="11.5546875" style="234"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -31056,19 +31053,19 @@
         <v>361</v>
       </c>
       <c r="D3" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" s="235" t="s">
         <v>590</v>
       </c>
-      <c r="E3" s="256" t="s">
+      <c r="F3" s="236" t="s">
         <v>591</v>
       </c>
-      <c r="F3" s="257" t="s">
+      <c r="G3" s="237" t="s">
+        <v>590</v>
+      </c>
+      <c r="H3" s="238" t="s">
         <v>592</v>
-      </c>
-      <c r="G3" s="258" t="s">
-        <v>591</v>
-      </c>
-      <c r="H3" s="259" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -31087,8 +31084,8 @@
       <c r="F4" s="67">
         <v>5250</v>
       </c>
-      <c r="G4" s="260"/>
-      <c r="H4" s="261"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="240"/>
     </row>
     <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="113" t="s">
@@ -31106,8 +31103,8 @@
       <c r="F5" s="67">
         <v>3800</v>
       </c>
-      <c r="G5" s="260"/>
-      <c r="H5" s="261"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="240"/>
     </row>
     <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="113" t="s">
@@ -31125,8 +31122,8 @@
       <c r="F6" s="67">
         <v>700</v>
       </c>
-      <c r="G6" s="260"/>
-      <c r="H6" s="261"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="113" t="s">
@@ -31144,8 +31141,8 @@
       <c r="F7" s="67">
         <v>60</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="113" t="s">
@@ -31163,8 +31160,8 @@
       <c r="F8" s="67">
         <v>600</v>
       </c>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="113" t="s">
@@ -31182,8 +31179,8 @@
       <c r="F9" s="67">
         <v>300</v>
       </c>
-      <c r="G9" s="260"/>
-      <c r="H9" s="261"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="240"/>
     </row>
     <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="113" t="s">
@@ -31201,8 +31198,8 @@
       <c r="F10" s="67">
         <v>3350</v>
       </c>
-      <c r="G10" s="260"/>
-      <c r="H10" s="261"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="240"/>
     </row>
     <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="113" t="s">
@@ -31220,8 +31217,8 @@
       <c r="F11" s="67">
         <v>2280</v>
       </c>
-      <c r="G11" s="260"/>
-      <c r="H11" s="261"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="240"/>
     </row>
     <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="113" t="s">
@@ -31239,8 +31236,8 @@
       <c r="F12" s="67">
         <v>400</v>
       </c>
-      <c r="G12" s="260"/>
-      <c r="H12" s="261"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="240"/>
     </row>
     <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="113" t="s">
@@ -31258,8 +31255,8 @@
       <c r="F13" s="67">
         <v>500</v>
       </c>
-      <c r="G13" s="260"/>
-      <c r="H13" s="261"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="240"/>
     </row>
     <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="113">
@@ -31271,8 +31268,8 @@
       <c r="D14" s="65"/>
       <c r="E14" s="203"/>
       <c r="F14" s="70"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="261"/>
+      <c r="G14" s="239"/>
+      <c r="H14" s="240"/>
     </row>
     <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="113" t="s">
@@ -31290,10 +31287,10 @@
       <c r="F15" s="67">
         <v>500</v>
       </c>
-      <c r="G15" s="260">
+      <c r="G15" s="239">
         <v>14</v>
       </c>
-      <c r="H15" s="261">
+      <c r="H15" s="240">
         <f>F15*G15</f>
         <v>7000</v>
       </c>
@@ -31314,10 +31311,10 @@
       <c r="F16" s="67">
         <v>850</v>
       </c>
-      <c r="G16" s="260">
+      <c r="G16" s="239">
         <v>6</v>
       </c>
-      <c r="H16" s="261">
+      <c r="H16" s="240">
         <f t="shared" ref="H16:H24" si="0">F16*G16</f>
         <v>5100</v>
       </c>
@@ -31338,10 +31335,10 @@
       <c r="F17" s="67">
         <v>500</v>
       </c>
-      <c r="G17" s="260">
+      <c r="G17" s="239">
         <v>14</v>
       </c>
-      <c r="H17" s="261">
+      <c r="H17" s="240">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
@@ -31362,10 +31359,10 @@
       <c r="F18" s="67">
         <v>5845</v>
       </c>
-      <c r="G18" s="260">
+      <c r="G18" s="239">
         <v>14</v>
       </c>
-      <c r="H18" s="261">
+      <c r="H18" s="240">
         <f t="shared" si="0"/>
         <v>81830</v>
       </c>
@@ -31386,8 +31383,8 @@
       <c r="F19" s="67">
         <v>400</v>
       </c>
-      <c r="G19" s="260"/>
-      <c r="H19" s="261">
+      <c r="G19" s="239"/>
+      <c r="H19" s="240">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31408,8 +31405,8 @@
       <c r="F20" s="67">
         <v>1850</v>
       </c>
-      <c r="G20" s="260"/>
-      <c r="H20" s="261">
+      <c r="G20" s="239"/>
+      <c r="H20" s="240">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31430,8 +31427,8 @@
       <c r="F21" s="67">
         <v>120</v>
       </c>
-      <c r="G21" s="260"/>
-      <c r="H21" s="261">
+      <c r="G21" s="239"/>
+      <c r="H21" s="240">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31452,8 +31449,8 @@
       <c r="F22" s="67">
         <v>450</v>
       </c>
-      <c r="G22" s="260"/>
-      <c r="H22" s="261">
+      <c r="G22" s="239"/>
+      <c r="H22" s="240">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31474,8 +31471,8 @@
       <c r="F23" s="119">
         <v>3000</v>
       </c>
-      <c r="G23" s="260"/>
-      <c r="H23" s="261">
+      <c r="G23" s="239"/>
+      <c r="H23" s="240">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31496,14 +31493,14 @@
       <c r="F24" s="67">
         <v>100</v>
       </c>
-      <c r="G24" s="260"/>
-      <c r="H24" s="261">
+      <c r="G24" s="239"/>
+      <c r="H24" s="240">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H25" s="262">
+      <c r="H25" s="241">
         <f>SUM(H4:H24)</f>
         <v>100930</v>
       </c>
